--- a/Data/ExLingo.xlsx
+++ b/Data/ExLingo.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MREPETTO00\Google Drive\1_Progetti\Università\Magistrale\Tesi\Dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MREPETTO00\Documents\GitHub\ThMEF\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="9345" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="9345" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Final (2)" sheetId="7" r:id="rId1"/>
     <sheet name="Target" sheetId="3" r:id="rId2"/>
-    <sheet name="Lingo" sheetId="9" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId3"/>
+    <sheet name="Lingo" sheetId="9" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Final (2)'!$A$1:$K$403</definedName>
@@ -16670,7 +16671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -16757,6 +16758,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Data/ExLingo.xlsx
+++ b/Data/ExLingo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="9345" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="9345" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Final (2)" sheetId="7" r:id="rId1"/>
@@ -19,13 +19,13 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Final (2)'!$A$1:$K$403</definedName>
-    <definedName name="ct">Lingo!$D$1:$D$4</definedName>
+    <definedName name="ct">Lingo!$D$1:$D$9</definedName>
     <definedName name="emp">Target!$B$3</definedName>
-    <definedName name="gni">Lingo!$E$1:$E$4</definedName>
-    <definedName name="pl">Lingo!$I$1:$I$4</definedName>
-    <definedName name="pli">Lingo!$G$1:$G$4</definedName>
-    <definedName name="pm">Lingo!$J$1:$J$4</definedName>
-    <definedName name="pu">Lingo!$K$1:$K$4</definedName>
+    <definedName name="gni">Lingo!$E$1:$E$9</definedName>
+    <definedName name="pl">Lingo!$I$1:$I$9</definedName>
+    <definedName name="pli">Lingo!$G$1:$G$9</definedName>
+    <definedName name="pm">Lingo!$J$1:$J$9</definedName>
+    <definedName name="pu">Lingo!$K$1:$K$9</definedName>
     <definedName name="rev">Target!$B$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="692">
   <si>
     <t>N</t>
   </si>
@@ -2532,8 +2532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K403"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A159" sqref="A159:XFD159"/>
+    <sheetView topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="A194" sqref="A194:XFD196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16760,7 +16760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
@@ -16770,10 +16770,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16815,19 +16815,19 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D2" s="12">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="E2" s="17">
-        <v>47260</v>
+        <v>4280</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>147</v>
@@ -16836,33 +16836,33 @@
         <v>2</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="I2" s="21">
-        <v>7.6776669196152352E-3</v>
+        <v>3.0046654905444739E-2</v>
       </c>
       <c r="J2" s="11">
-        <v>2.9815233273297551E-2</v>
+        <v>3.9398905394853467E-2</v>
       </c>
       <c r="K2" s="19">
-        <v>6.2950946325533164E-2</v>
+        <v>4.9039962524983639E-2</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
-        <v>138</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>55</v>
+        <v>6</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D3" s="12">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="E3" s="17">
-        <v>18320</v>
+        <v>4280</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>149</v>
@@ -16871,51 +16871,226 @@
         <v>3</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>430</v>
+        <v>301</v>
       </c>
       <c r="I3" s="21">
-        <v>0.13558370993750485</v>
+        <v>3.1775252121018109E-2</v>
       </c>
       <c r="J3" s="11">
-        <v>0.13966594784360642</v>
+        <v>7.772686245920965E-2</v>
       </c>
       <c r="K3" s="19">
-        <v>0.14374818574970799</v>
+        <v>0.17564667785103982</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
-        <v>155</v>
+        <v>27</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="E4" s="17">
+        <v>60050</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G4" s="20">
+        <v>3</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="I4" s="21">
+        <v>4.8407014117393857E-2</v>
+      </c>
+      <c r="J4" s="11">
+        <v>0.1278324518399418</v>
+      </c>
+      <c r="K4" s="19">
+        <v>0.23334164580493164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>28</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="E5" s="17">
+        <v>47260</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G5" s="20">
+        <v>2</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="I5" s="21">
+        <v>7.6776669196152352E-3</v>
+      </c>
+      <c r="J5" s="11">
+        <v>2.9815233273297551E-2</v>
+      </c>
+      <c r="K5" s="19">
+        <v>6.2950946325533164E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>29</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="E6" s="17">
+        <v>47260</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G6" s="20">
+        <v>1</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="I6" s="21">
+        <v>8.1714734218456569E-2</v>
+      </c>
+      <c r="J6" s="11">
+        <v>0.11700606768122054</v>
+      </c>
+      <c r="K6" s="19">
+        <v>0.15229740114398455</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
         <v>193</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="14">
-        <v>0.29649999999999999</v>
-      </c>
-      <c r="E4" s="17">
-        <v>45790</v>
-      </c>
-      <c r="F4" s="9" t="s">
+      <c r="B7" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="14">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="E7" s="17">
+        <v>32830</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G7" s="20">
+        <v>2</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>488</v>
+      </c>
+      <c r="I7" s="21">
+        <v>9.5958740467727392E-3</v>
+      </c>
+      <c r="J7" s="11">
+        <v>2.000235955350866E-2</v>
+      </c>
+      <c r="K7" s="19">
+        <v>4.0666996611319353E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>194</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="14">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="E8" s="17">
+        <v>32830</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G8" s="20">
         <v>1</v>
       </c>
-      <c r="H4" s="23" t="s">
-        <v>408</v>
-      </c>
-      <c r="I4" s="21">
-        <v>6.4999123976238193E-2</v>
-      </c>
-      <c r="J4" s="11">
-        <v>8.3671628180126287E-2</v>
-      </c>
-      <c r="K4" s="19">
-        <v>0.12792944909661313</v>
+      <c r="H8" s="23" t="s">
+        <v>489</v>
+      </c>
+      <c r="I8" s="21">
+        <v>3.972062576059085E-2</v>
+      </c>
+      <c r="J8" s="11">
+        <v>6.1999169361979495E-2</v>
+      </c>
+      <c r="K8" s="19">
+        <v>0.10827656744114039</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>195</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="14">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="E9" s="17">
+        <v>32830</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" s="20">
+        <v>3</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>490</v>
+      </c>
+      <c r="I9" s="21">
+        <v>2.191384689688711E-2</v>
+      </c>
+      <c r="J9" s="11">
+        <v>4.8206183032513075E-2</v>
+      </c>
+      <c r="K9" s="19">
+        <v>9.9721619084336896E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Data/ExLingo.xlsx
+++ b/Data/ExLingo.xlsx
@@ -19,13 +19,13 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Final (2)'!$A$1:$K$403</definedName>
-    <definedName name="ct">Lingo!$D$1:$D$9</definedName>
+    <definedName name="ct">Lingo!$D$1:$D$6</definedName>
     <definedName name="emp">Target!$B$3</definedName>
-    <definedName name="gni">Lingo!$E$1:$E$9</definedName>
-    <definedName name="pl">Lingo!$I$1:$I$9</definedName>
-    <definedName name="pli">Lingo!$G$1:$G$9</definedName>
-    <definedName name="pm">Lingo!$J$1:$J$9</definedName>
-    <definedName name="pu">Lingo!$K$1:$K$9</definedName>
+    <definedName name="gni">Lingo!$E$1:$E$6</definedName>
+    <definedName name="pl">Lingo!$I$1:$I$6</definedName>
+    <definedName name="pli">Lingo!$G$1:$G$6</definedName>
+    <definedName name="pm">Lingo!$J$1:$J$6</definedName>
+    <definedName name="pu">Lingo!$K$1:$K$6</definedName>
     <definedName name="rev">Target!$B$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="692">
   <si>
     <t>N</t>
   </si>
@@ -16770,10 +16770,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A6" sqref="A4:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16885,211 +16885,106 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
-        <v>27</v>
+        <v>193</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="12">
-        <v>0.3</v>
+        <v>74</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0.27900000000000003</v>
       </c>
       <c r="E4" s="17">
-        <v>60050</v>
+        <v>32830</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G4" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>316</v>
+        <v>488</v>
       </c>
       <c r="I4" s="21">
-        <v>4.8407014117393857E-2</v>
+        <v>9.5958740467727392E-3</v>
       </c>
       <c r="J4" s="11">
-        <v>0.1278324518399418</v>
+        <v>2.000235955350866E-2</v>
       </c>
       <c r="K4" s="19">
-        <v>0.23334164580493164</v>
+        <v>4.0666996611319353E-2</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
-        <v>28</v>
+        <v>194</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="12">
-        <v>0.25</v>
+        <v>74</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0.27900000000000003</v>
       </c>
       <c r="E5" s="17">
-        <v>47260</v>
+        <v>32830</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G5" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>317</v>
+        <v>489</v>
       </c>
       <c r="I5" s="21">
-        <v>7.6776669196152352E-3</v>
+        <v>3.972062576059085E-2</v>
       </c>
       <c r="J5" s="11">
-        <v>2.9815233273297551E-2</v>
+        <v>6.1999169361979495E-2</v>
       </c>
       <c r="K5" s="19">
-        <v>6.2950946325533164E-2</v>
+        <v>0.10827656744114039</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
-        <v>29</v>
+        <v>195</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="12">
-        <v>0.25</v>
+        <v>74</v>
+      </c>
+      <c r="D6" s="14">
+        <v>0.27900000000000003</v>
       </c>
       <c r="E6" s="17">
-        <v>47260</v>
+        <v>32830</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G6" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>318</v>
+        <v>490</v>
       </c>
       <c r="I6" s="21">
-        <v>8.1714734218456569E-2</v>
+        <v>2.191384689688711E-2</v>
       </c>
       <c r="J6" s="11">
-        <v>0.11700606768122054</v>
+        <v>4.8206183032513075E-2</v>
       </c>
       <c r="K6" s="19">
-        <v>0.15229740114398455</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
-        <v>193</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="14">
-        <v>0.27900000000000003</v>
-      </c>
-      <c r="E7" s="17">
-        <v>32830</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G7" s="20">
-        <v>2</v>
-      </c>
-      <c r="H7" s="23" t="s">
-        <v>488</v>
-      </c>
-      <c r="I7" s="21">
-        <v>9.5958740467727392E-3</v>
-      </c>
-      <c r="J7" s="11">
-        <v>2.000235955350866E-2</v>
-      </c>
-      <c r="K7" s="19">
-        <v>4.0666996611319353E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
-        <v>194</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="14">
-        <v>0.27900000000000003</v>
-      </c>
-      <c r="E8" s="17">
-        <v>32830</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G8" s="20">
-        <v>1</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>489</v>
-      </c>
-      <c r="I8" s="21">
-        <v>3.972062576059085E-2</v>
-      </c>
-      <c r="J8" s="11">
-        <v>6.1999169361979495E-2</v>
-      </c>
-      <c r="K8" s="19">
-        <v>0.10827656744114039</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
-        <v>195</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="14">
-        <v>0.27900000000000003</v>
-      </c>
-      <c r="E9" s="17">
-        <v>32830</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G9" s="20">
-        <v>3</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>490</v>
-      </c>
-      <c r="I9" s="21">
-        <v>2.191384689688711E-2</v>
-      </c>
-      <c r="J9" s="11">
-        <v>4.8206183032513075E-2</v>
-      </c>
-      <c r="K9" s="19">
         <v>9.9721619084336896E-2</v>
       </c>
     </row>

--- a/Data/ExLingo.xlsx
+++ b/Data/ExLingo.xlsx
@@ -19,13 +19,13 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Final (2)'!$A$1:$K$403</definedName>
-    <definedName name="ct">Lingo!$D$1:$D$6</definedName>
+    <definedName name="ct">Lingo!$D$1:$D$144</definedName>
     <definedName name="emp">Target!$B$3</definedName>
-    <definedName name="gni">Lingo!$E$1:$E$6</definedName>
-    <definedName name="pl">Lingo!$I$1:$I$6</definedName>
-    <definedName name="pli">Lingo!$G$1:$G$6</definedName>
-    <definedName name="pm">Lingo!$J$1:$J$6</definedName>
-    <definedName name="pu">Lingo!$K$1:$K$6</definedName>
+    <definedName name="gni">Lingo!$E$1:$E$144</definedName>
+    <definedName name="pl">Lingo!$I$1:$I$144</definedName>
+    <definedName name="pli">Lingo!$G$1:$G$144</definedName>
+    <definedName name="pm">Lingo!$J$1:$J$144</definedName>
+    <definedName name="pu">Lingo!$K$1:$K$144</definedName>
     <definedName name="rev">Target!$B$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2203" uniqueCount="692">
   <si>
     <t>N</t>
   </si>
@@ -2532,8 +2532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K403"/>
   <sheetViews>
-    <sheetView topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="A194" sqref="A194:XFD196"/>
+    <sheetView topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="K265" sqref="A158:K265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16770,10 +16770,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A4:XFD6"/>
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16885,19 +16885,19 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
-        <v>193</v>
+        <v>127</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="14">
-        <v>0.27900000000000003</v>
+        <v>52</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0.24</v>
       </c>
       <c r="E4" s="17">
-        <v>32830</v>
+        <v>6030</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>147</v>
@@ -16906,33 +16906,33 @@
         <v>2</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>488</v>
+        <v>419</v>
       </c>
       <c r="I4" s="21">
-        <v>9.5958740467727392E-3</v>
+        <v>4.2046879552937858E-2</v>
       </c>
       <c r="J4" s="11">
-        <v>2.000235955350866E-2</v>
+        <v>4.7790737997505918E-2</v>
       </c>
       <c r="K4" s="19">
-        <v>4.0666996611319353E-2</v>
+        <v>7.1960830929335265E-2</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
-        <v>194</v>
+        <v>128</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="14">
-        <v>0.27900000000000003</v>
+        <v>52</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0.24</v>
       </c>
       <c r="E5" s="17">
-        <v>32830</v>
+        <v>6030</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>148</v>
@@ -16941,33 +16941,33 @@
         <v>1</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>489</v>
+        <v>420</v>
       </c>
       <c r="I5" s="21">
-        <v>3.972062576059085E-2</v>
+        <v>6.1681598897312201E-2</v>
       </c>
       <c r="J5" s="11">
-        <v>6.1999169361979495E-2</v>
+        <v>6.1681598897312201E-2</v>
       </c>
       <c r="K5" s="19">
-        <v>0.10827656744114039</v>
+        <v>6.1681598897312201E-2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
-        <v>195</v>
+        <v>129</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="14">
-        <v>0.27900000000000003</v>
+        <v>52</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0.24</v>
       </c>
       <c r="E6" s="17">
-        <v>32830</v>
+        <v>6030</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>149</v>
@@ -16976,15 +16976,4845 @@
         <v>3</v>
       </c>
       <c r="H6" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="I6" s="21">
+        <v>3.1775252121018109E-2</v>
+      </c>
+      <c r="J6" s="11">
+        <v>7.772686245920965E-2</v>
+      </c>
+      <c r="K6" s="19">
+        <v>0.17564667785103982</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>130</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="E7" s="17">
+        <v>3340</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G7" s="20">
+        <v>2</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="I7" s="21">
+        <v>3.9920460486936205E-2</v>
+      </c>
+      <c r="J7" s="11">
+        <v>0.1925173642592154</v>
+      </c>
+      <c r="K7" s="19">
+        <v>0.49952931414249524</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>131</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="E8" s="17">
+        <v>3340</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G8" s="20">
+        <v>1</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>423</v>
+      </c>
+      <c r="I8" s="21">
+        <v>0.15623997433429579</v>
+      </c>
+      <c r="J8" s="11">
+        <v>0.15623997433429579</v>
+      </c>
+      <c r="K8" s="19">
+        <v>0.15623997433429579</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>132</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="E9" s="17">
+        <v>3340</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" s="20">
+        <v>3</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="I9" s="21">
+        <v>0.23386460823247471</v>
+      </c>
+      <c r="J9" s="11">
+        <v>0.4403631959404341</v>
+      </c>
+      <c r="K9" s="19">
+        <v>0.64686178364839353</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>133</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="E10" s="17">
+        <v>3940</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G10" s="20">
+        <v>2</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>629</v>
+      </c>
+      <c r="I10" s="21">
+        <v>7.6776669196152352E-3</v>
+      </c>
+      <c r="J10" s="11">
+        <v>2.9815233273297551E-2</v>
+      </c>
+      <c r="K10" s="19">
+        <v>6.2950946325533164E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>134</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="E11" s="17">
+        <v>3940</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G11" s="20">
+        <v>1</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>630</v>
+      </c>
+      <c r="I11" s="21">
+        <v>3.7106903422739E-2</v>
+      </c>
+      <c r="J11" s="11">
+        <v>7.6127636686032188E-2</v>
+      </c>
+      <c r="K11" s="19">
+        <v>0.14586756141118298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>135</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="E12" s="17">
+        <v>3940</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G12" s="20">
+        <v>3</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>631</v>
+      </c>
+      <c r="I12" s="21">
+        <v>3.1775252121018109E-2</v>
+      </c>
+      <c r="J12" s="11">
+        <v>7.772686245920965E-2</v>
+      </c>
+      <c r="K12" s="19">
+        <v>0.17564667785103982</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>136</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0</v>
+      </c>
+      <c r="E13" s="17">
+        <v>18320</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G13" s="20">
+        <v>2</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="I13" s="21">
+        <v>3.00352401622433E-2</v>
+      </c>
+      <c r="J13" s="11">
+        <v>3.8749933264286412E-2</v>
+      </c>
+      <c r="K13" s="19">
+        <v>5.2153145625800673E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>137</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0</v>
+      </c>
+      <c r="E14" s="17">
+        <v>18320</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G14" s="20">
+        <v>1</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>429</v>
+      </c>
+      <c r="I14" s="21">
+        <v>5.2013401602031863E-2</v>
+      </c>
+      <c r="J14" s="11">
+        <v>9.6639488055183576E-2</v>
+      </c>
+      <c r="K14" s="19">
+        <v>0.1412655745083353</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>138</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0</v>
+      </c>
+      <c r="E15" s="17">
+        <v>18320</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" s="20">
+        <v>3</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>430</v>
+      </c>
+      <c r="I15" s="21">
+        <v>0.13558370993750485</v>
+      </c>
+      <c r="J15" s="11">
+        <v>0.13966594784360642</v>
+      </c>
+      <c r="K15" s="19">
+        <v>0.14374818574970799</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>139</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="E16" s="17">
+        <v>46560</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" s="20">
+        <v>2</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>431</v>
+      </c>
+      <c r="I16" s="21">
+        <v>1.3053323728168212E-2</v>
+      </c>
+      <c r="J16" s="11">
+        <v>3.8615179535260599E-2</v>
+      </c>
+      <c r="K16" s="19">
+        <v>7.2563296590786711E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>140</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="E17" s="17">
+        <v>46560</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G17" s="20">
+        <v>1</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="I17" s="21">
+        <v>2.7006871078283409E-2</v>
+      </c>
+      <c r="J17" s="11">
+        <v>3.5702390116212165E-2</v>
+      </c>
+      <c r="K17" s="19">
+        <v>7.7167293004254456E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>141</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="E18" s="17">
+        <v>46560</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" s="20">
+        <v>3</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>433</v>
+      </c>
+      <c r="I18" s="21">
+        <v>4.031345682438018E-2</v>
+      </c>
+      <c r="J18" s="11">
+        <v>8.7956541840036984E-2</v>
+      </c>
+      <c r="K18" s="19">
+        <v>0.16854819678602634</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>142</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="14">
+        <v>0.33</v>
+      </c>
+      <c r="E19" s="17">
+        <v>40710</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G19" s="20">
+        <v>2</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>434</v>
+      </c>
+      <c r="I19" s="21">
+        <v>5.0971334634377701E-3</v>
+      </c>
+      <c r="J19" s="11">
+        <v>1.3283074716208843E-2</v>
+      </c>
+      <c r="K19" s="19">
+        <v>2.9687453061613304E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>143</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="14">
+        <v>0.33</v>
+      </c>
+      <c r="E20" s="17">
+        <v>40710</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G20" s="20">
+        <v>1</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="I20" s="21">
+        <v>3.6356493934084376E-2</v>
+      </c>
+      <c r="J20" s="11">
+        <v>5.1170006157927071E-2</v>
+      </c>
+      <c r="K20" s="19">
+        <v>0.14575787371297541</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>144</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="14">
+        <v>0.33</v>
+      </c>
+      <c r="E21" s="17">
+        <v>40710</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G21" s="20">
+        <v>3</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>436</v>
+      </c>
+      <c r="I21" s="21">
+        <v>2.0560927156150488E-2</v>
+      </c>
+      <c r="J21" s="11">
+        <v>5.2509447644274142E-2</v>
+      </c>
+      <c r="K21" s="19">
+        <v>9.8384522634575783E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>145</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="E22" s="17">
+        <v>9200</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G22" s="20">
+        <v>2</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>437</v>
+      </c>
+      <c r="I22" s="21">
+        <v>7.6776669196152352E-3</v>
+      </c>
+      <c r="J22" s="11">
+        <v>2.9815233273297551E-2</v>
+      </c>
+      <c r="K22" s="19">
+        <v>6.2950946325533164E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
+        <v>146</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="E23" s="17">
+        <v>9200</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G23" s="20">
+        <v>1</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="I23" s="21">
+        <v>3.7106903422739E-2</v>
+      </c>
+      <c r="J23" s="11">
+        <v>7.6127636686032188E-2</v>
+      </c>
+      <c r="K23" s="19">
+        <v>0.14586756141118298</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
+        <v>147</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="E24" s="17">
+        <v>9200</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G24" s="20">
+        <v>3</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="I24" s="21">
+        <v>3.1775252121018109E-2</v>
+      </c>
+      <c r="J24" s="11">
+        <v>7.772686245920965E-2</v>
+      </c>
+      <c r="K24" s="19">
+        <v>0.17564667785103982</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
+        <v>148</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="12">
+        <v>0.31</v>
+      </c>
+      <c r="E25" s="17">
+        <v>460</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G25" s="20">
+        <v>2</v>
+      </c>
+      <c r="H25" s="23" t="s">
+        <v>446</v>
+      </c>
+      <c r="I25" s="21">
+        <v>7.6776669196152352E-3</v>
+      </c>
+      <c r="J25" s="11">
+        <v>2.9815233273297551E-2</v>
+      </c>
+      <c r="K25" s="19">
+        <v>6.2950946325533164E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="6">
+        <v>149</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="12">
+        <v>0.31</v>
+      </c>
+      <c r="E26" s="17">
+        <v>460</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G26" s="20">
+        <v>1</v>
+      </c>
+      <c r="H26" s="23" t="s">
+        <v>447</v>
+      </c>
+      <c r="I26" s="21">
+        <v>3.7106903422739E-2</v>
+      </c>
+      <c r="J26" s="11">
+        <v>7.6127636686032188E-2</v>
+      </c>
+      <c r="K26" s="19">
+        <v>0.14586756141118298</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="6">
+        <v>150</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="12">
+        <v>0.31</v>
+      </c>
+      <c r="E27" s="17">
+        <v>460</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G27" s="20">
+        <v>3</v>
+      </c>
+      <c r="H27" s="23" t="s">
+        <v>448</v>
+      </c>
+      <c r="I27" s="21">
+        <v>3.1775252121018109E-2</v>
+      </c>
+      <c r="J27" s="11">
+        <v>7.772686245920965E-2</v>
+      </c>
+      <c r="K27" s="19">
+        <v>0.17564667785103982</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="6">
+        <v>151</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="E28" s="17">
+        <v>4120</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G28" s="20">
+        <v>2</v>
+      </c>
+      <c r="H28" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="I28" s="21">
+        <v>7.6776669196152352E-3</v>
+      </c>
+      <c r="J28" s="11">
+        <v>2.9815233273297551E-2</v>
+      </c>
+      <c r="K28" s="19">
+        <v>6.2950946325533164E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="6">
+        <v>152</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="E29" s="17">
+        <v>4120</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G29" s="20">
+        <v>1</v>
+      </c>
+      <c r="H29" s="23" t="s">
+        <v>444</v>
+      </c>
+      <c r="I29" s="21">
+        <v>3.7106903422739E-2</v>
+      </c>
+      <c r="J29" s="11">
+        <v>7.6127636686032188E-2</v>
+      </c>
+      <c r="K29" s="19">
+        <v>0.14586756141118298</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="6">
+        <v>153</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="E30" s="17">
+        <v>4120</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G30" s="20">
+        <v>3</v>
+      </c>
+      <c r="H30" s="23" t="s">
+        <v>445</v>
+      </c>
+      <c r="I30" s="21">
+        <v>3.1775252121018109E-2</v>
+      </c>
+      <c r="J30" s="11">
+        <v>7.772686245920965E-2</v>
+      </c>
+      <c r="K30" s="19">
+        <v>0.17564667785103982</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="6">
+        <v>154</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="14">
+        <v>0.29649999999999999</v>
+      </c>
+      <c r="E31" s="17">
+        <v>45790</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G31" s="20">
+        <v>2</v>
+      </c>
+      <c r="H31" s="23" t="s">
+        <v>407</v>
+      </c>
+      <c r="I31" s="21">
+        <v>1.0814862419007986E-2</v>
+      </c>
+      <c r="J31" s="11">
+        <v>2.1326458588648865E-2</v>
+      </c>
+      <c r="K31" s="19">
+        <v>4.7382013074403595E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="6">
+        <v>155</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="14">
+        <v>0.29649999999999999</v>
+      </c>
+      <c r="E32" s="17">
+        <v>45790</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G32" s="20">
+        <v>1</v>
+      </c>
+      <c r="H32" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="I32" s="21">
+        <v>6.4999123976238193E-2</v>
+      </c>
+      <c r="J32" s="11">
+        <v>8.3671628180126287E-2</v>
+      </c>
+      <c r="K32" s="19">
+        <v>0.12792944909661313</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="6">
+        <v>156</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="14">
+        <v>0.29649999999999999</v>
+      </c>
+      <c r="E33" s="17">
+        <v>45790</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G33" s="20">
+        <v>3</v>
+      </c>
+      <c r="H33" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="I33" s="21">
+        <v>3.0613042303682315E-2</v>
+      </c>
+      <c r="J33" s="11">
+        <v>5.2233242520439038E-2</v>
+      </c>
+      <c r="K33" s="19">
+        <v>0.10278884219992371</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="6">
+        <v>157</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E34" s="17">
+        <v>20270</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G34" s="20">
+        <v>2</v>
+      </c>
+      <c r="H34" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="I34" s="21">
+        <v>2.8133418218389633E-2</v>
+      </c>
+      <c r="J34" s="11">
+        <v>4.260014009712218E-2</v>
+      </c>
+      <c r="K34" s="19">
+        <v>6.5631129659066201E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="6">
+        <v>158</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E35" s="17">
+        <v>20270</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G35" s="20">
+        <v>1</v>
+      </c>
+      <c r="H35" s="23" t="s">
+        <v>450</v>
+      </c>
+      <c r="I35" s="21">
+        <v>2.8562833933124917E-2</v>
+      </c>
+      <c r="J35" s="11">
+        <v>3.3668321262918049E-2</v>
+      </c>
+      <c r="K35" s="19">
+        <v>5.9840006026847879E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="6">
+        <v>159</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E36" s="17">
+        <v>20270</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G36" s="20">
+        <v>3</v>
+      </c>
+      <c r="H36" s="23" t="s">
+        <v>451</v>
+      </c>
+      <c r="I36" s="21">
+        <v>4.5006143104442863E-2</v>
+      </c>
+      <c r="J36" s="11">
+        <v>9.7925836576667369E-2</v>
+      </c>
+      <c r="K36" s="19">
+        <v>0.20175355972940359</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="6">
+        <v>160</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="E37" s="17">
+        <v>3590</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G37" s="20">
+        <v>2</v>
+      </c>
+      <c r="H37" s="23" t="s">
+        <v>452</v>
+      </c>
+      <c r="I37" s="21">
+        <v>7.6776669196152352E-3</v>
+      </c>
+      <c r="J37" s="11">
+        <v>2.9815233273297551E-2</v>
+      </c>
+      <c r="K37" s="19">
+        <v>6.2950946325533164E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="6">
+        <v>161</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="E38" s="17">
+        <v>3590</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G38" s="20">
+        <v>1</v>
+      </c>
+      <c r="H38" s="23" t="s">
+        <v>453</v>
+      </c>
+      <c r="I38" s="21">
+        <v>3.7106903422739E-2</v>
+      </c>
+      <c r="J38" s="11">
+        <v>7.6127636686032188E-2</v>
+      </c>
+      <c r="K38" s="19">
+        <v>0.14586756141118298</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="6">
+        <v>162</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="E39" s="17">
+        <v>3590</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G39" s="20">
+        <v>3</v>
+      </c>
+      <c r="H39" s="23" t="s">
+        <v>454</v>
+      </c>
+      <c r="I39" s="21">
+        <v>3.1775252121018109E-2</v>
+      </c>
+      <c r="J39" s="11">
+        <v>7.772686245920965E-2</v>
+      </c>
+      <c r="K39" s="19">
+        <v>0.17564667785103982</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="6">
+        <v>163</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="E40" s="17">
+        <v>4090</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G40" s="20">
+        <v>2</v>
+      </c>
+      <c r="H40" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="I40" s="21">
+        <v>7.6776669196152352E-3</v>
+      </c>
+      <c r="J40" s="11">
+        <v>2.9815233273297551E-2</v>
+      </c>
+      <c r="K40" s="19">
+        <v>6.2950946325533164E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="6">
+        <v>164</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="E41" s="17">
+        <v>4090</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G41" s="20">
+        <v>1</v>
+      </c>
+      <c r="H41" s="23" t="s">
+        <v>456</v>
+      </c>
+      <c r="I41" s="21">
+        <v>3.7106903422739E-2</v>
+      </c>
+      <c r="J41" s="11">
+        <v>7.6127636686032188E-2</v>
+      </c>
+      <c r="K41" s="19">
+        <v>0.14586756141118298</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="6">
+        <v>165</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="E42" s="17">
+        <v>4090</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G42" s="20">
+        <v>3</v>
+      </c>
+      <c r="H42" s="23" t="s">
+        <v>457</v>
+      </c>
+      <c r="I42" s="21">
+        <v>3.1775252121018109E-2</v>
+      </c>
+      <c r="J42" s="11">
+        <v>7.772686245920965E-2</v>
+      </c>
+      <c r="K42" s="19">
+        <v>0.17564667785103982</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="6">
+        <v>166</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43" s="14">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="E43" s="17">
+        <v>41000</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G43" s="20">
+        <v>2</v>
+      </c>
+      <c r="H43" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="I43" s="21">
+        <v>5.7520459967725431E-2</v>
+      </c>
+      <c r="J43" s="11">
+        <v>7.6087438797947271E-2</v>
+      </c>
+      <c r="K43" s="19">
+        <v>9.4654417628169091E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="6">
+        <v>167</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" s="14">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="E44" s="17">
+        <v>41000</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G44" s="20">
+        <v>1</v>
+      </c>
+      <c r="H44" s="23" t="s">
+        <v>459</v>
+      </c>
+      <c r="I44" s="21">
+        <v>4.9674792065858384E-2</v>
+      </c>
+      <c r="J44" s="11">
+        <v>6.8489885558842098E-2</v>
+      </c>
+      <c r="K44" s="19">
+        <v>0.14325769370247532</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="6">
+        <v>168</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" s="14">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="E45" s="17">
+        <v>41000</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G45" s="20">
+        <v>3</v>
+      </c>
+      <c r="H45" s="23" t="s">
+        <v>460</v>
+      </c>
+      <c r="I45" s="21">
+        <v>0.16522583097604318</v>
+      </c>
+      <c r="J45" s="11">
+        <v>0.30382260675976547</v>
+      </c>
+      <c r="K45" s="19">
+        <v>0.33933079029307395</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="6">
+        <v>169</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="12">
+        <v>0.09</v>
+      </c>
+      <c r="E46" s="17">
+        <v>12970</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G46" s="20">
+        <v>2</v>
+      </c>
+      <c r="H46" s="23" t="s">
+        <v>464</v>
+      </c>
+      <c r="I46" s="21">
+        <v>2.8908554313976806E-2</v>
+      </c>
+      <c r="J46" s="11">
+        <v>2.8908554313976806E-2</v>
+      </c>
+      <c r="K46" s="19">
+        <v>2.8908554313976806E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="6">
+        <v>170</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" s="12">
+        <v>0.09</v>
+      </c>
+      <c r="E47" s="17">
+        <v>12970</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G47" s="20">
+        <v>1</v>
+      </c>
+      <c r="H47" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="I47" s="21">
+        <v>4.3196082167742358E-2</v>
+      </c>
+      <c r="J47" s="11">
+        <v>4.3196082167742358E-2</v>
+      </c>
+      <c r="K47" s="19">
+        <v>4.3196082167742358E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="6">
+        <v>171</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D48" s="12">
+        <v>0.09</v>
+      </c>
+      <c r="E48" s="17">
+        <v>12970</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G48" s="20">
+        <v>3</v>
+      </c>
+      <c r="H48" s="23" t="s">
+        <v>466</v>
+      </c>
+      <c r="I48" s="21">
+        <v>3.1775252121018109E-2</v>
+      </c>
+      <c r="J48" s="11">
+        <v>7.772686245920965E-2</v>
+      </c>
+      <c r="K48" s="19">
+        <v>0.17564667785103982</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="6">
+        <v>172</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="E49" s="17">
+        <v>50110</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G49" s="20">
+        <v>2</v>
+      </c>
+      <c r="H49" s="23" t="s">
+        <v>482</v>
+      </c>
+      <c r="I49" s="21">
+        <v>2.5368162847767085E-2</v>
+      </c>
+      <c r="J49" s="11">
+        <v>6.2486118309024938E-2</v>
+      </c>
+      <c r="K49" s="19">
+        <v>8.8556619310681109E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="6">
+        <v>173</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D50" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="E50" s="17">
+        <v>50110</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G50" s="20">
+        <v>1</v>
+      </c>
+      <c r="H50" s="23" t="s">
+        <v>483</v>
+      </c>
+      <c r="I50" s="21">
+        <v>0.10794234869911362</v>
+      </c>
+      <c r="J50" s="11">
+        <v>0.10794234869911362</v>
+      </c>
+      <c r="K50" s="19">
+        <v>0.10794234869911362</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="6">
+        <v>174</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D51" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="E51" s="17">
+        <v>50110</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G51" s="20">
+        <v>3</v>
+      </c>
+      <c r="H51" s="23" t="s">
+        <v>484</v>
+      </c>
+      <c r="I51" s="21">
+        <v>4.0509547144845739E-2</v>
+      </c>
+      <c r="J51" s="11">
+        <v>4.6843465452250974E-2</v>
+      </c>
+      <c r="K51" s="19">
+        <v>5.3177383759656201E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="6">
+        <v>175</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="E52" s="17">
+        <v>1590</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G52" s="20">
+        <v>2</v>
+      </c>
+      <c r="H52" s="23" t="s">
+        <v>473</v>
+      </c>
+      <c r="I52" s="21">
+        <v>1.6648964087560718E-2</v>
+      </c>
+      <c r="J52" s="11">
+        <v>4.6153182111543338E-2</v>
+      </c>
+      <c r="K52" s="19">
+        <v>0.10381519824209764</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="6">
+        <v>176</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="E53" s="17">
+        <v>1590</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G53" s="20">
+        <v>1</v>
+      </c>
+      <c r="H53" s="23" t="s">
+        <v>474</v>
+      </c>
+      <c r="I53" s="21">
+        <v>2.3075425831625355E-2</v>
+      </c>
+      <c r="J53" s="11">
+        <v>5.3332398714073782E-2</v>
+      </c>
+      <c r="K53" s="19">
+        <v>8.8932247043052373E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="6">
+        <v>177</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="E54" s="17">
+        <v>1590</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G54" s="20">
+        <v>3</v>
+      </c>
+      <c r="H54" s="23" t="s">
+        <v>475</v>
+      </c>
+      <c r="I54" s="21">
+        <v>3.8948449888822879E-2</v>
+      </c>
+      <c r="J54" s="11">
+        <v>9.3668504847941245E-2</v>
+      </c>
+      <c r="K54" s="19">
+        <v>0.16334171554231772</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="6">
+        <v>178</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D55" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="E55" s="17">
+        <v>3440</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G55" s="20">
+        <v>2</v>
+      </c>
+      <c r="H55" s="23" t="s">
+        <v>467</v>
+      </c>
+      <c r="I55" s="21">
+        <v>1.0493244285750485E-2</v>
+      </c>
+      <c r="J55" s="11">
+        <v>2.71310895778357E-2</v>
+      </c>
+      <c r="K55" s="19">
+        <v>6.0046407313029126E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" s="6">
+        <v>179</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D56" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="E56" s="17">
+        <v>3440</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G56" s="20">
+        <v>1</v>
+      </c>
+      <c r="H56" s="23" t="s">
+        <v>468</v>
+      </c>
+      <c r="I56" s="21">
+        <v>3.7106903422739E-2</v>
+      </c>
+      <c r="J56" s="11">
+        <v>7.6127636686032188E-2</v>
+      </c>
+      <c r="K56" s="19">
+        <v>0.14586756141118298</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" s="6">
+        <v>180</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D57" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="E57" s="17">
+        <v>3440</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G57" s="20">
+        <v>3</v>
+      </c>
+      <c r="H57" s="23" t="s">
+        <v>469</v>
+      </c>
+      <c r="I57" s="21">
+        <v>0.2341812046213155</v>
+      </c>
+      <c r="J57" s="11">
+        <v>0.25589792494181657</v>
+      </c>
+      <c r="K57" s="19">
+        <v>0.32363130476797819</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="6">
+        <v>181</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D58" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="E58" s="17">
+        <v>6550</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G58" s="20">
+        <v>2</v>
+      </c>
+      <c r="H58" s="23" t="s">
+        <v>479</v>
+      </c>
+      <c r="I58" s="21">
+        <v>1.2501510115088132E-2</v>
+      </c>
+      <c r="J58" s="11">
+        <v>8.0634369350402954E-2</v>
+      </c>
+      <c r="K58" s="19">
+        <v>0.15665499431662597</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" s="6">
+        <v>182</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D59" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="E59" s="17">
+        <v>6550</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G59" s="20">
+        <v>1</v>
+      </c>
+      <c r="H59" s="23" t="s">
+        <v>480</v>
+      </c>
+      <c r="I59" s="21">
+        <v>3.7106903422739E-2</v>
+      </c>
+      <c r="J59" s="11">
+        <v>7.6127636686032188E-2</v>
+      </c>
+      <c r="K59" s="19">
+        <v>0.14586756141118298</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="6">
+        <v>183</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D60" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="E60" s="17">
+        <v>6550</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G60" s="20">
+        <v>3</v>
+      </c>
+      <c r="H60" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="I60" s="21">
+        <v>0.46111736241668738</v>
+      </c>
+      <c r="J60" s="11">
+        <v>0.46111736241668738</v>
+      </c>
+      <c r="K60" s="19">
+        <v>0.46111736241668738</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" s="6">
+        <v>184</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D61" s="14">
+        <v>0.125</v>
+      </c>
+      <c r="E61" s="17">
+        <v>52550</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G61" s="20">
+        <v>2</v>
+      </c>
+      <c r="H61" s="23" t="s">
+        <v>476</v>
+      </c>
+      <c r="I61" s="21">
+        <v>7.7882751612873193E-3</v>
+      </c>
+      <c r="J61" s="11">
+        <v>1.7900885441206306E-2</v>
+      </c>
+      <c r="K61" s="19">
+        <v>4.7340210689394438E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" s="6">
+        <v>185</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D62" s="14">
+        <v>0.125</v>
+      </c>
+      <c r="E62" s="17">
+        <v>52550</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G62" s="20">
+        <v>1</v>
+      </c>
+      <c r="H62" s="23" t="s">
+        <v>477</v>
+      </c>
+      <c r="I62" s="21">
+        <v>4.2177160018072202E-2</v>
+      </c>
+      <c r="J62" s="11">
+        <v>0.12878701269006518</v>
+      </c>
+      <c r="K62" s="19">
+        <v>0.13179677943665277</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" s="6">
+        <v>186</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D63" s="14">
+        <v>0.125</v>
+      </c>
+      <c r="E63" s="17">
+        <v>52550</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G63" s="20">
+        <v>3</v>
+      </c>
+      <c r="H63" s="23" t="s">
+        <v>478</v>
+      </c>
+      <c r="I63" s="21">
+        <v>2.3137934660649853E-2</v>
+      </c>
+      <c r="J63" s="11">
+        <v>6.8461195512022288E-2</v>
+      </c>
+      <c r="K63" s="19">
+        <v>0.14395284553684834</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" s="6">
+        <v>187</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D64" s="12">
+        <v>0</v>
+      </c>
+      <c r="E64" s="17">
+        <v>85290</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G64" s="20">
+        <v>2</v>
+      </c>
+      <c r="H64" s="23" t="s">
+        <v>470</v>
+      </c>
+      <c r="I64" s="21">
+        <v>7.6776669196152352E-3</v>
+      </c>
+      <c r="J64" s="11">
+        <v>2.9815233273297551E-2</v>
+      </c>
+      <c r="K64" s="19">
+        <v>6.2950946325533164E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" s="6">
+        <v>188</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D65" s="12">
+        <v>0</v>
+      </c>
+      <c r="E65" s="17">
+        <v>85290</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G65" s="20">
+        <v>1</v>
+      </c>
+      <c r="H65" s="23" t="s">
+        <v>471</v>
+      </c>
+      <c r="I65" s="21">
+        <v>3.7106903422739E-2</v>
+      </c>
+      <c r="J65" s="11">
+        <v>7.6127636686032188E-2</v>
+      </c>
+      <c r="K65" s="19">
+        <v>0.14586756141118298</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" s="6">
+        <v>189</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D66" s="12">
+        <v>0</v>
+      </c>
+      <c r="E66" s="17">
+        <v>85290</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G66" s="20">
+        <v>3</v>
+      </c>
+      <c r="H66" s="23" t="s">
+        <v>472</v>
+      </c>
+      <c r="I66" s="21">
+        <v>3.1775252121018109E-2</v>
+      </c>
+      <c r="J66" s="11">
+        <v>7.772686245920965E-2</v>
+      </c>
+      <c r="K66" s="19">
+        <v>0.17564667785103982</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" s="6">
+        <v>190</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D67" s="12">
+        <v>0.24</v>
+      </c>
+      <c r="E67" s="17">
+        <v>35770</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G67" s="20">
+        <v>2</v>
+      </c>
+      <c r="H67" s="23" t="s">
+        <v>485</v>
+      </c>
+      <c r="I67" s="21">
+        <v>5.7692359953899569E-2</v>
+      </c>
+      <c r="J67" s="11">
+        <v>7.8340997918653468E-2</v>
+      </c>
+      <c r="K67" s="19">
+        <v>9.8368383338804474E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" s="6">
+        <v>191</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D68" s="12">
+        <v>0.24</v>
+      </c>
+      <c r="E68" s="17">
+        <v>35770</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G68" s="20">
+        <v>1</v>
+      </c>
+      <c r="H68" s="23" t="s">
+        <v>486</v>
+      </c>
+      <c r="I68" s="21">
+        <v>3.6993232620799413E-2</v>
+      </c>
+      <c r="J68" s="11">
+        <v>5.6263015448021654E-2</v>
+      </c>
+      <c r="K68" s="19">
+        <v>0.10469107427443941</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" s="6">
+        <v>192</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D69" s="12">
+        <v>0.24</v>
+      </c>
+      <c r="E69" s="17">
+        <v>35770</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G69" s="20">
+        <v>3</v>
+      </c>
+      <c r="H69" s="23" t="s">
+        <v>487</v>
+      </c>
+      <c r="I69" s="21">
+        <v>4.0204390146716638E-2</v>
+      </c>
+      <c r="J69" s="11">
+        <v>0.11743744885025967</v>
+      </c>
+      <c r="K69" s="19">
+        <v>0.35679837574630002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" s="6">
+        <v>193</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D70" s="14">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="E70" s="17">
+        <v>32830</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G70" s="20">
+        <v>2</v>
+      </c>
+      <c r="H70" s="23" t="s">
+        <v>488</v>
+      </c>
+      <c r="I70" s="21">
+        <v>9.5958740467727392E-3</v>
+      </c>
+      <c r="J70" s="11">
+        <v>2.000235955350866E-2</v>
+      </c>
+      <c r="K70" s="19">
+        <v>4.0666996611319353E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" s="6">
+        <v>194</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D71" s="14">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="E71" s="17">
+        <v>32830</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G71" s="20">
+        <v>1</v>
+      </c>
+      <c r="H71" s="23" t="s">
+        <v>489</v>
+      </c>
+      <c r="I71" s="21">
+        <v>3.972062576059085E-2</v>
+      </c>
+      <c r="J71" s="11">
+        <v>6.1999169361979495E-2</v>
+      </c>
+      <c r="K71" s="19">
+        <v>0.10827656744114039</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" s="6">
+        <v>195</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D72" s="14">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="E72" s="17">
+        <v>32830</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G72" s="20">
+        <v>3</v>
+      </c>
+      <c r="H72" s="23" t="s">
         <v>490</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I72" s="21">
         <v>2.191384689688711E-2</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J72" s="11">
         <v>4.8206183032513075E-2</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K72" s="19">
+        <v>9.9721619084336896E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" s="6">
+        <v>196</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D73" s="12">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="E73" s="17">
+        <v>4930</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G73" s="20">
+        <v>2</v>
+      </c>
+      <c r="H73" s="23" t="s">
+        <v>491</v>
+      </c>
+      <c r="I73" s="21">
+        <v>0.12193132142115931</v>
+      </c>
+      <c r="J73" s="11">
+        <v>0.12193132142115931</v>
+      </c>
+      <c r="K73" s="19">
+        <v>0.12193132142115931</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74" s="6">
+        <v>197</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D74" s="12">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="E74" s="17">
+        <v>4930</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G74" s="20">
+        <v>1</v>
+      </c>
+      <c r="H74" s="23" t="s">
+        <v>492</v>
+      </c>
+      <c r="I74" s="21">
+        <v>3.7106903422739E-2</v>
+      </c>
+      <c r="J74" s="11">
+        <v>7.6127636686032188E-2</v>
+      </c>
+      <c r="K74" s="19">
+        <v>0.14586756141118298</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" s="6">
+        <v>198</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D75" s="12">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="E75" s="17">
+        <v>4930</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G75" s="20">
+        <v>3</v>
+      </c>
+      <c r="H75" s="23" t="s">
+        <v>493</v>
+      </c>
+      <c r="I75" s="21">
+        <v>3.1775252121018109E-2</v>
+      </c>
+      <c r="J75" s="11">
+        <v>7.772686245920965E-2</v>
+      </c>
+      <c r="K75" s="19">
+        <v>0.17564667785103982</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" s="6">
+        <v>199</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D76" s="12">
+        <v>0.3211</v>
+      </c>
+      <c r="E76" s="17">
+        <v>38840</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G76" s="20">
+        <v>2</v>
+      </c>
+      <c r="H76" s="23" t="s">
+        <v>497</v>
+      </c>
+      <c r="I76" s="21">
+        <v>8.7510478906557589E-3</v>
+      </c>
+      <c r="J76" s="11">
+        <v>2.0049811821154E-2</v>
+      </c>
+      <c r="K76" s="19">
+        <v>3.8815877210723021E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" s="6">
+        <v>200</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D77" s="12">
+        <v>0.3211</v>
+      </c>
+      <c r="E77" s="17">
+        <v>38840</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G77" s="20">
+        <v>1</v>
+      </c>
+      <c r="H77" s="23" t="s">
+        <v>498</v>
+      </c>
+      <c r="I77" s="21">
+        <v>3.2404413489743551E-2</v>
+      </c>
+      <c r="J77" s="11">
+        <v>5.8171810006425316E-2</v>
+      </c>
+      <c r="K77" s="19">
+        <v>0.1028046690478632</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" s="6">
+        <v>201</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D78" s="12">
+        <v>0.3211</v>
+      </c>
+      <c r="E78" s="17">
+        <v>38840</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G78" s="20">
+        <v>3</v>
+      </c>
+      <c r="H78" s="23" t="s">
+        <v>499</v>
+      </c>
+      <c r="I78" s="21">
+        <v>3.715183410727544E-2</v>
+      </c>
+      <c r="J78" s="11">
+        <v>7.5054020508966923E-2</v>
+      </c>
+      <c r="K78" s="19">
+        <v>0.14058399588180168</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" s="6">
+        <v>202</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D79" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="E79" s="17">
+        <v>4680</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G79" s="20">
+        <v>2</v>
+      </c>
+      <c r="H79" s="23" t="s">
+        <v>494</v>
+      </c>
+      <c r="I79" s="21">
+        <v>4.722900986608404E-2</v>
+      </c>
+      <c r="J79" s="11">
+        <v>4.9345025381885677E-2</v>
+      </c>
+      <c r="K79" s="19">
+        <v>5.1461040897687313E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" s="6">
+        <v>203</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D80" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="E80" s="17">
+        <v>4680</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G80" s="20">
+        <v>1</v>
+      </c>
+      <c r="H80" s="23" t="s">
+        <v>495</v>
+      </c>
+      <c r="I80" s="21">
+        <v>3.7106903422739E-2</v>
+      </c>
+      <c r="J80" s="11">
+        <v>7.6127636686032188E-2</v>
+      </c>
+      <c r="K80" s="19">
+        <v>0.14586756141118298</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" s="6">
+        <v>204</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D81" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="E81" s="17">
+        <v>4680</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G81" s="20">
+        <v>3</v>
+      </c>
+      <c r="H81" s="23" t="s">
+        <v>496</v>
+      </c>
+      <c r="I81" s="21">
+        <v>0.32483781278961982</v>
+      </c>
+      <c r="J81" s="11">
+        <v>0.32483781278961982</v>
+      </c>
+      <c r="K81" s="19">
+        <v>0.32483781278961982</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" s="6">
+        <v>205</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D82" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="E82" s="17">
+        <v>11390</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G82" s="20">
+        <v>2</v>
+      </c>
+      <c r="H82" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="I82" s="21">
+        <v>0.11198119338006035</v>
+      </c>
+      <c r="J82" s="11">
+        <v>0.11198119338006035</v>
+      </c>
+      <c r="K82" s="19">
+        <v>0.11198119338006035</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83" s="6">
+        <v>206</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D83" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="E83" s="17">
+        <v>11390</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G83" s="20">
+        <v>1</v>
+      </c>
+      <c r="H83" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="I83" s="21">
+        <v>0.11876156961378993</v>
+      </c>
+      <c r="J83" s="11">
+        <v>0.11876156961378993</v>
+      </c>
+      <c r="K83" s="19">
+        <v>0.11876156961378993</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" s="6">
+        <v>207</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D84" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="E84" s="17">
+        <v>11390</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G84" s="20">
+        <v>3</v>
+      </c>
+      <c r="H84" s="23" t="s">
+        <v>502</v>
+      </c>
+      <c r="I84" s="21">
+        <v>3.1775252121018109E-2</v>
+      </c>
+      <c r="J84" s="11">
+        <v>7.772686245920965E-2</v>
+      </c>
+      <c r="K84" s="19">
+        <v>0.17564667785103982</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" s="6">
+        <v>208</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D85" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="E85" s="17">
+        <v>1340</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G85" s="20">
+        <v>2</v>
+      </c>
+      <c r="H85" s="23" t="s">
+        <v>503</v>
+      </c>
+      <c r="I85" s="21">
+        <v>4.8702753419320538E-2</v>
+      </c>
+      <c r="J85" s="11">
+        <v>5.5225296666622799E-2</v>
+      </c>
+      <c r="K85" s="19">
+        <v>6.1747839913925059E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" s="6">
+        <v>209</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D86" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="E86" s="17">
+        <v>1340</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G86" s="20">
+        <v>1</v>
+      </c>
+      <c r="H86" s="23" t="s">
+        <v>504</v>
+      </c>
+      <c r="I86" s="21">
+        <v>3.7106903422739E-2</v>
+      </c>
+      <c r="J86" s="11">
+        <v>7.6127636686032188E-2</v>
+      </c>
+      <c r="K86" s="19">
+        <v>0.14586756141118298</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87" s="6">
+        <v>210</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D87" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="E87" s="17">
+        <v>1340</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G87" s="20">
+        <v>3</v>
+      </c>
+      <c r="H87" s="23" t="s">
+        <v>505</v>
+      </c>
+      <c r="I87" s="21">
+        <v>3.1775252121018109E-2</v>
+      </c>
+      <c r="J87" s="11">
+        <v>7.772686245920965E-2</v>
+      </c>
+      <c r="K87" s="19">
+        <v>0.17564667785103982</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88" s="6">
+        <v>211</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D88" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="E88" s="17">
+        <v>42150</v>
+      </c>
+      <c r="F88" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G88" s="20">
+        <v>2</v>
+      </c>
+      <c r="H88" s="23" t="s">
+        <v>512</v>
+      </c>
+      <c r="I88" s="21">
+        <v>3.6983949732495462E-2</v>
+      </c>
+      <c r="J88" s="11">
+        <v>8.342551510362857E-2</v>
+      </c>
+      <c r="K88" s="19">
+        <v>0.11300453047775938</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" s="6">
+        <v>212</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D89" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="E89" s="17">
+        <v>42150</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G89" s="20">
+        <v>1</v>
+      </c>
+      <c r="H89" s="23" t="s">
+        <v>513</v>
+      </c>
+      <c r="I89" s="21">
+        <v>3.7106903422739E-2</v>
+      </c>
+      <c r="J89" s="11">
+        <v>7.6127636686032188E-2</v>
+      </c>
+      <c r="K89" s="19">
+        <v>0.14586756141118298</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A90" s="6">
+        <v>213</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D90" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="E90" s="17">
+        <v>42150</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G90" s="20">
+        <v>3</v>
+      </c>
+      <c r="H90" s="23" t="s">
+        <v>514</v>
+      </c>
+      <c r="I90" s="21">
+        <v>0.68364127985579115</v>
+      </c>
+      <c r="J90" s="11">
+        <v>0.68364127985579115</v>
+      </c>
+      <c r="K90" s="19">
+        <v>0.68364127985579115</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A91" s="6">
+        <v>214</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D91" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="E91" s="17">
+        <v>14990</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G91" s="20">
+        <v>2</v>
+      </c>
+      <c r="H91" s="23" t="s">
+        <v>527</v>
+      </c>
+      <c r="I91" s="21">
+        <v>9.8915836962393134E-3</v>
+      </c>
+      <c r="J91" s="11">
+        <v>2.6740901162528259E-2</v>
+      </c>
+      <c r="K91" s="19">
+        <v>6.4025818074001817E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A92" s="6">
+        <v>215</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D92" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="E92" s="17">
+        <v>14990</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G92" s="20">
+        <v>1</v>
+      </c>
+      <c r="H92" s="23" t="s">
+        <v>528</v>
+      </c>
+      <c r="I92" s="21">
+        <v>7.4935681341510657E-2</v>
+      </c>
+      <c r="J92" s="11">
+        <v>7.7393698378709408E-2</v>
+      </c>
+      <c r="K92" s="19">
+        <v>0.32196630850285968</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A93" s="6">
+        <v>216</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D93" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="E93" s="17">
+        <v>14990</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G93" s="20">
+        <v>3</v>
+      </c>
+      <c r="H93" s="23" t="s">
+        <v>529</v>
+      </c>
+      <c r="I93" s="21">
+        <v>0.42909790469922893</v>
+      </c>
+      <c r="J93" s="11">
+        <v>0.44635496240933875</v>
+      </c>
+      <c r="K93" s="19">
+        <v>0.46361202011944858</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A94" s="6">
+        <v>217</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D94" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="E94" s="17">
+        <v>7710</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G94" s="20">
+        <v>2</v>
+      </c>
+      <c r="H94" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="I94" s="21">
+        <v>0.1162049256912388</v>
+      </c>
+      <c r="J94" s="11">
+        <v>0.1162049256912388</v>
+      </c>
+      <c r="K94" s="19">
+        <v>0.1162049256912388</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95" s="6">
+        <v>218</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D95" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="E95" s="17">
+        <v>7710</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G95" s="20">
+        <v>1</v>
+      </c>
+      <c r="H95" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="I95" s="21">
+        <v>3.7106903422739E-2</v>
+      </c>
+      <c r="J95" s="11">
+        <v>7.6127636686032188E-2</v>
+      </c>
+      <c r="K95" s="19">
+        <v>0.14586756141118298</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A96" s="6">
+        <v>219</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D96" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="E96" s="17">
+        <v>7710</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G96" s="20">
+        <v>3</v>
+      </c>
+      <c r="H96" s="23" t="s">
+        <v>517</v>
+      </c>
+      <c r="I96" s="21">
+        <v>3.1775252121018109E-2</v>
+      </c>
+      <c r="J96" s="11">
+        <v>7.772686245920965E-2</v>
+      </c>
+      <c r="K96" s="19">
+        <v>0.17564667785103982</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A97" s="6">
+        <v>220</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D97" s="12">
+        <v>0.125</v>
+      </c>
+      <c r="E97" s="17">
+        <v>115530</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G97" s="20">
+        <v>2</v>
+      </c>
+      <c r="H97" s="23" t="s">
+        <v>518</v>
+      </c>
+      <c r="I97" s="21">
+        <v>7.6776669196152352E-3</v>
+      </c>
+      <c r="J97" s="11">
+        <v>2.9815233273297551E-2</v>
+      </c>
+      <c r="K97" s="19">
+        <v>6.2950946325533164E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A98" s="6">
+        <v>221</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D98" s="12">
+        <v>0.125</v>
+      </c>
+      <c r="E98" s="17">
+        <v>115530</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G98" s="20">
+        <v>1</v>
+      </c>
+      <c r="H98" s="23" t="s">
+        <v>519</v>
+      </c>
+      <c r="I98" s="21">
+        <v>3.7106903422739E-2</v>
+      </c>
+      <c r="J98" s="11">
+        <v>7.6127636686032188E-2</v>
+      </c>
+      <c r="K98" s="19">
+        <v>0.14586756141118298</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A99" s="6">
+        <v>222</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D99" s="12">
+        <v>0.125</v>
+      </c>
+      <c r="E99" s="17">
+        <v>115530</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G99" s="20">
+        <v>3</v>
+      </c>
+      <c r="H99" s="23" t="s">
+        <v>520</v>
+      </c>
+      <c r="I99" s="21">
+        <v>3.1775252121018109E-2</v>
+      </c>
+      <c r="J99" s="11">
+        <v>7.772686245920965E-2</v>
+      </c>
+      <c r="K99" s="19">
+        <v>0.17564667785103982</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100" s="6">
+        <v>223</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D100" s="14">
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="E100" s="17">
+        <v>15080</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G100" s="20">
+        <v>2</v>
+      </c>
+      <c r="H100" s="23" t="s">
+        <v>521</v>
+      </c>
+      <c r="I100" s="21">
+        <v>3.9665411153435755E-3</v>
+      </c>
+      <c r="J100" s="11">
+        <v>7.5701622809655261E-3</v>
+      </c>
+      <c r="K100" s="19">
+        <v>3.8707634775383581E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A101" s="6">
+        <v>224</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D101" s="14">
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="E101" s="17">
+        <v>15080</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G101" s="20">
+        <v>1</v>
+      </c>
+      <c r="H101" s="23" t="s">
+        <v>522</v>
+      </c>
+      <c r="I101" s="21">
+        <v>7.4129908231593822E-2</v>
+      </c>
+      <c r="J101" s="11">
+        <v>7.4129908231593822E-2</v>
+      </c>
+      <c r="K101" s="19">
+        <v>7.4129908231593822E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A102" s="6">
+        <v>225</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D102" s="14">
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="E102" s="17">
+        <v>15080</v>
+      </c>
+      <c r="F102" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G102" s="20">
+        <v>3</v>
+      </c>
+      <c r="H102" s="23" t="s">
+        <v>523</v>
+      </c>
+      <c r="I102" s="21">
+        <v>3.1775252121018109E-2</v>
+      </c>
+      <c r="J102" s="11">
+        <v>7.772686245920965E-2</v>
+      </c>
+      <c r="K102" s="19">
+        <v>0.17564667785103982</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A103" s="6">
+        <v>226</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D103" s="12">
+        <v>0.29220000000000002</v>
+      </c>
+      <c r="E103" s="17">
+        <v>77480</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G103" s="20">
+        <v>2</v>
+      </c>
+      <c r="H103" s="23" t="s">
+        <v>524</v>
+      </c>
+      <c r="I103" s="21">
+        <v>5.3715854059367796E-2</v>
+      </c>
+      <c r="J103" s="11">
+        <v>8.4134761751951961E-2</v>
+      </c>
+      <c r="K103" s="19">
+        <v>9.4654700017068882E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A104" s="6">
+        <v>227</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D104" s="12">
+        <v>0.29220000000000002</v>
+      </c>
+      <c r="E104" s="17">
+        <v>77480</v>
+      </c>
+      <c r="F104" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G104" s="20">
+        <v>1</v>
+      </c>
+      <c r="H104" s="23" t="s">
+        <v>525</v>
+      </c>
+      <c r="I104" s="21">
+        <v>3.7106903422739E-2</v>
+      </c>
+      <c r="J104" s="11">
+        <v>7.6127636686032188E-2</v>
+      </c>
+      <c r="K104" s="19">
+        <v>0.14586756141118298</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A105" s="6">
+        <v>228</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D105" s="12">
+        <v>0.29220000000000002</v>
+      </c>
+      <c r="E105" s="17">
+        <v>77480</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G105" s="20">
+        <v>3</v>
+      </c>
+      <c r="H105" s="23" t="s">
+        <v>526</v>
+      </c>
+      <c r="I105" s="21">
+        <v>3.5064142930234202E-2</v>
+      </c>
+      <c r="J105" s="11">
+        <v>0.13925876692183392</v>
+      </c>
+      <c r="K105" s="19">
+        <v>0.3474594985557658</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A106" s="6">
+        <v>229</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D106" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="E106" s="17">
+        <v>67180</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G106" s="20">
+        <v>2</v>
+      </c>
+      <c r="H106" s="23" t="s">
+        <v>530</v>
+      </c>
+      <c r="I106" s="21">
+        <v>7.6776669196152352E-3</v>
+      </c>
+      <c r="J106" s="11">
+        <v>2.9815233273297551E-2</v>
+      </c>
+      <c r="K106" s="19">
+        <v>6.2950946325533164E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A107" s="6">
+        <v>230</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D107" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="E107" s="17">
+        <v>67180</v>
+      </c>
+      <c r="F107" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G107" s="20">
+        <v>1</v>
+      </c>
+      <c r="H107" s="23" t="s">
+        <v>531</v>
+      </c>
+      <c r="I107" s="21">
+        <v>3.7106903422739E-2</v>
+      </c>
+      <c r="J107" s="11">
+        <v>7.6127636686032188E-2</v>
+      </c>
+      <c r="K107" s="19">
+        <v>0.14586756141118298</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A108" s="6">
+        <v>231</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D108" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="E108" s="17">
+        <v>67180</v>
+      </c>
+      <c r="F108" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G108" s="20">
+        <v>3</v>
+      </c>
+      <c r="H108" s="23" t="s">
+        <v>532</v>
+      </c>
+      <c r="I108" s="21">
+        <v>3.1775252121018109E-2</v>
+      </c>
+      <c r="J108" s="11">
+        <v>7.772686245920965E-2</v>
+      </c>
+      <c r="K108" s="19">
+        <v>0.17564667785103982</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A109" s="6">
+        <v>232</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D109" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="E109" s="17">
+        <v>5140</v>
+      </c>
+      <c r="F109" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G109" s="20">
+        <v>2</v>
+      </c>
+      <c r="H109" s="23" t="s">
+        <v>548</v>
+      </c>
+      <c r="I109" s="21">
+        <v>2.2157542764583753E-2</v>
+      </c>
+      <c r="J109" s="11">
+        <v>3.6191942261715279E-2</v>
+      </c>
+      <c r="K109" s="19">
+        <v>5.2620045314522135E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A110" s="6">
+        <v>233</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D110" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="E110" s="17">
+        <v>5140</v>
+      </c>
+      <c r="F110" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G110" s="20">
+        <v>1</v>
+      </c>
+      <c r="H110" s="23" t="s">
+        <v>549</v>
+      </c>
+      <c r="I110" s="21">
+        <v>1.4231951991698272E-2</v>
+      </c>
+      <c r="J110" s="11">
+        <v>1.613950932627168E-2</v>
+      </c>
+      <c r="K110" s="19">
+        <v>1.8047066660845087E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A111" s="6">
+        <v>234</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D111" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="E111" s="17">
+        <v>5140</v>
+      </c>
+      <c r="F111" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G111" s="20">
+        <v>3</v>
+      </c>
+      <c r="H111" s="23" t="s">
+        <v>550</v>
+      </c>
+      <c r="I111" s="21">
+        <v>7.6059935134203801E-3</v>
+      </c>
+      <c r="J111" s="11">
+        <v>1.2096376946262999E-2</v>
+      </c>
+      <c r="K111" s="19">
+        <v>1.3662286113165487E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A112" s="6">
+        <v>235</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D112" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="E112" s="17">
+        <v>10570</v>
+      </c>
+      <c r="F112" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G112" s="20">
+        <v>2</v>
+      </c>
+      <c r="H112" s="23" t="s">
+        <v>563</v>
+      </c>
+      <c r="I112" s="21">
+        <v>1.4250452619056409E-2</v>
+      </c>
+      <c r="J112" s="11">
+        <v>3.6564280146275163E-2</v>
+      </c>
+      <c r="K112" s="19">
+        <v>8.3697662968899217E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A113" s="6">
+        <v>236</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D113" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="E113" s="17">
+        <v>10570</v>
+      </c>
+      <c r="F113" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G113" s="20">
+        <v>1</v>
+      </c>
+      <c r="H113" s="23" t="s">
+        <v>564</v>
+      </c>
+      <c r="I113" s="21">
+        <v>3.9389787764203814E-2</v>
+      </c>
+      <c r="J113" s="11">
+        <v>6.358632199456446E-2</v>
+      </c>
+      <c r="K113" s="19">
+        <v>0.23866127557633621</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A114" s="6">
+        <v>237</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D114" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="E114" s="17">
+        <v>10570</v>
+      </c>
+      <c r="F114" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G114" s="20">
+        <v>3</v>
+      </c>
+      <c r="H114" s="23" t="s">
+        <v>565</v>
+      </c>
+      <c r="I114" s="21">
+        <v>3.5798629279215788E-2</v>
+      </c>
+      <c r="J114" s="11">
+        <v>7.0822131131694527E-2</v>
+      </c>
+      <c r="K114" s="19">
+        <v>0.21090187180847558</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A115" s="6">
+        <v>238</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D115" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="E115" s="17">
+        <v>6950</v>
+      </c>
+      <c r="F115" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G115" s="20">
+        <v>2</v>
+      </c>
+      <c r="H115" s="23" t="s">
+        <v>542</v>
+      </c>
+      <c r="I115" s="21">
+        <v>7.6776669196152352E-3</v>
+      </c>
+      <c r="J115" s="11">
+        <v>2.9815233273297551E-2</v>
+      </c>
+      <c r="K115" s="19">
+        <v>6.2950946325533164E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A116" s="6">
+        <v>239</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D116" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="E116" s="17">
+        <v>6950</v>
+      </c>
+      <c r="F116" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G116" s="20">
+        <v>1</v>
+      </c>
+      <c r="H116" s="23" t="s">
+        <v>543</v>
+      </c>
+      <c r="I116" s="21">
+        <v>3.7106903422739E-2</v>
+      </c>
+      <c r="J116" s="11">
+        <v>7.6127636686032188E-2</v>
+      </c>
+      <c r="K116" s="19">
+        <v>0.14586756141118298</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A117" s="6">
+        <v>240</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D117" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="E117" s="17">
+        <v>6950</v>
+      </c>
+      <c r="F117" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G117" s="20">
+        <v>3</v>
+      </c>
+      <c r="H117" s="23" t="s">
+        <v>544</v>
+      </c>
+      <c r="I117" s="21">
+        <v>3.1775252121018109E-2</v>
+      </c>
+      <c r="J117" s="11">
+        <v>7.772686245920965E-2</v>
+      </c>
+      <c r="K117" s="19">
+        <v>0.17564667785103982</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A118" s="6">
+        <v>241</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D118" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="E118" s="17">
+        <v>23900</v>
+      </c>
+      <c r="F118" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G118" s="20">
+        <v>2</v>
+      </c>
+      <c r="H118" s="23" t="s">
+        <v>551</v>
+      </c>
+      <c r="I118" s="21">
+        <v>3.8135454829697005E-2</v>
+      </c>
+      <c r="J118" s="11">
+        <v>4.8489571566328937E-2</v>
+      </c>
+      <c r="K118" s="19">
+        <v>0.35228264280530447</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A119" s="6">
+        <v>242</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D119" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="E119" s="17">
+        <v>23900</v>
+      </c>
+      <c r="F119" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G119" s="20">
+        <v>1</v>
+      </c>
+      <c r="H119" s="23" t="s">
+        <v>552</v>
+      </c>
+      <c r="I119" s="21">
+        <v>3.7106903422739E-2</v>
+      </c>
+      <c r="J119" s="11">
+        <v>7.6127636686032188E-2</v>
+      </c>
+      <c r="K119" s="19">
+        <v>0.14586756141118298</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A120" s="6">
+        <v>243</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D120" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="E120" s="17">
+        <v>23900</v>
+      </c>
+      <c r="F120" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G120" s="20">
+        <v>3</v>
+      </c>
+      <c r="H120" s="23" t="s">
+        <v>553</v>
+      </c>
+      <c r="I120" s="21">
+        <v>3.1775252121018109E-2</v>
+      </c>
+      <c r="J120" s="11">
+        <v>7.772686245920965E-2</v>
+      </c>
+      <c r="K120" s="19">
+        <v>0.17564667785103982</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A121" s="6">
+        <v>244</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D121" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="E121" s="17">
+        <v>9780</v>
+      </c>
+      <c r="F121" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G121" s="20">
+        <v>2</v>
+      </c>
+      <c r="H121" s="23" t="s">
+        <v>560</v>
+      </c>
+      <c r="I121" s="21">
+        <v>5.8054525604085611E-2</v>
+      </c>
+      <c r="J121" s="11">
+        <v>6.9325860719745808E-2</v>
+      </c>
+      <c r="K121" s="19">
+        <v>8.0597195835405991E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A122" s="6">
+        <v>245</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D122" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="E122" s="17">
+        <v>9780</v>
+      </c>
+      <c r="F122" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G122" s="20">
+        <v>1</v>
+      </c>
+      <c r="H122" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="I122" s="21">
+        <v>3.7106903422739E-2</v>
+      </c>
+      <c r="J122" s="11">
+        <v>7.6127636686032188E-2</v>
+      </c>
+      <c r="K122" s="19">
+        <v>0.14586756141118298</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A123" s="6">
+        <v>246</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D123" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="E123" s="17">
+        <v>9780</v>
+      </c>
+      <c r="F123" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G123" s="20">
+        <v>3</v>
+      </c>
+      <c r="H123" s="23" t="s">
+        <v>562</v>
+      </c>
+      <c r="I123" s="21">
+        <v>3.1775252121018109E-2</v>
+      </c>
+      <c r="J123" s="11">
+        <v>7.772686245920965E-2</v>
+      </c>
+      <c r="K123" s="19">
+        <v>0.17564667785103982</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A124" s="6">
+        <v>247</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D124" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="E124" s="17">
+        <v>9710</v>
+      </c>
+      <c r="F124" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G124" s="20">
+        <v>2</v>
+      </c>
+      <c r="H124" s="23" t="s">
+        <v>545</v>
+      </c>
+      <c r="I124" s="21">
+        <v>2.8078912030674818E-2</v>
+      </c>
+      <c r="J124" s="11">
+        <v>4.5260871527045554E-2</v>
+      </c>
+      <c r="K124" s="19">
+        <v>8.8495380879176147E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A125" s="6">
+        <v>248</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D125" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="E125" s="17">
+        <v>9710</v>
+      </c>
+      <c r="F125" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G125" s="20">
+        <v>1</v>
+      </c>
+      <c r="H125" s="23" t="s">
+        <v>546</v>
+      </c>
+      <c r="I125" s="21">
+        <v>8.4180580386491899E-2</v>
+      </c>
+      <c r="J125" s="11">
+        <v>0.12502834224239795</v>
+      </c>
+      <c r="K125" s="19">
+        <v>0.165876104098304</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A126" s="6">
+        <v>249</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D126" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="E126" s="17">
+        <v>9710</v>
+      </c>
+      <c r="F126" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G126" s="20">
+        <v>3</v>
+      </c>
+      <c r="H126" s="23" t="s">
+        <v>547</v>
+      </c>
+      <c r="I126" s="21">
+        <v>3.1775252121018109E-2</v>
+      </c>
+      <c r="J126" s="11">
+        <v>7.772686245920965E-2</v>
+      </c>
+      <c r="K126" s="19">
+        <v>0.17564667785103982</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A127" s="6">
+        <v>250</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D127" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="E127" s="17">
+        <v>2240</v>
+      </c>
+      <c r="F127" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G127" s="20">
+        <v>2</v>
+      </c>
+      <c r="H127" s="23" t="s">
+        <v>539</v>
+      </c>
+      <c r="I127" s="21">
+        <v>1.7029268841311711E-2</v>
+      </c>
+      <c r="J127" s="11">
+        <v>1.7029268841311711E-2</v>
+      </c>
+      <c r="K127" s="19">
+        <v>1.7029268841311711E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A128" s="6">
+        <v>251</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D128" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="E128" s="17">
+        <v>2240</v>
+      </c>
+      <c r="F128" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G128" s="20">
+        <v>1</v>
+      </c>
+      <c r="H128" s="23" t="s">
+        <v>540</v>
+      </c>
+      <c r="I128" s="21">
+        <v>3.7106903422739E-2</v>
+      </c>
+      <c r="J128" s="11">
+        <v>7.6127636686032188E-2</v>
+      </c>
+      <c r="K128" s="19">
+        <v>0.14586756141118298</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A129" s="6">
+        <v>252</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D129" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="E129" s="17">
+        <v>2240</v>
+      </c>
+      <c r="F129" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G129" s="20">
+        <v>3</v>
+      </c>
+      <c r="H129" s="23" t="s">
+        <v>541</v>
+      </c>
+      <c r="I129" s="21">
+        <v>0.25237689708774969</v>
+      </c>
+      <c r="J129" s="11">
+        <v>0.25237689708774969</v>
+      </c>
+      <c r="K129" s="19">
+        <v>0.25237689708774969</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A130" s="6">
+        <v>253</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D130" s="12">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="E130" s="17">
+        <v>186710</v>
+      </c>
+      <c r="F130" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G130" s="20">
+        <v>2</v>
+      </c>
+      <c r="H130" s="23" t="s">
+        <v>536</v>
+      </c>
+      <c r="I130" s="21">
+        <v>7.6776669196152352E-3</v>
+      </c>
+      <c r="J130" s="11">
+        <v>2.9815233273297551E-2</v>
+      </c>
+      <c r="K130" s="19">
+        <v>6.2950946325533164E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A131" s="6">
+        <v>254</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D131" s="12">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="E131" s="17">
+        <v>186710</v>
+      </c>
+      <c r="F131" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G131" s="20">
+        <v>1</v>
+      </c>
+      <c r="H131" s="23" t="s">
+        <v>537</v>
+      </c>
+      <c r="I131" s="21">
+        <v>3.7106903422739E-2</v>
+      </c>
+      <c r="J131" s="11">
+        <v>7.6127636686032188E-2</v>
+      </c>
+      <c r="K131" s="19">
+        <v>0.14586756141118298</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A132" s="6">
+        <v>255</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D132" s="12">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="E132" s="17">
+        <v>186710</v>
+      </c>
+      <c r="F132" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G132" s="20">
+        <v>3</v>
+      </c>
+      <c r="H132" s="23" t="s">
+        <v>538</v>
+      </c>
+      <c r="I132" s="21">
+        <v>3.1775252121018109E-2</v>
+      </c>
+      <c r="J132" s="11">
+        <v>7.772686245920965E-2</v>
+      </c>
+      <c r="K132" s="19">
+        <v>0.17564667785103982</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A133" s="6">
+        <v>256</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D133" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="E133" s="17">
+        <v>3870</v>
+      </c>
+      <c r="F133" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G133" s="20">
+        <v>2</v>
+      </c>
+      <c r="H133" s="23" t="s">
+        <v>557</v>
+      </c>
+      <c r="I133" s="21">
+        <v>1.0493244285750485E-2</v>
+      </c>
+      <c r="J133" s="11">
+        <v>2.71310895778357E-2</v>
+      </c>
+      <c r="K133" s="19">
+        <v>6.0046407313029126E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A134" s="6">
+        <v>257</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D134" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="E134" s="17">
+        <v>3870</v>
+      </c>
+      <c r="F134" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G134" s="20">
+        <v>1</v>
+      </c>
+      <c r="H134" s="23" t="s">
+        <v>558</v>
+      </c>
+      <c r="I134" s="21">
+        <v>3.7106903422739E-2</v>
+      </c>
+      <c r="J134" s="11">
+        <v>7.6127636686032188E-2</v>
+      </c>
+      <c r="K134" s="19">
+        <v>0.14586756141118298</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A135" s="6">
+        <v>258</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D135" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="E135" s="17">
+        <v>3870</v>
+      </c>
+      <c r="F135" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G135" s="20">
+        <v>3</v>
+      </c>
+      <c r="H135" s="23" t="s">
+        <v>559</v>
+      </c>
+      <c r="I135" s="21">
+        <v>3.1775252121018109E-2</v>
+      </c>
+      <c r="J135" s="11">
+        <v>7.772686245920965E-2</v>
+      </c>
+      <c r="K135" s="19">
+        <v>0.17564667785103982</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A136" s="6">
+        <v>259</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D136" s="12">
+        <v>0.09</v>
+      </c>
+      <c r="E136" s="17">
+        <v>7220</v>
+      </c>
+      <c r="F136" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G136" s="20">
+        <v>2</v>
+      </c>
+      <c r="H136" s="23" t="s">
+        <v>554</v>
+      </c>
+      <c r="I136" s="21">
+        <v>2.2013015659217042E-2</v>
+      </c>
+      <c r="J136" s="11">
+        <v>2.2013015659217042E-2</v>
+      </c>
+      <c r="K136" s="19">
+        <v>2.2013015659217042E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A137" s="6">
+        <v>260</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D137" s="12">
+        <v>0.09</v>
+      </c>
+      <c r="E137" s="17">
+        <v>7220</v>
+      </c>
+      <c r="F137" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G137" s="20">
+        <v>1</v>
+      </c>
+      <c r="H137" s="23" t="s">
+        <v>555</v>
+      </c>
+      <c r="I137" s="21">
+        <v>3.7106903422739E-2</v>
+      </c>
+      <c r="J137" s="11">
+        <v>7.6127636686032188E-2</v>
+      </c>
+      <c r="K137" s="19">
+        <v>0.14586756141118298</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A138" s="6">
+        <v>261</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D138" s="12">
+        <v>0.09</v>
+      </c>
+      <c r="E138" s="17">
+        <v>7220</v>
+      </c>
+      <c r="F138" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G138" s="20">
+        <v>3</v>
+      </c>
+      <c r="H138" s="23" t="s">
+        <v>556</v>
+      </c>
+      <c r="I138" s="21">
+        <v>2.6141116258632646E-3</v>
+      </c>
+      <c r="J138" s="11">
+        <v>4.9249262930707322E-3</v>
+      </c>
+      <c r="K138" s="19">
+        <v>7.2357409602782008E-3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A139" s="6">
+        <v>262</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D139" s="12">
+        <v>0.31</v>
+      </c>
+      <c r="E139" s="17">
+        <v>3030</v>
+      </c>
+      <c r="F139" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G139" s="20">
+        <v>2</v>
+      </c>
+      <c r="H139" s="23" t="s">
+        <v>533</v>
+      </c>
+      <c r="I139" s="21">
+        <v>6.3458715208219496E-2</v>
+      </c>
+      <c r="J139" s="11">
+        <v>8.2623624623819392E-2</v>
+      </c>
+      <c r="K139" s="19">
+        <v>0.12567858775910001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A140" s="6">
+        <v>263</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D140" s="12">
+        <v>0.31</v>
+      </c>
+      <c r="E140" s="17">
+        <v>3030</v>
+      </c>
+      <c r="F140" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G140" s="20">
+        <v>1</v>
+      </c>
+      <c r="H140" s="23" t="s">
+        <v>534</v>
+      </c>
+      <c r="I140" s="21">
+        <v>6.25649769644714E-2</v>
+      </c>
+      <c r="J140" s="11">
+        <v>6.25649769644714E-2</v>
+      </c>
+      <c r="K140" s="19">
+        <v>6.25649769644714E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A141" s="6">
+        <v>264</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D141" s="12">
+        <v>0.31</v>
+      </c>
+      <c r="E141" s="17">
+        <v>3030</v>
+      </c>
+      <c r="F141" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G141" s="20">
+        <v>3</v>
+      </c>
+      <c r="H141" s="23" t="s">
+        <v>535</v>
+      </c>
+      <c r="I141" s="21">
+        <v>5.6337904644341366E-2</v>
+      </c>
+      <c r="J141" s="11">
+        <v>5.6337904644341366E-2</v>
+      </c>
+      <c r="K141" s="19">
+        <v>5.6337904644341366E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A142" s="6">
+        <v>193</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D142" s="14">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="E142" s="17">
+        <v>32830</v>
+      </c>
+      <c r="F142" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G142" s="20">
+        <v>2</v>
+      </c>
+      <c r="H142" s="23" t="s">
+        <v>488</v>
+      </c>
+      <c r="I142" s="21">
+        <v>9.5958740467727392E-3</v>
+      </c>
+      <c r="J142" s="11">
+        <v>2.000235955350866E-2</v>
+      </c>
+      <c r="K142" s="19">
+        <v>4.0666996611319353E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A143" s="6">
+        <v>194</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D143" s="14">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="E143" s="17">
+        <v>32830</v>
+      </c>
+      <c r="F143" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G143" s="20">
+        <v>1</v>
+      </c>
+      <c r="H143" s="23" t="s">
+        <v>489</v>
+      </c>
+      <c r="I143" s="21">
+        <v>3.972062576059085E-2</v>
+      </c>
+      <c r="J143" s="11">
+        <v>6.1999169361979495E-2</v>
+      </c>
+      <c r="K143" s="19">
+        <v>0.10827656744114039</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A144" s="6">
+        <v>195</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D144" s="14">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="E144" s="17">
+        <v>32830</v>
+      </c>
+      <c r="F144" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G144" s="20">
+        <v>3</v>
+      </c>
+      <c r="H144" s="23" t="s">
+        <v>490</v>
+      </c>
+      <c r="I144" s="21">
+        <v>2.191384689688711E-2</v>
+      </c>
+      <c r="J144" s="11">
+        <v>4.8206183032513075E-2</v>
+      </c>
+      <c r="K144" s="19">
         <v>9.9721619084336896E-2</v>
       </c>
     </row>

--- a/Data/ExLingo.xlsx
+++ b/Data/ExLingo.xlsx
@@ -19,13 +19,13 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Final (2)'!$A$1:$K$403</definedName>
-    <definedName name="ct">Lingo!$D$1:$D$144</definedName>
+    <definedName name="ct">Lingo!$D$1:$D$102</definedName>
     <definedName name="emp">Target!$B$3</definedName>
-    <definedName name="gni">Lingo!$E$1:$E$144</definedName>
-    <definedName name="pl">Lingo!$I$1:$I$144</definedName>
-    <definedName name="pli">Lingo!$G$1:$G$144</definedName>
-    <definedName name="pm">Lingo!$J$1:$J$144</definedName>
-    <definedName name="pu">Lingo!$K$1:$K$144</definedName>
+    <definedName name="gni">Lingo!$E$1:$E$102</definedName>
+    <definedName name="pl">Lingo!$I$1:$I$102</definedName>
+    <definedName name="pli">Lingo!$G$1:$G$102</definedName>
+    <definedName name="pm">Lingo!$J$1:$J$102</definedName>
+    <definedName name="pu">Lingo!$K$1:$K$102</definedName>
     <definedName name="rev">Target!$B$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2203" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2035" uniqueCount="692">
   <si>
     <t>N</t>
   </si>
@@ -2532,8 +2532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K403"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="K265" sqref="A158:K265"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A269" sqref="A269:XFD385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16672,7 +16672,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16696,7 +16696,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="10">
-        <v>1000000</v>
+        <v>444900000</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -16704,7 +16704,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="10">
-        <v>100</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -16770,13 +16770,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K144"/>
+  <dimension ref="A1:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+      <selection activeCell="A46" sqref="A46:XFD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="6">
@@ -16885,19 +16888,19 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
-        <v>127</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>52</v>
+        <v>136</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D4" s="12">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="E4" s="17">
-        <v>6030</v>
+        <v>18320</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>147</v>
@@ -16906,33 +16909,33 @@
         <v>2</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="I4" s="21">
-        <v>4.2046879552937858E-2</v>
+        <v>3.00352401622433E-2</v>
       </c>
       <c r="J4" s="11">
-        <v>4.7790737997505918E-2</v>
+        <v>3.8749933264286412E-2</v>
       </c>
       <c r="K4" s="19">
-        <v>7.1960830929335265E-2</v>
+        <v>5.2153145625800673E-2</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
-        <v>128</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>52</v>
+        <v>137</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D5" s="12">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="E5" s="17">
-        <v>6030</v>
+        <v>18320</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>148</v>
@@ -16941,33 +16944,33 @@
         <v>1</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="I5" s="21">
-        <v>6.1681598897312201E-2</v>
+        <v>5.2013401602031863E-2</v>
       </c>
       <c r="J5" s="11">
-        <v>6.1681598897312201E-2</v>
+        <v>9.6639488055183576E-2</v>
       </c>
       <c r="K5" s="19">
-        <v>6.1681598897312201E-2</v>
+        <v>0.1412655745083353</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
-        <v>129</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>52</v>
+        <v>138</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D6" s="12">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="E6" s="17">
-        <v>6030</v>
+        <v>18320</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>149</v>
@@ -16976,33 +16979,33 @@
         <v>3</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="I6" s="21">
-        <v>3.1775252121018109E-2</v>
+        <v>0.13558370993750485</v>
       </c>
       <c r="J6" s="11">
-        <v>7.772686245920965E-2</v>
+        <v>0.13966594784360642</v>
       </c>
       <c r="K6" s="19">
-        <v>0.17564667785103982</v>
+        <v>0.14374818574970799</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
-        <v>130</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>53</v>
+        <v>139</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="D7" s="12">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E7" s="17">
-        <v>3340</v>
+        <v>46560</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>147</v>
@@ -17011,33 +17014,33 @@
         <v>2</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="I7" s="21">
-        <v>3.9920460486936205E-2</v>
+        <v>1.3053323728168212E-2</v>
       </c>
       <c r="J7" s="11">
-        <v>0.1925173642592154</v>
+        <v>3.8615179535260599E-2</v>
       </c>
       <c r="K7" s="19">
-        <v>0.49952931414249524</v>
+        <v>7.2563296590786711E-2</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
-        <v>131</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>53</v>
+        <v>140</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="D8" s="12">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E8" s="17">
-        <v>3340</v>
+        <v>46560</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>148</v>
@@ -17046,33 +17049,33 @@
         <v>1</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="I8" s="21">
-        <v>0.15623997433429579</v>
+        <v>2.7006871078283409E-2</v>
       </c>
       <c r="J8" s="11">
-        <v>0.15623997433429579</v>
+        <v>3.5702390116212165E-2</v>
       </c>
       <c r="K8" s="19">
-        <v>0.15623997433429579</v>
+        <v>7.7167293004254456E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
-        <v>132</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>53</v>
+        <v>141</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="D9" s="12">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E9" s="17">
-        <v>3340</v>
+        <v>46560</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>149</v>
@@ -17081,33 +17084,33 @@
         <v>3</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="I9" s="21">
-        <v>0.23386460823247471</v>
+        <v>4.031345682438018E-2</v>
       </c>
       <c r="J9" s="11">
-        <v>0.4403631959404341</v>
+        <v>8.7956541840036984E-2</v>
       </c>
       <c r="K9" s="19">
-        <v>0.64686178364839353</v>
+        <v>0.16854819678602634</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>278</v>
+        <v>189</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="12">
-        <v>0.3</v>
+        <v>57</v>
+      </c>
+      <c r="D10" s="14">
+        <v>0.33</v>
       </c>
       <c r="E10" s="17">
-        <v>3940</v>
+        <v>40710</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>147</v>
@@ -17116,33 +17119,33 @@
         <v>2</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>629</v>
+        <v>434</v>
       </c>
       <c r="I10" s="21">
-        <v>7.6776669196152352E-3</v>
+        <v>5.0971334634377701E-3</v>
       </c>
       <c r="J10" s="11">
-        <v>2.9815233273297551E-2</v>
+        <v>1.3283074716208843E-2</v>
       </c>
       <c r="K10" s="19">
-        <v>6.2950946325533164E-2</v>
+        <v>2.9687453061613304E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>278</v>
+        <v>189</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="12">
-        <v>0.3</v>
+        <v>57</v>
+      </c>
+      <c r="D11" s="14">
+        <v>0.33</v>
       </c>
       <c r="E11" s="17">
-        <v>3940</v>
+        <v>40710</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>148</v>
@@ -17151,33 +17154,33 @@
         <v>1</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>630</v>
+        <v>435</v>
       </c>
       <c r="I11" s="21">
-        <v>3.7106903422739E-2</v>
+        <v>3.6356493934084376E-2</v>
       </c>
       <c r="J11" s="11">
-        <v>7.6127636686032188E-2</v>
+        <v>5.1170006157927071E-2</v>
       </c>
       <c r="K11" s="19">
-        <v>0.14586756141118298</v>
+        <v>0.14575787371297541</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>278</v>
+        <v>189</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="12">
-        <v>0.3</v>
+        <v>57</v>
+      </c>
+      <c r="D12" s="14">
+        <v>0.33</v>
       </c>
       <c r="E12" s="17">
-        <v>3940</v>
+        <v>40710</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>149</v>
@@ -17186,33 +17189,33 @@
         <v>3</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>631</v>
+        <v>436</v>
       </c>
       <c r="I12" s="21">
-        <v>3.1775252121018109E-2</v>
+        <v>2.0560927156150488E-2</v>
       </c>
       <c r="J12" s="11">
-        <v>7.772686245920965E-2</v>
+        <v>5.2509447644274142E-2</v>
       </c>
       <c r="K12" s="19">
-        <v>0.17564667785103982</v>
+        <v>9.8384522634575783E-2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
-        <v>136</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="12">
-        <v>0</v>
+        <v>154</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="14">
+        <v>0.29649999999999999</v>
       </c>
       <c r="E13" s="17">
-        <v>18320</v>
+        <v>45790</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>147</v>
@@ -17221,33 +17224,33 @@
         <v>2</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="I13" s="21">
-        <v>3.00352401622433E-2</v>
+        <v>1.0814862419007986E-2</v>
       </c>
       <c r="J13" s="11">
-        <v>3.8749933264286412E-2</v>
+        <v>2.1326458588648865E-2</v>
       </c>
       <c r="K13" s="19">
-        <v>5.2153145625800673E-2</v>
+        <v>4.7382013074403595E-2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
-        <v>137</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="12">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="14">
+        <v>0.29649999999999999</v>
       </c>
       <c r="E14" s="17">
-        <v>18320</v>
+        <v>45790</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>148</v>
@@ -17256,33 +17259,33 @@
         <v>1</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="I14" s="21">
-        <v>5.2013401602031863E-2</v>
+        <v>6.4999123976238193E-2</v>
       </c>
       <c r="J14" s="11">
-        <v>9.6639488055183576E-2</v>
+        <v>8.3671628180126287E-2</v>
       </c>
       <c r="K14" s="19">
-        <v>0.1412655745083353</v>
+        <v>0.12792944909661313</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
-        <v>138</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="12">
-        <v>0</v>
+        <v>156</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="14">
+        <v>0.29649999999999999</v>
       </c>
       <c r="E15" s="17">
-        <v>18320</v>
+        <v>45790</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>149</v>
@@ -17291,33 +17294,33 @@
         <v>3</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="I15" s="21">
-        <v>0.13558370993750485</v>
+        <v>3.0613042303682315E-2</v>
       </c>
       <c r="J15" s="11">
-        <v>0.13966594784360642</v>
+        <v>5.2233242520439038E-2</v>
       </c>
       <c r="K15" s="19">
-        <v>0.14374818574970799</v>
+        <v>0.10278884219992371</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D16" s="12">
-        <v>0.2</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E16" s="17">
-        <v>46560</v>
+        <v>20270</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>147</v>
@@ -17326,33 +17329,33 @@
         <v>2</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>431</v>
+        <v>449</v>
       </c>
       <c r="I16" s="21">
-        <v>1.3053323728168212E-2</v>
+        <v>2.8133418218389633E-2</v>
       </c>
       <c r="J16" s="11">
-        <v>3.8615179535260599E-2</v>
+        <v>4.260014009712218E-2</v>
       </c>
       <c r="K16" s="19">
-        <v>7.2563296590786711E-2</v>
+        <v>6.5631129659066201E-2</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D17" s="12">
-        <v>0.2</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E17" s="17">
-        <v>46560</v>
+        <v>20270</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>148</v>
@@ -17361,33 +17364,33 @@
         <v>1</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>432</v>
+        <v>450</v>
       </c>
       <c r="I17" s="21">
-        <v>2.7006871078283409E-2</v>
+        <v>2.8562833933124917E-2</v>
       </c>
       <c r="J17" s="11">
-        <v>3.5702390116212165E-2</v>
+        <v>3.3668321262918049E-2</v>
       </c>
       <c r="K17" s="19">
-        <v>7.7167293004254456E-2</v>
+        <v>5.9840006026847879E-2</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D18" s="12">
-        <v>0.2</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E18" s="17">
-        <v>46560</v>
+        <v>20270</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>149</v>
@@ -17396,33 +17399,33 @@
         <v>3</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>433</v>
+        <v>451</v>
       </c>
       <c r="I18" s="21">
-        <v>4.031345682438018E-2</v>
+        <v>4.5006143104442863E-2</v>
       </c>
       <c r="J18" s="11">
-        <v>8.7956541840036984E-2</v>
+        <v>9.7925836576667369E-2</v>
       </c>
       <c r="K18" s="19">
-        <v>0.16854819678602634</v>
+        <v>0.20175355972940359</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="14">
-        <v>0.33</v>
+        <v>66</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0.09</v>
       </c>
       <c r="E19" s="17">
-        <v>40710</v>
+        <v>12970</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>147</v>
@@ -17431,33 +17434,33 @@
         <v>2</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>434</v>
+        <v>464</v>
       </c>
       <c r="I19" s="21">
-        <v>5.0971334634377701E-3</v>
+        <v>2.8908554313976806E-2</v>
       </c>
       <c r="J19" s="11">
-        <v>1.3283074716208843E-2</v>
+        <v>2.8908554313976806E-2</v>
       </c>
       <c r="K19" s="19">
-        <v>2.9687453061613304E-2</v>
+        <v>2.8908554313976806E-2</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="14">
-        <v>0.33</v>
+        <v>66</v>
+      </c>
+      <c r="D20" s="12">
+        <v>0.09</v>
       </c>
       <c r="E20" s="17">
-        <v>40710</v>
+        <v>12970</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>148</v>
@@ -17466,33 +17469,33 @@
         <v>1</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>435</v>
+        <v>465</v>
       </c>
       <c r="I20" s="21">
-        <v>3.6356493934084376E-2</v>
+        <v>4.3196082167742358E-2</v>
       </c>
       <c r="J20" s="11">
-        <v>5.1170006157927071E-2</v>
+        <v>4.3196082167742358E-2</v>
       </c>
       <c r="K20" s="19">
-        <v>0.14575787371297541</v>
+        <v>4.3196082167742358E-2</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="14">
-        <v>0.33</v>
+        <v>66</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0.09</v>
       </c>
       <c r="E21" s="17">
-        <v>40710</v>
+        <v>12970</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>149</v>
@@ -17501,33 +17504,33 @@
         <v>3</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>436</v>
+        <v>466</v>
       </c>
       <c r="I21" s="21">
-        <v>2.0560927156150488E-2</v>
+        <v>3.1775252121018109E-2</v>
       </c>
       <c r="J21" s="11">
-        <v>5.2509447644274142E-2</v>
+        <v>7.772686245920965E-2</v>
       </c>
       <c r="K21" s="19">
-        <v>9.8384522634575783E-2</v>
+        <v>0.17564667785103982</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
-        <v>145</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>58</v>
+        <v>172</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="D22" s="12">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="E22" s="17">
-        <v>9200</v>
+        <v>50110</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>147</v>
@@ -17536,33 +17539,33 @@
         <v>2</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>437</v>
+        <v>482</v>
       </c>
       <c r="I22" s="21">
-        <v>7.6776669196152352E-3</v>
+        <v>2.5368162847767085E-2</v>
       </c>
       <c r="J22" s="11">
-        <v>2.9815233273297551E-2</v>
+        <v>6.2486118309024938E-2</v>
       </c>
       <c r="K22" s="19">
-        <v>6.2950946325533164E-2</v>
+        <v>8.8556619310681109E-2</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
-        <v>146</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>58</v>
+        <v>173</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="D23" s="12">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="E23" s="17">
-        <v>9200</v>
+        <v>50110</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>148</v>
@@ -17571,33 +17574,33 @@
         <v>1</v>
       </c>
       <c r="H23" s="23" t="s">
-        <v>438</v>
+        <v>483</v>
       </c>
       <c r="I23" s="21">
-        <v>3.7106903422739E-2</v>
+        <v>0.10794234869911362</v>
       </c>
       <c r="J23" s="11">
-        <v>7.6127636686032188E-2</v>
+        <v>0.10794234869911362</v>
       </c>
       <c r="K23" s="19">
-        <v>0.14586756141118298</v>
+        <v>0.10794234869911362</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
-        <v>147</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>58</v>
+        <v>174</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="D24" s="12">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="E24" s="17">
-        <v>9200</v>
+        <v>50110</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>149</v>
@@ -17606,33 +17609,33 @@
         <v>3</v>
       </c>
       <c r="H24" s="23" t="s">
-        <v>439</v>
+        <v>484</v>
       </c>
       <c r="I24" s="21">
-        <v>3.1775252121018109E-2</v>
+        <v>4.0509547144845739E-2</v>
       </c>
       <c r="J24" s="11">
-        <v>7.772686245920965E-2</v>
+        <v>4.6843465452250974E-2</v>
       </c>
       <c r="K24" s="19">
-        <v>0.17564667785103982</v>
+        <v>5.3177383759656201E-2</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
-        <v>148</v>
+        <v>184</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="12">
-        <v>0.31</v>
+        <v>71</v>
+      </c>
+      <c r="D25" s="14">
+        <v>0.125</v>
       </c>
       <c r="E25" s="17">
-        <v>460</v>
+        <v>52550</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>147</v>
@@ -17641,33 +17644,33 @@
         <v>2</v>
       </c>
       <c r="H25" s="23" t="s">
-        <v>446</v>
+        <v>476</v>
       </c>
       <c r="I25" s="21">
-        <v>7.6776669196152352E-3</v>
+        <v>7.7882751612873193E-3</v>
       </c>
       <c r="J25" s="11">
-        <v>2.9815233273297551E-2</v>
+        <v>1.7900885441206306E-2</v>
       </c>
       <c r="K25" s="19">
-        <v>6.2950946325533164E-2</v>
+        <v>4.7340210689394438E-2</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="12">
-        <v>0.31</v>
+        <v>71</v>
+      </c>
+      <c r="D26" s="14">
+        <v>0.125</v>
       </c>
       <c r="E26" s="17">
-        <v>460</v>
+        <v>52550</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>148</v>
@@ -17676,33 +17679,33 @@
         <v>1</v>
       </c>
       <c r="H26" s="23" t="s">
-        <v>447</v>
+        <v>477</v>
       </c>
       <c r="I26" s="21">
-        <v>3.7106903422739E-2</v>
+        <v>4.2177160018072202E-2</v>
       </c>
       <c r="J26" s="11">
-        <v>7.6127636686032188E-2</v>
+        <v>0.12878701269006518</v>
       </c>
       <c r="K26" s="19">
-        <v>0.14586756141118298</v>
+        <v>0.13179677943665277</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="12">
-        <v>0.31</v>
+        <v>71</v>
+      </c>
+      <c r="D27" s="14">
+        <v>0.125</v>
       </c>
       <c r="E27" s="17">
-        <v>460</v>
+        <v>52550</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>149</v>
@@ -17711,33 +17714,33 @@
         <v>3</v>
       </c>
       <c r="H27" s="23" t="s">
-        <v>448</v>
+        <v>478</v>
       </c>
       <c r="I27" s="21">
-        <v>3.1775252121018109E-2</v>
+        <v>2.3137934660649853E-2</v>
       </c>
       <c r="J27" s="11">
-        <v>7.772686245920965E-2</v>
+        <v>6.8461195512022288E-2</v>
       </c>
       <c r="K27" s="19">
-        <v>0.17564667785103982</v>
+        <v>0.14395284553684834</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
-        <v>151</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="12">
-        <v>0.15</v>
+        <v>193</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="14">
+        <v>0.27900000000000003</v>
       </c>
       <c r="E28" s="17">
-        <v>4120</v>
+        <v>32830</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>147</v>
@@ -17746,33 +17749,33 @@
         <v>2</v>
       </c>
       <c r="H28" s="23" t="s">
-        <v>443</v>
+        <v>488</v>
       </c>
       <c r="I28" s="21">
-        <v>7.6776669196152352E-3</v>
+        <v>9.5958740467727392E-3</v>
       </c>
       <c r="J28" s="11">
-        <v>2.9815233273297551E-2</v>
+        <v>2.000235955350866E-2</v>
       </c>
       <c r="K28" s="19">
-        <v>6.2950946325533164E-2</v>
+        <v>4.0666996611319353E-2</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
-        <v>152</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="12">
-        <v>0.15</v>
+        <v>194</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="14">
+        <v>0.27900000000000003</v>
       </c>
       <c r="E29" s="17">
-        <v>4120</v>
+        <v>32830</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>148</v>
@@ -17781,33 +17784,33 @@
         <v>1</v>
       </c>
       <c r="H29" s="23" t="s">
-        <v>444</v>
+        <v>489</v>
       </c>
       <c r="I29" s="21">
-        <v>3.7106903422739E-2</v>
+        <v>3.972062576059085E-2</v>
       </c>
       <c r="J29" s="11">
-        <v>7.6127636686032188E-2</v>
+        <v>6.1999169361979495E-2</v>
       </c>
       <c r="K29" s="19">
-        <v>0.14586756141118298</v>
+        <v>0.10827656744114039</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
-        <v>153</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" s="12">
-        <v>0.15</v>
+        <v>195</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="14">
+        <v>0.27900000000000003</v>
       </c>
       <c r="E30" s="17">
-        <v>4120</v>
+        <v>32830</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>149</v>
@@ -17816,33 +17819,33 @@
         <v>3</v>
       </c>
       <c r="H30" s="23" t="s">
-        <v>445</v>
+        <v>490</v>
       </c>
       <c r="I30" s="21">
-        <v>3.1775252121018109E-2</v>
+        <v>2.191384689688711E-2</v>
       </c>
       <c r="J30" s="11">
-        <v>7.772686245920965E-2</v>
+        <v>4.8206183032513075E-2</v>
       </c>
       <c r="K30" s="19">
-        <v>0.17564667785103982</v>
+        <v>9.9721619084336896E-2</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
-        <v>154</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="14">
-        <v>0.29649999999999999</v>
+        <v>214</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="12">
+        <v>0.15</v>
       </c>
       <c r="E31" s="17">
-        <v>45790</v>
+        <v>14990</v>
       </c>
       <c r="F31" s="9" t="s">
         <v>147</v>
@@ -17851,33 +17854,33 @@
         <v>2</v>
       </c>
       <c r="H31" s="23" t="s">
-        <v>407</v>
+        <v>527</v>
       </c>
       <c r="I31" s="21">
-        <v>1.0814862419007986E-2</v>
+        <v>9.8915836962393134E-3</v>
       </c>
       <c r="J31" s="11">
-        <v>2.1326458588648865E-2</v>
+        <v>2.6740901162528259E-2</v>
       </c>
       <c r="K31" s="19">
-        <v>4.7382013074403595E-2</v>
+        <v>6.4025818074001817E-2</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
-        <v>155</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32" s="14">
-        <v>0.29649999999999999</v>
+        <v>215</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="12">
+        <v>0.15</v>
       </c>
       <c r="E32" s="17">
-        <v>45790</v>
+        <v>14990</v>
       </c>
       <c r="F32" s="9" t="s">
         <v>148</v>
@@ -17886,33 +17889,33 @@
         <v>1</v>
       </c>
       <c r="H32" s="23" t="s">
-        <v>408</v>
+        <v>528</v>
       </c>
       <c r="I32" s="21">
-        <v>6.4999123976238193E-2</v>
+        <v>7.4935681341510657E-2</v>
       </c>
       <c r="J32" s="11">
-        <v>8.3671628180126287E-2</v>
+        <v>7.7393698378709408E-2</v>
       </c>
       <c r="K32" s="19">
-        <v>0.12792944909661313</v>
+        <v>0.32196630850285968</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
-        <v>156</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D33" s="14">
-        <v>0.29649999999999999</v>
+        <v>216</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="12">
+        <v>0.15</v>
       </c>
       <c r="E33" s="17">
-        <v>45790</v>
+        <v>14990</v>
       </c>
       <c r="F33" s="9" t="s">
         <v>149</v>
@@ -17921,33 +17924,33 @@
         <v>3</v>
       </c>
       <c r="H33" s="23" t="s">
-        <v>409</v>
+        <v>529</v>
       </c>
       <c r="I33" s="21">
-        <v>3.0613042303682315E-2</v>
+        <v>0.42909790469922893</v>
       </c>
       <c r="J33" s="11">
-        <v>5.2233242520439038E-2</v>
+        <v>0.44635496240933875</v>
       </c>
       <c r="K33" s="19">
-        <v>0.10278884219992371</v>
+        <v>0.46361202011944858</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
-        <v>157</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>62</v>
+        <v>220</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="D34" s="12">
-        <v>0.28999999999999998</v>
+        <v>0.125</v>
       </c>
       <c r="E34" s="17">
-        <v>20270</v>
+        <v>115530</v>
       </c>
       <c r="F34" s="9" t="s">
         <v>147</v>
@@ -17956,33 +17959,33 @@
         <v>2</v>
       </c>
       <c r="H34" s="23" t="s">
-        <v>449</v>
+        <v>518</v>
       </c>
       <c r="I34" s="21">
-        <v>2.8133418218389633E-2</v>
+        <v>7.6776669196152352E-3</v>
       </c>
       <c r="J34" s="11">
-        <v>4.260014009712218E-2</v>
+        <v>2.9815233273297551E-2</v>
       </c>
       <c r="K34" s="19">
-        <v>6.5631129659066201E-2</v>
+        <v>6.2950946325533164E-2</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
-        <v>158</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>62</v>
+        <v>221</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="D35" s="12">
-        <v>0.28999999999999998</v>
+        <v>0.125</v>
       </c>
       <c r="E35" s="17">
-        <v>20270</v>
+        <v>115530</v>
       </c>
       <c r="F35" s="9" t="s">
         <v>148</v>
@@ -17991,33 +17994,33 @@
         <v>1</v>
       </c>
       <c r="H35" s="23" t="s">
-        <v>450</v>
+        <v>519</v>
       </c>
       <c r="I35" s="21">
-        <v>2.8562833933124917E-2</v>
+        <v>3.7106903422739E-2</v>
       </c>
       <c r="J35" s="11">
-        <v>3.3668321262918049E-2</v>
+        <v>7.6127636686032188E-2</v>
       </c>
       <c r="K35" s="19">
-        <v>5.9840006026847879E-2</v>
+        <v>0.14586756141118298</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
-        <v>159</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>62</v>
+        <v>222</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="D36" s="12">
-        <v>0.28999999999999998</v>
+        <v>0.125</v>
       </c>
       <c r="E36" s="17">
-        <v>20270</v>
+        <v>115530</v>
       </c>
       <c r="F36" s="9" t="s">
         <v>149</v>
@@ -18026,33 +18029,33 @@
         <v>3</v>
       </c>
       <c r="H36" s="23" t="s">
-        <v>451</v>
+        <v>520</v>
       </c>
       <c r="I36" s="21">
-        <v>4.5006143104442863E-2</v>
+        <v>3.1775252121018109E-2</v>
       </c>
       <c r="J36" s="11">
-        <v>9.7925836576667369E-2</v>
+        <v>7.772686245920965E-2</v>
       </c>
       <c r="K36" s="19">
-        <v>0.20175355972940359</v>
+        <v>0.17564667785103982</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
-        <v>160</v>
+        <v>223</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D37" s="12">
-        <v>0.25</v>
+        <v>84</v>
+      </c>
+      <c r="D37" s="14">
+        <v>0.33750000000000002</v>
       </c>
       <c r="E37" s="17">
-        <v>3590</v>
+        <v>15080</v>
       </c>
       <c r="F37" s="9" t="s">
         <v>147</v>
@@ -18061,33 +18064,33 @@
         <v>2</v>
       </c>
       <c r="H37" s="23" t="s">
-        <v>452</v>
+        <v>521</v>
       </c>
       <c r="I37" s="21">
-        <v>7.6776669196152352E-3</v>
+        <v>3.9665411153435755E-3</v>
       </c>
       <c r="J37" s="11">
-        <v>2.9815233273297551E-2</v>
+        <v>7.5701622809655261E-3</v>
       </c>
       <c r="K37" s="19">
-        <v>6.2950946325533164E-2</v>
+        <v>3.8707634775383581E-2</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="12">
-        <v>0.25</v>
+        <v>84</v>
+      </c>
+      <c r="D38" s="14">
+        <v>0.33750000000000002</v>
       </c>
       <c r="E38" s="17">
-        <v>3590</v>
+        <v>15080</v>
       </c>
       <c r="F38" s="9" t="s">
         <v>148</v>
@@ -18096,33 +18099,33 @@
         <v>1</v>
       </c>
       <c r="H38" s="23" t="s">
-        <v>453</v>
+        <v>522</v>
       </c>
       <c r="I38" s="21">
-        <v>3.7106903422739E-2</v>
+        <v>7.4129908231593822E-2</v>
       </c>
       <c r="J38" s="11">
-        <v>7.6127636686032188E-2</v>
+        <v>7.4129908231593822E-2</v>
       </c>
       <c r="K38" s="19">
-        <v>0.14586756141118298</v>
+        <v>7.4129908231593822E-2</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
-        <v>162</v>
+        <v>225</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D39" s="12">
-        <v>0.25</v>
+        <v>84</v>
+      </c>
+      <c r="D39" s="14">
+        <v>0.33750000000000002</v>
       </c>
       <c r="E39" s="17">
-        <v>3590</v>
+        <v>15080</v>
       </c>
       <c r="F39" s="9" t="s">
         <v>149</v>
@@ -18131,7 +18134,7 @@
         <v>3</v>
       </c>
       <c r="H39" s="23" t="s">
-        <v>454</v>
+        <v>523</v>
       </c>
       <c r="I39" s="21">
         <v>3.1775252121018109E-2</v>
@@ -18145,19 +18148,19 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
-        <v>163</v>
+        <v>226</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="D40" s="12">
-        <v>0.3</v>
+        <v>0.29220000000000002</v>
       </c>
       <c r="E40" s="17">
-        <v>4090</v>
+        <v>77480</v>
       </c>
       <c r="F40" s="9" t="s">
         <v>147</v>
@@ -18166,33 +18169,33 @@
         <v>2</v>
       </c>
       <c r="H40" s="23" t="s">
-        <v>455</v>
+        <v>524</v>
       </c>
       <c r="I40" s="21">
-        <v>7.6776669196152352E-3</v>
+        <v>5.3715854059367796E-2</v>
       </c>
       <c r="J40" s="11">
-        <v>2.9815233273297551E-2</v>
+        <v>8.4134761751951961E-2</v>
       </c>
       <c r="K40" s="19">
-        <v>6.2950946325533164E-2</v>
+        <v>9.4654700017068882E-2</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
-        <v>164</v>
+        <v>227</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="D41" s="12">
-        <v>0.3</v>
+        <v>0.29220000000000002</v>
       </c>
       <c r="E41" s="17">
-        <v>4090</v>
+        <v>77480</v>
       </c>
       <c r="F41" s="9" t="s">
         <v>148</v>
@@ -18201,7 +18204,7 @@
         <v>1</v>
       </c>
       <c r="H41" s="23" t="s">
-        <v>456</v>
+        <v>525</v>
       </c>
       <c r="I41" s="21">
         <v>3.7106903422739E-2</v>
@@ -18215,19 +18218,19 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
-        <v>165</v>
+        <v>228</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="D42" s="12">
-        <v>0.3</v>
+        <v>0.29220000000000002</v>
       </c>
       <c r="E42" s="17">
-        <v>4090</v>
+        <v>77480</v>
       </c>
       <c r="F42" s="9" t="s">
         <v>149</v>
@@ -18236,33 +18239,33 @@
         <v>3</v>
       </c>
       <c r="H42" s="23" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
       <c r="I42" s="21">
-        <v>3.1775252121018109E-2</v>
+        <v>3.5064142930234202E-2</v>
       </c>
       <c r="J42" s="11">
-        <v>7.772686245920965E-2</v>
+        <v>0.13925876692183392</v>
       </c>
       <c r="K42" s="19">
-        <v>0.17564667785103982</v>
+        <v>0.3474594985557658</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
-        <v>166</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D43" s="14">
-        <v>0.16500000000000001</v>
+        <v>241</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" s="12">
+        <v>0.35</v>
       </c>
       <c r="E43" s="17">
-        <v>41000</v>
+        <v>23900</v>
       </c>
       <c r="F43" s="9" t="s">
         <v>147</v>
@@ -18271,33 +18274,33 @@
         <v>2</v>
       </c>
       <c r="H43" s="23" t="s">
-        <v>458</v>
+        <v>551</v>
       </c>
       <c r="I43" s="21">
-        <v>5.7520459967725431E-2</v>
+        <v>3.8135454829697005E-2</v>
       </c>
       <c r="J43" s="11">
-        <v>7.6087438797947271E-2</v>
+        <v>4.8489571566328937E-2</v>
       </c>
       <c r="K43" s="19">
-        <v>9.4654417628169091E-2</v>
+        <v>0.35228264280530447</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
-        <v>167</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D44" s="14">
-        <v>0.16500000000000001</v>
+        <v>242</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" s="12">
+        <v>0.35</v>
       </c>
       <c r="E44" s="17">
-        <v>41000</v>
+        <v>23900</v>
       </c>
       <c r="F44" s="9" t="s">
         <v>148</v>
@@ -18306,33 +18309,33 @@
         <v>1</v>
       </c>
       <c r="H44" s="23" t="s">
-        <v>459</v>
+        <v>552</v>
       </c>
       <c r="I44" s="21">
-        <v>4.9674792065858384E-2</v>
+        <v>3.7106903422739E-2</v>
       </c>
       <c r="J44" s="11">
-        <v>6.8489885558842098E-2</v>
+        <v>7.6127636686032188E-2</v>
       </c>
       <c r="K44" s="19">
-        <v>0.14325769370247532</v>
+        <v>0.14586756141118298</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
-        <v>168</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D45" s="14">
-        <v>0.16500000000000001</v>
+        <v>243</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" s="12">
+        <v>0.35</v>
       </c>
       <c r="E45" s="17">
-        <v>41000</v>
+        <v>23900</v>
       </c>
       <c r="F45" s="9" t="s">
         <v>149</v>
@@ -18341,33 +18344,33 @@
         <v>3</v>
       </c>
       <c r="H45" s="23" t="s">
-        <v>460</v>
+        <v>553</v>
       </c>
       <c r="I45" s="21">
-        <v>0.16522583097604318</v>
+        <v>3.1775252121018109E-2</v>
       </c>
       <c r="J45" s="11">
-        <v>0.30382260675976547</v>
+        <v>7.772686245920965E-2</v>
       </c>
       <c r="K45" s="19">
-        <v>0.33933079029307395</v>
+        <v>0.17564667785103982</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
-        <v>169</v>
+        <v>253</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="D46" s="12">
-        <v>0.09</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="E46" s="17">
-        <v>12970</v>
+        <v>186710</v>
       </c>
       <c r="F46" s="9" t="s">
         <v>147</v>
@@ -18376,33 +18379,33 @@
         <v>2</v>
       </c>
       <c r="H46" s="23" t="s">
-        <v>464</v>
+        <v>536</v>
       </c>
       <c r="I46" s="21">
-        <v>2.8908554313976806E-2</v>
+        <v>7.6776669196152352E-3</v>
       </c>
       <c r="J46" s="11">
-        <v>2.8908554313976806E-2</v>
+        <v>2.9815233273297551E-2</v>
       </c>
       <c r="K46" s="19">
-        <v>2.8908554313976806E-2</v>
+        <v>6.2950946325533164E-2</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
-        <v>170</v>
+        <v>254</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="D47" s="12">
-        <v>0.09</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="E47" s="17">
-        <v>12970</v>
+        <v>186710</v>
       </c>
       <c r="F47" s="9" t="s">
         <v>148</v>
@@ -18411,33 +18414,33 @@
         <v>1</v>
       </c>
       <c r="H47" s="23" t="s">
-        <v>465</v>
+        <v>537</v>
       </c>
       <c r="I47" s="21">
-        <v>4.3196082167742358E-2</v>
+        <v>3.7106903422739E-2</v>
       </c>
       <c r="J47" s="11">
-        <v>4.3196082167742358E-2</v>
+        <v>7.6127636686032188E-2</v>
       </c>
       <c r="K47" s="19">
-        <v>4.3196082167742358E-2</v>
+        <v>0.14586756141118298</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
-        <v>171</v>
+        <v>255</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="D48" s="12">
-        <v>0.09</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="E48" s="17">
-        <v>12970</v>
+        <v>186710</v>
       </c>
       <c r="F48" s="9" t="s">
         <v>149</v>
@@ -18446,7 +18449,7 @@
         <v>3</v>
       </c>
       <c r="H48" s="23" t="s">
-        <v>466</v>
+        <v>538</v>
       </c>
       <c r="I48" s="21">
         <v>3.1775252121018109E-2</v>
@@ -18460,19 +18463,19 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
-        <v>172</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D49" s="12">
-        <v>0.2</v>
+        <v>193</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D49" s="14">
+        <v>0.27900000000000003</v>
       </c>
       <c r="E49" s="17">
-        <v>50110</v>
+        <v>32830</v>
       </c>
       <c r="F49" s="9" t="s">
         <v>147</v>
@@ -18481,33 +18484,33 @@
         <v>2</v>
       </c>
       <c r="H49" s="23" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="I49" s="21">
-        <v>2.5368162847767085E-2</v>
+        <v>9.5958740467727392E-3</v>
       </c>
       <c r="J49" s="11">
-        <v>6.2486118309024938E-2</v>
+        <v>2.000235955350866E-2</v>
       </c>
       <c r="K49" s="19">
-        <v>8.8556619310681109E-2</v>
+        <v>4.0666996611319353E-2</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
-        <v>173</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D50" s="12">
-        <v>0.2</v>
+        <v>194</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D50" s="14">
+        <v>0.27900000000000003</v>
       </c>
       <c r="E50" s="17">
-        <v>50110</v>
+        <v>32830</v>
       </c>
       <c r="F50" s="9" t="s">
         <v>148</v>
@@ -18516,33 +18519,33 @@
         <v>1</v>
       </c>
       <c r="H50" s="23" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="I50" s="21">
-        <v>0.10794234869911362</v>
+        <v>3.972062576059085E-2</v>
       </c>
       <c r="J50" s="11">
-        <v>0.10794234869911362</v>
+        <v>6.1999169361979495E-2</v>
       </c>
       <c r="K50" s="19">
-        <v>0.10794234869911362</v>
+        <v>0.10827656744114039</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
-        <v>174</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D51" s="12">
-        <v>0.2</v>
+        <v>195</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D51" s="14">
+        <v>0.27900000000000003</v>
       </c>
       <c r="E51" s="17">
-        <v>50110</v>
+        <v>32830</v>
       </c>
       <c r="F51" s="9" t="s">
         <v>149</v>
@@ -18551,33 +18554,33 @@
         <v>3</v>
       </c>
       <c r="H51" s="23" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="I51" s="21">
-        <v>4.0509547144845739E-2</v>
+        <v>2.191384689688711E-2</v>
       </c>
       <c r="J51" s="11">
-        <v>4.6843465452250974E-2</v>
+        <v>4.8206183032513075E-2</v>
       </c>
       <c r="K51" s="19">
-        <v>5.3177383759656201E-2</v>
+        <v>9.9721619084336896E-2</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
-        <v>175</v>
+        <v>268</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="D52" s="12">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E52" s="17">
-        <v>1590</v>
+        <v>48850</v>
       </c>
       <c r="F52" s="9" t="s">
         <v>147</v>
@@ -18586,33 +18589,33 @@
         <v>2</v>
       </c>
       <c r="H52" s="23" t="s">
-        <v>473</v>
+        <v>572</v>
       </c>
       <c r="I52" s="21">
-        <v>1.6648964087560718E-2</v>
+        <v>1.4854204674963914E-2</v>
       </c>
       <c r="J52" s="11">
-        <v>4.6153182111543338E-2</v>
+        <v>2.8292434686753326E-2</v>
       </c>
       <c r="K52" s="19">
-        <v>0.10381519824209764</v>
+        <v>4.9064997448198477E-2</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
-        <v>176</v>
+        <v>269</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="D53" s="12">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E53" s="17">
-        <v>1590</v>
+        <v>48850</v>
       </c>
       <c r="F53" s="9" t="s">
         <v>148</v>
@@ -18621,33 +18624,33 @@
         <v>1</v>
       </c>
       <c r="H53" s="23" t="s">
-        <v>474</v>
+        <v>573</v>
       </c>
       <c r="I53" s="21">
-        <v>2.3075425831625355E-2</v>
+        <v>7.9637951254629843E-2</v>
       </c>
       <c r="J53" s="11">
-        <v>5.3332398714073782E-2</v>
+        <v>0.16757206403261762</v>
       </c>
       <c r="K53" s="19">
-        <v>8.8932247043052373E-2</v>
+        <v>0.2503872328093617</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
-        <v>177</v>
+        <v>270</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="D54" s="12">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E54" s="17">
-        <v>1590</v>
+        <v>48850</v>
       </c>
       <c r="F54" s="9" t="s">
         <v>149</v>
@@ -18656,33 +18659,33 @@
         <v>3</v>
       </c>
       <c r="H54" s="23" t="s">
-        <v>475</v>
+        <v>574</v>
       </c>
       <c r="I54" s="21">
-        <v>3.8948449888822879E-2</v>
+        <v>2.8496261638880714E-2</v>
       </c>
       <c r="J54" s="11">
-        <v>9.3668504847941245E-2</v>
+        <v>7.5505296048939477E-2</v>
       </c>
       <c r="K54" s="19">
-        <v>0.16334171554231772</v>
+        <v>0.16400338441205387</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
-        <v>178</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>69</v>
+        <v>280</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="D55" s="12">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="E55" s="17">
-        <v>3440</v>
+        <v>93530</v>
       </c>
       <c r="F55" s="9" t="s">
         <v>147</v>
@@ -18691,33 +18694,33 @@
         <v>2</v>
       </c>
       <c r="H55" s="23" t="s">
-        <v>467</v>
+        <v>575</v>
       </c>
       <c r="I55" s="21">
-        <v>1.0493244285750485E-2</v>
+        <v>1.7579857913197022E-2</v>
       </c>
       <c r="J55" s="11">
-        <v>2.71310895778357E-2</v>
+        <v>3.9293250041589123E-2</v>
       </c>
       <c r="K55" s="19">
-        <v>6.0046407313029126E-2</v>
+        <v>6.6328782190571478E-2</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
-        <v>179</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>69</v>
+        <v>281</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="D56" s="12">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="E56" s="17">
-        <v>3440</v>
+        <v>93530</v>
       </c>
       <c r="F56" s="9" t="s">
         <v>148</v>
@@ -18726,33 +18729,33 @@
         <v>1</v>
       </c>
       <c r="H56" s="23" t="s">
-        <v>468</v>
+        <v>576</v>
       </c>
       <c r="I56" s="21">
-        <v>3.7106903422739E-2</v>
+        <v>6.4540927667341264E-2</v>
       </c>
       <c r="J56" s="11">
-        <v>7.6127636686032188E-2</v>
+        <v>7.807473670294772E-2</v>
       </c>
       <c r="K56" s="19">
-        <v>0.14586756141118298</v>
+        <v>8.1514967749048886E-2</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
-        <v>180</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>69</v>
+        <v>282</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="D57" s="12">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="E57" s="17">
-        <v>3440</v>
+        <v>93530</v>
       </c>
       <c r="F57" s="9" t="s">
         <v>149</v>
@@ -18761,33 +18764,33 @@
         <v>3</v>
       </c>
       <c r="H57" s="23" t="s">
-        <v>469</v>
+        <v>577</v>
       </c>
       <c r="I57" s="21">
-        <v>0.2341812046213155</v>
+        <v>4.0461697288407296E-2</v>
       </c>
       <c r="J57" s="11">
-        <v>0.25589792494181657</v>
+        <v>0.13410341552652499</v>
       </c>
       <c r="K57" s="19">
-        <v>0.32363130476797819</v>
+        <v>0.264359717997388</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
-        <v>181</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>70</v>
+        <v>301</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="D58" s="12">
-        <v>0.25</v>
+        <v>0.19</v>
       </c>
       <c r="E58" s="17">
-        <v>6550</v>
+        <v>13310</v>
       </c>
       <c r="F58" s="9" t="s">
         <v>147</v>
@@ -18796,33 +18799,33 @@
         <v>2</v>
       </c>
       <c r="H58" s="23" t="s">
-        <v>479</v>
+        <v>599</v>
       </c>
       <c r="I58" s="21">
-        <v>1.2501510115088132E-2</v>
+        <v>7.7604780687817645E-3</v>
       </c>
       <c r="J58" s="11">
-        <v>8.0634369350402954E-2</v>
+        <v>1.9754618817742476E-2</v>
       </c>
       <c r="K58" s="19">
-        <v>0.15665499431662597</v>
+        <v>4.7204340446976051E-2</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
-        <v>182</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>70</v>
+        <v>302</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="D59" s="12">
-        <v>0.25</v>
+        <v>0.19</v>
       </c>
       <c r="E59" s="17">
-        <v>6550</v>
+        <v>13310</v>
       </c>
       <c r="F59" s="9" t="s">
         <v>148</v>
@@ -18831,33 +18834,33 @@
         <v>1</v>
       </c>
       <c r="H59" s="23" t="s">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="I59" s="21">
-        <v>3.7106903422739E-2</v>
+        <v>4.8894110175007825E-2</v>
       </c>
       <c r="J59" s="11">
-        <v>7.6127636686032188E-2</v>
+        <v>9.1222896964660641E-2</v>
       </c>
       <c r="K59" s="19">
-        <v>0.14586756141118298</v>
+        <v>0.15437882533248093</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
-        <v>183</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>70</v>
+        <v>303</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="D60" s="12">
-        <v>0.25</v>
+        <v>0.19</v>
       </c>
       <c r="E60" s="17">
-        <v>6550</v>
+        <v>13310</v>
       </c>
       <c r="F60" s="9" t="s">
         <v>149</v>
@@ -18866,33 +18869,33 @@
         <v>3</v>
       </c>
       <c r="H60" s="23" t="s">
-        <v>481</v>
+        <v>601</v>
       </c>
       <c r="I60" s="21">
-        <v>0.46111736241668738</v>
+        <v>2.9115624036528717E-2</v>
       </c>
       <c r="J60" s="11">
-        <v>0.46111736241668738</v>
+        <v>5.6725411666508019E-2</v>
       </c>
       <c r="K60" s="19">
-        <v>0.46111736241668738</v>
+        <v>0.13488123876248853</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
-        <v>184</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D61" s="14">
-        <v>0.125</v>
+        <v>304</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D61" s="12">
+        <v>0.23</v>
       </c>
       <c r="E61" s="17">
-        <v>52550</v>
+        <v>20470</v>
       </c>
       <c r="F61" s="9" t="s">
         <v>147</v>
@@ -18901,33 +18904,33 @@
         <v>2</v>
       </c>
       <c r="H61" s="23" t="s">
-        <v>476</v>
+        <v>605</v>
       </c>
       <c r="I61" s="21">
-        <v>7.7882751612873193E-3</v>
+        <v>1.0895605332117539E-2</v>
       </c>
       <c r="J61" s="11">
-        <v>1.7900885441206306E-2</v>
+        <v>2.426116080443989E-2</v>
       </c>
       <c r="K61" s="19">
-        <v>4.7340210689394438E-2</v>
+        <v>4.1981113904440009E-2</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
-        <v>185</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D62" s="14">
-        <v>0.125</v>
+        <v>305</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D62" s="12">
+        <v>0.23</v>
       </c>
       <c r="E62" s="17">
-        <v>52550</v>
+        <v>20470</v>
       </c>
       <c r="F62" s="9" t="s">
         <v>148</v>
@@ -18936,33 +18939,33 @@
         <v>1</v>
       </c>
       <c r="H62" s="23" t="s">
-        <v>477</v>
+        <v>606</v>
       </c>
       <c r="I62" s="21">
-        <v>4.2177160018072202E-2</v>
+        <v>0.15430051514610454</v>
       </c>
       <c r="J62" s="11">
-        <v>0.12878701269006518</v>
+        <v>0.20306654968026161</v>
       </c>
       <c r="K62" s="19">
-        <v>0.13179677943665277</v>
+        <v>0.25183258421441873</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
-        <v>186</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D63" s="14">
-        <v>0.125</v>
+        <v>306</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D63" s="12">
+        <v>0.23</v>
       </c>
       <c r="E63" s="17">
-        <v>52550</v>
+        <v>20470</v>
       </c>
       <c r="F63" s="9" t="s">
         <v>149</v>
@@ -18971,33 +18974,33 @@
         <v>3</v>
       </c>
       <c r="H63" s="23" t="s">
-        <v>478</v>
+        <v>607</v>
       </c>
       <c r="I63" s="21">
-        <v>2.3137934660649853E-2</v>
+        <v>4.1137968157593532E-2</v>
       </c>
       <c r="J63" s="11">
-        <v>6.8461195512022288E-2</v>
+        <v>0.22229816593139243</v>
       </c>
       <c r="K63" s="19">
-        <v>0.14395284553684834</v>
+        <v>0.81919954708398379</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
-        <v>187</v>
+        <v>313</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="D64" s="12">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="E64" s="17">
-        <v>85290</v>
+        <v>9510</v>
       </c>
       <c r="F64" s="9" t="s">
         <v>147</v>
@@ -19006,33 +19009,33 @@
         <v>2</v>
       </c>
       <c r="H64" s="23" t="s">
-        <v>470</v>
+        <v>614</v>
       </c>
       <c r="I64" s="21">
-        <v>7.6776669196152352E-3</v>
+        <v>7.6255898968370754E-3</v>
       </c>
       <c r="J64" s="11">
-        <v>2.9815233273297551E-2</v>
+        <v>2.1712497701201795E-2</v>
       </c>
       <c r="K64" s="19">
-        <v>6.2950946325533164E-2</v>
+        <v>4.9958490154229228E-2</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
-        <v>188</v>
+        <v>314</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="D65" s="12">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="E65" s="17">
-        <v>85290</v>
+        <v>9510</v>
       </c>
       <c r="F65" s="9" t="s">
         <v>148</v>
@@ -19041,33 +19044,33 @@
         <v>1</v>
       </c>
       <c r="H65" s="23" t="s">
-        <v>471</v>
+        <v>615</v>
       </c>
       <c r="I65" s="21">
-        <v>3.7106903422739E-2</v>
+        <v>8.1030840332004958E-2</v>
       </c>
       <c r="J65" s="11">
-        <v>7.6127636686032188E-2</v>
+        <v>8.9800781576049774E-2</v>
       </c>
       <c r="K65" s="19">
-        <v>0.14586756141118298</v>
+        <v>9.4809052217966289E-2</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
-        <v>189</v>
+        <v>315</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="D66" s="12">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="E66" s="17">
-        <v>85290</v>
+        <v>9510</v>
       </c>
       <c r="F66" s="9" t="s">
         <v>149</v>
@@ -19076,33 +19079,33 @@
         <v>3</v>
       </c>
       <c r="H66" s="23" t="s">
-        <v>472</v>
+        <v>616</v>
       </c>
       <c r="I66" s="21">
-        <v>3.1775252121018109E-2</v>
+        <v>3.2275212963644238E-2</v>
       </c>
       <c r="J66" s="11">
-        <v>7.772686245920965E-2</v>
+        <v>5.2128986558690429E-2</v>
       </c>
       <c r="K66" s="19">
-        <v>0.17564667785103982</v>
+        <v>0.25499853120037896</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="6">
-        <v>190</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>73</v>
+        <v>316</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="D67" s="12">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="E67" s="17">
-        <v>35770</v>
+        <v>11720</v>
       </c>
       <c r="F67" s="9" t="s">
         <v>147</v>
@@ -19111,33 +19114,33 @@
         <v>2</v>
       </c>
       <c r="H67" s="23" t="s">
-        <v>485</v>
+        <v>617</v>
       </c>
       <c r="I67" s="21">
-        <v>5.7692359953899569E-2</v>
+        <v>8.3602507718769509E-3</v>
       </c>
       <c r="J67" s="11">
-        <v>7.8340997918653468E-2</v>
+        <v>2.7733489972308428E-2</v>
       </c>
       <c r="K67" s="19">
-        <v>9.8368383338804474E-2</v>
+        <v>6.1532133332759857E-2</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
-        <v>191</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>73</v>
+        <v>317</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="D68" s="12">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="E68" s="17">
-        <v>35770</v>
+        <v>11720</v>
       </c>
       <c r="F68" s="9" t="s">
         <v>148</v>
@@ -19146,33 +19149,33 @@
         <v>1</v>
       </c>
       <c r="H68" s="23" t="s">
-        <v>486</v>
+        <v>618</v>
       </c>
       <c r="I68" s="21">
-        <v>3.6993232620799413E-2</v>
+        <v>4.1844629966783377E-2</v>
       </c>
       <c r="J68" s="11">
-        <v>5.6263015448021654E-2</v>
+        <v>9.1728713427436465E-2</v>
       </c>
       <c r="K68" s="19">
-        <v>0.10469107427443941</v>
+        <v>0.18053746129498957</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
-        <v>192</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>73</v>
+        <v>318</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="D69" s="12">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="E69" s="17">
-        <v>35770</v>
+        <v>11720</v>
       </c>
       <c r="F69" s="9" t="s">
         <v>149</v>
@@ -19181,33 +19184,33 @@
         <v>3</v>
       </c>
       <c r="H69" s="23" t="s">
-        <v>487</v>
+        <v>619</v>
       </c>
       <c r="I69" s="21">
-        <v>4.0204390146716638E-2</v>
+        <v>2.2622263228254644E-2</v>
       </c>
       <c r="J69" s="11">
-        <v>0.11743744885025967</v>
+        <v>8.0639512436284227E-2</v>
       </c>
       <c r="K69" s="19">
-        <v>0.35679837574630002</v>
+        <v>0.18977227756183437</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
-        <v>193</v>
+        <v>319</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>204</v>
+        <v>288</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D70" s="14">
-        <v>0.27900000000000003</v>
+        <v>116</v>
+      </c>
+      <c r="D70" s="12">
+        <v>0.17</v>
       </c>
       <c r="E70" s="17">
-        <v>32830</v>
+        <v>52140</v>
       </c>
       <c r="F70" s="9" t="s">
         <v>147</v>
@@ -19216,33 +19219,33 @@
         <v>2</v>
       </c>
       <c r="H70" s="23" t="s">
-        <v>488</v>
+        <v>632</v>
       </c>
       <c r="I70" s="21">
-        <v>9.5958740467727392E-3</v>
+        <v>7.6776669196152352E-3</v>
       </c>
       <c r="J70" s="11">
-        <v>2.000235955350866E-2</v>
+        <v>2.9815233273297551E-2</v>
       </c>
       <c r="K70" s="19">
-        <v>4.0666996611319353E-2</v>
+        <v>6.2950946325533164E-2</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
-        <v>194</v>
+        <v>320</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>204</v>
+        <v>288</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D71" s="14">
-        <v>0.27900000000000003</v>
+        <v>116</v>
+      </c>
+      <c r="D71" s="12">
+        <v>0.17</v>
       </c>
       <c r="E71" s="17">
-        <v>32830</v>
+        <v>52140</v>
       </c>
       <c r="F71" s="9" t="s">
         <v>148</v>
@@ -19251,33 +19254,33 @@
         <v>1</v>
       </c>
       <c r="H71" s="23" t="s">
-        <v>489</v>
+        <v>633</v>
       </c>
       <c r="I71" s="21">
-        <v>3.972062576059085E-2</v>
+        <v>3.7106903422739E-2</v>
       </c>
       <c r="J71" s="11">
-        <v>6.1999169361979495E-2</v>
+        <v>7.6127636686032188E-2</v>
       </c>
       <c r="K71" s="19">
-        <v>0.10827656744114039</v>
+        <v>0.14586756141118298</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
-        <v>195</v>
+        <v>321</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>204</v>
+        <v>288</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D72" s="14">
-        <v>0.27900000000000003</v>
+        <v>116</v>
+      </c>
+      <c r="D72" s="12">
+        <v>0.17</v>
       </c>
       <c r="E72" s="17">
-        <v>32830</v>
+        <v>52140</v>
       </c>
       <c r="F72" s="9" t="s">
         <v>149</v>
@@ -19286,33 +19289,33 @@
         <v>3</v>
       </c>
       <c r="H72" s="23" t="s">
-        <v>490</v>
+        <v>634</v>
       </c>
       <c r="I72" s="21">
-        <v>2.191384689688711E-2</v>
+        <v>3.1775252121018109E-2</v>
       </c>
       <c r="J72" s="11">
-        <v>4.8206183032513075E-2</v>
+        <v>7.772686245920965E-2</v>
       </c>
       <c r="K72" s="19">
-        <v>9.9721619084336896E-2</v>
+        <v>0.17564667785103982</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
-        <v>196</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>75</v>
+        <v>328</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>119</v>
       </c>
       <c r="D73" s="12">
-        <v>0.33300000000000002</v>
+        <v>0.15</v>
       </c>
       <c r="E73" s="17">
-        <v>4930</v>
+        <v>5540</v>
       </c>
       <c r="F73" s="9" t="s">
         <v>147</v>
@@ -19321,33 +19324,33 @@
         <v>2</v>
       </c>
       <c r="H73" s="23" t="s">
-        <v>491</v>
+        <v>635</v>
       </c>
       <c r="I73" s="21">
-        <v>0.12193132142115931</v>
+        <v>1.4400051419042522E-2</v>
       </c>
       <c r="J73" s="11">
-        <v>0.12193132142115931</v>
+        <v>0.13896683786025671</v>
       </c>
       <c r="K73" s="19">
-        <v>0.12193132142115931</v>
+        <v>0.18384509115387371</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
-        <v>197</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>75</v>
+        <v>329</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>119</v>
       </c>
       <c r="D74" s="12">
-        <v>0.33300000000000002</v>
+        <v>0.15</v>
       </c>
       <c r="E74" s="17">
-        <v>4930</v>
+        <v>5540</v>
       </c>
       <c r="F74" s="9" t="s">
         <v>148</v>
@@ -19356,33 +19359,33 @@
         <v>1</v>
       </c>
       <c r="H74" s="23" t="s">
-        <v>492</v>
+        <v>636</v>
       </c>
       <c r="I74" s="21">
-        <v>3.7106903422739E-2</v>
+        <v>2.5165375572703756E-2</v>
       </c>
       <c r="J74" s="11">
-        <v>7.6127636686032188E-2</v>
+        <v>3.0303069195707976E-2</v>
       </c>
       <c r="K74" s="19">
-        <v>0.14586756141118298</v>
+        <v>3.5440762818712196E-2</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
-        <v>198</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>75</v>
+        <v>330</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>119</v>
       </c>
       <c r="D75" s="12">
-        <v>0.33300000000000002</v>
+        <v>0.15</v>
       </c>
       <c r="E75" s="17">
-        <v>4930</v>
+        <v>5540</v>
       </c>
       <c r="F75" s="9" t="s">
         <v>149</v>
@@ -19391,33 +19394,33 @@
         <v>3</v>
       </c>
       <c r="H75" s="23" t="s">
-        <v>493</v>
+        <v>637</v>
       </c>
       <c r="I75" s="21">
-        <v>3.1775252121018109E-2</v>
+        <v>5.5629024518314404E-2</v>
       </c>
       <c r="J75" s="11">
-        <v>7.772686245920965E-2</v>
+        <v>8.092474854197812E-2</v>
       </c>
       <c r="K75" s="19">
-        <v>0.17564667785103982</v>
+        <v>0.25557206391197951</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
-        <v>199</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>76</v>
+        <v>334</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="D76" s="12">
-        <v>0.3211</v>
+        <v>0.22</v>
       </c>
       <c r="E76" s="17">
-        <v>38840</v>
+        <v>17570</v>
       </c>
       <c r="F76" s="9" t="s">
         <v>147</v>
@@ -19426,33 +19429,33 @@
         <v>2</v>
       </c>
       <c r="H76" s="23" t="s">
-        <v>497</v>
+        <v>638</v>
       </c>
       <c r="I76" s="21">
-        <v>8.7510478906557589E-3</v>
+        <v>9.8564864606013776E-3</v>
       </c>
       <c r="J76" s="11">
-        <v>2.0049811821154E-2</v>
+        <v>1.3797553481897691E-2</v>
       </c>
       <c r="K76" s="19">
-        <v>3.8815877210723021E-2</v>
+        <v>1.6719669102632118E-2</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="6">
-        <v>200</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>76</v>
+        <v>335</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="D77" s="12">
-        <v>0.3211</v>
+        <v>0.22</v>
       </c>
       <c r="E77" s="17">
-        <v>38840</v>
+        <v>17570</v>
       </c>
       <c r="F77" s="9" t="s">
         <v>148</v>
@@ -19461,33 +19464,33 @@
         <v>1</v>
       </c>
       <c r="H77" s="23" t="s">
-        <v>498</v>
+        <v>639</v>
       </c>
       <c r="I77" s="21">
-        <v>3.2404413489743551E-2</v>
+        <v>3.7106903422739E-2</v>
       </c>
       <c r="J77" s="11">
-        <v>5.8171810006425316E-2</v>
+        <v>7.6127636686032188E-2</v>
       </c>
       <c r="K77" s="19">
-        <v>0.1028046690478632</v>
+        <v>0.14586756141118298</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
-        <v>201</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>76</v>
+        <v>336</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="D78" s="12">
-        <v>0.3211</v>
+        <v>0.22</v>
       </c>
       <c r="E78" s="17">
-        <v>38840</v>
+        <v>17570</v>
       </c>
       <c r="F78" s="9" t="s">
         <v>149</v>
@@ -19496,33 +19499,33 @@
         <v>3</v>
       </c>
       <c r="H78" s="23" t="s">
-        <v>499</v>
+        <v>640</v>
       </c>
       <c r="I78" s="21">
-        <v>3.715183410727544E-2</v>
+        <v>2.0256902195109172E-2</v>
       </c>
       <c r="J78" s="11">
-        <v>7.5054020508966923E-2</v>
+        <v>2.4140979781198176E-2</v>
       </c>
       <c r="K78" s="19">
-        <v>0.14058399588180168</v>
+        <v>6.3827896454079755E-2</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="6">
-        <v>202</v>
+        <v>337</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>207</v>
+        <v>247</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="D79" s="12">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="E79" s="17">
-        <v>4680</v>
+        <v>22250</v>
       </c>
       <c r="F79" s="9" t="s">
         <v>147</v>
@@ -19531,33 +19534,33 @@
         <v>2</v>
       </c>
       <c r="H79" s="23" t="s">
-        <v>494</v>
+        <v>641</v>
       </c>
       <c r="I79" s="21">
-        <v>4.722900986608404E-2</v>
+        <v>1.4716182100107621E-2</v>
       </c>
       <c r="J79" s="11">
-        <v>4.9345025381885677E-2</v>
+        <v>2.4473868207046459E-2</v>
       </c>
       <c r="K79" s="19">
-        <v>5.1461040897687313E-2</v>
+        <v>4.0090411555517125E-2</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="6">
-        <v>203</v>
+        <v>338</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>207</v>
+        <v>247</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="D80" s="12">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="E80" s="17">
-        <v>4680</v>
+        <v>22250</v>
       </c>
       <c r="F80" s="9" t="s">
         <v>148</v>
@@ -19566,33 +19569,33 @@
         <v>1</v>
       </c>
       <c r="H80" s="23" t="s">
-        <v>495</v>
+        <v>642</v>
       </c>
       <c r="I80" s="21">
-        <v>3.7106903422739E-2</v>
+        <v>2.3799479917396435E-2</v>
       </c>
       <c r="J80" s="11">
-        <v>7.6127636686032188E-2</v>
+        <v>3.3855656323501036E-2</v>
       </c>
       <c r="K80" s="19">
-        <v>0.14586756141118298</v>
+        <v>7.0570052903762739E-2</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="6">
-        <v>204</v>
+        <v>339</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>207</v>
+        <v>247</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="D81" s="12">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="E81" s="17">
-        <v>4680</v>
+        <v>22250</v>
       </c>
       <c r="F81" s="9" t="s">
         <v>149</v>
@@ -19601,33 +19604,33 @@
         <v>3</v>
       </c>
       <c r="H81" s="23" t="s">
-        <v>496</v>
+        <v>643</v>
       </c>
       <c r="I81" s="21">
-        <v>0.32483781278961982</v>
+        <v>4.4444742570705686E-2</v>
       </c>
       <c r="J81" s="11">
-        <v>0.32483781278961982</v>
+        <v>8.7074845798312248E-2</v>
       </c>
       <c r="K81" s="19">
-        <v>0.32483781278961982</v>
+        <v>0.25049277750183718</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="6">
-        <v>205</v>
+        <v>346</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>208</v>
+        <v>248</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="D82" s="12">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="E82" s="17">
-        <v>11390</v>
+        <v>28380</v>
       </c>
       <c r="F82" s="9" t="s">
         <v>147</v>
@@ -19636,33 +19639,33 @@
         <v>2</v>
       </c>
       <c r="H82" s="23" t="s">
-        <v>500</v>
+        <v>425</v>
       </c>
       <c r="I82" s="21">
-        <v>0.11198119338006035</v>
+        <v>9.6986555799139541E-3</v>
       </c>
       <c r="J82" s="11">
-        <v>0.11198119338006035</v>
+        <v>2.2125260559673999E-2</v>
       </c>
       <c r="K82" s="19">
-        <v>0.11198119338006035</v>
+        <v>4.6811394804356352E-2</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="6">
-        <v>206</v>
+        <v>347</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>208</v>
+        <v>248</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="D83" s="12">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="E83" s="17">
-        <v>11390</v>
+        <v>28380</v>
       </c>
       <c r="F83" s="9" t="s">
         <v>148</v>
@@ -19671,33 +19674,33 @@
         <v>1</v>
       </c>
       <c r="H83" s="23" t="s">
-        <v>501</v>
+        <v>426</v>
       </c>
       <c r="I83" s="21">
-        <v>0.11876156961378993</v>
+        <v>2.5633521161723773E-2</v>
       </c>
       <c r="J83" s="11">
-        <v>0.11876156961378993</v>
+        <v>6.2727435741031221E-2</v>
       </c>
       <c r="K83" s="19">
-        <v>0.11876156961378993</v>
+        <v>0.12952682347474745</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="6">
-        <v>207</v>
+        <v>348</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>208</v>
+        <v>248</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="D84" s="12">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="E84" s="17">
-        <v>11390</v>
+        <v>28380</v>
       </c>
       <c r="F84" s="9" t="s">
         <v>149</v>
@@ -19706,33 +19709,33 @@
         <v>3</v>
       </c>
       <c r="H84" s="23" t="s">
-        <v>502</v>
+        <v>427</v>
       </c>
       <c r="I84" s="21">
-        <v>3.1775252121018109E-2</v>
+        <v>2.5974985705945898E-2</v>
       </c>
       <c r="J84" s="11">
-        <v>7.772686245920965E-2</v>
+        <v>6.4361826805022532E-2</v>
       </c>
       <c r="K84" s="19">
-        <v>0.17564667785103982</v>
+        <v>0.18138745410059312</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="6">
-        <v>208</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>79</v>
+        <v>352</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="D85" s="12">
-        <v>0.3</v>
+        <v>0.22</v>
       </c>
       <c r="E85" s="17">
-        <v>1340</v>
+        <v>57900</v>
       </c>
       <c r="F85" s="9" t="s">
         <v>147</v>
@@ -19741,33 +19744,33 @@
         <v>2</v>
       </c>
       <c r="H85" s="23" t="s">
-        <v>503</v>
+        <v>644</v>
       </c>
       <c r="I85" s="21">
-        <v>4.8702753419320538E-2</v>
+        <v>1.6094654514757337E-2</v>
       </c>
       <c r="J85" s="11">
-        <v>5.5225296666622799E-2</v>
+        <v>4.163822853682201E-2</v>
       </c>
       <c r="K85" s="19">
-        <v>6.1747839913925059E-2</v>
+        <v>7.3373678281955235E-2</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="6">
-        <v>209</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>79</v>
+        <v>353</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="D86" s="12">
-        <v>0.3</v>
+        <v>0.22</v>
       </c>
       <c r="E86" s="17">
-        <v>1340</v>
+        <v>57900</v>
       </c>
       <c r="F86" s="9" t="s">
         <v>148</v>
@@ -19776,33 +19779,33 @@
         <v>1</v>
       </c>
       <c r="H86" s="23" t="s">
-        <v>504</v>
+        <v>645</v>
       </c>
       <c r="I86" s="21">
-        <v>3.7106903422739E-2</v>
+        <v>3.1782659930718944E-2</v>
       </c>
       <c r="J86" s="11">
-        <v>7.6127636686032188E-2</v>
+        <v>9.8881398970432882E-2</v>
       </c>
       <c r="K86" s="19">
-        <v>0.14586756141118298</v>
+        <v>0.19148044852645862</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="6">
-        <v>210</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>79</v>
+        <v>354</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="D87" s="12">
-        <v>0.3</v>
+        <v>0.22</v>
       </c>
       <c r="E87" s="17">
-        <v>1340</v>
+        <v>57900</v>
       </c>
       <c r="F87" s="9" t="s">
         <v>149</v>
@@ -19811,33 +19814,33 @@
         <v>3</v>
       </c>
       <c r="H87" s="23" t="s">
-        <v>505</v>
+        <v>646</v>
       </c>
       <c r="I87" s="21">
-        <v>3.1775252121018109E-2</v>
+        <v>3.1117895881038748E-2</v>
       </c>
       <c r="J87" s="11">
-        <v>7.772686245920965E-2</v>
+        <v>6.4989531185774552E-2</v>
       </c>
       <c r="K87" s="19">
-        <v>0.17564667785103982</v>
+        <v>0.10432027345285175</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="6">
-        <v>211</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D88" s="12">
-        <v>0.15</v>
+        <v>355</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="14">
+        <v>0.1792</v>
       </c>
       <c r="E88" s="17">
-        <v>42150</v>
+        <v>84550</v>
       </c>
       <c r="F88" s="9" t="s">
         <v>147</v>
@@ -19846,33 +19849,33 @@
         <v>2</v>
       </c>
       <c r="H88" s="23" t="s">
-        <v>512</v>
+        <v>377</v>
       </c>
       <c r="I88" s="21">
-        <v>3.6983949732495462E-2</v>
+        <v>2.8215627931650909E-2</v>
       </c>
       <c r="J88" s="11">
-        <v>8.342551510362857E-2</v>
+        <v>4.0586950784440218E-2</v>
       </c>
       <c r="K88" s="19">
-        <v>0.11300453047775938</v>
+        <v>6.4735237374416874E-2</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="6">
-        <v>212</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D89" s="12">
-        <v>0.15</v>
+        <v>356</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="14">
+        <v>0.1792</v>
       </c>
       <c r="E89" s="17">
-        <v>42150</v>
+        <v>84550</v>
       </c>
       <c r="F89" s="9" t="s">
         <v>148</v>
@@ -19881,33 +19884,33 @@
         <v>1</v>
       </c>
       <c r="H89" s="23" t="s">
-        <v>513</v>
+        <v>378</v>
       </c>
       <c r="I89" s="21">
-        <v>3.7106903422739E-2</v>
+        <v>3.9208357277603495E-2</v>
       </c>
       <c r="J89" s="11">
-        <v>7.6127636686032188E-2</v>
+        <v>0.10520760785810551</v>
       </c>
       <c r="K89" s="19">
-        <v>0.14586756141118298</v>
+        <v>0.20994448082390538</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="6">
-        <v>213</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D90" s="12">
-        <v>0.15</v>
+        <v>357</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="14">
+        <v>0.1792</v>
       </c>
       <c r="E90" s="17">
-        <v>42150</v>
+        <v>84550</v>
       </c>
       <c r="F90" s="9" t="s">
         <v>149</v>
@@ -19916,33 +19919,33 @@
         <v>3</v>
       </c>
       <c r="H90" s="23" t="s">
-        <v>514</v>
+        <v>379</v>
       </c>
       <c r="I90" s="21">
-        <v>0.68364127985579115</v>
+        <v>2.0318736293066866E-2</v>
       </c>
       <c r="J90" s="11">
-        <v>0.68364127985579115</v>
+        <v>0.11894055818012803</v>
       </c>
       <c r="K90" s="19">
-        <v>0.68364127985579115</v>
+        <v>0.16287614247107784</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="6">
-        <v>214</v>
+        <v>373</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>211</v>
+        <v>256</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="D91" s="12">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="E91" s="17">
-        <v>14990</v>
+        <v>9950</v>
       </c>
       <c r="F91" s="9" t="s">
         <v>147</v>
@@ -19951,33 +19954,33 @@
         <v>2</v>
       </c>
       <c r="H91" s="23" t="s">
-        <v>527</v>
+        <v>662</v>
       </c>
       <c r="I91" s="21">
-        <v>9.8915836962393134E-3</v>
+        <v>1.2632515095334106E-2</v>
       </c>
       <c r="J91" s="11">
-        <v>2.6740901162528259E-2</v>
+        <v>3.1777630588806838E-2</v>
       </c>
       <c r="K91" s="19">
-        <v>6.4025818074001817E-2</v>
+        <v>5.8985898509874693E-2</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="6">
-        <v>215</v>
+        <v>374</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>211</v>
+        <v>256</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="D92" s="12">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="E92" s="17">
-        <v>14990</v>
+        <v>9950</v>
       </c>
       <c r="F92" s="9" t="s">
         <v>148</v>
@@ -19986,33 +19989,33 @@
         <v>1</v>
       </c>
       <c r="H92" s="23" t="s">
-        <v>528</v>
+        <v>663</v>
       </c>
       <c r="I92" s="21">
-        <v>7.4935681341510657E-2</v>
+        <v>6.4924134674815739E-2</v>
       </c>
       <c r="J92" s="11">
-        <v>7.7393698378709408E-2</v>
+        <v>7.9940955958995794E-2</v>
       </c>
       <c r="K92" s="19">
-        <v>0.32196630850285968</v>
+        <v>0.11549536795923271</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="6">
-        <v>216</v>
+        <v>375</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>211</v>
+        <v>256</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="D93" s="12">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="E93" s="17">
-        <v>14990</v>
+        <v>9950</v>
       </c>
       <c r="F93" s="9" t="s">
         <v>149</v>
@@ -20021,33 +20024,33 @@
         <v>3</v>
       </c>
       <c r="H93" s="23" t="s">
-        <v>529</v>
+        <v>664</v>
       </c>
       <c r="I93" s="21">
-        <v>0.42909790469922893</v>
+        <v>2.4707798374583298E-2</v>
       </c>
       <c r="J93" s="11">
-        <v>0.44635496240933875</v>
+        <v>8.4738022300366589E-2</v>
       </c>
       <c r="K93" s="19">
-        <v>0.46361202011944858</v>
+        <v>0.154441135910108</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="6">
-        <v>217</v>
+        <v>376</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>212</v>
+        <v>257</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="D94" s="12">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="E94" s="17">
-        <v>7710</v>
+        <v>2640</v>
       </c>
       <c r="F94" s="9" t="s">
         <v>147</v>
@@ -20056,33 +20059,33 @@
         <v>2</v>
       </c>
       <c r="H94" s="23" t="s">
-        <v>515</v>
+        <v>668</v>
       </c>
       <c r="I94" s="21">
-        <v>0.1162049256912388</v>
+        <v>9.7253479079593731E-3</v>
       </c>
       <c r="J94" s="11">
-        <v>0.1162049256912388</v>
+        <v>2.9864251230249335E-2</v>
       </c>
       <c r="K94" s="19">
-        <v>0.1162049256912388</v>
+        <v>5.7021258783365544E-2</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="6">
-        <v>218</v>
+        <v>377</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>212</v>
+        <v>257</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="D95" s="12">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="E95" s="17">
-        <v>7710</v>
+        <v>2640</v>
       </c>
       <c r="F95" s="9" t="s">
         <v>148</v>
@@ -20091,33 +20094,33 @@
         <v>1</v>
       </c>
       <c r="H95" s="23" t="s">
-        <v>516</v>
+        <v>669</v>
       </c>
       <c r="I95" s="21">
-        <v>3.7106903422739E-2</v>
+        <v>2.2470026360434783E-2</v>
       </c>
       <c r="J95" s="11">
-        <v>7.6127636686032188E-2</v>
+        <v>5.840869181433174E-2</v>
       </c>
       <c r="K95" s="19">
-        <v>0.14586756141118298</v>
+        <v>0.13314522911720325</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="6">
-        <v>219</v>
+        <v>378</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>212</v>
+        <v>257</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="D96" s="12">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="E96" s="17">
-        <v>7710</v>
+        <v>2640</v>
       </c>
       <c r="F96" s="9" t="s">
         <v>149</v>
@@ -20126,33 +20129,33 @@
         <v>3</v>
       </c>
       <c r="H96" s="23" t="s">
-        <v>517</v>
+        <v>670</v>
       </c>
       <c r="I96" s="21">
-        <v>3.1775252121018109E-2</v>
+        <v>3.7764760534447564E-2</v>
       </c>
       <c r="J96" s="11">
-        <v>7.772686245920965E-2</v>
+        <v>5.9411764705882462E-2</v>
       </c>
       <c r="K96" s="19">
-        <v>0.17564667785103982</v>
+        <v>9.0572608177879335E-2</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="6">
-        <v>220</v>
+        <v>379</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>213</v>
+        <v>264</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="D97" s="12">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="E97" s="17">
-        <v>115530</v>
+        <v>43090</v>
       </c>
       <c r="F97" s="9" t="s">
         <v>147</v>
@@ -20161,33 +20164,33 @@
         <v>2</v>
       </c>
       <c r="H97" s="23" t="s">
-        <v>518</v>
+        <v>305</v>
       </c>
       <c r="I97" s="21">
-        <v>7.6776669196152352E-3</v>
+        <v>1.0493244285750485E-2</v>
       </c>
       <c r="J97" s="11">
-        <v>2.9815233273297551E-2</v>
+        <v>2.71310895778357E-2</v>
       </c>
       <c r="K97" s="19">
-        <v>6.2950946325533164E-2</v>
+        <v>6.0046407313029126E-2</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="6">
-        <v>221</v>
+        <v>380</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>213</v>
+        <v>264</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="D98" s="12">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="E98" s="17">
-        <v>115530</v>
+        <v>43090</v>
       </c>
       <c r="F98" s="9" t="s">
         <v>148</v>
@@ -20196,7 +20199,7 @@
         <v>1</v>
       </c>
       <c r="H98" s="23" t="s">
-        <v>519</v>
+        <v>306</v>
       </c>
       <c r="I98" s="21">
         <v>3.7106903422739E-2</v>
@@ -20210,19 +20213,19 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="6">
-        <v>222</v>
+        <v>381</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>213</v>
+        <v>264</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="D99" s="12">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="E99" s="17">
-        <v>115530</v>
+        <v>43090</v>
       </c>
       <c r="F99" s="9" t="s">
         <v>149</v>
@@ -20231,7 +20234,7 @@
         <v>3</v>
       </c>
       <c r="H99" s="23" t="s">
-        <v>520</v>
+        <v>307</v>
       </c>
       <c r="I99" s="21">
         <v>3.1775252121018109E-2</v>
@@ -20245,19 +20248,19 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="6">
-        <v>223</v>
+        <v>382</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>214</v>
+        <v>263</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D100" s="14">
-        <v>0.33750000000000002</v>
+        <v>142</v>
+      </c>
+      <c r="D100" s="12">
+        <v>0.19</v>
       </c>
       <c r="E100" s="17">
-        <v>15080</v>
+        <v>43700</v>
       </c>
       <c r="F100" s="9" t="s">
         <v>147</v>
@@ -20266,33 +20269,33 @@
         <v>2</v>
       </c>
       <c r="H100" s="23" t="s">
-        <v>521</v>
+        <v>440</v>
       </c>
       <c r="I100" s="21">
-        <v>3.9665411153435755E-3</v>
+        <v>2.3544644224178686E-2</v>
       </c>
       <c r="J100" s="11">
-        <v>7.5701622809655261E-3</v>
+        <v>4.4291338582677232E-2</v>
       </c>
       <c r="K100" s="19">
-        <v>3.8707634775383581E-2</v>
+        <v>7.5931654049799874E-2</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="6">
-        <v>224</v>
+        <v>383</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>214</v>
+        <v>263</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D101" s="14">
-        <v>0.33750000000000002</v>
+        <v>142</v>
+      </c>
+      <c r="D101" s="12">
+        <v>0.19</v>
       </c>
       <c r="E101" s="17">
-        <v>15080</v>
+        <v>43700</v>
       </c>
       <c r="F101" s="9" t="s">
         <v>148</v>
@@ -20301,33 +20304,33 @@
         <v>1</v>
       </c>
       <c r="H101" s="23" t="s">
-        <v>522</v>
+        <v>441</v>
       </c>
       <c r="I101" s="21">
-        <v>7.4129908231593822E-2</v>
+        <v>4.2388588409415784E-2</v>
       </c>
       <c r="J101" s="11">
-        <v>7.4129908231593822E-2</v>
+        <v>9.6297700093073493E-2</v>
       </c>
       <c r="K101" s="19">
-        <v>7.4129908231593822E-2</v>
+        <v>0.16286027576247486</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="6">
-        <v>225</v>
+        <v>384</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>214</v>
+        <v>263</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D102" s="14">
-        <v>0.33750000000000002</v>
+        <v>142</v>
+      </c>
+      <c r="D102" s="12">
+        <v>0.19</v>
       </c>
       <c r="E102" s="17">
-        <v>15080</v>
+        <v>43700</v>
       </c>
       <c r="F102" s="9" t="s">
         <v>149</v>
@@ -20336,1486 +20339,16 @@
         <v>3</v>
       </c>
       <c r="H102" s="23" t="s">
-        <v>523</v>
+        <v>442</v>
       </c>
       <c r="I102" s="21">
-        <v>3.1775252121018109E-2</v>
+        <v>3.8109917148159651E-2</v>
       </c>
       <c r="J102" s="11">
-        <v>7.772686245920965E-2</v>
+        <v>0.10299003322259127</v>
       </c>
       <c r="K102" s="19">
-        <v>0.17564667785103982</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A103" s="6">
-        <v>226</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="C103" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D103" s="12">
-        <v>0.29220000000000002</v>
-      </c>
-      <c r="E103" s="17">
-        <v>77480</v>
-      </c>
-      <c r="F103" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G103" s="20">
-        <v>2</v>
-      </c>
-      <c r="H103" s="23" t="s">
-        <v>524</v>
-      </c>
-      <c r="I103" s="21">
-        <v>5.3715854059367796E-2</v>
-      </c>
-      <c r="J103" s="11">
-        <v>8.4134761751951961E-2</v>
-      </c>
-      <c r="K103" s="19">
-        <v>9.4654700017068882E-2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A104" s="6">
-        <v>227</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="C104" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D104" s="12">
-        <v>0.29220000000000002</v>
-      </c>
-      <c r="E104" s="17">
-        <v>77480</v>
-      </c>
-      <c r="F104" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G104" s="20">
-        <v>1</v>
-      </c>
-      <c r="H104" s="23" t="s">
-        <v>525</v>
-      </c>
-      <c r="I104" s="21">
-        <v>3.7106903422739E-2</v>
-      </c>
-      <c r="J104" s="11">
-        <v>7.6127636686032188E-2</v>
-      </c>
-      <c r="K104" s="19">
-        <v>0.14586756141118298</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A105" s="6">
-        <v>228</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D105" s="12">
-        <v>0.29220000000000002</v>
-      </c>
-      <c r="E105" s="17">
-        <v>77480</v>
-      </c>
-      <c r="F105" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G105" s="20">
-        <v>3</v>
-      </c>
-      <c r="H105" s="23" t="s">
-        <v>526</v>
-      </c>
-      <c r="I105" s="21">
-        <v>3.5064142930234202E-2</v>
-      </c>
-      <c r="J105" s="11">
-        <v>0.13925876692183392</v>
-      </c>
-      <c r="K105" s="19">
-        <v>0.3474594985557658</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A106" s="6">
-        <v>229</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D106" s="12">
-        <v>0.12</v>
-      </c>
-      <c r="E106" s="17">
-        <v>67180</v>
-      </c>
-      <c r="F106" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G106" s="20">
-        <v>2</v>
-      </c>
-      <c r="H106" s="23" t="s">
-        <v>530</v>
-      </c>
-      <c r="I106" s="21">
-        <v>7.6776669196152352E-3</v>
-      </c>
-      <c r="J106" s="11">
-        <v>2.9815233273297551E-2</v>
-      </c>
-      <c r="K106" s="19">
-        <v>6.2950946325533164E-2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A107" s="6">
-        <v>230</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D107" s="12">
-        <v>0.12</v>
-      </c>
-      <c r="E107" s="17">
-        <v>67180</v>
-      </c>
-      <c r="F107" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G107" s="20">
-        <v>1</v>
-      </c>
-      <c r="H107" s="23" t="s">
-        <v>531</v>
-      </c>
-      <c r="I107" s="21">
-        <v>3.7106903422739E-2</v>
-      </c>
-      <c r="J107" s="11">
-        <v>7.6127636686032188E-2</v>
-      </c>
-      <c r="K107" s="19">
-        <v>0.14586756141118298</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A108" s="6">
-        <v>231</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D108" s="12">
-        <v>0.12</v>
-      </c>
-      <c r="E108" s="17">
-        <v>67180</v>
-      </c>
-      <c r="F108" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G108" s="20">
-        <v>3</v>
-      </c>
-      <c r="H108" s="23" t="s">
-        <v>532</v>
-      </c>
-      <c r="I108" s="21">
-        <v>3.1775252121018109E-2</v>
-      </c>
-      <c r="J108" s="11">
-        <v>7.772686245920965E-2</v>
-      </c>
-      <c r="K108" s="19">
-        <v>0.17564667785103982</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A109" s="6">
-        <v>232</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D109" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="E109" s="17">
-        <v>5140</v>
-      </c>
-      <c r="F109" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G109" s="20">
-        <v>2</v>
-      </c>
-      <c r="H109" s="23" t="s">
-        <v>548</v>
-      </c>
-      <c r="I109" s="21">
-        <v>2.2157542764583753E-2</v>
-      </c>
-      <c r="J109" s="11">
-        <v>3.6191942261715279E-2</v>
-      </c>
-      <c r="K109" s="19">
-        <v>5.2620045314522135E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A110" s="6">
-        <v>233</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D110" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="E110" s="17">
-        <v>5140</v>
-      </c>
-      <c r="F110" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G110" s="20">
-        <v>1</v>
-      </c>
-      <c r="H110" s="23" t="s">
-        <v>549</v>
-      </c>
-      <c r="I110" s="21">
-        <v>1.4231951991698272E-2</v>
-      </c>
-      <c r="J110" s="11">
-        <v>1.613950932627168E-2</v>
-      </c>
-      <c r="K110" s="19">
-        <v>1.8047066660845087E-2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A111" s="6">
-        <v>234</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="C111" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D111" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="E111" s="17">
-        <v>5140</v>
-      </c>
-      <c r="F111" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G111" s="20">
-        <v>3</v>
-      </c>
-      <c r="H111" s="23" t="s">
-        <v>550</v>
-      </c>
-      <c r="I111" s="21">
-        <v>7.6059935134203801E-3</v>
-      </c>
-      <c r="J111" s="11">
-        <v>1.2096376946262999E-2</v>
-      </c>
-      <c r="K111" s="19">
-        <v>1.3662286113165487E-2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A112" s="6">
-        <v>235</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="C112" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D112" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E112" s="17">
-        <v>10570</v>
-      </c>
-      <c r="F112" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G112" s="20">
-        <v>2</v>
-      </c>
-      <c r="H112" s="23" t="s">
-        <v>563</v>
-      </c>
-      <c r="I112" s="21">
-        <v>1.4250452619056409E-2</v>
-      </c>
-      <c r="J112" s="11">
-        <v>3.6564280146275163E-2</v>
-      </c>
-      <c r="K112" s="19">
-        <v>8.3697662968899217E-2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A113" s="6">
-        <v>236</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="C113" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D113" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E113" s="17">
-        <v>10570</v>
-      </c>
-      <c r="F113" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G113" s="20">
-        <v>1</v>
-      </c>
-      <c r="H113" s="23" t="s">
-        <v>564</v>
-      </c>
-      <c r="I113" s="21">
-        <v>3.9389787764203814E-2</v>
-      </c>
-      <c r="J113" s="11">
-        <v>6.358632199456446E-2</v>
-      </c>
-      <c r="K113" s="19">
-        <v>0.23866127557633621</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A114" s="6">
-        <v>237</v>
-      </c>
-      <c r="B114" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="C114" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D114" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E114" s="17">
-        <v>10570</v>
-      </c>
-      <c r="F114" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G114" s="20">
-        <v>3</v>
-      </c>
-      <c r="H114" s="23" t="s">
-        <v>565</v>
-      </c>
-      <c r="I114" s="21">
-        <v>3.5798629279215788E-2</v>
-      </c>
-      <c r="J114" s="11">
-        <v>7.0822131131694527E-2</v>
-      </c>
-      <c r="K114" s="19">
-        <v>0.21090187180847558</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A115" s="6">
-        <v>238</v>
-      </c>
-      <c r="B115" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="C115" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D115" s="12">
-        <v>0.08</v>
-      </c>
-      <c r="E115" s="17">
-        <v>6950</v>
-      </c>
-      <c r="F115" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G115" s="20">
-        <v>2</v>
-      </c>
-      <c r="H115" s="23" t="s">
-        <v>542</v>
-      </c>
-      <c r="I115" s="21">
-        <v>7.6776669196152352E-3</v>
-      </c>
-      <c r="J115" s="11">
-        <v>2.9815233273297551E-2</v>
-      </c>
-      <c r="K115" s="19">
-        <v>6.2950946325533164E-2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A116" s="6">
-        <v>239</v>
-      </c>
-      <c r="B116" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="C116" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D116" s="12">
-        <v>0.08</v>
-      </c>
-      <c r="E116" s="17">
-        <v>6950</v>
-      </c>
-      <c r="F116" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G116" s="20">
-        <v>1</v>
-      </c>
-      <c r="H116" s="23" t="s">
-        <v>543</v>
-      </c>
-      <c r="I116" s="21">
-        <v>3.7106903422739E-2</v>
-      </c>
-      <c r="J116" s="11">
-        <v>7.6127636686032188E-2</v>
-      </c>
-      <c r="K116" s="19">
-        <v>0.14586756141118298</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A117" s="6">
-        <v>240</v>
-      </c>
-      <c r="B117" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="C117" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D117" s="12">
-        <v>0.08</v>
-      </c>
-      <c r="E117" s="17">
-        <v>6950</v>
-      </c>
-      <c r="F117" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G117" s="20">
-        <v>3</v>
-      </c>
-      <c r="H117" s="23" t="s">
-        <v>544</v>
-      </c>
-      <c r="I117" s="21">
-        <v>3.1775252121018109E-2</v>
-      </c>
-      <c r="J117" s="11">
-        <v>7.772686245920965E-2</v>
-      </c>
-      <c r="K117" s="19">
-        <v>0.17564667785103982</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A118" s="6">
-        <v>241</v>
-      </c>
-      <c r="B118" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="C118" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D118" s="12">
-        <v>0.35</v>
-      </c>
-      <c r="E118" s="17">
-        <v>23900</v>
-      </c>
-      <c r="F118" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G118" s="20">
-        <v>2</v>
-      </c>
-      <c r="H118" s="23" t="s">
-        <v>551</v>
-      </c>
-      <c r="I118" s="21">
-        <v>3.8135454829697005E-2</v>
-      </c>
-      <c r="J118" s="11">
-        <v>4.8489571566328937E-2</v>
-      </c>
-      <c r="K118" s="19">
-        <v>0.35228264280530447</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A119" s="6">
-        <v>242</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D119" s="12">
-        <v>0.35</v>
-      </c>
-      <c r="E119" s="17">
-        <v>23900</v>
-      </c>
-      <c r="F119" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G119" s="20">
-        <v>1</v>
-      </c>
-      <c r="H119" s="23" t="s">
-        <v>552</v>
-      </c>
-      <c r="I119" s="21">
-        <v>3.7106903422739E-2</v>
-      </c>
-      <c r="J119" s="11">
-        <v>7.6127636686032188E-2</v>
-      </c>
-      <c r="K119" s="19">
-        <v>0.14586756141118298</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A120" s="6">
-        <v>243</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D120" s="12">
-        <v>0.35</v>
-      </c>
-      <c r="E120" s="17">
-        <v>23900</v>
-      </c>
-      <c r="F120" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G120" s="20">
-        <v>3</v>
-      </c>
-      <c r="H120" s="23" t="s">
-        <v>553</v>
-      </c>
-      <c r="I120" s="21">
-        <v>3.1775252121018109E-2</v>
-      </c>
-      <c r="J120" s="11">
-        <v>7.772686245920965E-2</v>
-      </c>
-      <c r="K120" s="19">
-        <v>0.17564667785103982</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A121" s="6">
-        <v>244</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D121" s="12">
-        <v>0.15</v>
-      </c>
-      <c r="E121" s="17">
-        <v>9780</v>
-      </c>
-      <c r="F121" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G121" s="20">
-        <v>2</v>
-      </c>
-      <c r="H121" s="23" t="s">
-        <v>560</v>
-      </c>
-      <c r="I121" s="21">
-        <v>5.8054525604085611E-2</v>
-      </c>
-      <c r="J121" s="11">
-        <v>6.9325860719745808E-2</v>
-      </c>
-      <c r="K121" s="19">
-        <v>8.0597195835405991E-2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A122" s="6">
-        <v>245</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D122" s="12">
-        <v>0.15</v>
-      </c>
-      <c r="E122" s="17">
-        <v>9780</v>
-      </c>
-      <c r="F122" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G122" s="20">
-        <v>1</v>
-      </c>
-      <c r="H122" s="23" t="s">
-        <v>561</v>
-      </c>
-      <c r="I122" s="21">
-        <v>3.7106903422739E-2</v>
-      </c>
-      <c r="J122" s="11">
-        <v>7.6127636686032188E-2</v>
-      </c>
-      <c r="K122" s="19">
-        <v>0.14586756141118298</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A123" s="6">
-        <v>246</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D123" s="12">
-        <v>0.15</v>
-      </c>
-      <c r="E123" s="17">
-        <v>9780</v>
-      </c>
-      <c r="F123" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G123" s="20">
-        <v>3</v>
-      </c>
-      <c r="H123" s="23" t="s">
-        <v>562</v>
-      </c>
-      <c r="I123" s="21">
-        <v>3.1775252121018109E-2</v>
-      </c>
-      <c r="J123" s="11">
-        <v>7.772686245920965E-2</v>
-      </c>
-      <c r="K123" s="19">
-        <v>0.17564667785103982</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A124" s="6">
-        <v>247</v>
-      </c>
-      <c r="B124" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="C124" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D124" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="E124" s="17">
-        <v>9710</v>
-      </c>
-      <c r="F124" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G124" s="20">
-        <v>2</v>
-      </c>
-      <c r="H124" s="23" t="s">
-        <v>545</v>
-      </c>
-      <c r="I124" s="21">
-        <v>2.8078912030674818E-2</v>
-      </c>
-      <c r="J124" s="11">
-        <v>4.5260871527045554E-2</v>
-      </c>
-      <c r="K124" s="19">
-        <v>8.8495380879176147E-2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A125" s="6">
-        <v>248</v>
-      </c>
-      <c r="B125" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="C125" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D125" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="E125" s="17">
-        <v>9710</v>
-      </c>
-      <c r="F125" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G125" s="20">
-        <v>1</v>
-      </c>
-      <c r="H125" s="23" t="s">
-        <v>546</v>
-      </c>
-      <c r="I125" s="21">
-        <v>8.4180580386491899E-2</v>
-      </c>
-      <c r="J125" s="11">
-        <v>0.12502834224239795</v>
-      </c>
-      <c r="K125" s="19">
-        <v>0.165876104098304</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A126" s="6">
-        <v>249</v>
-      </c>
-      <c r="B126" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="C126" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D126" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="E126" s="17">
-        <v>9710</v>
-      </c>
-      <c r="F126" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G126" s="20">
-        <v>3</v>
-      </c>
-      <c r="H126" s="23" t="s">
-        <v>547</v>
-      </c>
-      <c r="I126" s="21">
-        <v>3.1775252121018109E-2</v>
-      </c>
-      <c r="J126" s="11">
-        <v>7.772686245920965E-2</v>
-      </c>
-      <c r="K126" s="19">
-        <v>0.17564667785103982</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A127" s="6">
-        <v>250</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="C127" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D127" s="12">
-        <v>0.12</v>
-      </c>
-      <c r="E127" s="17">
-        <v>2240</v>
-      </c>
-      <c r="F127" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G127" s="20">
-        <v>2</v>
-      </c>
-      <c r="H127" s="23" t="s">
-        <v>539</v>
-      </c>
-      <c r="I127" s="21">
-        <v>1.7029268841311711E-2</v>
-      </c>
-      <c r="J127" s="11">
-        <v>1.7029268841311711E-2</v>
-      </c>
-      <c r="K127" s="19">
-        <v>1.7029268841311711E-2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A128" s="6">
-        <v>251</v>
-      </c>
-      <c r="B128" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="C128" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D128" s="12">
-        <v>0.12</v>
-      </c>
-      <c r="E128" s="17">
-        <v>2240</v>
-      </c>
-      <c r="F128" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G128" s="20">
-        <v>1</v>
-      </c>
-      <c r="H128" s="23" t="s">
-        <v>540</v>
-      </c>
-      <c r="I128" s="21">
-        <v>3.7106903422739E-2</v>
-      </c>
-      <c r="J128" s="11">
-        <v>7.6127636686032188E-2</v>
-      </c>
-      <c r="K128" s="19">
-        <v>0.14586756141118298</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A129" s="6">
-        <v>252</v>
-      </c>
-      <c r="B129" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="C129" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D129" s="12">
-        <v>0.12</v>
-      </c>
-      <c r="E129" s="17">
-        <v>2240</v>
-      </c>
-      <c r="F129" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G129" s="20">
-        <v>3</v>
-      </c>
-      <c r="H129" s="23" t="s">
-        <v>541</v>
-      </c>
-      <c r="I129" s="21">
-        <v>0.25237689708774969</v>
-      </c>
-      <c r="J129" s="11">
-        <v>0.25237689708774969</v>
-      </c>
-      <c r="K129" s="19">
-        <v>0.25237689708774969</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A130" s="6">
-        <v>253</v>
-      </c>
-      <c r="B130" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="C130" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D130" s="12">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="E130" s="17">
-        <v>186710</v>
-      </c>
-      <c r="F130" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G130" s="20">
-        <v>2</v>
-      </c>
-      <c r="H130" s="23" t="s">
-        <v>536</v>
-      </c>
-      <c r="I130" s="21">
-        <v>7.6776669196152352E-3</v>
-      </c>
-      <c r="J130" s="11">
-        <v>2.9815233273297551E-2</v>
-      </c>
-      <c r="K130" s="19">
-        <v>6.2950946325533164E-2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A131" s="6">
-        <v>254</v>
-      </c>
-      <c r="B131" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="C131" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D131" s="12">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="E131" s="17">
-        <v>186710</v>
-      </c>
-      <c r="F131" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G131" s="20">
-        <v>1</v>
-      </c>
-      <c r="H131" s="23" t="s">
-        <v>537</v>
-      </c>
-      <c r="I131" s="21">
-        <v>3.7106903422739E-2</v>
-      </c>
-      <c r="J131" s="11">
-        <v>7.6127636686032188E-2</v>
-      </c>
-      <c r="K131" s="19">
-        <v>0.14586756141118298</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A132" s="6">
-        <v>255</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="C132" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D132" s="12">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="E132" s="17">
-        <v>186710</v>
-      </c>
-      <c r="F132" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G132" s="20">
-        <v>3</v>
-      </c>
-      <c r="H132" s="23" t="s">
-        <v>538</v>
-      </c>
-      <c r="I132" s="21">
-        <v>3.1775252121018109E-2</v>
-      </c>
-      <c r="J132" s="11">
-        <v>7.772686245920965E-2</v>
-      </c>
-      <c r="K132" s="19">
-        <v>0.17564667785103982</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A133" s="6">
-        <v>256</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="C133" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D133" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="E133" s="17">
-        <v>3870</v>
-      </c>
-      <c r="F133" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G133" s="20">
-        <v>2</v>
-      </c>
-      <c r="H133" s="23" t="s">
-        <v>557</v>
-      </c>
-      <c r="I133" s="21">
-        <v>1.0493244285750485E-2</v>
-      </c>
-      <c r="J133" s="11">
-        <v>2.71310895778357E-2</v>
-      </c>
-      <c r="K133" s="19">
-        <v>6.0046407313029126E-2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A134" s="6">
-        <v>257</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D134" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="E134" s="17">
-        <v>3870</v>
-      </c>
-      <c r="F134" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G134" s="20">
-        <v>1</v>
-      </c>
-      <c r="H134" s="23" t="s">
-        <v>558</v>
-      </c>
-      <c r="I134" s="21">
-        <v>3.7106903422739E-2</v>
-      </c>
-      <c r="J134" s="11">
-        <v>7.6127636686032188E-2</v>
-      </c>
-      <c r="K134" s="19">
-        <v>0.14586756141118298</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A135" s="6">
-        <v>258</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="C135" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D135" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="E135" s="17">
-        <v>3870</v>
-      </c>
-      <c r="F135" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G135" s="20">
-        <v>3</v>
-      </c>
-      <c r="H135" s="23" t="s">
-        <v>559</v>
-      </c>
-      <c r="I135" s="21">
-        <v>3.1775252121018109E-2</v>
-      </c>
-      <c r="J135" s="11">
-        <v>7.772686245920965E-2</v>
-      </c>
-      <c r="K135" s="19">
-        <v>0.17564667785103982</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A136" s="6">
-        <v>259</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="C136" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D136" s="12">
-        <v>0.09</v>
-      </c>
-      <c r="E136" s="17">
-        <v>7220</v>
-      </c>
-      <c r="F136" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G136" s="20">
-        <v>2</v>
-      </c>
-      <c r="H136" s="23" t="s">
-        <v>554</v>
-      </c>
-      <c r="I136" s="21">
-        <v>2.2013015659217042E-2</v>
-      </c>
-      <c r="J136" s="11">
-        <v>2.2013015659217042E-2</v>
-      </c>
-      <c r="K136" s="19">
-        <v>2.2013015659217042E-2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A137" s="6">
-        <v>260</v>
-      </c>
-      <c r="B137" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="C137" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D137" s="12">
-        <v>0.09</v>
-      </c>
-      <c r="E137" s="17">
-        <v>7220</v>
-      </c>
-      <c r="F137" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G137" s="20">
-        <v>1</v>
-      </c>
-      <c r="H137" s="23" t="s">
-        <v>555</v>
-      </c>
-      <c r="I137" s="21">
-        <v>3.7106903422739E-2</v>
-      </c>
-      <c r="J137" s="11">
-        <v>7.6127636686032188E-2</v>
-      </c>
-      <c r="K137" s="19">
-        <v>0.14586756141118298</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A138" s="6">
-        <v>261</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="C138" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D138" s="12">
-        <v>0.09</v>
-      </c>
-      <c r="E138" s="17">
-        <v>7220</v>
-      </c>
-      <c r="F138" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G138" s="20">
-        <v>3</v>
-      </c>
-      <c r="H138" s="23" t="s">
-        <v>556</v>
-      </c>
-      <c r="I138" s="21">
-        <v>2.6141116258632646E-3</v>
-      </c>
-      <c r="J138" s="11">
-        <v>4.9249262930707322E-3</v>
-      </c>
-      <c r="K138" s="19">
-        <v>7.2357409602782008E-3</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A139" s="6">
-        <v>262</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="C139" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D139" s="12">
-        <v>0.31</v>
-      </c>
-      <c r="E139" s="17">
-        <v>3030</v>
-      </c>
-      <c r="F139" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G139" s="20">
-        <v>2</v>
-      </c>
-      <c r="H139" s="23" t="s">
-        <v>533</v>
-      </c>
-      <c r="I139" s="21">
-        <v>6.3458715208219496E-2</v>
-      </c>
-      <c r="J139" s="11">
-        <v>8.2623624623819392E-2</v>
-      </c>
-      <c r="K139" s="19">
-        <v>0.12567858775910001</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A140" s="6">
-        <v>263</v>
-      </c>
-      <c r="B140" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="C140" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D140" s="12">
-        <v>0.31</v>
-      </c>
-      <c r="E140" s="17">
-        <v>3030</v>
-      </c>
-      <c r="F140" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G140" s="20">
-        <v>1</v>
-      </c>
-      <c r="H140" s="23" t="s">
-        <v>534</v>
-      </c>
-      <c r="I140" s="21">
-        <v>6.25649769644714E-2</v>
-      </c>
-      <c r="J140" s="11">
-        <v>6.25649769644714E-2</v>
-      </c>
-      <c r="K140" s="19">
-        <v>6.25649769644714E-2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A141" s="6">
-        <v>264</v>
-      </c>
-      <c r="B141" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="C141" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D141" s="12">
-        <v>0.31</v>
-      </c>
-      <c r="E141" s="17">
-        <v>3030</v>
-      </c>
-      <c r="F141" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G141" s="20">
-        <v>3</v>
-      </c>
-      <c r="H141" s="23" t="s">
-        <v>535</v>
-      </c>
-      <c r="I141" s="21">
-        <v>5.6337904644341366E-2</v>
-      </c>
-      <c r="J141" s="11">
-        <v>5.6337904644341366E-2</v>
-      </c>
-      <c r="K141" s="19">
-        <v>5.6337904644341366E-2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A142" s="6">
-        <v>193</v>
-      </c>
-      <c r="B142" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C142" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D142" s="14">
-        <v>0.27900000000000003</v>
-      </c>
-      <c r="E142" s="17">
-        <v>32830</v>
-      </c>
-      <c r="F142" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G142" s="20">
-        <v>2</v>
-      </c>
-      <c r="H142" s="23" t="s">
-        <v>488</v>
-      </c>
-      <c r="I142" s="21">
-        <v>9.5958740467727392E-3</v>
-      </c>
-      <c r="J142" s="11">
-        <v>2.000235955350866E-2</v>
-      </c>
-      <c r="K142" s="19">
-        <v>4.0666996611319353E-2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A143" s="6">
-        <v>194</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C143" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D143" s="14">
-        <v>0.27900000000000003</v>
-      </c>
-      <c r="E143" s="17">
-        <v>32830</v>
-      </c>
-      <c r="F143" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G143" s="20">
-        <v>1</v>
-      </c>
-      <c r="H143" s="23" t="s">
-        <v>489</v>
-      </c>
-      <c r="I143" s="21">
-        <v>3.972062576059085E-2</v>
-      </c>
-      <c r="J143" s="11">
-        <v>6.1999169361979495E-2</v>
-      </c>
-      <c r="K143" s="19">
-        <v>0.10827656744114039</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A144" s="6">
-        <v>195</v>
-      </c>
-      <c r="B144" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C144" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D144" s="14">
-        <v>0.27900000000000003</v>
-      </c>
-      <c r="E144" s="17">
-        <v>32830</v>
-      </c>
-      <c r="F144" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G144" s="20">
-        <v>3</v>
-      </c>
-      <c r="H144" s="23" t="s">
-        <v>490</v>
-      </c>
-      <c r="I144" s="21">
-        <v>2.191384689688711E-2</v>
-      </c>
-      <c r="J144" s="11">
-        <v>4.8206183032513075E-2</v>
-      </c>
-      <c r="K144" s="19">
-        <v>9.9721619084336896E-2</v>
+        <v>0.22869977183155038</v>
       </c>
     </row>
   </sheetData>

--- a/Data/ExLingo.xlsx
+++ b/Data/ExLingo.xlsx
@@ -9,13 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="9345" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="9345" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Final (2)" sheetId="7" r:id="rId1"/>
     <sheet name="Target" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="10" r:id="rId3"/>
-    <sheet name="Lingo" sheetId="9" r:id="rId4"/>
+    <sheet name="Lingo" sheetId="9" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Final (2)'!$A$1:$K$403</definedName>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2035" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2059" uniqueCount="692">
   <si>
     <t>N</t>
   </si>
@@ -2532,8 +2531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K403"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A269" sqref="A269:XFD385"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101:XFD103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16758,22 +16757,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K102"/>
+  <dimension ref="A1:K108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:XFD46"/>
+      <selection activeCell="F113" sqref="F113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20351,6 +20338,216 @@
         <v>0.22869977183155038</v>
       </c>
     </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A103" s="6">
+        <v>331</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D103" s="12">
+        <v>0.17</v>
+      </c>
+      <c r="E103" s="17">
+        <v>52090</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G103" s="20">
+        <v>2</v>
+      </c>
+      <c r="H103" s="23" t="s">
+        <v>626</v>
+      </c>
+      <c r="I103" s="21">
+        <v>1.1727067448600345E-2</v>
+      </c>
+      <c r="J103" s="11">
+        <v>3.483312207244707E-2</v>
+      </c>
+      <c r="K103" s="19">
+        <v>8.115876172714967E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A104" s="6">
+        <v>332</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D104" s="12">
+        <v>0.17</v>
+      </c>
+      <c r="E104" s="17">
+        <v>52090</v>
+      </c>
+      <c r="F104" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G104" s="20">
+        <v>1</v>
+      </c>
+      <c r="H104" s="23" t="s">
+        <v>627</v>
+      </c>
+      <c r="I104" s="21">
+        <v>3.3431561001689841E-2</v>
+      </c>
+      <c r="J104" s="11">
+        <v>7.6114878538330058E-2</v>
+      </c>
+      <c r="K104" s="19">
+        <v>0.15592408915259912</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A105" s="6">
+        <v>333</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D105" s="12">
+        <v>0.17</v>
+      </c>
+      <c r="E105" s="17">
+        <v>52090</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G105" s="20">
+        <v>3</v>
+      </c>
+      <c r="H105" s="23" t="s">
+        <v>628</v>
+      </c>
+      <c r="I105" s="21">
+        <v>9.1747016766527328E-2</v>
+      </c>
+      <c r="J105" s="11">
+        <v>0.16383291533339087</v>
+      </c>
+      <c r="K105" s="19">
+        <v>0.30332802265887754</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A106" s="6">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D106" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="E106" s="17">
+        <v>7900</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G106" s="20">
+        <v>2</v>
+      </c>
+      <c r="H106" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="I106" s="21">
+        <v>1.5027941903899642E-2</v>
+      </c>
+      <c r="J106" s="11">
+        <v>5.8333333333333168E-2</v>
+      </c>
+      <c r="K106" s="19">
+        <v>0.12431908794085546</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A107" s="6">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D107" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="E107" s="17">
+        <v>7900</v>
+      </c>
+      <c r="F107" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G107" s="20">
+        <v>1</v>
+      </c>
+      <c r="H107" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="I107" s="21">
+        <v>3.9731671823305705E-2</v>
+      </c>
+      <c r="J107" s="11">
+        <v>8.478198998722139E-2</v>
+      </c>
+      <c r="K107" s="19">
+        <v>0.15620516853399644</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A108" s="6">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D108" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="E108" s="17">
+        <v>7900</v>
+      </c>
+      <c r="F108" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G108" s="20">
+        <v>3</v>
+      </c>
+      <c r="H108" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="I108" s="21">
+        <v>7.6728804570763615E-2</v>
+      </c>
+      <c r="J108" s="11">
+        <v>0.142123296943614</v>
+      </c>
+      <c r="K108" s="19">
+        <v>0.22402392867824805</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/ExLingo.xlsx
+++ b/Data/ExLingo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="9345" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="9345" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Final (2)" sheetId="7" r:id="rId1"/>
@@ -18,13 +18,13 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Final (2)'!$A$1:$K$403</definedName>
-    <definedName name="ct">Lingo!$D$1:$D$102</definedName>
+    <definedName name="ct">Lingo!$D$1:$D$10</definedName>
     <definedName name="emp">Target!$B$3</definedName>
-    <definedName name="gni">Lingo!$E$1:$E$102</definedName>
-    <definedName name="pl">Lingo!$I$1:$I$102</definedName>
-    <definedName name="pli">Lingo!$G$1:$G$102</definedName>
-    <definedName name="pm">Lingo!$J$1:$J$102</definedName>
-    <definedName name="pu">Lingo!$K$1:$K$102</definedName>
+    <definedName name="gni">Lingo!$E$1:$E$10</definedName>
+    <definedName name="pl">Lingo!$I$1:$I$10</definedName>
+    <definedName name="pli">Lingo!$G$1:$G$10</definedName>
+    <definedName name="pm">Lingo!$J$1:$J$10</definedName>
+    <definedName name="pu">Lingo!$K$1:$K$10</definedName>
     <definedName name="rev">Target!$B$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2059" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="693">
   <si>
     <t>N</t>
   </si>
@@ -2108,16 +2108,20 @@
   </si>
   <si>
     <t>ZAF3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distributor </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2144,6 +2148,12 @@
     <font>
       <b/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -2216,12 +2226,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2247,9 +2258,11 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
@@ -2531,8 +2544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K403"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101:XFD103"/>
+    <sheetView topLeftCell="A297" workbookViewId="0">
+      <selection activeCell="B324" sqref="B324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16670,14 +16683,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
@@ -16695,6 +16708,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="10">
+        <v>88900344</v>
+      </c>
+      <c r="C2" s="25">
+        <f>rev/emp</f>
+        <v>32659.935341660545</v>
+      </c>
+      <c r="D2" s="10">
         <v>444900000</v>
       </c>
     </row>
@@ -16705,6 +16725,9 @@
       <c r="B3" s="10">
         <v>2722</v>
       </c>
+      <c r="D3" s="10">
+        <v>2722</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -16727,24 +16750,24 @@
       <c r="A6" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B6">
-        <v>1</v>
+      <c r="B6" s="1" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B7">
-        <v>1</v>
+      <c r="B7" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B8">
-        <v>1</v>
+      <c r="B8" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -16752,15 +16775,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K108"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F113" sqref="F113"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17118,3436 +17142,6 @@
         <v>2.9687453061613304E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
-        <v>143</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="14">
-        <v>0.33</v>
-      </c>
-      <c r="E11" s="17">
-        <v>40710</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G11" s="20">
-        <v>1</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>435</v>
-      </c>
-      <c r="I11" s="21">
-        <v>3.6356493934084376E-2</v>
-      </c>
-      <c r="J11" s="11">
-        <v>5.1170006157927071E-2</v>
-      </c>
-      <c r="K11" s="19">
-        <v>0.14575787371297541</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
-        <v>144</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="14">
-        <v>0.33</v>
-      </c>
-      <c r="E12" s="17">
-        <v>40710</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G12" s="20">
-        <v>3</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>436</v>
-      </c>
-      <c r="I12" s="21">
-        <v>2.0560927156150488E-2</v>
-      </c>
-      <c r="J12" s="11">
-        <v>5.2509447644274142E-2</v>
-      </c>
-      <c r="K12" s="19">
-        <v>9.8384522634575783E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
-        <v>154</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="14">
-        <v>0.29649999999999999</v>
-      </c>
-      <c r="E13" s="17">
-        <v>45790</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G13" s="20">
-        <v>2</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>407</v>
-      </c>
-      <c r="I13" s="21">
-        <v>1.0814862419007986E-2</v>
-      </c>
-      <c r="J13" s="11">
-        <v>2.1326458588648865E-2</v>
-      </c>
-      <c r="K13" s="19">
-        <v>4.7382013074403595E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
-        <v>155</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="14">
-        <v>0.29649999999999999</v>
-      </c>
-      <c r="E14" s="17">
-        <v>45790</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G14" s="20">
-        <v>1</v>
-      </c>
-      <c r="H14" s="23" t="s">
-        <v>408</v>
-      </c>
-      <c r="I14" s="21">
-        <v>6.4999123976238193E-2</v>
-      </c>
-      <c r="J14" s="11">
-        <v>8.3671628180126287E-2</v>
-      </c>
-      <c r="K14" s="19">
-        <v>0.12792944909661313</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
-        <v>156</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="14">
-        <v>0.29649999999999999</v>
-      </c>
-      <c r="E15" s="17">
-        <v>45790</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G15" s="20">
-        <v>3</v>
-      </c>
-      <c r="H15" s="23" t="s">
-        <v>409</v>
-      </c>
-      <c r="I15" s="21">
-        <v>3.0613042303682315E-2</v>
-      </c>
-      <c r="J15" s="11">
-        <v>5.2233242520439038E-2</v>
-      </c>
-      <c r="K15" s="19">
-        <v>0.10278884219992371</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
-        <v>157</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="12">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E16" s="17">
-        <v>20270</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G16" s="20">
-        <v>2</v>
-      </c>
-      <c r="H16" s="23" t="s">
-        <v>449</v>
-      </c>
-      <c r="I16" s="21">
-        <v>2.8133418218389633E-2</v>
-      </c>
-      <c r="J16" s="11">
-        <v>4.260014009712218E-2</v>
-      </c>
-      <c r="K16" s="19">
-        <v>6.5631129659066201E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
-        <v>158</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="12">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E17" s="17">
-        <v>20270</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G17" s="20">
-        <v>1</v>
-      </c>
-      <c r="H17" s="23" t="s">
-        <v>450</v>
-      </c>
-      <c r="I17" s="21">
-        <v>2.8562833933124917E-2</v>
-      </c>
-      <c r="J17" s="11">
-        <v>3.3668321262918049E-2</v>
-      </c>
-      <c r="K17" s="19">
-        <v>5.9840006026847879E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
-        <v>159</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="12">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E18" s="17">
-        <v>20270</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G18" s="20">
-        <v>3</v>
-      </c>
-      <c r="H18" s="23" t="s">
-        <v>451</v>
-      </c>
-      <c r="I18" s="21">
-        <v>4.5006143104442863E-2</v>
-      </c>
-      <c r="J18" s="11">
-        <v>9.7925836576667369E-2</v>
-      </c>
-      <c r="K18" s="19">
-        <v>0.20175355972940359</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
-        <v>169</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="12">
-        <v>0.09</v>
-      </c>
-      <c r="E19" s="17">
-        <v>12970</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G19" s="20">
-        <v>2</v>
-      </c>
-      <c r="H19" s="23" t="s">
-        <v>464</v>
-      </c>
-      <c r="I19" s="21">
-        <v>2.8908554313976806E-2</v>
-      </c>
-      <c r="J19" s="11">
-        <v>2.8908554313976806E-2</v>
-      </c>
-      <c r="K19" s="19">
-        <v>2.8908554313976806E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
-        <v>170</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="12">
-        <v>0.09</v>
-      </c>
-      <c r="E20" s="17">
-        <v>12970</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G20" s="20">
-        <v>1</v>
-      </c>
-      <c r="H20" s="23" t="s">
-        <v>465</v>
-      </c>
-      <c r="I20" s="21">
-        <v>4.3196082167742358E-2</v>
-      </c>
-      <c r="J20" s="11">
-        <v>4.3196082167742358E-2</v>
-      </c>
-      <c r="K20" s="19">
-        <v>4.3196082167742358E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
-        <v>171</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="12">
-        <v>0.09</v>
-      </c>
-      <c r="E21" s="17">
-        <v>12970</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G21" s="20">
-        <v>3</v>
-      </c>
-      <c r="H21" s="23" t="s">
-        <v>466</v>
-      </c>
-      <c r="I21" s="21">
-        <v>3.1775252121018109E-2</v>
-      </c>
-      <c r="J21" s="11">
-        <v>7.772686245920965E-2</v>
-      </c>
-      <c r="K21" s="19">
-        <v>0.17564667785103982</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
-        <v>172</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="E22" s="17">
-        <v>50110</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G22" s="20">
-        <v>2</v>
-      </c>
-      <c r="H22" s="23" t="s">
-        <v>482</v>
-      </c>
-      <c r="I22" s="21">
-        <v>2.5368162847767085E-2</v>
-      </c>
-      <c r="J22" s="11">
-        <v>6.2486118309024938E-2</v>
-      </c>
-      <c r="K22" s="19">
-        <v>8.8556619310681109E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
-        <v>173</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="E23" s="17">
-        <v>50110</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G23" s="20">
-        <v>1</v>
-      </c>
-      <c r="H23" s="23" t="s">
-        <v>483</v>
-      </c>
-      <c r="I23" s="21">
-        <v>0.10794234869911362</v>
-      </c>
-      <c r="J23" s="11">
-        <v>0.10794234869911362</v>
-      </c>
-      <c r="K23" s="19">
-        <v>0.10794234869911362</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
-        <v>174</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="E24" s="17">
-        <v>50110</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G24" s="20">
-        <v>3</v>
-      </c>
-      <c r="H24" s="23" t="s">
-        <v>484</v>
-      </c>
-      <c r="I24" s="21">
-        <v>4.0509547144845739E-2</v>
-      </c>
-      <c r="J24" s="11">
-        <v>4.6843465452250974E-2</v>
-      </c>
-      <c r="K24" s="19">
-        <v>5.3177383759656201E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
-        <v>184</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" s="14">
-        <v>0.125</v>
-      </c>
-      <c r="E25" s="17">
-        <v>52550</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" s="20">
-        <v>2</v>
-      </c>
-      <c r="H25" s="23" t="s">
-        <v>476</v>
-      </c>
-      <c r="I25" s="21">
-        <v>7.7882751612873193E-3</v>
-      </c>
-      <c r="J25" s="11">
-        <v>1.7900885441206306E-2</v>
-      </c>
-      <c r="K25" s="19">
-        <v>4.7340210689394438E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="6">
-        <v>185</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="14">
-        <v>0.125</v>
-      </c>
-      <c r="E26" s="17">
-        <v>52550</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G26" s="20">
-        <v>1</v>
-      </c>
-      <c r="H26" s="23" t="s">
-        <v>477</v>
-      </c>
-      <c r="I26" s="21">
-        <v>4.2177160018072202E-2</v>
-      </c>
-      <c r="J26" s="11">
-        <v>0.12878701269006518</v>
-      </c>
-      <c r="K26" s="19">
-        <v>0.13179677943665277</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="6">
-        <v>186</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" s="14">
-        <v>0.125</v>
-      </c>
-      <c r="E27" s="17">
-        <v>52550</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G27" s="20">
-        <v>3</v>
-      </c>
-      <c r="H27" s="23" t="s">
-        <v>478</v>
-      </c>
-      <c r="I27" s="21">
-        <v>2.3137934660649853E-2</v>
-      </c>
-      <c r="J27" s="11">
-        <v>6.8461195512022288E-2</v>
-      </c>
-      <c r="K27" s="19">
-        <v>0.14395284553684834</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="6">
-        <v>193</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="14">
-        <v>0.27900000000000003</v>
-      </c>
-      <c r="E28" s="17">
-        <v>32830</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G28" s="20">
-        <v>2</v>
-      </c>
-      <c r="H28" s="23" t="s">
-        <v>488</v>
-      </c>
-      <c r="I28" s="21">
-        <v>9.5958740467727392E-3</v>
-      </c>
-      <c r="J28" s="11">
-        <v>2.000235955350866E-2</v>
-      </c>
-      <c r="K28" s="19">
-        <v>4.0666996611319353E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="6">
-        <v>194</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" s="14">
-        <v>0.27900000000000003</v>
-      </c>
-      <c r="E29" s="17">
-        <v>32830</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G29" s="20">
-        <v>1</v>
-      </c>
-      <c r="H29" s="23" t="s">
-        <v>489</v>
-      </c>
-      <c r="I29" s="21">
-        <v>3.972062576059085E-2</v>
-      </c>
-      <c r="J29" s="11">
-        <v>6.1999169361979495E-2</v>
-      </c>
-      <c r="K29" s="19">
-        <v>0.10827656744114039</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="6">
-        <v>195</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D30" s="14">
-        <v>0.27900000000000003</v>
-      </c>
-      <c r="E30" s="17">
-        <v>32830</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G30" s="20">
-        <v>3</v>
-      </c>
-      <c r="H30" s="23" t="s">
-        <v>490</v>
-      </c>
-      <c r="I30" s="21">
-        <v>2.191384689688711E-2</v>
-      </c>
-      <c r="J30" s="11">
-        <v>4.8206183032513075E-2</v>
-      </c>
-      <c r="K30" s="19">
-        <v>9.9721619084336896E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="6">
-        <v>214</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D31" s="12">
-        <v>0.15</v>
-      </c>
-      <c r="E31" s="17">
-        <v>14990</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G31" s="20">
-        <v>2</v>
-      </c>
-      <c r="H31" s="23" t="s">
-        <v>527</v>
-      </c>
-      <c r="I31" s="21">
-        <v>9.8915836962393134E-3</v>
-      </c>
-      <c r="J31" s="11">
-        <v>2.6740901162528259E-2</v>
-      </c>
-      <c r="K31" s="19">
-        <v>6.4025818074001817E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="6">
-        <v>215</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D32" s="12">
-        <v>0.15</v>
-      </c>
-      <c r="E32" s="17">
-        <v>14990</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G32" s="20">
-        <v>1</v>
-      </c>
-      <c r="H32" s="23" t="s">
-        <v>528</v>
-      </c>
-      <c r="I32" s="21">
-        <v>7.4935681341510657E-2</v>
-      </c>
-      <c r="J32" s="11">
-        <v>7.7393698378709408E-2</v>
-      </c>
-      <c r="K32" s="19">
-        <v>0.32196630850285968</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="6">
-        <v>216</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D33" s="12">
-        <v>0.15</v>
-      </c>
-      <c r="E33" s="17">
-        <v>14990</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G33" s="20">
-        <v>3</v>
-      </c>
-      <c r="H33" s="23" t="s">
-        <v>529</v>
-      </c>
-      <c r="I33" s="21">
-        <v>0.42909790469922893</v>
-      </c>
-      <c r="J33" s="11">
-        <v>0.44635496240933875</v>
-      </c>
-      <c r="K33" s="19">
-        <v>0.46361202011944858</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="6">
-        <v>220</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D34" s="12">
-        <v>0.125</v>
-      </c>
-      <c r="E34" s="17">
-        <v>115530</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G34" s="20">
-        <v>2</v>
-      </c>
-      <c r="H34" s="23" t="s">
-        <v>518</v>
-      </c>
-      <c r="I34" s="21">
-        <v>7.6776669196152352E-3</v>
-      </c>
-      <c r="J34" s="11">
-        <v>2.9815233273297551E-2</v>
-      </c>
-      <c r="K34" s="19">
-        <v>6.2950946325533164E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="6">
-        <v>221</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D35" s="12">
-        <v>0.125</v>
-      </c>
-      <c r="E35" s="17">
-        <v>115530</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G35" s="20">
-        <v>1</v>
-      </c>
-      <c r="H35" s="23" t="s">
-        <v>519</v>
-      </c>
-      <c r="I35" s="21">
-        <v>3.7106903422739E-2</v>
-      </c>
-      <c r="J35" s="11">
-        <v>7.6127636686032188E-2</v>
-      </c>
-      <c r="K35" s="19">
-        <v>0.14586756141118298</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="6">
-        <v>222</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D36" s="12">
-        <v>0.125</v>
-      </c>
-      <c r="E36" s="17">
-        <v>115530</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G36" s="20">
-        <v>3</v>
-      </c>
-      <c r="H36" s="23" t="s">
-        <v>520</v>
-      </c>
-      <c r="I36" s="21">
-        <v>3.1775252121018109E-2</v>
-      </c>
-      <c r="J36" s="11">
-        <v>7.772686245920965E-2</v>
-      </c>
-      <c r="K36" s="19">
-        <v>0.17564667785103982</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="6">
-        <v>223</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D37" s="14">
-        <v>0.33750000000000002</v>
-      </c>
-      <c r="E37" s="17">
-        <v>15080</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G37" s="20">
-        <v>2</v>
-      </c>
-      <c r="H37" s="23" t="s">
-        <v>521</v>
-      </c>
-      <c r="I37" s="21">
-        <v>3.9665411153435755E-3</v>
-      </c>
-      <c r="J37" s="11">
-        <v>7.5701622809655261E-3</v>
-      </c>
-      <c r="K37" s="19">
-        <v>3.8707634775383581E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="6">
-        <v>224</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D38" s="14">
-        <v>0.33750000000000002</v>
-      </c>
-      <c r="E38" s="17">
-        <v>15080</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G38" s="20">
-        <v>1</v>
-      </c>
-      <c r="H38" s="23" t="s">
-        <v>522</v>
-      </c>
-      <c r="I38" s="21">
-        <v>7.4129908231593822E-2</v>
-      </c>
-      <c r="J38" s="11">
-        <v>7.4129908231593822E-2</v>
-      </c>
-      <c r="K38" s="19">
-        <v>7.4129908231593822E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="6">
-        <v>225</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D39" s="14">
-        <v>0.33750000000000002</v>
-      </c>
-      <c r="E39" s="17">
-        <v>15080</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G39" s="20">
-        <v>3</v>
-      </c>
-      <c r="H39" s="23" t="s">
-        <v>523</v>
-      </c>
-      <c r="I39" s="21">
-        <v>3.1775252121018109E-2</v>
-      </c>
-      <c r="J39" s="11">
-        <v>7.772686245920965E-2</v>
-      </c>
-      <c r="K39" s="19">
-        <v>0.17564667785103982</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="6">
-        <v>226</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D40" s="12">
-        <v>0.29220000000000002</v>
-      </c>
-      <c r="E40" s="17">
-        <v>77480</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G40" s="20">
-        <v>2</v>
-      </c>
-      <c r="H40" s="23" t="s">
-        <v>524</v>
-      </c>
-      <c r="I40" s="21">
-        <v>5.3715854059367796E-2</v>
-      </c>
-      <c r="J40" s="11">
-        <v>8.4134761751951961E-2</v>
-      </c>
-      <c r="K40" s="19">
-        <v>9.4654700017068882E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="6">
-        <v>227</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D41" s="12">
-        <v>0.29220000000000002</v>
-      </c>
-      <c r="E41" s="17">
-        <v>77480</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G41" s="20">
-        <v>1</v>
-      </c>
-      <c r="H41" s="23" t="s">
-        <v>525</v>
-      </c>
-      <c r="I41" s="21">
-        <v>3.7106903422739E-2</v>
-      </c>
-      <c r="J41" s="11">
-        <v>7.6127636686032188E-2</v>
-      </c>
-      <c r="K41" s="19">
-        <v>0.14586756141118298</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="6">
-        <v>228</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D42" s="12">
-        <v>0.29220000000000002</v>
-      </c>
-      <c r="E42" s="17">
-        <v>77480</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G42" s="20">
-        <v>3</v>
-      </c>
-      <c r="H42" s="23" t="s">
-        <v>526</v>
-      </c>
-      <c r="I42" s="21">
-        <v>3.5064142930234202E-2</v>
-      </c>
-      <c r="J42" s="11">
-        <v>0.13925876692183392</v>
-      </c>
-      <c r="K42" s="19">
-        <v>0.3474594985557658</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="6">
-        <v>241</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D43" s="12">
-        <v>0.35</v>
-      </c>
-      <c r="E43" s="17">
-        <v>23900</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G43" s="20">
-        <v>2</v>
-      </c>
-      <c r="H43" s="23" t="s">
-        <v>551</v>
-      </c>
-      <c r="I43" s="21">
-        <v>3.8135454829697005E-2</v>
-      </c>
-      <c r="J43" s="11">
-        <v>4.8489571566328937E-2</v>
-      </c>
-      <c r="K43" s="19">
-        <v>0.35228264280530447</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="6">
-        <v>242</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D44" s="12">
-        <v>0.35</v>
-      </c>
-      <c r="E44" s="17">
-        <v>23900</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G44" s="20">
-        <v>1</v>
-      </c>
-      <c r="H44" s="23" t="s">
-        <v>552</v>
-      </c>
-      <c r="I44" s="21">
-        <v>3.7106903422739E-2</v>
-      </c>
-      <c r="J44" s="11">
-        <v>7.6127636686032188E-2</v>
-      </c>
-      <c r="K44" s="19">
-        <v>0.14586756141118298</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="6">
-        <v>243</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D45" s="12">
-        <v>0.35</v>
-      </c>
-      <c r="E45" s="17">
-        <v>23900</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G45" s="20">
-        <v>3</v>
-      </c>
-      <c r="H45" s="23" t="s">
-        <v>553</v>
-      </c>
-      <c r="I45" s="21">
-        <v>3.1775252121018109E-2</v>
-      </c>
-      <c r="J45" s="11">
-        <v>7.772686245920965E-2</v>
-      </c>
-      <c r="K45" s="19">
-        <v>0.17564667785103982</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="6">
-        <v>253</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D46" s="12">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="E46" s="17">
-        <v>186710</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G46" s="20">
-        <v>2</v>
-      </c>
-      <c r="H46" s="23" t="s">
-        <v>536</v>
-      </c>
-      <c r="I46" s="21">
-        <v>7.6776669196152352E-3</v>
-      </c>
-      <c r="J46" s="11">
-        <v>2.9815233273297551E-2</v>
-      </c>
-      <c r="K46" s="19">
-        <v>6.2950946325533164E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="6">
-        <v>254</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D47" s="12">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="E47" s="17">
-        <v>186710</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G47" s="20">
-        <v>1</v>
-      </c>
-      <c r="H47" s="23" t="s">
-        <v>537</v>
-      </c>
-      <c r="I47" s="21">
-        <v>3.7106903422739E-2</v>
-      </c>
-      <c r="J47" s="11">
-        <v>7.6127636686032188E-2</v>
-      </c>
-      <c r="K47" s="19">
-        <v>0.14586756141118298</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="6">
-        <v>255</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D48" s="12">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="E48" s="17">
-        <v>186710</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G48" s="20">
-        <v>3</v>
-      </c>
-      <c r="H48" s="23" t="s">
-        <v>538</v>
-      </c>
-      <c r="I48" s="21">
-        <v>3.1775252121018109E-2</v>
-      </c>
-      <c r="J48" s="11">
-        <v>7.772686245920965E-2</v>
-      </c>
-      <c r="K48" s="19">
-        <v>0.17564667785103982</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="6">
-        <v>193</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D49" s="14">
-        <v>0.27900000000000003</v>
-      </c>
-      <c r="E49" s="17">
-        <v>32830</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G49" s="20">
-        <v>2</v>
-      </c>
-      <c r="H49" s="23" t="s">
-        <v>488</v>
-      </c>
-      <c r="I49" s="21">
-        <v>9.5958740467727392E-3</v>
-      </c>
-      <c r="J49" s="11">
-        <v>2.000235955350866E-2</v>
-      </c>
-      <c r="K49" s="19">
-        <v>4.0666996611319353E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="6">
-        <v>194</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D50" s="14">
-        <v>0.27900000000000003</v>
-      </c>
-      <c r="E50" s="17">
-        <v>32830</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G50" s="20">
-        <v>1</v>
-      </c>
-      <c r="H50" s="23" t="s">
-        <v>489</v>
-      </c>
-      <c r="I50" s="21">
-        <v>3.972062576059085E-2</v>
-      </c>
-      <c r="J50" s="11">
-        <v>6.1999169361979495E-2</v>
-      </c>
-      <c r="K50" s="19">
-        <v>0.10827656744114039</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="6">
-        <v>195</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D51" s="14">
-        <v>0.27900000000000003</v>
-      </c>
-      <c r="E51" s="17">
-        <v>32830</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G51" s="20">
-        <v>3</v>
-      </c>
-      <c r="H51" s="23" t="s">
-        <v>490</v>
-      </c>
-      <c r="I51" s="21">
-        <v>2.191384689688711E-2</v>
-      </c>
-      <c r="J51" s="11">
-        <v>4.8206183032513075E-2</v>
-      </c>
-      <c r="K51" s="19">
-        <v>9.9721619084336896E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="6">
-        <v>268</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D52" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="E52" s="17">
-        <v>48850</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G52" s="20">
-        <v>2</v>
-      </c>
-      <c r="H52" s="23" t="s">
-        <v>572</v>
-      </c>
-      <c r="I52" s="21">
-        <v>1.4854204674963914E-2</v>
-      </c>
-      <c r="J52" s="11">
-        <v>2.8292434686753326E-2</v>
-      </c>
-      <c r="K52" s="19">
-        <v>4.9064997448198477E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="6">
-        <v>269</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D53" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="E53" s="17">
-        <v>48850</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G53" s="20">
-        <v>1</v>
-      </c>
-      <c r="H53" s="23" t="s">
-        <v>573</v>
-      </c>
-      <c r="I53" s="21">
-        <v>7.9637951254629843E-2</v>
-      </c>
-      <c r="J53" s="11">
-        <v>0.16757206403261762</v>
-      </c>
-      <c r="K53" s="19">
-        <v>0.2503872328093617</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="6">
-        <v>270</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D54" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="E54" s="17">
-        <v>48850</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G54" s="20">
-        <v>3</v>
-      </c>
-      <c r="H54" s="23" t="s">
-        <v>574</v>
-      </c>
-      <c r="I54" s="21">
-        <v>2.8496261638880714E-2</v>
-      </c>
-      <c r="J54" s="11">
-        <v>7.5505296048939477E-2</v>
-      </c>
-      <c r="K54" s="19">
-        <v>0.16400338441205387</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="6">
-        <v>280</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D55" s="12">
-        <v>0.24</v>
-      </c>
-      <c r="E55" s="17">
-        <v>93530</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G55" s="20">
-        <v>2</v>
-      </c>
-      <c r="H55" s="23" t="s">
-        <v>575</v>
-      </c>
-      <c r="I55" s="21">
-        <v>1.7579857913197022E-2</v>
-      </c>
-      <c r="J55" s="11">
-        <v>3.9293250041589123E-2</v>
-      </c>
-      <c r="K55" s="19">
-        <v>6.6328782190571478E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="6">
-        <v>281</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D56" s="12">
-        <v>0.24</v>
-      </c>
-      <c r="E56" s="17">
-        <v>93530</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G56" s="20">
-        <v>1</v>
-      </c>
-      <c r="H56" s="23" t="s">
-        <v>576</v>
-      </c>
-      <c r="I56" s="21">
-        <v>6.4540927667341264E-2</v>
-      </c>
-      <c r="J56" s="11">
-        <v>7.807473670294772E-2</v>
-      </c>
-      <c r="K56" s="19">
-        <v>8.1514967749048886E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="6">
-        <v>282</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D57" s="12">
-        <v>0.24</v>
-      </c>
-      <c r="E57" s="17">
-        <v>93530</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G57" s="20">
-        <v>3</v>
-      </c>
-      <c r="H57" s="23" t="s">
-        <v>577</v>
-      </c>
-      <c r="I57" s="21">
-        <v>4.0461697288407296E-2</v>
-      </c>
-      <c r="J57" s="11">
-        <v>0.13410341552652499</v>
-      </c>
-      <c r="K57" s="19">
-        <v>0.264359717997388</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="6">
-        <v>301</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D58" s="12">
-        <v>0.19</v>
-      </c>
-      <c r="E58" s="17">
-        <v>13310</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G58" s="20">
-        <v>2</v>
-      </c>
-      <c r="H58" s="23" t="s">
-        <v>599</v>
-      </c>
-      <c r="I58" s="21">
-        <v>7.7604780687817645E-3</v>
-      </c>
-      <c r="J58" s="11">
-        <v>1.9754618817742476E-2</v>
-      </c>
-      <c r="K58" s="19">
-        <v>4.7204340446976051E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="6">
-        <v>302</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D59" s="12">
-        <v>0.19</v>
-      </c>
-      <c r="E59" s="17">
-        <v>13310</v>
-      </c>
-      <c r="F59" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G59" s="20">
-        <v>1</v>
-      </c>
-      <c r="H59" s="23" t="s">
-        <v>600</v>
-      </c>
-      <c r="I59" s="21">
-        <v>4.8894110175007825E-2</v>
-      </c>
-      <c r="J59" s="11">
-        <v>9.1222896964660641E-2</v>
-      </c>
-      <c r="K59" s="19">
-        <v>0.15437882533248093</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="6">
-        <v>303</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D60" s="12">
-        <v>0.19</v>
-      </c>
-      <c r="E60" s="17">
-        <v>13310</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G60" s="20">
-        <v>3</v>
-      </c>
-      <c r="H60" s="23" t="s">
-        <v>601</v>
-      </c>
-      <c r="I60" s="21">
-        <v>2.9115624036528717E-2</v>
-      </c>
-      <c r="J60" s="11">
-        <v>5.6725411666508019E-2</v>
-      </c>
-      <c r="K60" s="19">
-        <v>0.13488123876248853</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" s="6">
-        <v>304</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D61" s="12">
-        <v>0.23</v>
-      </c>
-      <c r="E61" s="17">
-        <v>20470</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G61" s="20">
-        <v>2</v>
-      </c>
-      <c r="H61" s="23" t="s">
-        <v>605</v>
-      </c>
-      <c r="I61" s="21">
-        <v>1.0895605332117539E-2</v>
-      </c>
-      <c r="J61" s="11">
-        <v>2.426116080443989E-2</v>
-      </c>
-      <c r="K61" s="19">
-        <v>4.1981113904440009E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" s="6">
-        <v>305</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D62" s="12">
-        <v>0.23</v>
-      </c>
-      <c r="E62" s="17">
-        <v>20470</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G62" s="20">
-        <v>1</v>
-      </c>
-      <c r="H62" s="23" t="s">
-        <v>606</v>
-      </c>
-      <c r="I62" s="21">
-        <v>0.15430051514610454</v>
-      </c>
-      <c r="J62" s="11">
-        <v>0.20306654968026161</v>
-      </c>
-      <c r="K62" s="19">
-        <v>0.25183258421441873</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="6">
-        <v>306</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D63" s="12">
-        <v>0.23</v>
-      </c>
-      <c r="E63" s="17">
-        <v>20470</v>
-      </c>
-      <c r="F63" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G63" s="20">
-        <v>3</v>
-      </c>
-      <c r="H63" s="23" t="s">
-        <v>607</v>
-      </c>
-      <c r="I63" s="21">
-        <v>4.1137968157593532E-2</v>
-      </c>
-      <c r="J63" s="11">
-        <v>0.22229816593139243</v>
-      </c>
-      <c r="K63" s="19">
-        <v>0.81919954708398379</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="6">
-        <v>313</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D64" s="12">
-        <v>0.16</v>
-      </c>
-      <c r="E64" s="17">
-        <v>9510</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G64" s="20">
-        <v>2</v>
-      </c>
-      <c r="H64" s="23" t="s">
-        <v>614</v>
-      </c>
-      <c r="I64" s="21">
-        <v>7.6255898968370754E-3</v>
-      </c>
-      <c r="J64" s="11">
-        <v>2.1712497701201795E-2</v>
-      </c>
-      <c r="K64" s="19">
-        <v>4.9958490154229228E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A65" s="6">
-        <v>314</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D65" s="12">
-        <v>0.16</v>
-      </c>
-      <c r="E65" s="17">
-        <v>9510</v>
-      </c>
-      <c r="F65" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G65" s="20">
-        <v>1</v>
-      </c>
-      <c r="H65" s="23" t="s">
-        <v>615</v>
-      </c>
-      <c r="I65" s="21">
-        <v>8.1030840332004958E-2</v>
-      </c>
-      <c r="J65" s="11">
-        <v>8.9800781576049774E-2</v>
-      </c>
-      <c r="K65" s="19">
-        <v>9.4809052217966289E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A66" s="6">
-        <v>315</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D66" s="12">
-        <v>0.16</v>
-      </c>
-      <c r="E66" s="17">
-        <v>9510</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G66" s="20">
-        <v>3</v>
-      </c>
-      <c r="H66" s="23" t="s">
-        <v>616</v>
-      </c>
-      <c r="I66" s="21">
-        <v>3.2275212963644238E-2</v>
-      </c>
-      <c r="J66" s="11">
-        <v>5.2128986558690429E-2</v>
-      </c>
-      <c r="K66" s="19">
-        <v>0.25499853120037896</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67" s="6">
-        <v>316</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="D67" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="E67" s="17">
-        <v>11720</v>
-      </c>
-      <c r="F67" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G67" s="20">
-        <v>2</v>
-      </c>
-      <c r="H67" s="23" t="s">
-        <v>617</v>
-      </c>
-      <c r="I67" s="21">
-        <v>8.3602507718769509E-3</v>
-      </c>
-      <c r="J67" s="11">
-        <v>2.7733489972308428E-2</v>
-      </c>
-      <c r="K67" s="19">
-        <v>6.1532133332759857E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A68" s="6">
-        <v>317</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="D68" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="E68" s="17">
-        <v>11720</v>
-      </c>
-      <c r="F68" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G68" s="20">
-        <v>1</v>
-      </c>
-      <c r="H68" s="23" t="s">
-        <v>618</v>
-      </c>
-      <c r="I68" s="21">
-        <v>4.1844629966783377E-2</v>
-      </c>
-      <c r="J68" s="11">
-        <v>9.1728713427436465E-2</v>
-      </c>
-      <c r="K68" s="19">
-        <v>0.18053746129498957</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A69" s="6">
-        <v>318</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="D69" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="E69" s="17">
-        <v>11720</v>
-      </c>
-      <c r="F69" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G69" s="20">
-        <v>3</v>
-      </c>
-      <c r="H69" s="23" t="s">
-        <v>619</v>
-      </c>
-      <c r="I69" s="21">
-        <v>2.2622263228254644E-2</v>
-      </c>
-      <c r="J69" s="11">
-        <v>8.0639512436284227E-2</v>
-      </c>
-      <c r="K69" s="19">
-        <v>0.18977227756183437</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A70" s="6">
-        <v>319</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D70" s="12">
-        <v>0.17</v>
-      </c>
-      <c r="E70" s="17">
-        <v>52140</v>
-      </c>
-      <c r="F70" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G70" s="20">
-        <v>2</v>
-      </c>
-      <c r="H70" s="23" t="s">
-        <v>632</v>
-      </c>
-      <c r="I70" s="21">
-        <v>7.6776669196152352E-3</v>
-      </c>
-      <c r="J70" s="11">
-        <v>2.9815233273297551E-2</v>
-      </c>
-      <c r="K70" s="19">
-        <v>6.2950946325533164E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A71" s="6">
-        <v>320</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D71" s="12">
-        <v>0.17</v>
-      </c>
-      <c r="E71" s="17">
-        <v>52140</v>
-      </c>
-      <c r="F71" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G71" s="20">
-        <v>1</v>
-      </c>
-      <c r="H71" s="23" t="s">
-        <v>633</v>
-      </c>
-      <c r="I71" s="21">
-        <v>3.7106903422739E-2</v>
-      </c>
-      <c r="J71" s="11">
-        <v>7.6127636686032188E-2</v>
-      </c>
-      <c r="K71" s="19">
-        <v>0.14586756141118298</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A72" s="6">
-        <v>321</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D72" s="12">
-        <v>0.17</v>
-      </c>
-      <c r="E72" s="17">
-        <v>52140</v>
-      </c>
-      <c r="F72" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G72" s="20">
-        <v>3</v>
-      </c>
-      <c r="H72" s="23" t="s">
-        <v>634</v>
-      </c>
-      <c r="I72" s="21">
-        <v>3.1775252121018109E-2</v>
-      </c>
-      <c r="J72" s="11">
-        <v>7.772686245920965E-2</v>
-      </c>
-      <c r="K72" s="19">
-        <v>0.17564667785103982</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A73" s="6">
-        <v>328</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D73" s="12">
-        <v>0.15</v>
-      </c>
-      <c r="E73" s="17">
-        <v>5540</v>
-      </c>
-      <c r="F73" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G73" s="20">
-        <v>2</v>
-      </c>
-      <c r="H73" s="23" t="s">
-        <v>635</v>
-      </c>
-      <c r="I73" s="21">
-        <v>1.4400051419042522E-2</v>
-      </c>
-      <c r="J73" s="11">
-        <v>0.13896683786025671</v>
-      </c>
-      <c r="K73" s="19">
-        <v>0.18384509115387371</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A74" s="6">
-        <v>329</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D74" s="12">
-        <v>0.15</v>
-      </c>
-      <c r="E74" s="17">
-        <v>5540</v>
-      </c>
-      <c r="F74" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G74" s="20">
-        <v>1</v>
-      </c>
-      <c r="H74" s="23" t="s">
-        <v>636</v>
-      </c>
-      <c r="I74" s="21">
-        <v>2.5165375572703756E-2</v>
-      </c>
-      <c r="J74" s="11">
-        <v>3.0303069195707976E-2</v>
-      </c>
-      <c r="K74" s="19">
-        <v>3.5440762818712196E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A75" s="6">
-        <v>330</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D75" s="12">
-        <v>0.15</v>
-      </c>
-      <c r="E75" s="17">
-        <v>5540</v>
-      </c>
-      <c r="F75" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G75" s="20">
-        <v>3</v>
-      </c>
-      <c r="H75" s="23" t="s">
-        <v>637</v>
-      </c>
-      <c r="I75" s="21">
-        <v>5.5629024518314404E-2</v>
-      </c>
-      <c r="J75" s="11">
-        <v>8.092474854197812E-2</v>
-      </c>
-      <c r="K75" s="19">
-        <v>0.25557206391197951</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A76" s="6">
-        <v>334</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D76" s="12">
-        <v>0.22</v>
-      </c>
-      <c r="E76" s="17">
-        <v>17570</v>
-      </c>
-      <c r="F76" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G76" s="20">
-        <v>2</v>
-      </c>
-      <c r="H76" s="23" t="s">
-        <v>638</v>
-      </c>
-      <c r="I76" s="21">
-        <v>9.8564864606013776E-3</v>
-      </c>
-      <c r="J76" s="11">
-        <v>1.3797553481897691E-2</v>
-      </c>
-      <c r="K76" s="19">
-        <v>1.6719669102632118E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A77" s="6">
-        <v>335</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D77" s="12">
-        <v>0.22</v>
-      </c>
-      <c r="E77" s="17">
-        <v>17570</v>
-      </c>
-      <c r="F77" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G77" s="20">
-        <v>1</v>
-      </c>
-      <c r="H77" s="23" t="s">
-        <v>639</v>
-      </c>
-      <c r="I77" s="21">
-        <v>3.7106903422739E-2</v>
-      </c>
-      <c r="J77" s="11">
-        <v>7.6127636686032188E-2</v>
-      </c>
-      <c r="K77" s="19">
-        <v>0.14586756141118298</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A78" s="6">
-        <v>336</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D78" s="12">
-        <v>0.22</v>
-      </c>
-      <c r="E78" s="17">
-        <v>17570</v>
-      </c>
-      <c r="F78" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G78" s="20">
-        <v>3</v>
-      </c>
-      <c r="H78" s="23" t="s">
-        <v>640</v>
-      </c>
-      <c r="I78" s="21">
-        <v>2.0256902195109172E-2</v>
-      </c>
-      <c r="J78" s="11">
-        <v>2.4140979781198176E-2</v>
-      </c>
-      <c r="K78" s="19">
-        <v>6.3827896454079755E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A79" s="6">
-        <v>337</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D79" s="12">
-        <v>0.19</v>
-      </c>
-      <c r="E79" s="17">
-        <v>22250</v>
-      </c>
-      <c r="F79" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G79" s="20">
-        <v>2</v>
-      </c>
-      <c r="H79" s="23" t="s">
-        <v>641</v>
-      </c>
-      <c r="I79" s="21">
-        <v>1.4716182100107621E-2</v>
-      </c>
-      <c r="J79" s="11">
-        <v>2.4473868207046459E-2</v>
-      </c>
-      <c r="K79" s="19">
-        <v>4.0090411555517125E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A80" s="6">
-        <v>338</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D80" s="12">
-        <v>0.19</v>
-      </c>
-      <c r="E80" s="17">
-        <v>22250</v>
-      </c>
-      <c r="F80" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G80" s="20">
-        <v>1</v>
-      </c>
-      <c r="H80" s="23" t="s">
-        <v>642</v>
-      </c>
-      <c r="I80" s="21">
-        <v>2.3799479917396435E-2</v>
-      </c>
-      <c r="J80" s="11">
-        <v>3.3855656323501036E-2</v>
-      </c>
-      <c r="K80" s="19">
-        <v>7.0570052903762739E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A81" s="6">
-        <v>339</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D81" s="12">
-        <v>0.19</v>
-      </c>
-      <c r="E81" s="17">
-        <v>22250</v>
-      </c>
-      <c r="F81" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G81" s="20">
-        <v>3</v>
-      </c>
-      <c r="H81" s="23" t="s">
-        <v>643</v>
-      </c>
-      <c r="I81" s="21">
-        <v>4.4444742570705686E-2</v>
-      </c>
-      <c r="J81" s="11">
-        <v>8.7074845798312248E-2</v>
-      </c>
-      <c r="K81" s="19">
-        <v>0.25049277750183718</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A82" s="6">
-        <v>346</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D82" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E82" s="17">
-        <v>28380</v>
-      </c>
-      <c r="F82" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G82" s="20">
-        <v>2</v>
-      </c>
-      <c r="H82" s="23" t="s">
-        <v>425</v>
-      </c>
-      <c r="I82" s="21">
-        <v>9.6986555799139541E-3</v>
-      </c>
-      <c r="J82" s="11">
-        <v>2.2125260559673999E-2</v>
-      </c>
-      <c r="K82" s="19">
-        <v>4.6811394804356352E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A83" s="6">
-        <v>347</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D83" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E83" s="17">
-        <v>28380</v>
-      </c>
-      <c r="F83" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G83" s="20">
-        <v>1</v>
-      </c>
-      <c r="H83" s="23" t="s">
-        <v>426</v>
-      </c>
-      <c r="I83" s="21">
-        <v>2.5633521161723773E-2</v>
-      </c>
-      <c r="J83" s="11">
-        <v>6.2727435741031221E-2</v>
-      </c>
-      <c r="K83" s="19">
-        <v>0.12952682347474745</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A84" s="6">
-        <v>348</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D84" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E84" s="17">
-        <v>28380</v>
-      </c>
-      <c r="F84" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G84" s="20">
-        <v>3</v>
-      </c>
-      <c r="H84" s="23" t="s">
-        <v>427</v>
-      </c>
-      <c r="I84" s="21">
-        <v>2.5974985705945898E-2</v>
-      </c>
-      <c r="J84" s="11">
-        <v>6.4361826805022532E-2</v>
-      </c>
-      <c r="K84" s="19">
-        <v>0.18138745410059312</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A85" s="6">
-        <v>352</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D85" s="12">
-        <v>0.22</v>
-      </c>
-      <c r="E85" s="17">
-        <v>57900</v>
-      </c>
-      <c r="F85" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G85" s="20">
-        <v>2</v>
-      </c>
-      <c r="H85" s="23" t="s">
-        <v>644</v>
-      </c>
-      <c r="I85" s="21">
-        <v>1.6094654514757337E-2</v>
-      </c>
-      <c r="J85" s="11">
-        <v>4.163822853682201E-2</v>
-      </c>
-      <c r="K85" s="19">
-        <v>7.3373678281955235E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A86" s="6">
-        <v>353</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D86" s="12">
-        <v>0.22</v>
-      </c>
-      <c r="E86" s="17">
-        <v>57900</v>
-      </c>
-      <c r="F86" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G86" s="20">
-        <v>1</v>
-      </c>
-      <c r="H86" s="23" t="s">
-        <v>645</v>
-      </c>
-      <c r="I86" s="21">
-        <v>3.1782659930718944E-2</v>
-      </c>
-      <c r="J86" s="11">
-        <v>9.8881398970432882E-2</v>
-      </c>
-      <c r="K86" s="19">
-        <v>0.19148044852645862</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A87" s="6">
-        <v>354</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D87" s="12">
-        <v>0.22</v>
-      </c>
-      <c r="E87" s="17">
-        <v>57900</v>
-      </c>
-      <c r="F87" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G87" s="20">
-        <v>3</v>
-      </c>
-      <c r="H87" s="23" t="s">
-        <v>646</v>
-      </c>
-      <c r="I87" s="21">
-        <v>3.1117895881038748E-2</v>
-      </c>
-      <c r="J87" s="11">
-        <v>6.4989531185774552E-2</v>
-      </c>
-      <c r="K87" s="19">
-        <v>0.10432027345285175</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A88" s="6">
-        <v>355</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="14">
-        <v>0.1792</v>
-      </c>
-      <c r="E88" s="17">
-        <v>84550</v>
-      </c>
-      <c r="F88" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G88" s="20">
-        <v>2</v>
-      </c>
-      <c r="H88" s="23" t="s">
-        <v>377</v>
-      </c>
-      <c r="I88" s="21">
-        <v>2.8215627931650909E-2</v>
-      </c>
-      <c r="J88" s="11">
-        <v>4.0586950784440218E-2</v>
-      </c>
-      <c r="K88" s="19">
-        <v>6.4735237374416874E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A89" s="6">
-        <v>356</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="14">
-        <v>0.1792</v>
-      </c>
-      <c r="E89" s="17">
-        <v>84550</v>
-      </c>
-      <c r="F89" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G89" s="20">
-        <v>1</v>
-      </c>
-      <c r="H89" s="23" t="s">
-        <v>378</v>
-      </c>
-      <c r="I89" s="21">
-        <v>3.9208357277603495E-2</v>
-      </c>
-      <c r="J89" s="11">
-        <v>0.10520760785810551</v>
-      </c>
-      <c r="K89" s="19">
-        <v>0.20994448082390538</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A90" s="6">
-        <v>357</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="14">
-        <v>0.1792</v>
-      </c>
-      <c r="E90" s="17">
-        <v>84550</v>
-      </c>
-      <c r="F90" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G90" s="20">
-        <v>3</v>
-      </c>
-      <c r="H90" s="23" t="s">
-        <v>379</v>
-      </c>
-      <c r="I90" s="21">
-        <v>2.0318736293066866E-2</v>
-      </c>
-      <c r="J90" s="11">
-        <v>0.11894055818012803</v>
-      </c>
-      <c r="K90" s="19">
-        <v>0.16287614247107784</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A91" s="6">
-        <v>373</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D91" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="E91" s="17">
-        <v>9950</v>
-      </c>
-      <c r="F91" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G91" s="20">
-        <v>2</v>
-      </c>
-      <c r="H91" s="23" t="s">
-        <v>662</v>
-      </c>
-      <c r="I91" s="21">
-        <v>1.2632515095334106E-2</v>
-      </c>
-      <c r="J91" s="11">
-        <v>3.1777630588806838E-2</v>
-      </c>
-      <c r="K91" s="19">
-        <v>5.8985898509874693E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A92" s="6">
-        <v>374</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D92" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="E92" s="17">
-        <v>9950</v>
-      </c>
-      <c r="F92" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G92" s="20">
-        <v>1</v>
-      </c>
-      <c r="H92" s="23" t="s">
-        <v>663</v>
-      </c>
-      <c r="I92" s="21">
-        <v>6.4924134674815739E-2</v>
-      </c>
-      <c r="J92" s="11">
-        <v>7.9940955958995794E-2</v>
-      </c>
-      <c r="K92" s="19">
-        <v>0.11549536795923271</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A93" s="6">
-        <v>375</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D93" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="E93" s="17">
-        <v>9950</v>
-      </c>
-      <c r="F93" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G93" s="20">
-        <v>3</v>
-      </c>
-      <c r="H93" s="23" t="s">
-        <v>664</v>
-      </c>
-      <c r="I93" s="21">
-        <v>2.4707798374583298E-2</v>
-      </c>
-      <c r="J93" s="11">
-        <v>8.4738022300366589E-2</v>
-      </c>
-      <c r="K93" s="19">
-        <v>0.154441135910108</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A94" s="6">
-        <v>376</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D94" s="12">
-        <v>0.18</v>
-      </c>
-      <c r="E94" s="17">
-        <v>2640</v>
-      </c>
-      <c r="F94" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G94" s="20">
-        <v>2</v>
-      </c>
-      <c r="H94" s="23" t="s">
-        <v>668</v>
-      </c>
-      <c r="I94" s="21">
-        <v>9.7253479079593731E-3</v>
-      </c>
-      <c r="J94" s="11">
-        <v>2.9864251230249335E-2</v>
-      </c>
-      <c r="K94" s="19">
-        <v>5.7021258783365544E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A95" s="6">
-        <v>377</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D95" s="12">
-        <v>0.18</v>
-      </c>
-      <c r="E95" s="17">
-        <v>2640</v>
-      </c>
-      <c r="F95" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G95" s="20">
-        <v>1</v>
-      </c>
-      <c r="H95" s="23" t="s">
-        <v>669</v>
-      </c>
-      <c r="I95" s="21">
-        <v>2.2470026360434783E-2</v>
-      </c>
-      <c r="J95" s="11">
-        <v>5.840869181433174E-2</v>
-      </c>
-      <c r="K95" s="19">
-        <v>0.13314522911720325</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A96" s="6">
-        <v>378</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D96" s="12">
-        <v>0.18</v>
-      </c>
-      <c r="E96" s="17">
-        <v>2640</v>
-      </c>
-      <c r="F96" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G96" s="20">
-        <v>3</v>
-      </c>
-      <c r="H96" s="23" t="s">
-        <v>670</v>
-      </c>
-      <c r="I96" s="21">
-        <v>3.7764760534447564E-2</v>
-      </c>
-      <c r="J96" s="11">
-        <v>5.9411764705882462E-2</v>
-      </c>
-      <c r="K96" s="19">
-        <v>9.0572608177879335E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A97" s="6">
-        <v>379</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D97" s="12">
-        <v>0</v>
-      </c>
-      <c r="E97" s="17">
-        <v>43090</v>
-      </c>
-      <c r="F97" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G97" s="20">
-        <v>2</v>
-      </c>
-      <c r="H97" s="23" t="s">
-        <v>305</v>
-      </c>
-      <c r="I97" s="21">
-        <v>1.0493244285750485E-2</v>
-      </c>
-      <c r="J97" s="11">
-        <v>2.71310895778357E-2</v>
-      </c>
-      <c r="K97" s="19">
-        <v>6.0046407313029126E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A98" s="6">
-        <v>380</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D98" s="12">
-        <v>0</v>
-      </c>
-      <c r="E98" s="17">
-        <v>43090</v>
-      </c>
-      <c r="F98" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G98" s="20">
-        <v>1</v>
-      </c>
-      <c r="H98" s="23" t="s">
-        <v>306</v>
-      </c>
-      <c r="I98" s="21">
-        <v>3.7106903422739E-2</v>
-      </c>
-      <c r="J98" s="11">
-        <v>7.6127636686032188E-2</v>
-      </c>
-      <c r="K98" s="19">
-        <v>0.14586756141118298</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A99" s="6">
-        <v>381</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D99" s="12">
-        <v>0</v>
-      </c>
-      <c r="E99" s="17">
-        <v>43090</v>
-      </c>
-      <c r="F99" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G99" s="20">
-        <v>3</v>
-      </c>
-      <c r="H99" s="23" t="s">
-        <v>307</v>
-      </c>
-      <c r="I99" s="21">
-        <v>3.1775252121018109E-2</v>
-      </c>
-      <c r="J99" s="11">
-        <v>7.772686245920965E-2</v>
-      </c>
-      <c r="K99" s="19">
-        <v>0.17564667785103982</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A100" s="6">
-        <v>382</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="D100" s="12">
-        <v>0.19</v>
-      </c>
-      <c r="E100" s="17">
-        <v>43700</v>
-      </c>
-      <c r="F100" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G100" s="20">
-        <v>2</v>
-      </c>
-      <c r="H100" s="23" t="s">
-        <v>440</v>
-      </c>
-      <c r="I100" s="21">
-        <v>2.3544644224178686E-2</v>
-      </c>
-      <c r="J100" s="11">
-        <v>4.4291338582677232E-2</v>
-      </c>
-      <c r="K100" s="19">
-        <v>7.5931654049799874E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A101" s="6">
-        <v>383</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="D101" s="12">
-        <v>0.19</v>
-      </c>
-      <c r="E101" s="17">
-        <v>43700</v>
-      </c>
-      <c r="F101" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G101" s="20">
-        <v>1</v>
-      </c>
-      <c r="H101" s="23" t="s">
-        <v>441</v>
-      </c>
-      <c r="I101" s="21">
-        <v>4.2388588409415784E-2</v>
-      </c>
-      <c r="J101" s="11">
-        <v>9.6297700093073493E-2</v>
-      </c>
-      <c r="K101" s="19">
-        <v>0.16286027576247486</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A102" s="6">
-        <v>384</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="C102" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="D102" s="12">
-        <v>0.19</v>
-      </c>
-      <c r="E102" s="17">
-        <v>43700</v>
-      </c>
-      <c r="F102" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G102" s="20">
-        <v>3</v>
-      </c>
-      <c r="H102" s="23" t="s">
-        <v>442</v>
-      </c>
-      <c r="I102" s="21">
-        <v>3.8109917148159651E-2</v>
-      </c>
-      <c r="J102" s="11">
-        <v>0.10299003322259127</v>
-      </c>
-      <c r="K102" s="19">
-        <v>0.22869977183155038</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A103" s="6">
-        <v>331</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D103" s="12">
-        <v>0.17</v>
-      </c>
-      <c r="E103" s="17">
-        <v>52090</v>
-      </c>
-      <c r="F103" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G103" s="20">
-        <v>2</v>
-      </c>
-      <c r="H103" s="23" t="s">
-        <v>626</v>
-      </c>
-      <c r="I103" s="21">
-        <v>1.1727067448600345E-2</v>
-      </c>
-      <c r="J103" s="11">
-        <v>3.483312207244707E-2</v>
-      </c>
-      <c r="K103" s="19">
-        <v>8.115876172714967E-2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A104" s="6">
-        <v>332</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D104" s="12">
-        <v>0.17</v>
-      </c>
-      <c r="E104" s="17">
-        <v>52090</v>
-      </c>
-      <c r="F104" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G104" s="20">
-        <v>1</v>
-      </c>
-      <c r="H104" s="23" t="s">
-        <v>627</v>
-      </c>
-      <c r="I104" s="21">
-        <v>3.3431561001689841E-2</v>
-      </c>
-      <c r="J104" s="11">
-        <v>7.6114878538330058E-2</v>
-      </c>
-      <c r="K104" s="19">
-        <v>0.15592408915259912</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A105" s="6">
-        <v>333</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D105" s="12">
-        <v>0.17</v>
-      </c>
-      <c r="E105" s="17">
-        <v>52090</v>
-      </c>
-      <c r="F105" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G105" s="20">
-        <v>3</v>
-      </c>
-      <c r="H105" s="23" t="s">
-        <v>628</v>
-      </c>
-      <c r="I105" s="21">
-        <v>9.1747016766527328E-2</v>
-      </c>
-      <c r="J105" s="11">
-        <v>0.16383291533339087</v>
-      </c>
-      <c r="K105" s="19">
-        <v>0.30332802265887754</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A106" s="6">
-        <v>100</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D106" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E106" s="17">
-        <v>7900</v>
-      </c>
-      <c r="F106" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G106" s="20">
-        <v>2</v>
-      </c>
-      <c r="H106" s="23" t="s">
-        <v>383</v>
-      </c>
-      <c r="I106" s="21">
-        <v>1.5027941903899642E-2</v>
-      </c>
-      <c r="J106" s="11">
-        <v>5.8333333333333168E-2</v>
-      </c>
-      <c r="K106" s="19">
-        <v>0.12431908794085546</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A107" s="6">
-        <v>101</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D107" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E107" s="17">
-        <v>7900</v>
-      </c>
-      <c r="F107" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G107" s="20">
-        <v>1</v>
-      </c>
-      <c r="H107" s="23" t="s">
-        <v>384</v>
-      </c>
-      <c r="I107" s="21">
-        <v>3.9731671823305705E-2</v>
-      </c>
-      <c r="J107" s="11">
-        <v>8.478198998722139E-2</v>
-      </c>
-      <c r="K107" s="19">
-        <v>0.15620516853399644</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A108" s="6">
-        <v>102</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D108" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E108" s="17">
-        <v>7900</v>
-      </c>
-      <c r="F108" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G108" s="20">
-        <v>3</v>
-      </c>
-      <c r="H108" s="23" t="s">
-        <v>385</v>
-      </c>
-      <c r="I108" s="21">
-        <v>7.6728804570763615E-2</v>
-      </c>
-      <c r="J108" s="11">
-        <v>0.142123296943614</v>
-      </c>
-      <c r="K108" s="19">
-        <v>0.22402392867824805</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/ExLingo.xlsx
+++ b/Data/ExLingo.xlsx
@@ -2,29 +2,30 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MREPETTO00\Documents\GitHub\ThMEF\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="9345" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="9345" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Final (2)" sheetId="7" r:id="rId1"/>
     <sheet name="Target" sheetId="3" r:id="rId2"/>
     <sheet name="Lingo" sheetId="9" r:id="rId3"/>
+    <sheet name="Results" sheetId="10" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Final (2)'!$A$1:$K$403</definedName>
-    <definedName name="ct">Lingo!$D$1:$D$10</definedName>
+    <definedName name="ct">Lingo!$D$1:$D$145</definedName>
     <definedName name="emp">Target!$B$3</definedName>
-    <definedName name="gni">Lingo!$E$1:$E$10</definedName>
-    <definedName name="pl">Lingo!$I$1:$I$10</definedName>
-    <definedName name="pli">Lingo!$G$1:$G$10</definedName>
-    <definedName name="pm">Lingo!$J$1:$J$10</definedName>
-    <definedName name="pu">Lingo!$K$1:$K$10</definedName>
+    <definedName name="gni">Lingo!$E$1:$E$145</definedName>
+    <definedName name="pl">Lingo!$I$1:$I$145</definedName>
+    <definedName name="pli">Lingo!$G$1:$G$145</definedName>
+    <definedName name="pm">Lingo!$J$1:$J$145</definedName>
+    <definedName name="pu">Lingo!$K$1:$K$145</definedName>
     <definedName name="rev">Target!$B$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2242" uniqueCount="705">
   <si>
     <t>N</t>
   </si>
@@ -2111,6 +2112,42 @@
   </si>
   <si>
     <t xml:space="preserve">Distributor </t>
+  </si>
+  <si>
+    <t>Scenario 1</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>RE</t>
+  </si>
+  <si>
+    <t>PLI</t>
+  </si>
+  <si>
+    <t>EM</t>
+  </si>
+  <si>
+    <t>EBIT</t>
+  </si>
+  <si>
+    <t>TAX</t>
+  </si>
+  <si>
+    <t>EBI</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Tax Burden</t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>Profit to Turnover</t>
   </si>
 </sst>
 </file>
@@ -2118,10 +2155,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2163,22 +2200,34 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2225,14 +2274,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2258,11 +2319,23 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
@@ -2542,10 +2615,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K403"/>
   <sheetViews>
-    <sheetView topLeftCell="A297" workbookViewId="0">
-      <selection activeCell="B324" sqref="B324"/>
+    <sheetView topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="A216" sqref="A216:K216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16681,10 +16755,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16710,7 +16785,7 @@
       <c r="B2" s="10">
         <v>88900344</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C2" s="10">
         <f>rev/emp</f>
         <v>32659.935341660545</v>
       </c>
@@ -16770,8 +16845,20 @@
         <v>149</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11" s="10"/>
+    </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C12" s="10">
+        <v>88900344</v>
+      </c>
       <c r="D12" s="4"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D14" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16781,20 +16868,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:K145"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81:XFD81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>151</v>
@@ -16809,27 +16898,27 @@
         <v>4280</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G1" s="20">
-        <v>1</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>300</v>
-      </c>
-      <c r="I1" s="21">
-        <v>3.7106903422739E-2</v>
+        <v>2</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="I1" s="27">
+        <v>3.0046654905444739E-2</v>
       </c>
       <c r="J1" s="11">
-        <v>7.6127636686032188E-2</v>
+        <v>3.9398905394853467E-2</v>
       </c>
       <c r="K1" s="19">
-        <v>0.14586756141118298</v>
+        <v>4.9039962524983639E-2</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>151</v>
@@ -16844,22 +16933,22 @@
         <v>4280</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G2" s="20">
-        <v>2</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>299</v>
-      </c>
-      <c r="I2" s="21">
-        <v>3.0046654905444739E-2</v>
-      </c>
-      <c r="J2" s="11">
-        <v>3.9398905394853467E-2</v>
-      </c>
-      <c r="K2" s="19">
-        <v>4.9039962524983639E-2</v>
+        <v>1</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="I2" s="28">
+        <v>3.5779246382678487E-2</v>
+      </c>
+      <c r="J2" s="28">
+        <v>7.0742200172899117E-2</v>
+      </c>
+      <c r="K2" s="28">
+        <v>0.12729879640849695</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -16884,10 +16973,10 @@
       <c r="G3" s="20">
         <v>3</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="26" t="s">
         <v>301</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="27">
         <v>3.1775252121018109E-2</v>
       </c>
       <c r="J3" s="11">
@@ -16899,89 +16988,5285 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
-        <v>136</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>55</v>
+        <v>15</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="D4" s="12">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E4" s="17">
-        <v>18320</v>
+        <v>4180</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G4" s="20">
-        <v>2</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>428</v>
-      </c>
-      <c r="I4" s="21">
-        <v>3.00352401622433E-2</v>
+        <v>3</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="I4" s="27">
+        <v>3.1775252121018109E-2</v>
       </c>
       <c r="J4" s="11">
-        <v>3.8749933264286412E-2</v>
+        <v>7.772686245920965E-2</v>
       </c>
       <c r="K4" s="19">
-        <v>5.2153145625800673E-2</v>
+        <v>0.17564667785103982</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
-        <v>137</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>55</v>
+        <v>16</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="D5" s="12">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="E5" s="17">
-        <v>18320</v>
+        <v>12450</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G5" s="20">
-        <v>1</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>429</v>
-      </c>
-      <c r="I5" s="21">
-        <v>5.2013401602031863E-2</v>
+        <v>2</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="I5" s="27">
+        <v>0.1316875989160243</v>
       </c>
       <c r="J5" s="11">
-        <v>9.6639488055183576E-2</v>
+        <v>0.1316875989160243</v>
       </c>
       <c r="K5" s="19">
-        <v>0.1412655745083353</v>
+        <v>0.1316875989160243</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
+        <v>17</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="E6" s="17">
+        <v>12450</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G6" s="20">
+        <v>1</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>309</v>
+      </c>
+      <c r="I6" s="28">
+        <v>3.5779246382678487E-2</v>
+      </c>
+      <c r="J6" s="28">
+        <v>7.0742200172899117E-2</v>
+      </c>
+      <c r="K6" s="28">
+        <v>0.12729879640849695</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>18</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="E7" s="17">
+        <v>12450</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G7" s="20">
+        <v>3</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="I7" s="27">
+        <v>3.1775252121018109E-2</v>
+      </c>
+      <c r="J7" s="11">
+        <v>7.772686245920965E-2</v>
+      </c>
+      <c r="K7" s="19">
+        <v>0.17564667785103982</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>25</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="E8" s="17">
+        <v>60050</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G8" s="20">
+        <v>2</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="I8" s="27">
+        <v>2.0061024755539086E-2</v>
+      </c>
+      <c r="J8" s="11">
+        <v>4.5122508729780443E-2</v>
+      </c>
+      <c r="K8" s="19">
+        <v>9.7101069515613925E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>26</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="E9" s="17">
+        <v>60050</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G9" s="20">
+        <v>1</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="I9" s="28">
+        <v>4.2646904321262058E-2</v>
+      </c>
+      <c r="J9" s="28">
+        <v>8.3366108341857204E-2</v>
+      </c>
+      <c r="K9" s="28">
+        <v>0.12748024065117314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>27</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="E10" s="17">
+        <v>60050</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G10" s="20">
+        <v>3</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="I10" s="27">
+        <v>4.8407014117393857E-2</v>
+      </c>
+      <c r="J10" s="11">
+        <v>0.1278324518399418</v>
+      </c>
+      <c r="K10" s="19">
+        <v>0.23334164580493164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>28</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="E11" s="17">
+        <v>47260</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G11" s="20">
+        <v>2</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="I11" s="27">
+        <v>7.6776669196152352E-3</v>
+      </c>
+      <c r="J11" s="11">
+        <v>2.9815233273297551E-2</v>
+      </c>
+      <c r="K11" s="19">
+        <v>6.2950946325533164E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>29</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="E12" s="17">
+        <v>47260</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G12" s="20">
+        <v>1</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="I12" s="28">
+        <v>7.5541851870489451E-2</v>
+      </c>
+      <c r="J12" s="28">
+        <v>0.10474971539242584</v>
+      </c>
+      <c r="K12" s="28">
+        <v>0.13216848444922802</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>30</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="E13" s="17">
+        <v>47260</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G13" s="20">
+        <v>3</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="I13" s="27">
+        <v>1.93321136522226E-2</v>
+      </c>
+      <c r="J13" s="11">
+        <v>5.1441707251611374E-2</v>
+      </c>
+      <c r="K13" s="19">
+        <v>0.22554561305962398</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>34</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="17">
+        <v>20740</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G14" s="20">
+        <v>2</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="I14" s="27">
+        <v>7.6776669196152352E-3</v>
+      </c>
+      <c r="J14" s="11">
+        <v>2.9815233273297551E-2</v>
+      </c>
+      <c r="K14" s="19">
+        <v>6.2950946325533164E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>35</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="14">
+        <v>0</v>
+      </c>
+      <c r="E15" s="17">
+        <v>20740</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G15" s="20">
+        <v>1</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="I15" s="28">
+        <v>3.5779246382678487E-2</v>
+      </c>
+      <c r="J15" s="28">
+        <v>7.0742200172899117E-2</v>
+      </c>
+      <c r="K15" s="28">
+        <v>0.12729879640849695</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>36</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="14">
+        <v>0</v>
+      </c>
+      <c r="E16" s="17">
+        <v>20740</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" s="20">
+        <v>3</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="I16" s="27">
+        <v>3.1775252121018109E-2</v>
+      </c>
+      <c r="J16" s="11">
+        <v>7.772686245920965E-2</v>
+      </c>
+      <c r="K16" s="19">
+        <v>0.17564667785103982</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>49</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0.33989999999999998</v>
+      </c>
+      <c r="E17" s="17">
+        <v>44510</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" s="20">
+        <v>2</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="I17" s="27">
+        <v>1.0141014033979771E-2</v>
+      </c>
+      <c r="J17" s="11">
+        <v>1.9542578677226086E-2</v>
+      </c>
+      <c r="K17" s="19">
+        <v>4.4392810810286211E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>50</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="12">
+        <v>0.33989999999999998</v>
+      </c>
+      <c r="E18" s="17">
+        <v>44510</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G18" s="20">
+        <v>1</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="I18" s="28">
+        <v>4.5212717106881017E-2</v>
+      </c>
+      <c r="J18" s="28">
+        <v>6.4152410575427643E-2</v>
+      </c>
+      <c r="K18" s="28">
+        <v>0.1145893578962679</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>51</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0.33989999999999998</v>
+      </c>
+      <c r="E19" s="17">
+        <v>44510</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G19" s="20">
+        <v>3</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>328</v>
+      </c>
+      <c r="I19" s="27">
+        <v>2.0803536325003751E-2</v>
+      </c>
+      <c r="J19" s="11">
+        <v>5.1262948284818435E-2</v>
+      </c>
+      <c r="K19" s="19">
+        <v>0.12622076104522667</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>67</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="12">
+        <v>0.34</v>
+      </c>
+      <c r="E20" s="17">
+        <v>9990</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G20" s="20">
+        <v>2</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="I20" s="27">
+        <v>2.8077613285120616E-2</v>
+      </c>
+      <c r="J20" s="11">
+        <v>5.1410578885033434E-2</v>
+      </c>
+      <c r="K20" s="19">
+        <v>0.10208661313255325</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>68</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0.34</v>
+      </c>
+      <c r="E21" s="17">
+        <v>9990</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G21" s="20">
+        <v>1</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="I21" s="28">
+        <v>4.532998232096852E-2</v>
+      </c>
+      <c r="J21" s="28">
+        <v>0.11491820362349303</v>
+      </c>
+      <c r="K21" s="28">
+        <v>0.12293649758769065</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>69</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="12">
+        <v>0.34</v>
+      </c>
+      <c r="E22" s="17">
+        <v>9990</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G22" s="20">
+        <v>3</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="I22" s="27">
+        <v>5.5127985932045397E-2</v>
+      </c>
+      <c r="J22" s="11">
+        <v>9.4334472474737002E-2</v>
+      </c>
+      <c r="K22" s="19">
+        <v>0.12189865292005134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
+        <v>88</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="14">
+        <v>0.31</v>
+      </c>
+      <c r="E23" s="17">
+        <v>47250</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G23" s="20">
+        <v>2</v>
+      </c>
+      <c r="H23" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="I23" s="27">
+        <v>4.6295851768600751E-2</v>
+      </c>
+      <c r="J23" s="11">
+        <v>0.10044252450936857</v>
+      </c>
+      <c r="K23" s="19">
+        <v>0.19594431538489784</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
+        <v>89</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="14">
+        <v>0.31</v>
+      </c>
+      <c r="E24" s="17">
+        <v>47250</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G24" s="20">
+        <v>1</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="I24" s="28">
+        <v>4.0209539703231156E-2</v>
+      </c>
+      <c r="J24" s="28">
+        <v>0.10014563593244175</v>
+      </c>
+      <c r="K24" s="28">
+        <v>0.18831367461614723</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
+        <v>90</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="14">
+        <v>0.31</v>
+      </c>
+      <c r="E25" s="17">
+        <v>47250</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G25" s="20">
+        <v>3</v>
+      </c>
+      <c r="H25" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="I25" s="27">
+        <v>4.6061670886074317E-2</v>
+      </c>
+      <c r="J25" s="11">
+        <v>9.1745084447962019E-2</v>
+      </c>
+      <c r="K25" s="19">
+        <v>0.13394981530345532</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="6">
+        <v>100</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="E26" s="17">
+        <v>7900</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G26" s="20">
+        <v>2</v>
+      </c>
+      <c r="H26" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="I26" s="27">
+        <v>1.5027941903899642E-2</v>
+      </c>
+      <c r="J26" s="11">
+        <v>5.8333333333333168E-2</v>
+      </c>
+      <c r="K26" s="19">
+        <v>0.12431908794085546</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="6">
+        <v>101</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="E27" s="17">
+        <v>7900</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G27" s="20">
+        <v>1</v>
+      </c>
+      <c r="H27" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="I27" s="28">
+        <v>3.821338995438206E-2</v>
+      </c>
+      <c r="J27" s="28">
+        <v>7.8155786849134601E-2</v>
+      </c>
+      <c r="K27" s="28">
+        <v>0.13510160029128382</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="6">
+        <v>102</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="E28" s="17">
+        <v>7900</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G28" s="20">
+        <v>3</v>
+      </c>
+      <c r="H28" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="I28" s="27">
+        <v>7.6728804570763615E-2</v>
+      </c>
+      <c r="J28" s="11">
+        <v>0.142123296943614</v>
+      </c>
+      <c r="K28" s="19">
+        <v>0.22402392867824805</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="6">
+        <v>103</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="E29" s="17">
+        <v>7140</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G29" s="20">
+        <v>2</v>
+      </c>
+      <c r="H29" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="I29" s="27">
+        <v>3.9388135050512654E-2</v>
+      </c>
+      <c r="J29" s="11">
+        <v>4.9355019629837453E-2</v>
+      </c>
+      <c r="K29" s="19">
+        <v>7.7196281207563111E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="6">
+        <v>104</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="E30" s="17">
+        <v>7140</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G30" s="20">
+        <v>1</v>
+      </c>
+      <c r="H30" s="26" t="s">
+        <v>390</v>
+      </c>
+      <c r="I30" s="28">
+        <v>0.19202193966591885</v>
+      </c>
+      <c r="J30" s="28">
+        <v>0.19202193966591885</v>
+      </c>
+      <c r="K30" s="28">
+        <v>0.19202193966591885</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="6">
+        <v>105</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="E31" s="17">
+        <v>7140</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G31" s="20">
+        <v>3</v>
+      </c>
+      <c r="H31" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="I31" s="27">
+        <v>6.7188429676415348E-2</v>
+      </c>
+      <c r="J31" s="11">
+        <v>9.1309023364942912E-2</v>
+      </c>
+      <c r="K31" s="19">
+        <v>0.15580733168924329</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="6">
+        <v>109</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="12">
+        <v>0.18</v>
+      </c>
+      <c r="E32" s="17">
+        <v>12760</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G32" s="20">
+        <v>2</v>
+      </c>
+      <c r="H32" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="I32" s="27">
+        <v>1.6809297372358156E-2</v>
+      </c>
+      <c r="J32" s="11">
+        <v>2.0272821958307954E-2</v>
+      </c>
+      <c r="K32" s="19">
+        <v>3.6586217626019921E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="6">
+        <v>110</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="12">
+        <v>0.18</v>
+      </c>
+      <c r="E33" s="17">
+        <v>12760</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G33" s="20">
+        <v>1</v>
+      </c>
+      <c r="H33" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="I33" s="28">
+        <v>1.8168539229134306E-2</v>
+      </c>
+      <c r="J33" s="28">
+        <v>2.2756389456554449E-2</v>
+      </c>
+      <c r="K33" s="28">
+        <v>2.7301563370819792E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="6">
+        <v>111</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="12">
+        <v>0.18</v>
+      </c>
+      <c r="E34" s="17">
+        <v>12760</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G34" s="20">
+        <v>3</v>
+      </c>
+      <c r="H34" s="26" t="s">
+        <v>463</v>
+      </c>
+      <c r="I34" s="27">
+        <v>3.1775252121018109E-2</v>
+      </c>
+      <c r="J34" s="11">
+        <v>7.772686245920965E-2</v>
+      </c>
+      <c r="K34" s="19">
+        <v>0.17564667785103982</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="6">
+        <v>115</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="12">
+        <v>0.125</v>
+      </c>
+      <c r="E35" s="17">
+        <v>25810</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G35" s="20">
+        <v>2</v>
+      </c>
+      <c r="H35" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="I35" s="27">
+        <v>4.8344233109427266E-2</v>
+      </c>
+      <c r="J35" s="11">
+        <v>8.6234487783855562E-2</v>
+      </c>
+      <c r="K35" s="19">
+        <v>0.12970791343789456</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="6">
+        <v>116</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="12">
+        <v>0.125</v>
+      </c>
+      <c r="E36" s="17">
+        <v>25810</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G36" s="20">
+        <v>1</v>
+      </c>
+      <c r="H36" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="I36" s="28">
+        <v>3.5779246382678487E-2</v>
+      </c>
+      <c r="J36" s="28">
+        <v>7.0742200172899117E-2</v>
+      </c>
+      <c r="K36" s="28">
+        <v>0.12729879640849695</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="6">
+        <v>117</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="12">
+        <v>0.125</v>
+      </c>
+      <c r="E37" s="17">
+        <v>25810</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G37" s="20">
+        <v>3</v>
+      </c>
+      <c r="H37" s="26" t="s">
+        <v>403</v>
+      </c>
+      <c r="I37" s="27">
+        <v>2.8005282759043553E-2</v>
+      </c>
+      <c r="J37" s="11">
+        <v>4.0200882590132193E-2</v>
+      </c>
+      <c r="K37" s="19">
+        <v>9.0671164212833166E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="6">
+        <v>118</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="12">
+        <v>0.19</v>
+      </c>
+      <c r="E38" s="17">
+        <v>18150</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G38" s="20">
+        <v>2</v>
+      </c>
+      <c r="H38" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="I38" s="27">
+        <v>3.7279830791824161E-3</v>
+      </c>
+      <c r="J38" s="11">
+        <v>1.6721456670642645E-2</v>
+      </c>
+      <c r="K38" s="19">
+        <v>3.930959600035959E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="6">
+        <v>119</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="12">
+        <v>0.19</v>
+      </c>
+      <c r="E39" s="17">
+        <v>18150</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G39" s="20">
+        <v>1</v>
+      </c>
+      <c r="H39" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="I39" s="28">
+        <v>7.4837536597166299E-2</v>
+      </c>
+      <c r="J39" s="28">
+        <v>8.6819019923486507E-2</v>
+      </c>
+      <c r="K39" s="28">
+        <v>0.14352603804991282</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="6">
+        <v>120</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="12">
+        <v>0.19</v>
+      </c>
+      <c r="E40" s="17">
+        <v>18150</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G40" s="20">
+        <v>3</v>
+      </c>
+      <c r="H40" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="I40" s="27">
+        <v>2.2801474253079278E-2</v>
+      </c>
+      <c r="J40" s="11">
+        <v>2.7924927880839008E-2</v>
+      </c>
+      <c r="K40" s="19">
+        <v>3.8998773069942608E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="6">
+        <v>121</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="12">
+        <v>0.22</v>
+      </c>
+      <c r="E41" s="17">
+        <v>60270</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G41" s="20">
+        <v>2</v>
+      </c>
+      <c r="H41" s="26" t="s">
+        <v>410</v>
+      </c>
+      <c r="I41" s="27">
+        <v>4.4646002113420173E-2</v>
+      </c>
+      <c r="J41" s="11">
+        <v>4.6513049803313548E-2</v>
+      </c>
+      <c r="K41" s="19">
+        <v>5.6454788821520357E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="6">
+        <v>122</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" s="12">
+        <v>0.22</v>
+      </c>
+      <c r="E42" s="17">
+        <v>60270</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G42" s="20">
+        <v>1</v>
+      </c>
+      <c r="H42" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="I42" s="28">
+        <v>0.36507075587988846</v>
+      </c>
+      <c r="J42" s="28">
+        <v>0.36507075587988846</v>
+      </c>
+      <c r="K42" s="28">
+        <v>0.36507075587988846</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="6">
+        <v>123</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" s="12">
+        <v>0.22</v>
+      </c>
+      <c r="E43" s="17">
+        <v>60270</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G43" s="20">
+        <v>3</v>
+      </c>
+      <c r="H43" s="26" t="s">
+        <v>412</v>
+      </c>
+      <c r="I43" s="27">
+        <v>1.5461267740757033E-2</v>
+      </c>
+      <c r="J43" s="11">
+        <v>2.3809518426060015E-2</v>
+      </c>
+      <c r="K43" s="19">
+        <v>5.135572459960918E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="6">
+        <v>136</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="12">
+        <v>0</v>
+      </c>
+      <c r="E44" s="17">
+        <v>18320</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G44" s="20">
+        <v>2</v>
+      </c>
+      <c r="H44" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="I44" s="27">
+        <v>3.00352401622433E-2</v>
+      </c>
+      <c r="J44" s="11">
+        <v>3.8749933264286412E-2</v>
+      </c>
+      <c r="K44" s="19">
+        <v>5.2153145625800673E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="6">
+        <v>137</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="12">
+        <v>0</v>
+      </c>
+      <c r="E45" s="17">
+        <v>18320</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G45" s="20">
+        <v>1</v>
+      </c>
+      <c r="H45" s="26" t="s">
+        <v>429</v>
+      </c>
+      <c r="I45" s="28">
+        <v>4.9441767113255985E-2</v>
+      </c>
+      <c r="J45" s="28">
+        <v>8.8123297681508062E-2</v>
+      </c>
+      <c r="K45" s="28">
+        <v>0.12377975614413272</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="6">
         <v>138</v>
       </c>
+      <c r="B46" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" s="12">
+        <v>0</v>
+      </c>
+      <c r="E46" s="17">
+        <v>18320</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G46" s="20">
+        <v>3</v>
+      </c>
+      <c r="H46" s="26" t="s">
+        <v>430</v>
+      </c>
+      <c r="I46" s="27">
+        <v>0.13558370993750485</v>
+      </c>
+      <c r="J46" s="11">
+        <v>0.13966594784360642</v>
+      </c>
+      <c r="K46" s="19">
+        <v>0.14374818574970799</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="6">
+        <v>139</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="E47" s="17">
+        <v>46560</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G47" s="20">
+        <v>2</v>
+      </c>
+      <c r="H47" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="I47" s="27">
+        <v>1.3053323728168212E-2</v>
+      </c>
+      <c r="J47" s="11">
+        <v>3.8615179535260599E-2</v>
+      </c>
+      <c r="K47" s="19">
+        <v>7.2563296590786711E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="6">
+        <v>140</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="E48" s="17">
+        <v>46560</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G48" s="20">
+        <v>1</v>
+      </c>
+      <c r="H48" s="26" t="s">
+        <v>432</v>
+      </c>
+      <c r="I48" s="28">
+        <v>2.6296680030901909E-2</v>
+      </c>
+      <c r="J48" s="28">
+        <v>3.4471669136735383E-2</v>
+      </c>
+      <c r="K48" s="28">
+        <v>7.1639097757073888E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="6">
+        <v>141</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="E49" s="17">
+        <v>46560</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G49" s="20">
+        <v>3</v>
+      </c>
+      <c r="H49" s="26" t="s">
+        <v>433</v>
+      </c>
+      <c r="I49" s="27">
+        <v>4.031345682438018E-2</v>
+      </c>
+      <c r="J49" s="11">
+        <v>8.7956541840036984E-2</v>
+      </c>
+      <c r="K49" s="19">
+        <v>0.16854819678602634</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="6">
+        <v>142</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D50" s="14">
+        <v>0.33</v>
+      </c>
+      <c r="E50" s="17">
+        <v>40710</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G50" s="20">
+        <v>2</v>
+      </c>
+      <c r="H50" s="26" t="s">
+        <v>434</v>
+      </c>
+      <c r="I50" s="27">
+        <v>5.0971334634377701E-3</v>
+      </c>
+      <c r="J50" s="11">
+        <v>1.3283074716208843E-2</v>
+      </c>
+      <c r="K50" s="19">
+        <v>2.9687453061613304E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="6">
+        <v>143</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51" s="14">
+        <v>0.33</v>
+      </c>
+      <c r="E51" s="17">
+        <v>40710</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G51" s="20">
+        <v>1</v>
+      </c>
+      <c r="H51" s="26" t="s">
+        <v>435</v>
+      </c>
+      <c r="I51" s="28">
+        <v>3.5081069252601016E-2</v>
+      </c>
+      <c r="J51" s="28">
+        <v>4.8679096490733875E-2</v>
+      </c>
+      <c r="K51" s="28">
+        <v>0.12721524944936957</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="6">
+        <v>144</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52" s="14">
+        <v>0.33</v>
+      </c>
+      <c r="E52" s="17">
+        <v>40710</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G52" s="20">
+        <v>3</v>
+      </c>
+      <c r="H52" s="26" t="s">
+        <v>436</v>
+      </c>
+      <c r="I52" s="27">
+        <v>2.0560927156150488E-2</v>
+      </c>
+      <c r="J52" s="11">
+        <v>5.2509447644274142E-2</v>
+      </c>
+      <c r="K52" s="19">
+        <v>9.8384522634575783E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="6">
+        <v>154</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D53" s="14">
+        <v>0.29649999999999999</v>
+      </c>
+      <c r="E53" s="17">
+        <v>45790</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G53" s="20">
+        <v>2</v>
+      </c>
+      <c r="H53" s="26" t="s">
+        <v>407</v>
+      </c>
+      <c r="I53" s="27">
+        <v>1.0814862419007986E-2</v>
+      </c>
+      <c r="J53" s="11">
+        <v>2.1326458588648865E-2</v>
+      </c>
+      <c r="K53" s="19">
+        <v>4.7382013074403595E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="6">
+        <v>155</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54" s="14">
+        <v>0.29649999999999999</v>
+      </c>
+      <c r="E54" s="17">
+        <v>45790</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G54" s="20">
+        <v>1</v>
+      </c>
+      <c r="H54" s="26" t="s">
+        <v>408</v>
+      </c>
+      <c r="I54" s="28">
+        <v>6.1032091494648388E-2</v>
+      </c>
+      <c r="J54" s="28">
+        <v>7.7211238168743868E-2</v>
+      </c>
+      <c r="K54" s="28">
+        <v>0.1134197260290305</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="6">
+        <v>156</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55" s="14">
+        <v>0.29649999999999999</v>
+      </c>
+      <c r="E55" s="17">
+        <v>45790</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G55" s="20">
+        <v>3</v>
+      </c>
+      <c r="H55" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="I55" s="27">
+        <v>3.0613042303682315E-2</v>
+      </c>
+      <c r="J55" s="11">
+        <v>5.2233242520439038E-2</v>
+      </c>
+      <c r="K55" s="19">
+        <v>0.10278884219992371</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" s="6">
+        <v>157</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E56" s="17">
+        <v>20270</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G56" s="20">
+        <v>2</v>
+      </c>
+      <c r="H56" s="26" t="s">
+        <v>449</v>
+      </c>
+      <c r="I56" s="27">
+        <v>2.8133418218389633E-2</v>
+      </c>
+      <c r="J56" s="11">
+        <v>4.260014009712218E-2</v>
+      </c>
+      <c r="K56" s="19">
+        <v>6.5631129659066201E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" s="6">
+        <v>158</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D57" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E57" s="17">
+        <v>20270</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G57" s="20">
+        <v>1</v>
+      </c>
+      <c r="H57" s="26" t="s">
+        <v>450</v>
+      </c>
+      <c r="I57" s="28">
+        <v>2.7769653919832438E-2</v>
+      </c>
+      <c r="J57" s="28">
+        <v>3.257168723307946E-2</v>
+      </c>
+      <c r="K57" s="28">
+        <v>5.6461358022497521E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="6">
+        <v>159</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D58" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E58" s="17">
+        <v>20270</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G58" s="20">
+        <v>3</v>
+      </c>
+      <c r="H58" s="26" t="s">
+        <v>451</v>
+      </c>
+      <c r="I58" s="27">
+        <v>4.5006143104442863E-2</v>
+      </c>
+      <c r="J58" s="11">
+        <v>9.7925836576667369E-2</v>
+      </c>
+      <c r="K58" s="19">
+        <v>0.20175355972940359</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" s="6">
+        <v>166</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D59" s="14">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="E59" s="17">
+        <v>41000</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G59" s="20">
+        <v>2</v>
+      </c>
+      <c r="H59" s="26" t="s">
+        <v>458</v>
+      </c>
+      <c r="I59" s="27">
+        <v>5.7520459967725431E-2</v>
+      </c>
+      <c r="J59" s="11">
+        <v>7.6087438797947271E-2</v>
+      </c>
+      <c r="K59" s="19">
+        <v>9.4654417628169091E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="6">
+        <v>167</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D60" s="14">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="E60" s="17">
+        <v>41000</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G60" s="20">
+        <v>1</v>
+      </c>
+      <c r="H60" s="26" t="s">
+        <v>459</v>
+      </c>
+      <c r="I60" s="28">
+        <v>4.7323983048210394E-2</v>
+      </c>
+      <c r="J60" s="28">
+        <v>6.4099704156788007E-2</v>
+      </c>
+      <c r="K60" s="28">
+        <v>0.12530656429569331</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" s="6">
+        <v>168</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D61" s="14">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="E61" s="17">
+        <v>41000</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G61" s="20">
+        <v>3</v>
+      </c>
+      <c r="H61" s="26" t="s">
+        <v>460</v>
+      </c>
+      <c r="I61" s="27">
+        <v>0.16522583097604318</v>
+      </c>
+      <c r="J61" s="11">
+        <v>0.30382260675976547</v>
+      </c>
+      <c r="K61" s="19">
+        <v>0.33933079029307395</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" s="6">
+        <v>169</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D62" s="12">
+        <v>0.09</v>
+      </c>
+      <c r="E62" s="17">
+        <v>12970</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G62" s="20">
+        <v>2</v>
+      </c>
+      <c r="H62" s="26" t="s">
+        <v>464</v>
+      </c>
+      <c r="I62" s="27">
+        <v>2.8908554313976806E-2</v>
+      </c>
+      <c r="J62" s="11">
+        <v>2.8908554313976806E-2</v>
+      </c>
+      <c r="K62" s="19">
+        <v>2.8908554313976806E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" s="6">
+        <v>170</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D63" s="12">
+        <v>0.09</v>
+      </c>
+      <c r="E63" s="17">
+        <v>12970</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G63" s="20">
+        <v>1</v>
+      </c>
+      <c r="H63" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="I63" s="28">
+        <v>4.1407442863456434E-2</v>
+      </c>
+      <c r="J63" s="28">
+        <v>4.1407442863456434E-2</v>
+      </c>
+      <c r="K63" s="28">
+        <v>4.1407442863456434E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" s="6">
+        <v>171</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D64" s="12">
+        <v>0.09</v>
+      </c>
+      <c r="E64" s="17">
+        <v>12970</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G64" s="20">
+        <v>3</v>
+      </c>
+      <c r="H64" s="26" t="s">
+        <v>466</v>
+      </c>
+      <c r="I64" s="27">
+        <v>3.1775252121018109E-2</v>
+      </c>
+      <c r="J64" s="11">
+        <v>7.772686245920965E-2</v>
+      </c>
+      <c r="K64" s="19">
+        <v>0.17564667785103982</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" s="6">
+        <v>172</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D65" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="E65" s="17">
+        <v>50110</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G65" s="20">
+        <v>2</v>
+      </c>
+      <c r="H65" s="26" t="s">
+        <v>482</v>
+      </c>
+      <c r="I65" s="27">
+        <v>2.5368162847767085E-2</v>
+      </c>
+      <c r="J65" s="11">
+        <v>6.2486118309024938E-2</v>
+      </c>
+      <c r="K65" s="19">
+        <v>8.8556619310681109E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" s="6">
+        <v>173</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D66" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="E66" s="17">
+        <v>50110</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G66" s="20">
+        <v>1</v>
+      </c>
+      <c r="H66" s="26" t="s">
+        <v>483</v>
+      </c>
+      <c r="I66" s="28">
+        <v>9.7425961581713794E-2</v>
+      </c>
+      <c r="J66" s="28">
+        <v>9.7425961581713794E-2</v>
+      </c>
+      <c r="K66" s="28">
+        <v>9.7425961581713794E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" s="6">
+        <v>174</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D67" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="E67" s="17">
+        <v>50110</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G67" s="20">
+        <v>3</v>
+      </c>
+      <c r="H67" s="26" t="s">
+        <v>484</v>
+      </c>
+      <c r="I67" s="27">
+        <v>4.0509547144845739E-2</v>
+      </c>
+      <c r="J67" s="11">
+        <v>4.6843465452250974E-2</v>
+      </c>
+      <c r="K67" s="19">
+        <v>5.3177383759656201E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" s="6">
+        <v>175</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="E68" s="17">
+        <v>1590</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G68" s="20">
+        <v>2</v>
+      </c>
+      <c r="H68" s="26" t="s">
+        <v>473</v>
+      </c>
+      <c r="I68" s="27">
+        <v>1.6648964087560718E-2</v>
+      </c>
+      <c r="J68" s="11">
+        <v>4.6153182111543338E-2</v>
+      </c>
+      <c r="K68" s="19">
+        <v>0.10381519824209764</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" s="6">
+        <v>176</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="E69" s="17">
+        <v>1590</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G69" s="20">
+        <v>1</v>
+      </c>
+      <c r="H69" s="26" t="s">
+        <v>474</v>
+      </c>
+      <c r="I69" s="28">
+        <v>2.2554960513168409E-2</v>
+      </c>
+      <c r="J69" s="28">
+        <v>5.0632069021310677E-2</v>
+      </c>
+      <c r="K69" s="28">
+        <v>8.1669219811006721E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" s="6">
+        <v>177</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="E70" s="17">
+        <v>1590</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G70" s="20">
+        <v>3</v>
+      </c>
+      <c r="H70" s="26" t="s">
+        <v>475</v>
+      </c>
+      <c r="I70" s="27">
+        <v>3.8948449888822879E-2</v>
+      </c>
+      <c r="J70" s="11">
+        <v>9.3668504847941245E-2</v>
+      </c>
+      <c r="K70" s="19">
+        <v>0.16334171554231772</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" s="6">
+        <v>184</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D71" s="14">
+        <v>0.125</v>
+      </c>
+      <c r="E71" s="17">
+        <v>52550</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G71" s="20">
+        <v>2</v>
+      </c>
+      <c r="H71" s="26" t="s">
+        <v>476</v>
+      </c>
+      <c r="I71" s="27">
+        <v>7.7882751612873193E-3</v>
+      </c>
+      <c r="J71" s="11">
+        <v>1.7900885441206306E-2</v>
+      </c>
+      <c r="K71" s="19">
+        <v>4.7340210689394438E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" s="6">
+        <v>185</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D72" s="14">
+        <v>0.125</v>
+      </c>
+      <c r="E72" s="17">
+        <v>52550</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G72" s="20">
+        <v>1</v>
+      </c>
+      <c r="H72" s="26" t="s">
+        <v>477</v>
+      </c>
+      <c r="I72" s="28">
+        <v>4.0470240220329634E-2</v>
+      </c>
+      <c r="J72" s="28">
+        <v>0.11409327999189756</v>
+      </c>
+      <c r="K72" s="28">
+        <v>0.11644915574177028</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" s="6">
+        <v>186</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D73" s="14">
+        <v>0.125</v>
+      </c>
+      <c r="E73" s="17">
+        <v>52550</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G73" s="20">
+        <v>3</v>
+      </c>
+      <c r="H73" s="26" t="s">
+        <v>478</v>
+      </c>
+      <c r="I73" s="27">
+        <v>2.3137934660649853E-2</v>
+      </c>
+      <c r="J73" s="11">
+        <v>6.8461195512022288E-2</v>
+      </c>
+      <c r="K73" s="19">
+        <v>0.14395284553684834</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74" s="6">
+        <v>193</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D74" s="14">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="E74" s="17">
+        <v>32830</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G74" s="20">
+        <v>2</v>
+      </c>
+      <c r="H74" s="26" t="s">
+        <v>488</v>
+      </c>
+      <c r="I74" s="27">
+        <v>9.5958740467727392E-3</v>
+      </c>
+      <c r="J74" s="11">
+        <v>2.000235955350866E-2</v>
+      </c>
+      <c r="K74" s="19">
+        <v>4.0666996611319353E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" s="6">
+        <v>194</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D75" s="14">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="E75" s="17">
+        <v>32830</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G75" s="20">
+        <v>1</v>
+      </c>
+      <c r="H75" s="26" t="s">
+        <v>489</v>
+      </c>
+      <c r="I75" s="28">
+        <v>3.8203171867956298E-2</v>
+      </c>
+      <c r="J75" s="28">
+        <v>5.8379677828963694E-2</v>
+      </c>
+      <c r="K75" s="28">
+        <v>9.7698147395767987E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" s="6">
+        <v>195</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D76" s="14">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="E76" s="17">
+        <v>32830</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G76" s="20">
+        <v>3</v>
+      </c>
+      <c r="H76" s="26" t="s">
+        <v>490</v>
+      </c>
+      <c r="I76" s="27">
+        <v>2.191384689688711E-2</v>
+      </c>
+      <c r="J76" s="11">
+        <v>4.8206183032513075E-2</v>
+      </c>
+      <c r="K76" s="19">
+        <v>9.9721619084336896E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" s="6">
+        <v>199</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D77" s="12">
+        <v>0.3211</v>
+      </c>
+      <c r="E77" s="17">
+        <v>38840</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G77" s="20">
+        <v>2</v>
+      </c>
+      <c r="H77" s="26" t="s">
+        <v>497</v>
+      </c>
+      <c r="I77" s="27">
+        <v>8.7510478906557589E-3</v>
+      </c>
+      <c r="J77" s="11">
+        <v>2.0049811821154E-2</v>
+      </c>
+      <c r="K77" s="19">
+        <v>3.8815877210723021E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" s="6">
+        <v>200</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D78" s="12">
+        <v>0.3211</v>
+      </c>
+      <c r="E78" s="17">
+        <v>38840</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G78" s="20">
+        <v>1</v>
+      </c>
+      <c r="H78" s="26" t="s">
+        <v>498</v>
+      </c>
+      <c r="I78" s="28">
+        <v>3.1387325612266537E-2</v>
+      </c>
+      <c r="J78" s="28">
+        <v>5.4973879909040457E-2</v>
+      </c>
+      <c r="K78" s="28">
+        <v>9.322110427463326E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" s="6">
+        <v>201</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D79" s="12">
+        <v>0.3211</v>
+      </c>
+      <c r="E79" s="17">
+        <v>38840</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G79" s="20">
+        <v>3</v>
+      </c>
+      <c r="H79" s="26" t="s">
+        <v>499</v>
+      </c>
+      <c r="I79" s="27">
+        <v>3.715183410727544E-2</v>
+      </c>
+      <c r="J79" s="11">
+        <v>7.5054020508966923E-2</v>
+      </c>
+      <c r="K79" s="19">
+        <v>0.14058399588180168</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" s="6">
+        <v>214</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D80" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="E80" s="17">
+        <v>14990</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G80" s="20">
+        <v>2</v>
+      </c>
+      <c r="H80" s="26" t="s">
+        <v>527</v>
+      </c>
+      <c r="I80" s="27">
+        <v>9.8915836962393134E-3</v>
+      </c>
+      <c r="J80" s="11">
+        <v>2.6740901162528259E-2</v>
+      </c>
+      <c r="K80" s="19">
+        <v>6.4025818074001817E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" s="6">
+        <v>215</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D81" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="E81" s="17">
+        <v>14990</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G81" s="20">
+        <v>1</v>
+      </c>
+      <c r="H81" s="26" t="s">
+        <v>528</v>
+      </c>
+      <c r="I81" s="28">
+        <v>6.9711781497467484E-2</v>
+      </c>
+      <c r="J81" s="28">
+        <v>7.1834185122089944E-2</v>
+      </c>
+      <c r="K81" s="28">
+        <v>0.24355106966946061</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" s="6">
+        <v>216</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D82" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="E82" s="17">
+        <v>14990</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G82" s="20">
+        <v>3</v>
+      </c>
+      <c r="H82" s="26" t="s">
+        <v>529</v>
+      </c>
+      <c r="I82" s="27">
+        <v>0.42909790469922893</v>
+      </c>
+      <c r="J82" s="11">
+        <v>0.44635496240933875</v>
+      </c>
+      <c r="K82" s="19">
+        <v>0.46361202011944858</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83" s="6">
+        <v>217</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D83" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="E83" s="17">
+        <v>7710</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G83" s="20">
+        <v>2</v>
+      </c>
+      <c r="H83" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="I83" s="27">
+        <v>0.1162049256912388</v>
+      </c>
+      <c r="J83" s="11">
+        <v>0.1162049256912388</v>
+      </c>
+      <c r="K83" s="19">
+        <v>0.1162049256912388</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" s="6">
+        <v>218</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D84" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="E84" s="17">
+        <v>7710</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G84" s="20">
+        <v>1</v>
+      </c>
+      <c r="H84" s="26" t="s">
+        <v>516</v>
+      </c>
+      <c r="I84" s="28">
+        <v>3.5779246382678487E-2</v>
+      </c>
+      <c r="J84" s="28">
+        <v>7.0742200172899117E-2</v>
+      </c>
+      <c r="K84" s="28">
+        <v>0.12729879640849695</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" s="6">
+        <v>219</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D85" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="E85" s="17">
+        <v>7710</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G85" s="20">
+        <v>3</v>
+      </c>
+      <c r="H85" s="26" t="s">
+        <v>517</v>
+      </c>
+      <c r="I85" s="27">
+        <v>3.1775252121018109E-2</v>
+      </c>
+      <c r="J85" s="11">
+        <v>7.772686245920965E-2</v>
+      </c>
+      <c r="K85" s="19">
+        <v>0.17564667785103982</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" s="6">
+        <v>220</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D86" s="12">
+        <v>0.125</v>
+      </c>
+      <c r="E86" s="17">
+        <v>115530</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G86" s="20">
+        <v>2</v>
+      </c>
+      <c r="H86" s="26" t="s">
+        <v>518</v>
+      </c>
+      <c r="I86" s="27">
+        <v>7.6776669196152352E-3</v>
+      </c>
+      <c r="J86" s="11">
+        <v>2.9815233273297551E-2</v>
+      </c>
+      <c r="K86" s="19">
+        <v>6.2950946325533164E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87" s="6">
+        <v>221</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D87" s="12">
+        <v>0.125</v>
+      </c>
+      <c r="E87" s="17">
+        <v>115530</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G87" s="20">
+        <v>1</v>
+      </c>
+      <c r="H87" s="26" t="s">
+        <v>519</v>
+      </c>
+      <c r="I87" s="28">
+        <v>3.5779246382678487E-2</v>
+      </c>
+      <c r="J87" s="28">
+        <v>7.0742200172899117E-2</v>
+      </c>
+      <c r="K87" s="28">
+        <v>0.12729879640849695</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88" s="6">
+        <v>222</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D88" s="12">
+        <v>0.125</v>
+      </c>
+      <c r="E88" s="17">
+        <v>115530</v>
+      </c>
+      <c r="F88" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G88" s="20">
+        <v>3</v>
+      </c>
+      <c r="H88" s="26" t="s">
+        <v>520</v>
+      </c>
+      <c r="I88" s="27">
+        <v>3.1775252121018109E-2</v>
+      </c>
+      <c r="J88" s="11">
+        <v>7.772686245920965E-2</v>
+      </c>
+      <c r="K88" s="19">
+        <v>0.17564667785103982</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" s="6">
+        <v>223</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D89" s="14">
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="E89" s="17">
+        <v>15080</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G89" s="20">
+        <v>2</v>
+      </c>
+      <c r="H89" s="26" t="s">
+        <v>521</v>
+      </c>
+      <c r="I89" s="27">
+        <v>3.9665411153435755E-3</v>
+      </c>
+      <c r="J89" s="11">
+        <v>7.5701622809655261E-3</v>
+      </c>
+      <c r="K89" s="19">
+        <v>3.8707634775383581E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A90" s="6">
+        <v>224</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D90" s="14">
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="E90" s="17">
+        <v>15080</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G90" s="20">
+        <v>1</v>
+      </c>
+      <c r="H90" s="26" t="s">
+        <v>522</v>
+      </c>
+      <c r="I90" s="28">
+        <v>6.9013913180798081E-2</v>
+      </c>
+      <c r="J90" s="28">
+        <v>6.9013913180798081E-2</v>
+      </c>
+      <c r="K90" s="28">
+        <v>6.9013913180798081E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A91" s="6">
+        <v>225</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D91" s="14">
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="E91" s="17">
+        <v>15080</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G91" s="20">
+        <v>3</v>
+      </c>
+      <c r="H91" s="26" t="s">
+        <v>523</v>
+      </c>
+      <c r="I91" s="27">
+        <v>3.1775252121018109E-2</v>
+      </c>
+      <c r="J91" s="11">
+        <v>7.772686245920965E-2</v>
+      </c>
+      <c r="K91" s="19">
+        <v>0.17564667785103982</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A92" s="6">
+        <v>226</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D92" s="12">
+        <v>0.29220000000000002</v>
+      </c>
+      <c r="E92" s="17">
+        <v>77480</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G92" s="20">
+        <v>2</v>
+      </c>
+      <c r="H92" s="26" t="s">
+        <v>524</v>
+      </c>
+      <c r="I92" s="27">
+        <v>5.3715854059367796E-2</v>
+      </c>
+      <c r="J92" s="11">
+        <v>8.4134761751951961E-2</v>
+      </c>
+      <c r="K92" s="19">
+        <v>9.4654700017068882E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A93" s="6">
+        <v>227</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D93" s="12">
+        <v>0.29220000000000002</v>
+      </c>
+      <c r="E93" s="17">
+        <v>77480</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G93" s="20">
+        <v>1</v>
+      </c>
+      <c r="H93" s="26" t="s">
+        <v>525</v>
+      </c>
+      <c r="I93" s="28">
+        <v>3.5779246382678487E-2</v>
+      </c>
+      <c r="J93" s="28">
+        <v>7.0742200172899117E-2</v>
+      </c>
+      <c r="K93" s="28">
+        <v>0.12729879640849695</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A94" s="6">
+        <v>228</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D94" s="12">
+        <v>0.29220000000000002</v>
+      </c>
+      <c r="E94" s="17">
+        <v>77480</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G94" s="20">
+        <v>3</v>
+      </c>
+      <c r="H94" s="26" t="s">
+        <v>526</v>
+      </c>
+      <c r="I94" s="27">
+        <v>3.5064142930234202E-2</v>
+      </c>
+      <c r="J94" s="11">
+        <v>0.13925876692183392</v>
+      </c>
+      <c r="K94" s="19">
+        <v>0.3474594985557658</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95" s="6">
+        <v>241</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D95" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="E95" s="17">
+        <v>23900</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G95" s="20">
+        <v>2</v>
+      </c>
+      <c r="H95" s="26" t="s">
+        <v>551</v>
+      </c>
+      <c r="I95" s="27">
+        <v>3.8135454829697005E-2</v>
+      </c>
+      <c r="J95" s="11">
+        <v>4.8489571566328937E-2</v>
+      </c>
+      <c r="K95" s="19">
+        <v>0.35228264280530447</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A96" s="6">
+        <v>242</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D96" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="E96" s="17">
+        <v>23900</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G96" s="20">
+        <v>1</v>
+      </c>
+      <c r="H96" s="26" t="s">
+        <v>552</v>
+      </c>
+      <c r="I96" s="28">
+        <v>3.5779246382678487E-2</v>
+      </c>
+      <c r="J96" s="28">
+        <v>7.0742200172899117E-2</v>
+      </c>
+      <c r="K96" s="28">
+        <v>0.12729879640849695</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A97" s="6">
+        <v>243</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D97" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="E97" s="17">
+        <v>23900</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G97" s="20">
+        <v>3</v>
+      </c>
+      <c r="H97" s="26" t="s">
+        <v>553</v>
+      </c>
+      <c r="I97" s="27">
+        <v>3.1775252121018109E-2</v>
+      </c>
+      <c r="J97" s="11">
+        <v>7.772686245920965E-2</v>
+      </c>
+      <c r="K97" s="19">
+        <v>0.17564667785103982</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A98" s="6">
+        <v>247</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D98" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="E98" s="17">
+        <v>9710</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G98" s="20">
+        <v>2</v>
+      </c>
+      <c r="H98" s="26" t="s">
+        <v>545</v>
+      </c>
+      <c r="I98" s="27">
+        <v>2.8078912030674818E-2</v>
+      </c>
+      <c r="J98" s="11">
+        <v>4.5260871527045554E-2</v>
+      </c>
+      <c r="K98" s="19">
+        <v>8.8495380879176147E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A99" s="6">
+        <v>248</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D99" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="E99" s="17">
+        <v>9710</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G99" s="20">
+        <v>1</v>
+      </c>
+      <c r="H99" s="26" t="s">
+        <v>546</v>
+      </c>
+      <c r="I99" s="28">
+        <v>7.7644427422305373E-2</v>
+      </c>
+      <c r="J99" s="28">
+        <v>0.11113350441749081</v>
+      </c>
+      <c r="K99" s="28">
+        <v>0.14227592753227736</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100" s="6">
+        <v>249</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D100" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="E100" s="17">
+        <v>9710</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G100" s="20">
+        <v>3</v>
+      </c>
+      <c r="H100" s="26" t="s">
+        <v>547</v>
+      </c>
+      <c r="I100" s="27">
+        <v>3.1775252121018109E-2</v>
+      </c>
+      <c r="J100" s="11">
+        <v>7.772686245920965E-2</v>
+      </c>
+      <c r="K100" s="19">
+        <v>0.17564667785103982</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A101" s="6">
+        <v>253</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D101" s="12">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="E101" s="17">
+        <v>186710</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G101" s="20">
+        <v>2</v>
+      </c>
+      <c r="H101" s="26" t="s">
+        <v>536</v>
+      </c>
+      <c r="I101" s="27">
+        <v>7.6776669196152352E-3</v>
+      </c>
+      <c r="J101" s="11">
+        <v>2.9815233273297551E-2</v>
+      </c>
+      <c r="K101" s="19">
+        <v>6.2950946325533164E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A102" s="6">
+        <v>254</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D102" s="12">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="E102" s="17">
+        <v>186710</v>
+      </c>
+      <c r="F102" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G102" s="20">
+        <v>1</v>
+      </c>
+      <c r="H102" s="26" t="s">
+        <v>537</v>
+      </c>
+      <c r="I102" s="28">
+        <v>3.5779246382678487E-2</v>
+      </c>
+      <c r="J102" s="28">
+        <v>7.0742200172899117E-2</v>
+      </c>
+      <c r="K102" s="28">
+        <v>0.12729879640849695</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A103" s="6">
+        <v>255</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D103" s="12">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="E103" s="17">
+        <v>186710</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G103" s="20">
+        <v>3</v>
+      </c>
+      <c r="H103" s="26" t="s">
+        <v>538</v>
+      </c>
+      <c r="I103" s="27">
+        <v>3.1775252121018109E-2</v>
+      </c>
+      <c r="J103" s="11">
+        <v>7.772686245920965E-2</v>
+      </c>
+      <c r="K103" s="19">
+        <v>0.17564667785103982</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A104" s="6">
+        <v>268</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D104" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="E104" s="17">
+        <v>48850</v>
+      </c>
+      <c r="F104" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G104" s="20">
+        <v>2</v>
+      </c>
+      <c r="H104" s="26" t="s">
+        <v>572</v>
+      </c>
+      <c r="I104" s="27">
+        <v>1.4854204674963914E-2</v>
+      </c>
+      <c r="J104" s="11">
+        <v>2.8292434686753326E-2</v>
+      </c>
+      <c r="K104" s="19">
+        <v>4.9064997448198477E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A105" s="6">
+        <v>269</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D105" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="E105" s="17">
+        <v>48850</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G105" s="20">
+        <v>1</v>
+      </c>
+      <c r="H105" s="26" t="s">
+        <v>573</v>
+      </c>
+      <c r="I105" s="28">
+        <v>7.3763571539962935E-2</v>
+      </c>
+      <c r="J105" s="28">
+        <v>0.14352181693509269</v>
+      </c>
+      <c r="K105" s="28">
+        <v>0.20024775224775238</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A106" s="6">
+        <v>270</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D106" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="E106" s="17">
+        <v>48850</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G106" s="20">
+        <v>3</v>
+      </c>
+      <c r="H106" s="26" t="s">
+        <v>574</v>
+      </c>
+      <c r="I106" s="27">
+        <v>2.8496261638880714E-2</v>
+      </c>
+      <c r="J106" s="11">
+        <v>7.5505296048939477E-2</v>
+      </c>
+      <c r="K106" s="19">
+        <v>0.16400338441205387</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A107" s="6">
+        <v>280</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D107" s="12">
+        <v>0.24</v>
+      </c>
+      <c r="E107" s="17">
+        <v>93530</v>
+      </c>
+      <c r="F107" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G107" s="20">
+        <v>2</v>
+      </c>
+      <c r="H107" s="26" t="s">
+        <v>575</v>
+      </c>
+      <c r="I107" s="27">
+        <v>1.7579857913197022E-2</v>
+      </c>
+      <c r="J107" s="11">
+        <v>3.9293250041589123E-2</v>
+      </c>
+      <c r="K107" s="19">
+        <v>6.6328782190571478E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A108" s="6">
+        <v>281</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D108" s="12">
+        <v>0.24</v>
+      </c>
+      <c r="E108" s="17">
+        <v>93530</v>
+      </c>
+      <c r="F108" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G108" s="20">
+        <v>1</v>
+      </c>
+      <c r="H108" s="26" t="s">
+        <v>576</v>
+      </c>
+      <c r="I108" s="28">
+        <v>6.0627943923927341E-2</v>
+      </c>
+      <c r="J108" s="28">
+        <v>7.2420523406124926E-2</v>
+      </c>
+      <c r="K108" s="28">
+        <v>7.5371095342957273E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A109" s="6">
+        <v>282</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D109" s="12">
+        <v>0.24</v>
+      </c>
+      <c r="E109" s="17">
+        <v>93530</v>
+      </c>
+      <c r="F109" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G109" s="20">
+        <v>3</v>
+      </c>
+      <c r="H109" s="26" t="s">
+        <v>577</v>
+      </c>
+      <c r="I109" s="27">
+        <v>4.0461697288407296E-2</v>
+      </c>
+      <c r="J109" s="11">
+        <v>0.13410341552652499</v>
+      </c>
+      <c r="K109" s="19">
+        <v>0.264359717997388</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A110" s="6">
+        <v>301</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D110" s="12">
+        <v>0.19</v>
+      </c>
+      <c r="E110" s="17">
+        <v>13310</v>
+      </c>
+      <c r="F110" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G110" s="20">
+        <v>2</v>
+      </c>
+      <c r="H110" s="26" t="s">
+        <v>599</v>
+      </c>
+      <c r="I110" s="27">
+        <v>7.7604780687817645E-3</v>
+      </c>
+      <c r="J110" s="11">
+        <v>1.9754618817742476E-2</v>
+      </c>
+      <c r="K110" s="19">
+        <v>4.7204340446976051E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A111" s="6">
+        <v>302</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D111" s="12">
+        <v>0.19</v>
+      </c>
+      <c r="E111" s="17">
+        <v>13310</v>
+      </c>
+      <c r="F111" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G111" s="20">
+        <v>1</v>
+      </c>
+      <c r="H111" s="26" t="s">
+        <v>600</v>
+      </c>
+      <c r="I111" s="28">
+        <v>4.6614915367243159E-2</v>
+      </c>
+      <c r="J111" s="28">
+        <v>8.3596941759933485E-2</v>
+      </c>
+      <c r="K111" s="28">
+        <v>0.1337332441869914</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A112" s="6">
+        <v>303</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D112" s="12">
+        <v>0.19</v>
+      </c>
+      <c r="E112" s="17">
+        <v>13310</v>
+      </c>
+      <c r="F112" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G112" s="20">
+        <v>3</v>
+      </c>
+      <c r="H112" s="26" t="s">
+        <v>601</v>
+      </c>
+      <c r="I112" s="27">
+        <v>2.9115624036528717E-2</v>
+      </c>
+      <c r="J112" s="11">
+        <v>5.6725411666508019E-2</v>
+      </c>
+      <c r="K112" s="19">
+        <v>0.13488123876248853</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A113" s="6">
+        <v>304</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D113" s="12">
+        <v>0.23</v>
+      </c>
+      <c r="E113" s="17">
+        <v>20470</v>
+      </c>
+      <c r="F113" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G113" s="20">
+        <v>2</v>
+      </c>
+      <c r="H113" s="26" t="s">
+        <v>605</v>
+      </c>
+      <c r="I113" s="27">
+        <v>1.0895605332117539E-2</v>
+      </c>
+      <c r="J113" s="11">
+        <v>2.426116080443989E-2</v>
+      </c>
+      <c r="K113" s="19">
+        <v>4.1981113904440009E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A114" s="6">
+        <v>305</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D114" s="12">
+        <v>0.23</v>
+      </c>
+      <c r="E114" s="17">
+        <v>20470</v>
+      </c>
+      <c r="F114" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G114" s="20">
+        <v>1</v>
+      </c>
+      <c r="H114" s="26" t="s">
+        <v>606</v>
+      </c>
+      <c r="I114" s="28">
+        <v>0.1336744748195613</v>
+      </c>
+      <c r="J114" s="28">
+        <v>0.16879078695541028</v>
+      </c>
+      <c r="K114" s="28">
+        <v>0.20117113693158495</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A115" s="6">
+        <v>306</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D115" s="12">
+        <v>0.23</v>
+      </c>
+      <c r="E115" s="17">
+        <v>20470</v>
+      </c>
+      <c r="F115" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G115" s="20">
+        <v>3</v>
+      </c>
+      <c r="H115" s="26" t="s">
+        <v>607</v>
+      </c>
+      <c r="I115" s="27">
+        <v>4.1137968157593532E-2</v>
+      </c>
+      <c r="J115" s="11">
+        <v>0.22229816593139243</v>
+      </c>
+      <c r="K115" s="19">
+        <v>0.81919954708398379</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A116" s="6">
+        <v>313</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D116" s="12">
+        <v>0.16</v>
+      </c>
+      <c r="E116" s="17">
+        <v>9510</v>
+      </c>
+      <c r="F116" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G116" s="20">
+        <v>2</v>
+      </c>
+      <c r="H116" s="26" t="s">
+        <v>614</v>
+      </c>
+      <c r="I116" s="27">
+        <v>7.6255898968370754E-3</v>
+      </c>
+      <c r="J116" s="11">
+        <v>2.1712497701201795E-2</v>
+      </c>
+      <c r="K116" s="19">
+        <v>4.9958490154229228E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A117" s="6">
+        <v>314</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D117" s="12">
+        <v>0.16</v>
+      </c>
+      <c r="E117" s="17">
+        <v>9510</v>
+      </c>
+      <c r="F117" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G117" s="20">
+        <v>1</v>
+      </c>
+      <c r="H117" s="26" t="s">
+        <v>615</v>
+      </c>
+      <c r="I117" s="28">
+        <v>7.4957010761246057E-2</v>
+      </c>
+      <c r="J117" s="28">
+        <v>8.2401098525715422E-2</v>
+      </c>
+      <c r="K117" s="28">
+        <v>8.6598710547646007E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A118" s="6">
+        <v>315</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D118" s="12">
+        <v>0.16</v>
+      </c>
+      <c r="E118" s="17">
+        <v>9510</v>
+      </c>
+      <c r="F118" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G118" s="20">
+        <v>3</v>
+      </c>
+      <c r="H118" s="26" t="s">
+        <v>616</v>
+      </c>
+      <c r="I118" s="27">
+        <v>3.2275212963644238E-2</v>
+      </c>
+      <c r="J118" s="11">
+        <v>5.2128986558690429E-2</v>
+      </c>
+      <c r="K118" s="19">
+        <v>0.25499853120037896</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A119" s="6">
+        <v>316</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D119" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="E119" s="17">
+        <v>11720</v>
+      </c>
+      <c r="F119" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G119" s="20">
+        <v>2</v>
+      </c>
+      <c r="H119" s="26" t="s">
+        <v>617</v>
+      </c>
+      <c r="I119" s="27">
+        <v>8.3602507718769509E-3</v>
+      </c>
+      <c r="J119" s="11">
+        <v>2.7733489972308428E-2</v>
+      </c>
+      <c r="K119" s="19">
+        <v>6.1532133332759857E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A120" s="6">
+        <v>317</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D120" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="E120" s="17">
+        <v>11720</v>
+      </c>
+      <c r="F120" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G120" s="20">
+        <v>1</v>
+      </c>
+      <c r="H120" s="26" t="s">
+        <v>618</v>
+      </c>
+      <c r="I120" s="28">
+        <v>4.0163982961756495E-2</v>
+      </c>
+      <c r="J120" s="28">
+        <v>8.4021526867657514E-2</v>
+      </c>
+      <c r="K120" s="28">
+        <v>0.15292819348311837</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A121" s="6">
+        <v>318</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D121" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="E121" s="17">
+        <v>11720</v>
+      </c>
+      <c r="F121" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G121" s="20">
+        <v>3</v>
+      </c>
+      <c r="H121" s="26" t="s">
+        <v>619</v>
+      </c>
+      <c r="I121" s="27">
+        <v>2.2622263228254644E-2</v>
+      </c>
+      <c r="J121" s="11">
+        <v>8.0639512436284227E-2</v>
+      </c>
+      <c r="K121" s="19">
+        <v>0.18977227756183437</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A122" s="6">
+        <v>331</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D122" s="12">
+        <v>0.17</v>
+      </c>
+      <c r="E122" s="17">
+        <v>52090</v>
+      </c>
+      <c r="F122" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G122" s="20">
+        <v>2</v>
+      </c>
+      <c r="H122" s="26" t="s">
+        <v>626</v>
+      </c>
+      <c r="I122" s="27">
+        <v>1.1727067448600345E-2</v>
+      </c>
+      <c r="J122" s="11">
+        <v>3.483312207244707E-2</v>
+      </c>
+      <c r="K122" s="19">
+        <v>8.115876172714967E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A123" s="6">
+        <v>332</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D123" s="12">
+        <v>0.17</v>
+      </c>
+      <c r="E123" s="17">
+        <v>52090</v>
+      </c>
+      <c r="F123" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G123" s="20">
+        <v>1</v>
+      </c>
+      <c r="H123" s="26" t="s">
+        <v>627</v>
+      </c>
+      <c r="I123" s="28">
+        <v>3.2350048385676455E-2</v>
+      </c>
+      <c r="J123" s="28">
+        <v>7.0731183125834818E-2</v>
+      </c>
+      <c r="K123" s="28">
+        <v>0.13489128794513316</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A124" s="6">
+        <v>333</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D124" s="12">
+        <v>0.17</v>
+      </c>
+      <c r="E124" s="17">
+        <v>52090</v>
+      </c>
+      <c r="F124" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G124" s="20">
+        <v>3</v>
+      </c>
+      <c r="H124" s="26" t="s">
+        <v>628</v>
+      </c>
+      <c r="I124" s="27">
+        <v>9.1747016766527328E-2</v>
+      </c>
+      <c r="J124" s="11">
+        <v>0.16383291533339087</v>
+      </c>
+      <c r="K124" s="19">
+        <v>0.30332802265887754</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A125" s="6">
+        <v>334</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D125" s="12">
+        <v>0.22</v>
+      </c>
+      <c r="E125" s="17">
+        <v>17570</v>
+      </c>
+      <c r="F125" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G125" s="20">
+        <v>2</v>
+      </c>
+      <c r="H125" s="26" t="s">
+        <v>638</v>
+      </c>
+      <c r="I125" s="27">
+        <v>9.8564864606013776E-3</v>
+      </c>
+      <c r="J125" s="11">
+        <v>1.3797553481897691E-2</v>
+      </c>
+      <c r="K125" s="19">
+        <v>1.6719669102632118E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A126" s="6">
+        <v>335</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D126" s="12">
+        <v>0.22</v>
+      </c>
+      <c r="E126" s="17">
+        <v>17570</v>
+      </c>
+      <c r="F126" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G126" s="20">
+        <v>1</v>
+      </c>
+      <c r="H126" s="26" t="s">
+        <v>639</v>
+      </c>
+      <c r="I126" s="28">
+        <v>3.5779246382678487E-2</v>
+      </c>
+      <c r="J126" s="28">
+        <v>7.0742200172899117E-2</v>
+      </c>
+      <c r="K126" s="28">
+        <v>0.12729879640849695</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A127" s="6">
+        <v>336</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D127" s="12">
+        <v>0.22</v>
+      </c>
+      <c r="E127" s="17">
+        <v>17570</v>
+      </c>
+      <c r="F127" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G127" s="20">
+        <v>3</v>
+      </c>
+      <c r="H127" s="26" t="s">
+        <v>640</v>
+      </c>
+      <c r="I127" s="27">
+        <v>2.0256902195109172E-2</v>
+      </c>
+      <c r="J127" s="11">
+        <v>2.4140979781198176E-2</v>
+      </c>
+      <c r="K127" s="19">
+        <v>6.3827896454079755E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A128" s="6">
+        <v>337</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D128" s="12">
+        <v>0.19</v>
+      </c>
+      <c r="E128" s="17">
+        <v>22250</v>
+      </c>
+      <c r="F128" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G128" s="20">
+        <v>2</v>
+      </c>
+      <c r="H128" s="26" t="s">
+        <v>641</v>
+      </c>
+      <c r="I128" s="27">
+        <v>1.4716182100107621E-2</v>
+      </c>
+      <c r="J128" s="11">
+        <v>2.4473868207046459E-2</v>
+      </c>
+      <c r="K128" s="19">
+        <v>4.0090411555517125E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A129" s="6">
+        <v>338</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D129" s="12">
+        <v>0.19</v>
+      </c>
+      <c r="E129" s="17">
+        <v>22250</v>
+      </c>
+      <c r="F129" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G129" s="20">
+        <v>1</v>
+      </c>
+      <c r="H129" s="26" t="s">
+        <v>642</v>
+      </c>
+      <c r="I129" s="28">
+        <v>2.3246231693062169E-2</v>
+      </c>
+      <c r="J129" s="28">
+        <v>3.2746985632303161E-2</v>
+      </c>
+      <c r="K129" s="28">
+        <v>6.5918201907807839E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A130" s="6">
+        <v>339</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D130" s="12">
+        <v>0.19</v>
+      </c>
+      <c r="E130" s="17">
+        <v>22250</v>
+      </c>
+      <c r="F130" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G130" s="20">
+        <v>3</v>
+      </c>
+      <c r="H130" s="26" t="s">
+        <v>643</v>
+      </c>
+      <c r="I130" s="27">
+        <v>4.4444742570705686E-2</v>
+      </c>
+      <c r="J130" s="11">
+        <v>8.7074845798312248E-2</v>
+      </c>
+      <c r="K130" s="19">
+        <v>0.25049277750183718</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A131" s="6">
+        <v>346</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D131" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="E131" s="17">
+        <v>28380</v>
+      </c>
+      <c r="F131" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G131" s="20">
+        <v>2</v>
+      </c>
+      <c r="H131" s="26" t="s">
+        <v>425</v>
+      </c>
+      <c r="I131" s="27">
+        <v>9.6986555799139541E-3</v>
+      </c>
+      <c r="J131" s="11">
+        <v>2.2125260559673999E-2</v>
+      </c>
+      <c r="K131" s="19">
+        <v>4.6811394804356352E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A132" s="6">
+        <v>347</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D132" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="E132" s="17">
+        <v>28380</v>
+      </c>
+      <c r="F132" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G132" s="20">
+        <v>1</v>
+      </c>
+      <c r="H132" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="I132" s="28">
+        <v>2.4992866002165215E-2</v>
+      </c>
+      <c r="J132" s="28">
+        <v>5.9024951865754627E-2</v>
+      </c>
+      <c r="K132" s="28">
+        <v>0.11467352592502933</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A133" s="6">
+        <v>348</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D133" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="E133" s="17">
+        <v>28380</v>
+      </c>
+      <c r="F133" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G133" s="20">
+        <v>3</v>
+      </c>
+      <c r="H133" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="I133" s="27">
+        <v>2.5974985705945898E-2</v>
+      </c>
+      <c r="J133" s="11">
+        <v>6.4361826805022532E-2</v>
+      </c>
+      <c r="K133" s="19">
+        <v>0.18138745410059312</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A134" s="6">
+        <v>352</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D134" s="12">
+        <v>0.22</v>
+      </c>
+      <c r="E134" s="17">
+        <v>57900</v>
+      </c>
+      <c r="F134" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G134" s="20">
+        <v>2</v>
+      </c>
+      <c r="H134" s="26" t="s">
+        <v>644</v>
+      </c>
+      <c r="I134" s="27">
+        <v>1.6094654514757337E-2</v>
+      </c>
+      <c r="J134" s="11">
+        <v>4.163822853682201E-2</v>
+      </c>
+      <c r="K134" s="19">
+        <v>7.3373678281955235E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A135" s="6">
+        <v>353</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D135" s="12">
+        <v>0.22</v>
+      </c>
+      <c r="E135" s="17">
+        <v>57900</v>
+      </c>
+      <c r="F135" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G135" s="20">
+        <v>1</v>
+      </c>
+      <c r="H135" s="26" t="s">
+        <v>645</v>
+      </c>
+      <c r="I135" s="28">
+        <v>3.0803638367844832E-2</v>
+      </c>
+      <c r="J135" s="28">
+        <v>8.998368619495889E-2</v>
+      </c>
+      <c r="K135" s="28">
+        <v>0.16070800722182932</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A136" s="6">
+        <v>354</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D136" s="12">
+        <v>0.22</v>
+      </c>
+      <c r="E136" s="17">
+        <v>57900</v>
+      </c>
+      <c r="F136" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G136" s="20">
+        <v>3</v>
+      </c>
+      <c r="H136" s="26" t="s">
+        <v>646</v>
+      </c>
+      <c r="I136" s="27">
+        <v>3.1117895881038748E-2</v>
+      </c>
+      <c r="J136" s="11">
+        <v>6.4989531185774552E-2</v>
+      </c>
+      <c r="K136" s="19">
+        <v>0.10432027345285175</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A137" s="6">
+        <v>355</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="14">
+        <v>0.1792</v>
+      </c>
+      <c r="E137" s="17">
+        <v>84550</v>
+      </c>
+      <c r="F137" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G137" s="20">
+        <v>2</v>
+      </c>
+      <c r="H137" s="26" t="s">
+        <v>377</v>
+      </c>
+      <c r="I137" s="27">
+        <v>2.8215627931650909E-2</v>
+      </c>
+      <c r="J137" s="11">
+        <v>4.0586950784440218E-2</v>
+      </c>
+      <c r="K137" s="19">
+        <v>6.4735237374416874E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A138" s="6">
+        <v>356</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="14">
+        <v>0.1792</v>
+      </c>
+      <c r="E138" s="17">
+        <v>84550</v>
+      </c>
+      <c r="F138" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G138" s="20">
+        <v>1</v>
+      </c>
+      <c r="H138" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="I138" s="28">
+        <v>3.7729062707229311E-2</v>
+      </c>
+      <c r="J138" s="28">
+        <v>9.5192620020050356E-2</v>
+      </c>
+      <c r="K138" s="28">
+        <v>0.17351579692395858</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A139" s="6">
+        <v>357</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="14">
+        <v>0.1792</v>
+      </c>
+      <c r="E139" s="17">
+        <v>84550</v>
+      </c>
+      <c r="F139" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G139" s="20">
+        <v>3</v>
+      </c>
+      <c r="H139" s="26" t="s">
+        <v>379</v>
+      </c>
+      <c r="I139" s="27">
+        <v>2.0318736293066866E-2</v>
+      </c>
+      <c r="J139" s="11">
+        <v>0.11894055818012803</v>
+      </c>
+      <c r="K139" s="19">
+        <v>0.16287614247107784</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A140" s="6">
+        <v>382</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D140" s="12">
+        <v>0.19</v>
+      </c>
+      <c r="E140" s="17">
+        <v>43700</v>
+      </c>
+      <c r="F140" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G140" s="20">
+        <v>2</v>
+      </c>
+      <c r="H140" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="I140" s="27">
+        <v>2.3544644224178686E-2</v>
+      </c>
+      <c r="J140" s="11">
+        <v>4.4291338582677232E-2</v>
+      </c>
+      <c r="K140" s="19">
+        <v>7.5931654049799874E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A141" s="6">
+        <v>383</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D141" s="12">
+        <v>0.19</v>
+      </c>
+      <c r="E141" s="17">
+        <v>43700</v>
+      </c>
+      <c r="F141" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G141" s="20">
+        <v>1</v>
+      </c>
+      <c r="H141" s="26" t="s">
+        <v>441</v>
+      </c>
+      <c r="I141" s="28">
+        <v>4.0664862298710136E-2</v>
+      </c>
+      <c r="J141" s="28">
+        <v>8.7839005851146235E-2</v>
+      </c>
+      <c r="K141" s="28">
+        <v>0.1400514568748934</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A142" s="6">
+        <v>384</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D142" s="12">
+        <v>0.19</v>
+      </c>
+      <c r="E142" s="17">
+        <v>43700</v>
+      </c>
+      <c r="F142" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G142" s="20">
+        <v>3</v>
+      </c>
+      <c r="H142" s="26" t="s">
+        <v>442</v>
+      </c>
+      <c r="I142" s="27">
+        <v>3.8109917148159651E-2</v>
+      </c>
+      <c r="J142" s="11">
+        <v>0.10299003322259127</v>
+      </c>
+      <c r="K142" s="19">
+        <v>0.22869977183155038</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A143" s="6">
+        <v>385</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D143" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="E143" s="17">
+        <v>55980</v>
+      </c>
+      <c r="F143" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G143" s="20">
+        <v>2</v>
+      </c>
+      <c r="H143" s="26" t="s">
+        <v>674</v>
+      </c>
+      <c r="I143" s="27">
+        <v>2.9689133022581443E-2</v>
+      </c>
+      <c r="J143" s="11">
+        <v>6.3566874544274177E-2</v>
+      </c>
+      <c r="K143" s="19">
+        <v>0.10032396265513968</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A144" s="6">
+        <v>386</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D144" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="E144" s="17">
+        <v>55980</v>
+      </c>
+      <c r="F144" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G144" s="20">
+        <v>1</v>
+      </c>
+      <c r="H144" s="26" t="s">
+        <v>675</v>
+      </c>
+      <c r="I144" s="28">
+        <v>5.2920834877114853E-2</v>
+      </c>
+      <c r="J144" s="28">
+        <v>8.7938720721164487E-2</v>
+      </c>
+      <c r="K144" s="28">
+        <v>0.1619365609348915</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A145" s="6">
+        <v>387</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D145" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="E145" s="17">
+        <v>55980</v>
+      </c>
+      <c r="F145" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G145" s="20">
+        <v>3</v>
+      </c>
+      <c r="H145" s="26" t="s">
+        <v>676</v>
+      </c>
+      <c r="I145" s="27">
+        <v>5.8973750253846047E-2</v>
+      </c>
+      <c r="J145" s="11">
+        <v>0.12485099004536095</v>
+      </c>
+      <c r="K145" s="19">
+        <v>0.27993789181025908</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:S55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>695</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="O1" s="31" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q1" s="33" t="s">
+        <v>698</v>
+      </c>
+      <c r="R1" s="33" t="s">
+        <v>699</v>
+      </c>
+      <c r="S1" s="33" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>115</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="12">
+        <v>0.125</v>
+      </c>
+      <c r="E2" s="17">
+        <v>25810</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="20">
+        <v>2</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>401</v>
+      </c>
+      <c r="I2" s="21">
+        <v>4.8344233109427266E-2</v>
+      </c>
+      <c r="J2" s="11">
+        <v>8.6234487783855562E-2</v>
+      </c>
+      <c r="K2" s="19">
+        <v>0.12970791343789456</v>
+      </c>
+      <c r="L2" s="30">
+        <v>270</v>
+      </c>
+      <c r="M2" s="30">
+        <v>8007312</v>
+      </c>
+      <c r="N2" s="30">
+        <f>L2*E2</f>
+        <v>6968700</v>
+      </c>
+      <c r="O2" s="32">
+        <f>(M2-N2)/M2</f>
+        <v>0.12970794693650003</v>
+      </c>
+      <c r="Q2" s="34">
+        <f>M2-N2</f>
+        <v>1038612</v>
+      </c>
+      <c r="R2" s="4">
+        <f>Q2*D2</f>
+        <v>129826.5</v>
+      </c>
+      <c r="S2" s="4">
+        <f>Q2-R2</f>
+        <v>908785.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>122</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0.22</v>
+      </c>
+      <c r="E3" s="17">
+        <v>60270</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G3" s="20">
+        <v>1</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>411</v>
+      </c>
+      <c r="I3" s="21">
+        <v>0.57497864409412369</v>
+      </c>
+      <c r="J3" s="11">
+        <v>0.57497864409412369</v>
+      </c>
+      <c r="K3" s="19">
+        <v>0.57497864409412369</v>
+      </c>
+      <c r="L3" s="30">
+        <v>56</v>
+      </c>
+      <c r="M3" s="30">
+        <v>5315742</v>
+      </c>
+      <c r="N3" s="30">
+        <f t="shared" ref="N3:N6" si="0">L3*E3</f>
+        <v>3375120</v>
+      </c>
+      <c r="O3" s="32">
+        <f>(M3-N3)/N3</f>
+        <v>0.57497866742515824</v>
+      </c>
+      <c r="Q3" s="34">
+        <f t="shared" ref="Q3:Q6" si="1">M3-N3</f>
+        <v>1940622</v>
+      </c>
+      <c r="R3" s="4">
+        <f t="shared" ref="R3:R6" si="2">Q3*D3</f>
+        <v>426936.84</v>
+      </c>
+      <c r="S3" s="4">
+        <f t="shared" ref="S3:S6" si="3">Q3-R3</f>
+        <v>1513685.16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>215</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="E4" s="17">
+        <v>14990</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G4" s="20">
+        <v>1</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>528</v>
+      </c>
+      <c r="I4" s="21">
+        <v>7.4935681341510657E-2</v>
+      </c>
+      <c r="J4" s="11">
+        <v>7.7393698378709408E-2</v>
+      </c>
+      <c r="K4" s="19">
+        <v>0.32196630850285968</v>
+      </c>
+      <c r="L4" s="30">
+        <v>8</v>
+      </c>
+      <c r="M4" s="30">
+        <v>158530</v>
+      </c>
+      <c r="N4" s="30">
+        <f t="shared" si="0"/>
+        <v>119920</v>
+      </c>
+      <c r="O4" s="32">
+        <f>(M4-N4)/N4</f>
+        <v>0.32196464309539691</v>
+      </c>
+      <c r="Q4" s="34">
+        <f t="shared" si="1"/>
+        <v>38610</v>
+      </c>
+      <c r="R4" s="4">
+        <f t="shared" si="2"/>
+        <v>5791.5</v>
+      </c>
+      <c r="S4" s="4">
+        <f t="shared" si="3"/>
+        <v>32818.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>216</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="E5" s="17">
+        <v>14990</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G5" s="20">
+        <v>3</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>529</v>
+      </c>
+      <c r="I5" s="21">
+        <v>0.42909790469922893</v>
+      </c>
+      <c r="J5" s="11">
+        <v>0.44635496240933875</v>
+      </c>
+      <c r="K5" s="19">
+        <v>0.46361202011944858</v>
+      </c>
+      <c r="L5" s="30">
+        <v>2286</v>
+      </c>
+      <c r="M5" s="30">
+        <v>63884990</v>
+      </c>
+      <c r="N5" s="30">
+        <f t="shared" si="0"/>
+        <v>34267140</v>
+      </c>
+      <c r="O5" s="32">
+        <f>(M5-N5)/M5</f>
+        <v>0.46361203155858677</v>
+      </c>
+      <c r="Q5" s="34">
+        <f t="shared" si="1"/>
+        <v>29617850</v>
+      </c>
+      <c r="R5" s="4">
+        <f t="shared" si="2"/>
+        <v>4442677.5</v>
+      </c>
+      <c r="S5" s="4">
+        <f t="shared" si="3"/>
+        <v>25175172.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>306</v>
+      </c>
       <c r="B6" s="7" t="s">
-        <v>187</v>
+        <v>239</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="D6" s="12">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="E6" s="17">
-        <v>18320</v>
+        <v>20470</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>149</v>
@@ -16990,157 +22275,287 @@
         <v>3</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>430</v>
+        <v>607</v>
       </c>
       <c r="I6" s="21">
-        <v>0.13558370993750485</v>
+        <v>4.1137968157593532E-2</v>
       </c>
       <c r="J6" s="11">
-        <v>0.13966594784360642</v>
+        <v>0.22229816593139243</v>
       </c>
       <c r="K6" s="19">
-        <v>0.14374818574970799</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
-        <v>139</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="E7" s="17">
-        <v>46560</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G7" s="20">
-        <v>2</v>
-      </c>
-      <c r="H7" s="23" t="s">
-        <v>431</v>
-      </c>
-      <c r="I7" s="21">
-        <v>1.3053323728168212E-2</v>
-      </c>
-      <c r="J7" s="11">
-        <v>3.8615179535260599E-2</v>
-      </c>
-      <c r="K7" s="19">
-        <v>7.2563296590786711E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
-        <v>140</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="E8" s="17">
-        <v>46560</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G8" s="20">
-        <v>1</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>432</v>
-      </c>
-      <c r="I8" s="21">
-        <v>2.7006871078283409E-2</v>
-      </c>
-      <c r="J8" s="11">
-        <v>3.5702390116212165E-2</v>
-      </c>
-      <c r="K8" s="19">
-        <v>7.7167293004254456E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
-        <v>141</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="E9" s="17">
-        <v>46560</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G9" s="20">
-        <v>3</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>433</v>
-      </c>
-      <c r="I9" s="21">
-        <v>4.031345682438018E-2</v>
-      </c>
-      <c r="J9" s="11">
-        <v>8.7956541840036984E-2</v>
-      </c>
-      <c r="K9" s="19">
-        <v>0.16854819678602634</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
-        <v>142</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="14">
-        <v>0.33</v>
-      </c>
-      <c r="E10" s="17">
-        <v>40710</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G10" s="20">
-        <v>2</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>434</v>
-      </c>
-      <c r="I10" s="21">
-        <v>5.0971334634377701E-3</v>
-      </c>
-      <c r="J10" s="11">
-        <v>1.3283074716208843E-2</v>
-      </c>
-      <c r="K10" s="19">
-        <v>2.9687453061613304E-2</v>
-      </c>
+        <v>0.81919954708398379</v>
+      </c>
+      <c r="L6" s="30">
+        <v>102</v>
+      </c>
+      <c r="M6" s="30">
+        <v>11533770</v>
+      </c>
+      <c r="N6" s="30">
+        <f t="shared" si="0"/>
+        <v>2087940</v>
+      </c>
+      <c r="O6" s="32">
+        <f>(M6-N6)/M6</f>
+        <v>0.81897159385005946</v>
+      </c>
+      <c r="Q6" s="34">
+        <f t="shared" si="1"/>
+        <v>9445830</v>
+      </c>
+      <c r="R6" s="4">
+        <f t="shared" si="2"/>
+        <v>2172540.9</v>
+      </c>
+      <c r="S6" s="4">
+        <f t="shared" si="3"/>
+        <v>7273289.0999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="P7" s="33" t="s">
+        <v>701</v>
+      </c>
+      <c r="Q7" s="35">
+        <f>SUM(Q2:Q6)</f>
+        <v>42081524</v>
+      </c>
+      <c r="R7" s="35">
+        <f t="shared" ref="R7:S7" si="4">SUM(R2:R6)</f>
+        <v>7177773.2400000002</v>
+      </c>
+      <c r="S7" s="35">
+        <f t="shared" si="4"/>
+        <v>34903750.759999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="P10" s="36" t="s">
+        <v>702</v>
+      </c>
+      <c r="Q10" s="37">
+        <f>R7/Q7</f>
+        <v>0.17056828170006391</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="P11" s="36" t="s">
+        <v>703</v>
+      </c>
+      <c r="Q11" s="38">
+        <f>S7</f>
+        <v>34903750.759999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="P13" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q13" s="25">
+        <f>Q11/rev</f>
+        <v>0.39261659954881611</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+    </row>
+    <row r="19" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+    </row>
+    <row r="20" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+    </row>
+    <row r="21" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+    </row>
+    <row r="22" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+    </row>
+    <row r="23" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+    </row>
+    <row r="24" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+    </row>
+    <row r="25" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+    </row>
+    <row r="26" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+    </row>
+    <row r="27" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+    </row>
+    <row r="28" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+    </row>
+    <row r="29" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+    </row>
+    <row r="30" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+    </row>
+    <row r="31" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+    </row>
+    <row r="32" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+    </row>
+    <row r="33" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+    </row>
+    <row r="34" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+    </row>
+    <row r="35" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+    </row>
+    <row r="36" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+    </row>
+    <row r="37" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+    </row>
+    <row r="38" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+    </row>
+    <row r="39" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+    </row>
+    <row r="40" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+    </row>
+    <row r="41" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+    </row>
+    <row r="42" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+    </row>
+    <row r="43" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+    </row>
+    <row r="44" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+    </row>
+    <row r="45" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+    </row>
+    <row r="46" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+    </row>
+    <row r="47" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+    </row>
+    <row r="48" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+    </row>
+    <row r="49" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+    </row>
+    <row r="50" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+    </row>
+    <row r="51" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+    </row>
+    <row r="52" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+    </row>
+    <row r="53" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+    </row>
+    <row r="54" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+    </row>
+    <row r="55" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/ExLingo.xlsx
+++ b/Data/ExLingo.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2242" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2238" uniqueCount="705">
   <si>
     <t>N</t>
   </si>
@@ -2154,9 +2154,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -2293,7 +2294,7 @@
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2333,6 +2334,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2618,8 +2620,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K403"/>
   <sheetViews>
-    <sheetView topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="A216" sqref="A216:K216"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16759,7 +16761,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16858,6 +16860,9 @@
       <c r="D12" s="4"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C14" s="10">
+        <v>6960502</v>
+      </c>
       <c r="D14" s="4"/>
     </row>
   </sheetData>
@@ -16871,8 +16876,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K145"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81:XFD81"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82:XFD82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21964,15 +21969,15 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:S55"/>
+  <dimension ref="A1:S54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15" style="10" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.42578125" style="25" bestFit="1" customWidth="1"/>
@@ -22030,10 +22035,10 @@
       <c r="G2" s="20">
         <v>2</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="26" t="s">
         <v>401</v>
       </c>
-      <c r="I2" s="21">
+      <c r="I2" s="27">
         <v>4.8344233109427266E-2</v>
       </c>
       <c r="J2" s="11">
@@ -22042,31 +22047,31 @@
       <c r="K2" s="19">
         <v>0.12970791343789456</v>
       </c>
-      <c r="L2" s="30">
-        <v>270</v>
+      <c r="L2" s="39">
+        <v>269.2824</v>
       </c>
       <c r="M2" s="30">
-        <v>8007312</v>
+        <v>7986031</v>
       </c>
       <c r="N2" s="30">
         <f>L2*E2</f>
-        <v>6968700</v>
+        <v>6950178.7439999999</v>
       </c>
       <c r="O2" s="32">
         <f>(M2-N2)/M2</f>
-        <v>0.12970794693650003</v>
+        <v>0.12970801841365254</v>
       </c>
       <c r="Q2" s="34">
         <f>M2-N2</f>
-        <v>1038612</v>
+        <v>1035852.2560000001</v>
       </c>
       <c r="R2" s="4">
         <f>Q2*D2</f>
-        <v>129826.5</v>
+        <v>129481.53200000001</v>
       </c>
       <c r="S2" s="4">
         <f>Q2-R2</f>
-        <v>908785.5</v>
+        <v>906370.72400000005</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -22103,36 +22108,36 @@
       <c r="K3" s="19">
         <v>0.57497864409412369</v>
       </c>
-      <c r="L3" s="30">
-        <v>56</v>
+      <c r="L3" s="39">
+        <v>57.561860000000003</v>
       </c>
       <c r="M3" s="30">
-        <v>5315742</v>
+        <v>5464000</v>
       </c>
       <c r="N3" s="30">
-        <f t="shared" ref="N3:N6" si="0">L3*E3</f>
-        <v>3375120</v>
+        <f t="shared" ref="N3:N5" si="0">L3*E3</f>
+        <v>3469253.3022000003</v>
       </c>
       <c r="O3" s="32">
         <f>(M3-N3)/N3</f>
-        <v>0.57497866742515824</v>
+        <v>0.57497868389576701</v>
       </c>
       <c r="Q3" s="34">
-        <f t="shared" ref="Q3:Q6" si="1">M3-N3</f>
-        <v>1940622</v>
+        <f t="shared" ref="Q3:Q5" si="1">M3-N3</f>
+        <v>1994746.6977999997</v>
       </c>
       <c r="R3" s="4">
-        <f t="shared" ref="R3:R6" si="2">Q3*D3</f>
-        <v>426936.84</v>
+        <f t="shared" ref="R3:R5" si="2">Q3*D3</f>
+        <v>438844.27351599996</v>
       </c>
       <c r="S3" s="4">
-        <f t="shared" ref="S3:S6" si="3">Q3-R3</f>
-        <v>1513685.16</v>
+        <f t="shared" ref="S3:S5" si="3">Q3-R3</f>
+        <v>1555902.4242839997</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>211</v>
@@ -22147,65 +22152,65 @@
         <v>14990</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G4" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="I4" s="21">
-        <v>7.4935681341510657E-2</v>
+        <v>0.42909790469922893</v>
       </c>
       <c r="J4" s="11">
-        <v>7.7393698378709408E-2</v>
+        <v>0.44635496240933875</v>
       </c>
       <c r="K4" s="19">
-        <v>0.32196630850285968</v>
-      </c>
-      <c r="L4" s="30">
-        <v>8</v>
+        <v>0.46361202011944858</v>
+      </c>
+      <c r="L4" s="39">
+        <v>2295.3009999999999</v>
       </c>
       <c r="M4" s="30">
-        <v>158530</v>
+        <v>64144930</v>
       </c>
       <c r="N4" s="30">
         <f t="shared" si="0"/>
-        <v>119920</v>
+        <v>34406561.990000002</v>
       </c>
       <c r="O4" s="32">
-        <f>(M4-N4)/N4</f>
-        <v>0.32196464309539691</v>
+        <f>(M4-N4)/M4</f>
+        <v>0.46361213598642947</v>
       </c>
       <c r="Q4" s="34">
         <f t="shared" si="1"/>
-        <v>38610</v>
+        <v>29738368.009999998</v>
       </c>
       <c r="R4" s="4">
         <f t="shared" si="2"/>
-        <v>5791.5</v>
+        <v>4460755.2014999995</v>
       </c>
       <c r="S4" s="4">
         <f t="shared" si="3"/>
-        <v>32818.5</v>
+        <v>25277612.808499999</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
-        <v>216</v>
+        <v>306</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="D5" s="12">
-        <v>0.15</v>
+        <v>0.23</v>
       </c>
       <c r="E5" s="17">
-        <v>14990</v>
+        <v>20470</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>149</v>
@@ -22214,148 +22219,92 @@
         <v>3</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>529</v>
+        <v>607</v>
       </c>
       <c r="I5" s="21">
-        <v>0.42909790469922893</v>
+        <v>4.1137968157593532E-2</v>
       </c>
       <c r="J5" s="11">
-        <v>0.44635496240933875</v>
+        <v>0.22229816593139243</v>
       </c>
       <c r="K5" s="19">
-        <v>0.46361202011944858</v>
-      </c>
-      <c r="L5" s="30">
-        <v>2286</v>
+        <v>0.81919954708398379</v>
+      </c>
+      <c r="L5" s="39">
+        <v>99.854389999999995</v>
       </c>
       <c r="M5" s="30">
-        <v>63884990</v>
+        <v>11305390</v>
       </c>
       <c r="N5" s="30">
         <f t="shared" si="0"/>
-        <v>34267140</v>
+        <v>2044019.3632999999</v>
       </c>
       <c r="O5" s="32">
         <f>(M5-N5)/M5</f>
-        <v>0.46361203155858677</v>
+        <v>0.81919957088609952</v>
       </c>
       <c r="Q5" s="34">
         <f t="shared" si="1"/>
-        <v>29617850</v>
+        <v>9261370.6367000006</v>
       </c>
       <c r="R5" s="4">
         <f t="shared" si="2"/>
-        <v>4442677.5</v>
+        <v>2130115.2464410001</v>
       </c>
       <c r="S5" s="4">
         <f t="shared" si="3"/>
-        <v>25175172.5</v>
+        <v>7131255.3902590005</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
-        <v>306</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="12">
-        <v>0.23</v>
-      </c>
-      <c r="E6" s="17">
-        <v>20470</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G6" s="20">
-        <v>3</v>
-      </c>
-      <c r="H6" s="23" t="s">
-        <v>607</v>
-      </c>
-      <c r="I6" s="21">
-        <v>4.1137968157593532E-2</v>
-      </c>
-      <c r="J6" s="11">
-        <v>0.22229816593139243</v>
-      </c>
-      <c r="K6" s="19">
-        <v>0.81919954708398379</v>
-      </c>
-      <c r="L6" s="30">
-        <v>102</v>
-      </c>
-      <c r="M6" s="30">
-        <v>11533770</v>
-      </c>
-      <c r="N6" s="30">
-        <f t="shared" si="0"/>
-        <v>2087940</v>
-      </c>
-      <c r="O6" s="32">
-        <f>(M6-N6)/M6</f>
-        <v>0.81897159385005946</v>
-      </c>
-      <c r="Q6" s="34">
-        <f t="shared" si="1"/>
-        <v>9445830</v>
-      </c>
-      <c r="R6" s="4">
-        <f t="shared" si="2"/>
-        <v>2172540.9</v>
-      </c>
-      <c r="S6" s="4">
-        <f t="shared" si="3"/>
-        <v>7273289.0999999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="P7" s="33" t="s">
+      <c r="P6" s="33" t="s">
         <v>701</v>
       </c>
-      <c r="Q7" s="35">
-        <f>SUM(Q2:Q6)</f>
-        <v>42081524</v>
-      </c>
-      <c r="R7" s="35">
-        <f t="shared" ref="R7:S7" si="4">SUM(R2:R6)</f>
-        <v>7177773.2400000002</v>
-      </c>
-      <c r="S7" s="35">
-        <f t="shared" si="4"/>
-        <v>34903750.759999998</v>
+      <c r="Q6" s="35">
+        <f>SUM(Q2:Q5)</f>
+        <v>42030337.600500003</v>
+      </c>
+      <c r="R6" s="35">
+        <f>SUM(R2:R5)</f>
+        <v>7159196.2534569995</v>
+      </c>
+      <c r="S6" s="35">
+        <f>SUM(S2:S5)</f>
+        <v>34871141.347043</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="P9" s="36" t="s">
+        <v>702</v>
+      </c>
+      <c r="Q9" s="37">
+        <f>R6/Q6</f>
+        <v>0.17033401733541709</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="P10" s="36" t="s">
-        <v>702</v>
-      </c>
-      <c r="Q10" s="37">
-        <f>R7/Q7</f>
-        <v>0.17056828170006391</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="P11" s="36" t="s">
         <v>703</v>
       </c>
-      <c r="Q11" s="38">
-        <f>S7</f>
-        <v>34903750.759999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="P13" s="1" t="s">
+      <c r="Q10" s="38">
+        <f>S6</f>
+        <v>34871141.347043</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="P12" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="Q13" s="25">
-        <f>Q11/rev</f>
-        <v>0.39261659954881611</v>
-      </c>
+      <c r="Q12" s="25">
+        <f>Q10/rev</f>
+        <v>0.3922497909236774</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="E16" s="25"/>
@@ -22552,11 +22501,6 @@
       <c r="F54" s="25"/>
       <c r="G54" s="25"/>
     </row>
-    <row r="55" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="25"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/ExLingo.xlsx
+++ b/Data/ExLingo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="9345" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="9345" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Final (2)" sheetId="7" r:id="rId1"/>
@@ -19,13 +19,13 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Final (2)'!$A$1:$K$403</definedName>
-    <definedName name="ct">Lingo!$D$1:$D$145</definedName>
+    <definedName name="ct">Lingo!$D$1:$D$142</definedName>
     <definedName name="emp">Target!$B$3</definedName>
-    <definedName name="gni">Lingo!$E$1:$E$145</definedName>
-    <definedName name="pl">Lingo!$I$1:$I$145</definedName>
-    <definedName name="pli">Lingo!$G$1:$G$145</definedName>
-    <definedName name="pm">Lingo!$J$1:$J$145</definedName>
-    <definedName name="pu">Lingo!$K$1:$K$145</definedName>
+    <definedName name="gni">Lingo!$E$1:$E$142</definedName>
+    <definedName name="pl">Lingo!$I$1:$I$142</definedName>
+    <definedName name="pli">Lingo!$G$1:$G$142</definedName>
+    <definedName name="pm">Lingo!$J$1:$J$142</definedName>
+    <definedName name="pu">Lingo!$K$1:$K$142</definedName>
     <definedName name="rev">Target!$B$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2238" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2226" uniqueCount="705">
   <si>
     <t>N</t>
   </si>
@@ -2294,7 +2294,7 @@
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2325,6 +2325,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2335,6 +2336,8 @@
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -16761,7 +16764,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16874,10 +16877,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:K145"/>
+  <dimension ref="A1:K142"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82:XFD82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17343,19 +17346,19 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="14">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0.33989999999999998</v>
       </c>
       <c r="E14" s="17">
-        <v>20740</v>
+        <v>44510</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>147</v>
@@ -17364,33 +17367,33 @@
         <v>2</v>
       </c>
       <c r="H14" s="26" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="I14" s="27">
-        <v>7.6776669196152352E-3</v>
+        <v>1.0141014033979771E-2</v>
       </c>
       <c r="J14" s="11">
-        <v>2.9815233273297551E-2</v>
+        <v>1.9542578677226086E-2</v>
       </c>
       <c r="K14" s="19">
-        <v>6.2950946325533164E-2</v>
+        <v>4.4392810810286211E-2</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="14">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0.33989999999999998</v>
       </c>
       <c r="E15" s="17">
-        <v>20740</v>
+        <v>44510</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>148</v>
@@ -17399,33 +17402,33 @@
         <v>1</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="I15" s="28">
-        <v>3.5779246382678487E-2</v>
+        <v>4.5212717106881017E-2</v>
       </c>
       <c r="J15" s="28">
-        <v>7.0742200172899117E-2</v>
+        <v>6.4152410575427643E-2</v>
       </c>
       <c r="K15" s="28">
-        <v>0.12729879640849695</v>
+        <v>0.1145893578962679</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="14">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0.33989999999999998</v>
       </c>
       <c r="E16" s="17">
-        <v>20740</v>
+        <v>44510</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>149</v>
@@ -17434,33 +17437,33 @@
         <v>3</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="I16" s="27">
-        <v>3.1775252121018109E-2</v>
+        <v>2.0803536325003751E-2</v>
       </c>
       <c r="J16" s="11">
-        <v>7.772686245920965E-2</v>
+        <v>5.1262948284818435E-2</v>
       </c>
       <c r="K16" s="19">
-        <v>0.17564667785103982</v>
+        <v>0.12622076104522667</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D17" s="12">
-        <v>0.33989999999999998</v>
+        <v>0.34</v>
       </c>
       <c r="E17" s="17">
-        <v>44510</v>
+        <v>9990</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>147</v>
@@ -17469,33 +17472,33 @@
         <v>2</v>
       </c>
       <c r="H17" s="26" t="s">
-        <v>326</v>
+        <v>356</v>
       </c>
       <c r="I17" s="27">
-        <v>1.0141014033979771E-2</v>
+        <v>2.8077613285120616E-2</v>
       </c>
       <c r="J17" s="11">
-        <v>1.9542578677226086E-2</v>
+        <v>5.1410578885033434E-2</v>
       </c>
       <c r="K17" s="19">
-        <v>4.4392810810286211E-2</v>
+        <v>0.10208661313255325</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D18" s="12">
-        <v>0.33989999999999998</v>
+        <v>0.34</v>
       </c>
       <c r="E18" s="17">
-        <v>44510</v>
+        <v>9990</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>148</v>
@@ -17504,33 +17507,33 @@
         <v>1</v>
       </c>
       <c r="H18" s="26" t="s">
-        <v>327</v>
+        <v>357</v>
       </c>
       <c r="I18" s="28">
-        <v>4.5212717106881017E-2</v>
+        <v>4.532998232096852E-2</v>
       </c>
       <c r="J18" s="28">
-        <v>6.4152410575427643E-2</v>
+        <v>0.11491820362349303</v>
       </c>
       <c r="K18" s="28">
-        <v>0.1145893578962679</v>
+        <v>0.12293649758769065</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D19" s="12">
-        <v>0.33989999999999998</v>
+        <v>0.34</v>
       </c>
       <c r="E19" s="17">
-        <v>44510</v>
+        <v>9990</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>149</v>
@@ -17539,33 +17542,33 @@
         <v>3</v>
       </c>
       <c r="H19" s="26" t="s">
-        <v>328</v>
+        <v>358</v>
       </c>
       <c r="I19" s="27">
-        <v>2.0803536325003751E-2</v>
+        <v>5.5127985932045397E-2</v>
       </c>
       <c r="J19" s="11">
-        <v>5.1262948284818435E-2</v>
+        <v>9.4334472474737002E-2</v>
       </c>
       <c r="K19" s="19">
-        <v>0.12622076104522667</v>
+        <v>0.12189865292005134</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
-        <v>67</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="12">
-        <v>0.34</v>
+        <v>88</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="14">
+        <v>0.31</v>
       </c>
       <c r="E20" s="17">
-        <v>9990</v>
+        <v>47250</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>147</v>
@@ -17574,33 +17577,33 @@
         <v>2</v>
       </c>
       <c r="H20" s="26" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="I20" s="27">
-        <v>2.8077613285120616E-2</v>
+        <v>4.6295851768600751E-2</v>
       </c>
       <c r="J20" s="11">
-        <v>5.1410578885033434E-2</v>
+        <v>0.10044252450936857</v>
       </c>
       <c r="K20" s="19">
-        <v>0.10208661313255325</v>
+        <v>0.19594431538489784</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
-        <v>68</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="12">
-        <v>0.34</v>
+        <v>89</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="14">
+        <v>0.31</v>
       </c>
       <c r="E21" s="17">
-        <v>9990</v>
+        <v>47250</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>148</v>
@@ -17609,33 +17612,33 @@
         <v>1</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="I21" s="28">
-        <v>4.532998232096852E-2</v>
+        <v>4.0209539703231156E-2</v>
       </c>
       <c r="J21" s="28">
-        <v>0.11491820362349303</v>
+        <v>0.10014563593244175</v>
       </c>
       <c r="K21" s="28">
-        <v>0.12293649758769065</v>
+        <v>0.18831367461614723</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
-        <v>69</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="12">
-        <v>0.34</v>
+        <v>90</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="14">
+        <v>0.31</v>
       </c>
       <c r="E22" s="17">
-        <v>9990</v>
+        <v>47250</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>149</v>
@@ -17644,33 +17647,33 @@
         <v>3</v>
       </c>
       <c r="H22" s="26" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="I22" s="27">
-        <v>5.5127985932045397E-2</v>
+        <v>4.6061670886074317E-2</v>
       </c>
       <c r="J22" s="11">
-        <v>9.4334472474737002E-2</v>
+        <v>9.1745084447962019E-2</v>
       </c>
       <c r="K22" s="19">
-        <v>0.12189865292005134</v>
+        <v>0.13394981530345532</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
-        <v>88</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="14">
-        <v>0.31</v>
+        <v>100</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="12">
+        <v>0.25</v>
       </c>
       <c r="E23" s="17">
-        <v>47250</v>
+        <v>7900</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>147</v>
@@ -17679,33 +17682,33 @@
         <v>2</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="I23" s="27">
-        <v>4.6295851768600751E-2</v>
+        <v>1.5027941903899642E-2</v>
       </c>
       <c r="J23" s="11">
-        <v>0.10044252450936857</v>
+        <v>5.8333333333333168E-2</v>
       </c>
       <c r="K23" s="19">
-        <v>0.19594431538489784</v>
+        <v>0.12431908794085546</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
-        <v>89</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="14">
-        <v>0.31</v>
+        <v>101</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="12">
+        <v>0.25</v>
       </c>
       <c r="E24" s="17">
-        <v>47250</v>
+        <v>7900</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>148</v>
@@ -17714,33 +17717,33 @@
         <v>1</v>
       </c>
       <c r="H24" s="26" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="I24" s="28">
-        <v>4.0209539703231156E-2</v>
+        <v>3.821338995438206E-2</v>
       </c>
       <c r="J24" s="28">
-        <v>0.10014563593244175</v>
+        <v>7.8155786849134601E-2</v>
       </c>
       <c r="K24" s="28">
-        <v>0.18831367461614723</v>
+        <v>0.13510160029128382</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
-        <v>90</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="14">
-        <v>0.31</v>
+        <v>102</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="12">
+        <v>0.25</v>
       </c>
       <c r="E25" s="17">
-        <v>47250</v>
+        <v>7900</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>149</v>
@@ -17749,33 +17752,33 @@
         <v>3</v>
       </c>
       <c r="H25" s="26" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="I25" s="27">
-        <v>4.6061670886074317E-2</v>
+        <v>7.6728804570763615E-2</v>
       </c>
       <c r="J25" s="11">
-        <v>9.1745084447962019E-2</v>
+        <v>0.142123296943614</v>
       </c>
       <c r="K25" s="19">
-        <v>0.13394981530345532</v>
+        <v>0.22402392867824805</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D26" s="12">
         <v>0.25</v>
       </c>
       <c r="E26" s="17">
-        <v>7900</v>
+        <v>7140</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>147</v>
@@ -17784,33 +17787,33 @@
         <v>2</v>
       </c>
       <c r="H26" s="26" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="I26" s="27">
-        <v>1.5027941903899642E-2</v>
+        <v>3.9388135050512654E-2</v>
       </c>
       <c r="J26" s="11">
-        <v>5.8333333333333168E-2</v>
+        <v>4.9355019629837453E-2</v>
       </c>
       <c r="K26" s="19">
-        <v>0.12431908794085546</v>
+        <v>7.7196281207563111E-2</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D27" s="12">
         <v>0.25</v>
       </c>
       <c r="E27" s="17">
-        <v>7900</v>
+        <v>7140</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>148</v>
@@ -17819,33 +17822,33 @@
         <v>1</v>
       </c>
       <c r="H27" s="26" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="I27" s="28">
-        <v>3.821338995438206E-2</v>
+        <v>0.19202193966591885</v>
       </c>
       <c r="J27" s="28">
-        <v>7.8155786849134601E-2</v>
+        <v>0.19202193966591885</v>
       </c>
       <c r="K27" s="28">
-        <v>0.13510160029128382</v>
+        <v>0.19202193966591885</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D28" s="12">
         <v>0.25</v>
       </c>
       <c r="E28" s="17">
-        <v>7900</v>
+        <v>7140</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>149</v>
@@ -17854,33 +17857,33 @@
         <v>3</v>
       </c>
       <c r="H28" s="26" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="I28" s="27">
-        <v>7.6728804570763615E-2</v>
+        <v>6.7188429676415348E-2</v>
       </c>
       <c r="J28" s="11">
-        <v>0.142123296943614</v>
+        <v>9.1309023364942912E-2</v>
       </c>
       <c r="K28" s="19">
-        <v>0.22402392867824805</v>
+        <v>0.15580733168924329</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D29" s="12">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="E29" s="17">
-        <v>7140</v>
+        <v>12760</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>147</v>
@@ -17889,33 +17892,33 @@
         <v>2</v>
       </c>
       <c r="H29" s="26" t="s">
-        <v>389</v>
+        <v>461</v>
       </c>
       <c r="I29" s="27">
-        <v>3.9388135050512654E-2</v>
+        <v>1.6809297372358156E-2</v>
       </c>
       <c r="J29" s="11">
-        <v>4.9355019629837453E-2</v>
+        <v>2.0272821958307954E-2</v>
       </c>
       <c r="K29" s="19">
-        <v>7.7196281207563111E-2</v>
+        <v>3.6586217626019921E-2</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D30" s="12">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="E30" s="17">
-        <v>7140</v>
+        <v>12760</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>148</v>
@@ -17924,33 +17927,33 @@
         <v>1</v>
       </c>
       <c r="H30" s="26" t="s">
-        <v>390</v>
+        <v>462</v>
       </c>
       <c r="I30" s="28">
-        <v>0.19202193966591885</v>
+        <v>1.8168539229134306E-2</v>
       </c>
       <c r="J30" s="28">
-        <v>0.19202193966591885</v>
+        <v>2.2756389456554449E-2</v>
       </c>
       <c r="K30" s="28">
-        <v>0.19202193966591885</v>
+        <v>2.7301563370819792E-2</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D31" s="12">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="E31" s="17">
-        <v>7140</v>
+        <v>12760</v>
       </c>
       <c r="F31" s="9" t="s">
         <v>149</v>
@@ -17959,33 +17962,33 @@
         <v>3</v>
       </c>
       <c r="H31" s="26" t="s">
-        <v>391</v>
+        <v>463</v>
       </c>
       <c r="I31" s="27">
-        <v>6.7188429676415348E-2</v>
+        <v>3.1775252121018109E-2</v>
       </c>
       <c r="J31" s="11">
-        <v>9.1309023364942912E-2</v>
+        <v>7.772686245920965E-2</v>
       </c>
       <c r="K31" s="19">
-        <v>0.15580733168924329</v>
+        <v>0.17564667785103982</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D32" s="12">
-        <v>0.18</v>
+        <v>0.125</v>
       </c>
       <c r="E32" s="17">
-        <v>12760</v>
+        <v>25810</v>
       </c>
       <c r="F32" s="9" t="s">
         <v>147</v>
@@ -17994,33 +17997,33 @@
         <v>2</v>
       </c>
       <c r="H32" s="26" t="s">
-        <v>461</v>
+        <v>401</v>
       </c>
       <c r="I32" s="27">
-        <v>1.6809297372358156E-2</v>
+        <v>4.8344233109427266E-2</v>
       </c>
       <c r="J32" s="11">
-        <v>2.0272821958307954E-2</v>
+        <v>8.6234487783855562E-2</v>
       </c>
       <c r="K32" s="19">
-        <v>3.6586217626019921E-2</v>
+        <v>0.12970791343789456</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D33" s="12">
-        <v>0.18</v>
+        <v>0.125</v>
       </c>
       <c r="E33" s="17">
-        <v>12760</v>
+        <v>25810</v>
       </c>
       <c r="F33" s="9" t="s">
         <v>148</v>
@@ -18029,33 +18032,33 @@
         <v>1</v>
       </c>
       <c r="H33" s="26" t="s">
-        <v>462</v>
+        <v>402</v>
       </c>
       <c r="I33" s="28">
-        <v>1.8168539229134306E-2</v>
+        <v>3.5779246382678487E-2</v>
       </c>
       <c r="J33" s="28">
-        <v>2.2756389456554449E-2</v>
+        <v>7.0742200172899117E-2</v>
       </c>
       <c r="K33" s="28">
-        <v>2.7301563370819792E-2</v>
+        <v>0.12729879640849695</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D34" s="12">
-        <v>0.18</v>
+        <v>0.125</v>
       </c>
       <c r="E34" s="17">
-        <v>12760</v>
+        <v>25810</v>
       </c>
       <c r="F34" s="9" t="s">
         <v>149</v>
@@ -18064,33 +18067,33 @@
         <v>3</v>
       </c>
       <c r="H34" s="26" t="s">
-        <v>463</v>
+        <v>403</v>
       </c>
       <c r="I34" s="27">
-        <v>3.1775252121018109E-2</v>
+        <v>2.8005282759043553E-2</v>
       </c>
       <c r="J34" s="11">
-        <v>7.772686245920965E-2</v>
+        <v>4.0200882590132193E-2</v>
       </c>
       <c r="K34" s="19">
-        <v>0.17564667785103982</v>
+        <v>9.0671164212833166E-2</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>183</v>
+        <v>276</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D35" s="12">
-        <v>0.125</v>
+        <v>0.19</v>
       </c>
       <c r="E35" s="17">
-        <v>25810</v>
+        <v>18150</v>
       </c>
       <c r="F35" s="9" t="s">
         <v>147</v>
@@ -18099,33 +18102,33 @@
         <v>2</v>
       </c>
       <c r="H35" s="26" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="I35" s="27">
-        <v>4.8344233109427266E-2</v>
+        <v>3.7279830791824161E-3</v>
       </c>
       <c r="J35" s="11">
-        <v>8.6234487783855562E-2</v>
+        <v>1.6721456670642645E-2</v>
       </c>
       <c r="K35" s="19">
-        <v>0.12970791343789456</v>
+        <v>3.930959600035959E-2</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>183</v>
+        <v>276</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D36" s="12">
-        <v>0.125</v>
+        <v>0.19</v>
       </c>
       <c r="E36" s="17">
-        <v>25810</v>
+        <v>18150</v>
       </c>
       <c r="F36" s="9" t="s">
         <v>148</v>
@@ -18134,33 +18137,33 @@
         <v>1</v>
       </c>
       <c r="H36" s="26" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="I36" s="28">
-        <v>3.5779246382678487E-2</v>
+        <v>7.4837536597166299E-2</v>
       </c>
       <c r="J36" s="28">
-        <v>7.0742200172899117E-2</v>
+        <v>8.6819019923486507E-2</v>
       </c>
       <c r="K36" s="28">
-        <v>0.12729879640849695</v>
+        <v>0.14352603804991282</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>183</v>
+        <v>276</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D37" s="12">
-        <v>0.125</v>
+        <v>0.19</v>
       </c>
       <c r="E37" s="17">
-        <v>25810</v>
+        <v>18150</v>
       </c>
       <c r="F37" s="9" t="s">
         <v>149</v>
@@ -18169,33 +18172,33 @@
         <v>3</v>
       </c>
       <c r="H37" s="26" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="I37" s="27">
-        <v>2.8005282759043553E-2</v>
+        <v>2.2801474253079278E-2</v>
       </c>
       <c r="J37" s="11">
-        <v>4.0200882590132193E-2</v>
+        <v>2.7924927880839008E-2</v>
       </c>
       <c r="K37" s="19">
-        <v>9.0671164212833166E-2</v>
+        <v>3.8998773069942608E-2</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>276</v>
+        <v>184</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D38" s="12">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="E38" s="17">
-        <v>18150</v>
+        <v>60270</v>
       </c>
       <c r="F38" s="9" t="s">
         <v>147</v>
@@ -18204,33 +18207,33 @@
         <v>2</v>
       </c>
       <c r="H38" s="26" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="I38" s="27">
-        <v>3.7279830791824161E-3</v>
+        <v>4.4646002113420173E-2</v>
       </c>
       <c r="J38" s="11">
-        <v>1.6721456670642645E-2</v>
+        <v>4.6513049803313548E-2</v>
       </c>
       <c r="K38" s="19">
-        <v>3.930959600035959E-2</v>
+        <v>5.6454788821520357E-2</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>276</v>
+        <v>184</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D39" s="12">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="E39" s="17">
-        <v>18150</v>
+        <v>60270</v>
       </c>
       <c r="F39" s="9" t="s">
         <v>148</v>
@@ -18239,33 +18242,33 @@
         <v>1</v>
       </c>
       <c r="H39" s="26" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="I39" s="28">
-        <v>7.4837536597166299E-2</v>
+        <v>0.36507075587988846</v>
       </c>
       <c r="J39" s="28">
-        <v>8.6819019923486507E-2</v>
+        <v>0.36507075587988846</v>
       </c>
       <c r="K39" s="28">
-        <v>0.14352603804991282</v>
+        <v>0.36507075587988846</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>276</v>
+        <v>184</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D40" s="12">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="E40" s="17">
-        <v>18150</v>
+        <v>60270</v>
       </c>
       <c r="F40" s="9" t="s">
         <v>149</v>
@@ -18274,33 +18277,33 @@
         <v>3</v>
       </c>
       <c r="H40" s="26" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="I40" s="27">
-        <v>2.2801474253079278E-2</v>
+        <v>1.5461267740757033E-2</v>
       </c>
       <c r="J40" s="11">
-        <v>2.7924927880839008E-2</v>
+        <v>2.3809518426060015E-2</v>
       </c>
       <c r="K40" s="19">
-        <v>3.8998773069942608E-2</v>
+        <v>5.135572459960918E-2</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D41" s="12">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="E41" s="17">
-        <v>60270</v>
+        <v>18320</v>
       </c>
       <c r="F41" s="9" t="s">
         <v>147</v>
@@ -18309,33 +18312,33 @@
         <v>2</v>
       </c>
       <c r="H41" s="26" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="I41" s="27">
-        <v>4.4646002113420173E-2</v>
+        <v>3.00352401622433E-2</v>
       </c>
       <c r="J41" s="11">
-        <v>4.6513049803313548E-2</v>
+        <v>3.8749933264286412E-2</v>
       </c>
       <c r="K41" s="19">
-        <v>5.6454788821520357E-2</v>
+        <v>5.2153145625800673E-2</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D42" s="12">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="E42" s="17">
-        <v>60270</v>
+        <v>18320</v>
       </c>
       <c r="F42" s="9" t="s">
         <v>148</v>
@@ -18344,33 +18347,33 @@
         <v>1</v>
       </c>
       <c r="H42" s="26" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="I42" s="28">
-        <v>0.36507075587988846</v>
+        <v>4.9441767113255985E-2</v>
       </c>
       <c r="J42" s="28">
-        <v>0.36507075587988846</v>
+        <v>8.8123297681508062E-2</v>
       </c>
       <c r="K42" s="28">
-        <v>0.36507075587988846</v>
+        <v>0.12377975614413272</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D43" s="12">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="E43" s="17">
-        <v>60270</v>
+        <v>18320</v>
       </c>
       <c r="F43" s="9" t="s">
         <v>149</v>
@@ -18379,33 +18382,33 @@
         <v>3</v>
       </c>
       <c r="H43" s="26" t="s">
-        <v>412</v>
+        <v>430</v>
       </c>
       <c r="I43" s="27">
-        <v>1.5461267740757033E-2</v>
+        <v>0.13558370993750485</v>
       </c>
       <c r="J43" s="11">
-        <v>2.3809518426060015E-2</v>
+        <v>0.13966594784360642</v>
       </c>
       <c r="K43" s="19">
-        <v>5.135572459960918E-2</v>
+        <v>0.14374818574970799</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
-        <v>136</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>55</v>
+        <v>139</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="D44" s="12">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E44" s="17">
-        <v>18320</v>
+        <v>46560</v>
       </c>
       <c r="F44" s="9" t="s">
         <v>147</v>
@@ -18414,33 +18417,33 @@
         <v>2</v>
       </c>
       <c r="H44" s="26" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="I44" s="27">
-        <v>3.00352401622433E-2</v>
+        <v>1.3053323728168212E-2</v>
       </c>
       <c r="J44" s="11">
-        <v>3.8749933264286412E-2</v>
+        <v>3.8615179535260599E-2</v>
       </c>
       <c r="K44" s="19">
-        <v>5.2153145625800673E-2</v>
+        <v>7.2563296590786711E-2</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
-        <v>137</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>55</v>
+        <v>140</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="D45" s="12">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E45" s="17">
-        <v>18320</v>
+        <v>46560</v>
       </c>
       <c r="F45" s="9" t="s">
         <v>148</v>
@@ -18449,33 +18452,33 @@
         <v>1</v>
       </c>
       <c r="H45" s="26" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="I45" s="28">
-        <v>4.9441767113255985E-2</v>
+        <v>2.6296680030901909E-2</v>
       </c>
       <c r="J45" s="28">
-        <v>8.8123297681508062E-2</v>
+        <v>3.4471669136735383E-2</v>
       </c>
       <c r="K45" s="28">
-        <v>0.12377975614413272</v>
+        <v>7.1639097757073888E-2</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
-        <v>138</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>55</v>
+        <v>141</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="D46" s="12">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E46" s="17">
-        <v>18320</v>
+        <v>46560</v>
       </c>
       <c r="F46" s="9" t="s">
         <v>149</v>
@@ -18484,33 +18487,33 @@
         <v>3</v>
       </c>
       <c r="H46" s="26" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="I46" s="27">
-        <v>0.13558370993750485</v>
+        <v>4.031345682438018E-2</v>
       </c>
       <c r="J46" s="11">
-        <v>0.13966594784360642</v>
+        <v>8.7956541840036984E-2</v>
       </c>
       <c r="K46" s="19">
-        <v>0.14374818574970799</v>
+        <v>0.16854819678602634</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D47" s="12">
-        <v>0.2</v>
+        <v>57</v>
+      </c>
+      <c r="D47" s="14">
+        <v>0.33</v>
       </c>
       <c r="E47" s="17">
-        <v>46560</v>
+        <v>40710</v>
       </c>
       <c r="F47" s="9" t="s">
         <v>147</v>
@@ -18519,33 +18522,33 @@
         <v>2</v>
       </c>
       <c r="H47" s="26" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="I47" s="27">
-        <v>1.3053323728168212E-2</v>
+        <v>5.0971334634377701E-3</v>
       </c>
       <c r="J47" s="11">
-        <v>3.8615179535260599E-2</v>
+        <v>1.3283074716208843E-2</v>
       </c>
       <c r="K47" s="19">
-        <v>7.2563296590786711E-2</v>
+        <v>2.9687453061613304E-2</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D48" s="12">
-        <v>0.2</v>
+        <v>57</v>
+      </c>
+      <c r="D48" s="14">
+        <v>0.33</v>
       </c>
       <c r="E48" s="17">
-        <v>46560</v>
+        <v>40710</v>
       </c>
       <c r="F48" s="9" t="s">
         <v>148</v>
@@ -18554,33 +18557,33 @@
         <v>1</v>
       </c>
       <c r="H48" s="26" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="I48" s="28">
-        <v>2.6296680030901909E-2</v>
+        <v>3.5081069252601016E-2</v>
       </c>
       <c r="J48" s="28">
-        <v>3.4471669136735383E-2</v>
+        <v>4.8679096490733875E-2</v>
       </c>
       <c r="K48" s="28">
-        <v>7.1639097757073888E-2</v>
+        <v>0.12721524944936957</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D49" s="12">
-        <v>0.2</v>
+        <v>57</v>
+      </c>
+      <c r="D49" s="14">
+        <v>0.33</v>
       </c>
       <c r="E49" s="17">
-        <v>46560</v>
+        <v>40710</v>
       </c>
       <c r="F49" s="9" t="s">
         <v>149</v>
@@ -18589,33 +18592,33 @@
         <v>3</v>
       </c>
       <c r="H49" s="26" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="I49" s="27">
-        <v>4.031345682438018E-2</v>
+        <v>2.0560927156150488E-2</v>
       </c>
       <c r="J49" s="11">
-        <v>8.7956541840036984E-2</v>
+        <v>5.2509447644274142E-2</v>
       </c>
       <c r="K49" s="19">
-        <v>0.16854819678602634</v>
+        <v>9.8384522634575783E-2</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D50" s="14">
-        <v>0.33</v>
+        <v>0.29649999999999999</v>
       </c>
       <c r="E50" s="17">
-        <v>40710</v>
+        <v>45790</v>
       </c>
       <c r="F50" s="9" t="s">
         <v>147</v>
@@ -18624,33 +18627,33 @@
         <v>2</v>
       </c>
       <c r="H50" s="26" t="s">
-        <v>434</v>
+        <v>407</v>
       </c>
       <c r="I50" s="27">
-        <v>5.0971334634377701E-3</v>
+        <v>1.0814862419007986E-2</v>
       </c>
       <c r="J50" s="11">
-        <v>1.3283074716208843E-2</v>
+        <v>2.1326458588648865E-2</v>
       </c>
       <c r="K50" s="19">
-        <v>2.9687453061613304E-2</v>
+        <v>4.7382013074403595E-2</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D51" s="14">
-        <v>0.33</v>
+        <v>0.29649999999999999</v>
       </c>
       <c r="E51" s="17">
-        <v>40710</v>
+        <v>45790</v>
       </c>
       <c r="F51" s="9" t="s">
         <v>148</v>
@@ -18659,33 +18662,33 @@
         <v>1</v>
       </c>
       <c r="H51" s="26" t="s">
-        <v>435</v>
+        <v>408</v>
       </c>
       <c r="I51" s="28">
-        <v>3.5081069252601016E-2</v>
+        <v>6.1032091494648388E-2</v>
       </c>
       <c r="J51" s="28">
-        <v>4.8679096490733875E-2</v>
+        <v>7.7211238168743868E-2</v>
       </c>
       <c r="K51" s="28">
-        <v>0.12721524944936957</v>
+        <v>0.1134197260290305</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D52" s="14">
-        <v>0.33</v>
+        <v>0.29649999999999999</v>
       </c>
       <c r="E52" s="17">
-        <v>40710</v>
+        <v>45790</v>
       </c>
       <c r="F52" s="9" t="s">
         <v>149</v>
@@ -18694,33 +18697,33 @@
         <v>3</v>
       </c>
       <c r="H52" s="26" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
       <c r="I52" s="27">
-        <v>2.0560927156150488E-2</v>
+        <v>3.0613042303682315E-2</v>
       </c>
       <c r="J52" s="11">
-        <v>5.2509447644274142E-2</v>
+        <v>5.2233242520439038E-2</v>
       </c>
       <c r="K52" s="19">
-        <v>9.8384522634575783E-2</v>
+        <v>0.10278884219992371</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D53" s="14">
-        <v>0.29649999999999999</v>
+        <v>62</v>
+      </c>
+      <c r="D53" s="12">
+        <v>0.28999999999999998</v>
       </c>
       <c r="E53" s="17">
-        <v>45790</v>
+        <v>20270</v>
       </c>
       <c r="F53" s="9" t="s">
         <v>147</v>
@@ -18729,33 +18732,33 @@
         <v>2</v>
       </c>
       <c r="H53" s="26" t="s">
-        <v>407</v>
+        <v>449</v>
       </c>
       <c r="I53" s="27">
-        <v>1.0814862419007986E-2</v>
+        <v>2.8133418218389633E-2</v>
       </c>
       <c r="J53" s="11">
-        <v>2.1326458588648865E-2</v>
+        <v>4.260014009712218E-2</v>
       </c>
       <c r="K53" s="19">
-        <v>4.7382013074403595E-2</v>
+        <v>6.5631129659066201E-2</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D54" s="14">
-        <v>0.29649999999999999</v>
+        <v>62</v>
+      </c>
+      <c r="D54" s="12">
+        <v>0.28999999999999998</v>
       </c>
       <c r="E54" s="17">
-        <v>45790</v>
+        <v>20270</v>
       </c>
       <c r="F54" s="9" t="s">
         <v>148</v>
@@ -18764,33 +18767,33 @@
         <v>1</v>
       </c>
       <c r="H54" s="26" t="s">
-        <v>408</v>
+        <v>450</v>
       </c>
       <c r="I54" s="28">
-        <v>6.1032091494648388E-2</v>
+        <v>2.7769653919832438E-2</v>
       </c>
       <c r="J54" s="28">
-        <v>7.7211238168743868E-2</v>
+        <v>3.257168723307946E-2</v>
       </c>
       <c r="K54" s="28">
-        <v>0.1134197260290305</v>
+        <v>5.6461358022497521E-2</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D55" s="14">
-        <v>0.29649999999999999</v>
+        <v>62</v>
+      </c>
+      <c r="D55" s="12">
+        <v>0.28999999999999998</v>
       </c>
       <c r="E55" s="17">
-        <v>45790</v>
+        <v>20270</v>
       </c>
       <c r="F55" s="9" t="s">
         <v>149</v>
@@ -18799,33 +18802,33 @@
         <v>3</v>
       </c>
       <c r="H55" s="26" t="s">
-        <v>409</v>
+        <v>451</v>
       </c>
       <c r="I55" s="27">
-        <v>3.0613042303682315E-2</v>
+        <v>4.5006143104442863E-2</v>
       </c>
       <c r="J55" s="11">
-        <v>5.2233242520439038E-2</v>
+        <v>9.7925836576667369E-2</v>
       </c>
       <c r="K55" s="19">
-        <v>0.10278884219992371</v>
+        <v>0.20175355972940359</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
-        <v>157</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D56" s="12">
-        <v>0.28999999999999998</v>
+        <v>166</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D56" s="14">
+        <v>0.16500000000000001</v>
       </c>
       <c r="E56" s="17">
-        <v>20270</v>
+        <v>41000</v>
       </c>
       <c r="F56" s="9" t="s">
         <v>147</v>
@@ -18834,33 +18837,33 @@
         <v>2</v>
       </c>
       <c r="H56" s="26" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="I56" s="27">
-        <v>2.8133418218389633E-2</v>
+        <v>5.7520459967725431E-2</v>
       </c>
       <c r="J56" s="11">
-        <v>4.260014009712218E-2</v>
+        <v>7.6087438797947271E-2</v>
       </c>
       <c r="K56" s="19">
-        <v>6.5631129659066201E-2</v>
+        <v>9.4654417628169091E-2</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
-        <v>158</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D57" s="12">
-        <v>0.28999999999999998</v>
+        <v>167</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D57" s="14">
+        <v>0.16500000000000001</v>
       </c>
       <c r="E57" s="17">
-        <v>20270</v>
+        <v>41000</v>
       </c>
       <c r="F57" s="9" t="s">
         <v>148</v>
@@ -18869,33 +18872,33 @@
         <v>1</v>
       </c>
       <c r="H57" s="26" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="I57" s="28">
-        <v>2.7769653919832438E-2</v>
+        <v>4.7323983048210394E-2</v>
       </c>
       <c r="J57" s="28">
-        <v>3.257168723307946E-2</v>
+        <v>6.4099704156788007E-2</v>
       </c>
       <c r="K57" s="28">
-        <v>5.6461358022497521E-2</v>
+        <v>0.12530656429569331</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
-        <v>159</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D58" s="12">
-        <v>0.28999999999999998</v>
+        <v>168</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D58" s="14">
+        <v>0.16500000000000001</v>
       </c>
       <c r="E58" s="17">
-        <v>20270</v>
+        <v>41000</v>
       </c>
       <c r="F58" s="9" t="s">
         <v>149</v>
@@ -18904,33 +18907,33 @@
         <v>3</v>
       </c>
       <c r="H58" s="26" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="I58" s="27">
-        <v>4.5006143104442863E-2</v>
+        <v>0.16522583097604318</v>
       </c>
       <c r="J58" s="11">
-        <v>9.7925836576667369E-2</v>
+        <v>0.30382260675976547</v>
       </c>
       <c r="K58" s="19">
-        <v>0.20175355972940359</v>
+        <v>0.33933079029307395</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
-        <v>166</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D59" s="14">
-        <v>0.16500000000000001</v>
+        <v>169</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D59" s="12">
+        <v>0.09</v>
       </c>
       <c r="E59" s="17">
-        <v>41000</v>
+        <v>12970</v>
       </c>
       <c r="F59" s="9" t="s">
         <v>147</v>
@@ -18939,33 +18942,33 @@
         <v>2</v>
       </c>
       <c r="H59" s="26" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="I59" s="27">
-        <v>5.7520459967725431E-2</v>
+        <v>2.8908554313976806E-2</v>
       </c>
       <c r="J59" s="11">
-        <v>7.6087438797947271E-2</v>
+        <v>2.8908554313976806E-2</v>
       </c>
       <c r="K59" s="19">
-        <v>9.4654417628169091E-2</v>
+        <v>2.8908554313976806E-2</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
-        <v>167</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D60" s="14">
-        <v>0.16500000000000001</v>
+        <v>170</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D60" s="12">
+        <v>0.09</v>
       </c>
       <c r="E60" s="17">
-        <v>41000</v>
+        <v>12970</v>
       </c>
       <c r="F60" s="9" t="s">
         <v>148</v>
@@ -18974,33 +18977,33 @@
         <v>1</v>
       </c>
       <c r="H60" s="26" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="I60" s="28">
-        <v>4.7323983048210394E-2</v>
+        <v>4.1407442863456434E-2</v>
       </c>
       <c r="J60" s="28">
-        <v>6.4099704156788007E-2</v>
+        <v>4.1407442863456434E-2</v>
       </c>
       <c r="K60" s="28">
-        <v>0.12530656429569331</v>
+        <v>4.1407442863456434E-2</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
-        <v>168</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D61" s="14">
-        <v>0.16500000000000001</v>
+        <v>171</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D61" s="12">
+        <v>0.09</v>
       </c>
       <c r="E61" s="17">
-        <v>41000</v>
+        <v>12970</v>
       </c>
       <c r="F61" s="9" t="s">
         <v>149</v>
@@ -19009,33 +19012,33 @@
         <v>3</v>
       </c>
       <c r="H61" s="26" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="I61" s="27">
-        <v>0.16522583097604318</v>
+        <v>3.1775252121018109E-2</v>
       </c>
       <c r="J61" s="11">
-        <v>0.30382260675976547</v>
+        <v>7.772686245920965E-2</v>
       </c>
       <c r="K61" s="19">
-        <v>0.33933079029307395</v>
+        <v>0.17564667785103982</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
-        <v>169</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>66</v>
+        <v>172</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="D62" s="12">
-        <v>0.09</v>
+        <v>0.2</v>
       </c>
       <c r="E62" s="17">
-        <v>12970</v>
+        <v>50110</v>
       </c>
       <c r="F62" s="9" t="s">
         <v>147</v>
@@ -19044,33 +19047,33 @@
         <v>2</v>
       </c>
       <c r="H62" s="26" t="s">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="I62" s="27">
-        <v>2.8908554313976806E-2</v>
+        <v>2.5368162847767085E-2</v>
       </c>
       <c r="J62" s="11">
-        <v>2.8908554313976806E-2</v>
+        <v>6.2486118309024938E-2</v>
       </c>
       <c r="K62" s="19">
-        <v>2.8908554313976806E-2</v>
+        <v>8.8556619310681109E-2</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
-        <v>170</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>66</v>
+        <v>173</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="D63" s="12">
-        <v>0.09</v>
+        <v>0.2</v>
       </c>
       <c r="E63" s="17">
-        <v>12970</v>
+        <v>50110</v>
       </c>
       <c r="F63" s="9" t="s">
         <v>148</v>
@@ -19079,33 +19082,33 @@
         <v>1</v>
       </c>
       <c r="H63" s="26" t="s">
-        <v>465</v>
+        <v>483</v>
       </c>
       <c r="I63" s="28">
-        <v>4.1407442863456434E-2</v>
+        <v>9.7425961581713794E-2</v>
       </c>
       <c r="J63" s="28">
-        <v>4.1407442863456434E-2</v>
+        <v>9.7425961581713794E-2</v>
       </c>
       <c r="K63" s="28">
-        <v>4.1407442863456434E-2</v>
+        <v>9.7425961581713794E-2</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
-        <v>171</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>66</v>
+        <v>174</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="D64" s="12">
-        <v>0.09</v>
+        <v>0.2</v>
       </c>
       <c r="E64" s="17">
-        <v>12970</v>
+        <v>50110</v>
       </c>
       <c r="F64" s="9" t="s">
         <v>149</v>
@@ -19114,33 +19117,33 @@
         <v>3</v>
       </c>
       <c r="H64" s="26" t="s">
-        <v>466</v>
+        <v>484</v>
       </c>
       <c r="I64" s="27">
-        <v>3.1775252121018109E-2</v>
+        <v>4.0509547144845739E-2</v>
       </c>
       <c r="J64" s="11">
-        <v>7.772686245920965E-2</v>
+        <v>4.6843465452250974E-2</v>
       </c>
       <c r="K64" s="19">
-        <v>0.17564667785103982</v>
+        <v>5.3177383759656201E-2</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
-        <v>172</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>67</v>
+        <v>175</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="D65" s="12">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E65" s="17">
-        <v>50110</v>
+        <v>1590</v>
       </c>
       <c r="F65" s="9" t="s">
         <v>147</v>
@@ -19149,33 +19152,33 @@
         <v>2</v>
       </c>
       <c r="H65" s="26" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="I65" s="27">
-        <v>2.5368162847767085E-2</v>
+        <v>1.6648964087560718E-2</v>
       </c>
       <c r="J65" s="11">
-        <v>6.2486118309024938E-2</v>
+        <v>4.6153182111543338E-2</v>
       </c>
       <c r="K65" s="19">
-        <v>8.8556619310681109E-2</v>
+        <v>0.10381519824209764</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
-        <v>173</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>67</v>
+        <v>176</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="D66" s="12">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E66" s="17">
-        <v>50110</v>
+        <v>1590</v>
       </c>
       <c r="F66" s="9" t="s">
         <v>148</v>
@@ -19184,33 +19187,33 @@
         <v>1</v>
       </c>
       <c r="H66" s="26" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="I66" s="28">
-        <v>9.7425961581713794E-2</v>
+        <v>2.2554960513168409E-2</v>
       </c>
       <c r="J66" s="28">
-        <v>9.7425961581713794E-2</v>
+        <v>5.0632069021310677E-2</v>
       </c>
       <c r="K66" s="28">
-        <v>9.7425961581713794E-2</v>
+        <v>8.1669219811006721E-2</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="6">
-        <v>174</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>67</v>
+        <v>177</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="D67" s="12">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E67" s="17">
-        <v>50110</v>
+        <v>1590</v>
       </c>
       <c r="F67" s="9" t="s">
         <v>149</v>
@@ -19219,33 +19222,33 @@
         <v>3</v>
       </c>
       <c r="H67" s="26" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="I67" s="27">
-        <v>4.0509547144845739E-2</v>
+        <v>3.8948449888822879E-2</v>
       </c>
       <c r="J67" s="11">
-        <v>4.6843465452250974E-2</v>
+        <v>9.3668504847941245E-2</v>
       </c>
       <c r="K67" s="19">
-        <v>5.3177383759656201E-2</v>
+        <v>0.16334171554231772</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D68" s="12">
-        <v>0.3</v>
+        <v>71</v>
+      </c>
+      <c r="D68" s="14">
+        <v>0.125</v>
       </c>
       <c r="E68" s="17">
-        <v>1590</v>
+        <v>52550</v>
       </c>
       <c r="F68" s="9" t="s">
         <v>147</v>
@@ -19254,33 +19257,33 @@
         <v>2</v>
       </c>
       <c r="H68" s="26" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="I68" s="27">
-        <v>1.6648964087560718E-2</v>
+        <v>7.7882751612873193E-3</v>
       </c>
       <c r="J68" s="11">
-        <v>4.6153182111543338E-2</v>
+        <v>1.7900885441206306E-2</v>
       </c>
       <c r="K68" s="19">
-        <v>0.10381519824209764</v>
+        <v>4.7340210689394438E-2</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D69" s="12">
-        <v>0.3</v>
+        <v>71</v>
+      </c>
+      <c r="D69" s="14">
+        <v>0.125</v>
       </c>
       <c r="E69" s="17">
-        <v>1590</v>
+        <v>52550</v>
       </c>
       <c r="F69" s="9" t="s">
         <v>148</v>
@@ -19289,33 +19292,33 @@
         <v>1</v>
       </c>
       <c r="H69" s="26" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="I69" s="28">
-        <v>2.2554960513168409E-2</v>
+        <v>4.0470240220329634E-2</v>
       </c>
       <c r="J69" s="28">
-        <v>5.0632069021310677E-2</v>
+        <v>0.11409327999189756</v>
       </c>
       <c r="K69" s="28">
-        <v>8.1669219811006721E-2</v>
+        <v>0.11644915574177028</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D70" s="12">
-        <v>0.3</v>
+        <v>71</v>
+      </c>
+      <c r="D70" s="14">
+        <v>0.125</v>
       </c>
       <c r="E70" s="17">
-        <v>1590</v>
+        <v>52550</v>
       </c>
       <c r="F70" s="9" t="s">
         <v>149</v>
@@ -19324,33 +19327,33 @@
         <v>3</v>
       </c>
       <c r="H70" s="26" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="I70" s="27">
-        <v>3.8948449888822879E-2</v>
+        <v>2.3137934660649853E-2</v>
       </c>
       <c r="J70" s="11">
-        <v>9.3668504847941245E-2</v>
+        <v>6.8461195512022288E-2</v>
       </c>
       <c r="K70" s="19">
-        <v>0.16334171554231772</v>
+        <v>0.14395284553684834</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D71" s="14">
-        <v>0.125</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="E71" s="17">
-        <v>52550</v>
+        <v>32830</v>
       </c>
       <c r="F71" s="9" t="s">
         <v>147</v>
@@ -19359,33 +19362,33 @@
         <v>2</v>
       </c>
       <c r="H71" s="26" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="I71" s="27">
-        <v>7.7882751612873193E-3</v>
+        <v>9.5958740467727392E-3</v>
       </c>
       <c r="J71" s="11">
-        <v>1.7900885441206306E-2</v>
+        <v>2.000235955350866E-2</v>
       </c>
       <c r="K71" s="19">
-        <v>4.7340210689394438E-2</v>
+        <v>4.0666996611319353E-2</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D72" s="14">
-        <v>0.125</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="E72" s="17">
-        <v>52550</v>
+        <v>32830</v>
       </c>
       <c r="F72" s="9" t="s">
         <v>148</v>
@@ -19394,33 +19397,33 @@
         <v>1</v>
       </c>
       <c r="H72" s="26" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="I72" s="28">
-        <v>4.0470240220329634E-2</v>
+        <v>3.8203171867956298E-2</v>
       </c>
       <c r="J72" s="28">
-        <v>0.11409327999189756</v>
+        <v>5.8379677828963694E-2</v>
       </c>
       <c r="K72" s="28">
-        <v>0.11644915574177028</v>
+        <v>9.7698147395767987E-2</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D73" s="14">
-        <v>0.125</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="E73" s="17">
-        <v>52550</v>
+        <v>32830</v>
       </c>
       <c r="F73" s="9" t="s">
         <v>149</v>
@@ -19429,33 +19432,33 @@
         <v>3</v>
       </c>
       <c r="H73" s="26" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="I73" s="27">
-        <v>2.3137934660649853E-2</v>
+        <v>2.191384689688711E-2</v>
       </c>
       <c r="J73" s="11">
-        <v>6.8461195512022288E-2</v>
+        <v>4.8206183032513075E-2</v>
       </c>
       <c r="K73" s="19">
-        <v>0.14395284553684834</v>
+        <v>9.9721619084336896E-2</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
-        <v>193</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D74" s="14">
-        <v>0.27900000000000003</v>
+        <v>199</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D74" s="12">
+        <v>0.3211</v>
       </c>
       <c r="E74" s="17">
-        <v>32830</v>
+        <v>38840</v>
       </c>
       <c r="F74" s="9" t="s">
         <v>147</v>
@@ -19464,33 +19467,33 @@
         <v>2</v>
       </c>
       <c r="H74" s="26" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="I74" s="27">
-        <v>9.5958740467727392E-3</v>
+        <v>8.7510478906557589E-3</v>
       </c>
       <c r="J74" s="11">
-        <v>2.000235955350866E-2</v>
+        <v>2.0049811821154E-2</v>
       </c>
       <c r="K74" s="19">
-        <v>4.0666996611319353E-2</v>
+        <v>3.8815877210723021E-2</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
-        <v>194</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D75" s="14">
-        <v>0.27900000000000003</v>
+        <v>200</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D75" s="12">
+        <v>0.3211</v>
       </c>
       <c r="E75" s="17">
-        <v>32830</v>
+        <v>38840</v>
       </c>
       <c r="F75" s="9" t="s">
         <v>148</v>
@@ -19499,33 +19502,33 @@
         <v>1</v>
       </c>
       <c r="H75" s="26" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="I75" s="28">
-        <v>3.8203171867956298E-2</v>
+        <v>3.1387325612266537E-2</v>
       </c>
       <c r="J75" s="28">
-        <v>5.8379677828963694E-2</v>
+        <v>5.4973879909040457E-2</v>
       </c>
       <c r="K75" s="28">
-        <v>9.7698147395767987E-2</v>
+        <v>9.322110427463326E-2</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
-        <v>195</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D76" s="14">
-        <v>0.27900000000000003</v>
+        <v>201</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D76" s="12">
+        <v>0.3211</v>
       </c>
       <c r="E76" s="17">
-        <v>32830</v>
+        <v>38840</v>
       </c>
       <c r="F76" s="9" t="s">
         <v>149</v>
@@ -19534,33 +19537,33 @@
         <v>3</v>
       </c>
       <c r="H76" s="26" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="I76" s="27">
-        <v>2.191384689688711E-2</v>
+        <v>3.715183410727544E-2</v>
       </c>
       <c r="J76" s="11">
-        <v>4.8206183032513075E-2</v>
+        <v>7.5054020508966923E-2</v>
       </c>
       <c r="K76" s="19">
-        <v>9.9721619084336896E-2</v>
+        <v>0.14058399588180168</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="6">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D77" s="12">
-        <v>0.3211</v>
+        <v>0.15</v>
       </c>
       <c r="E77" s="17">
-        <v>38840</v>
+        <v>14990</v>
       </c>
       <c r="F77" s="9" t="s">
         <v>147</v>
@@ -19569,33 +19572,33 @@
         <v>2</v>
       </c>
       <c r="H77" s="26" t="s">
-        <v>497</v>
+        <v>527</v>
       </c>
       <c r="I77" s="27">
-        <v>8.7510478906557589E-3</v>
+        <v>9.8915836962393134E-3</v>
       </c>
       <c r="J77" s="11">
-        <v>2.0049811821154E-2</v>
+        <v>2.6740901162528259E-2</v>
       </c>
       <c r="K77" s="19">
-        <v>3.8815877210723021E-2</v>
+        <v>6.4025818074001817E-2</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D78" s="12">
-        <v>0.3211</v>
+        <v>0.15</v>
       </c>
       <c r="E78" s="17">
-        <v>38840</v>
+        <v>14990</v>
       </c>
       <c r="F78" s="9" t="s">
         <v>148</v>
@@ -19604,33 +19607,33 @@
         <v>1</v>
       </c>
       <c r="H78" s="26" t="s">
-        <v>498</v>
+        <v>528</v>
       </c>
       <c r="I78" s="28">
-        <v>3.1387325612266537E-2</v>
+        <v>6.9711781497467484E-2</v>
       </c>
       <c r="J78" s="28">
-        <v>5.4973879909040457E-2</v>
+        <v>7.1834185122089944E-2</v>
       </c>
       <c r="K78" s="28">
-        <v>9.322110427463326E-2</v>
+        <v>0.24355106966946061</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="6">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D79" s="12">
-        <v>0.3211</v>
+        <v>0.15</v>
       </c>
       <c r="E79" s="17">
-        <v>38840</v>
+        <v>14990</v>
       </c>
       <c r="F79" s="9" t="s">
         <v>149</v>
@@ -19639,33 +19642,33 @@
         <v>3</v>
       </c>
       <c r="H79" s="26" t="s">
-        <v>499</v>
+        <v>529</v>
       </c>
       <c r="I79" s="27">
-        <v>3.715183410727544E-2</v>
+        <v>0.42909790469922893</v>
       </c>
       <c r="J79" s="11">
-        <v>7.5054020508966923E-2</v>
+        <v>0.44635496240933875</v>
       </c>
       <c r="K79" s="19">
-        <v>0.14058399588180168</v>
+        <v>0.46361202011944858</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="6">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D80" s="12">
         <v>0.15</v>
       </c>
       <c r="E80" s="17">
-        <v>14990</v>
+        <v>7710</v>
       </c>
       <c r="F80" s="9" t="s">
         <v>147</v>
@@ -19674,33 +19677,33 @@
         <v>2</v>
       </c>
       <c r="H80" s="26" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="I80" s="27">
-        <v>9.8915836962393134E-3</v>
+        <v>0.1162049256912388</v>
       </c>
       <c r="J80" s="11">
-        <v>2.6740901162528259E-2</v>
+        <v>0.1162049256912388</v>
       </c>
       <c r="K80" s="19">
-        <v>6.4025818074001817E-2</v>
+        <v>0.1162049256912388</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="6">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D81" s="12">
         <v>0.15</v>
       </c>
       <c r="E81" s="17">
-        <v>14990</v>
+        <v>7710</v>
       </c>
       <c r="F81" s="9" t="s">
         <v>148</v>
@@ -19709,33 +19712,33 @@
         <v>1</v>
       </c>
       <c r="H81" s="26" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="I81" s="28">
-        <v>6.9711781497467484E-2</v>
+        <v>3.5779246382678487E-2</v>
       </c>
       <c r="J81" s="28">
-        <v>7.1834185122089944E-2</v>
+        <v>7.0742200172899117E-2</v>
       </c>
       <c r="K81" s="28">
-        <v>0.24355106966946061</v>
+        <v>0.12729879640849695</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="6">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D82" s="12">
         <v>0.15</v>
       </c>
       <c r="E82" s="17">
-        <v>14990</v>
+        <v>7710</v>
       </c>
       <c r="F82" s="9" t="s">
         <v>149</v>
@@ -19744,33 +19747,33 @@
         <v>3</v>
       </c>
       <c r="H82" s="26" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="I82" s="27">
-        <v>0.42909790469922893</v>
+        <v>3.1775252121018109E-2</v>
       </c>
       <c r="J82" s="11">
-        <v>0.44635496240933875</v>
+        <v>7.772686245920965E-2</v>
       </c>
       <c r="K82" s="19">
-        <v>0.46361202011944858</v>
+        <v>0.17564667785103982</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="6">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D83" s="12">
-        <v>0.15</v>
+        <v>0.125</v>
       </c>
       <c r="E83" s="17">
-        <v>7710</v>
+        <v>115530</v>
       </c>
       <c r="F83" s="9" t="s">
         <v>147</v>
@@ -19779,33 +19782,33 @@
         <v>2</v>
       </c>
       <c r="H83" s="26" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="I83" s="27">
-        <v>0.1162049256912388</v>
+        <v>7.6776669196152352E-3</v>
       </c>
       <c r="J83" s="11">
-        <v>0.1162049256912388</v>
+        <v>2.9815233273297551E-2</v>
       </c>
       <c r="K83" s="19">
-        <v>0.1162049256912388</v>
+        <v>6.2950946325533164E-2</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="6">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D84" s="12">
-        <v>0.15</v>
+        <v>0.125</v>
       </c>
       <c r="E84" s="17">
-        <v>7710</v>
+        <v>115530</v>
       </c>
       <c r="F84" s="9" t="s">
         <v>148</v>
@@ -19814,7 +19817,7 @@
         <v>1</v>
       </c>
       <c r="H84" s="26" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I84" s="28">
         <v>3.5779246382678487E-2</v>
@@ -19828,19 +19831,19 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="6">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D85" s="12">
-        <v>0.15</v>
+        <v>0.125</v>
       </c>
       <c r="E85" s="17">
-        <v>7710</v>
+        <v>115530</v>
       </c>
       <c r="F85" s="9" t="s">
         <v>149</v>
@@ -19849,7 +19852,7 @@
         <v>3</v>
       </c>
       <c r="H85" s="26" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="I85" s="27">
         <v>3.1775252121018109E-2</v>
@@ -19863,19 +19866,19 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="6">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D86" s="12">
-        <v>0.125</v>
+        <v>84</v>
+      </c>
+      <c r="D86" s="14">
+        <v>0.33750000000000002</v>
       </c>
       <c r="E86" s="17">
-        <v>115530</v>
+        <v>15080</v>
       </c>
       <c r="F86" s="9" t="s">
         <v>147</v>
@@ -19884,33 +19887,33 @@
         <v>2</v>
       </c>
       <c r="H86" s="26" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="I86" s="27">
-        <v>7.6776669196152352E-3</v>
+        <v>3.9665411153435755E-3</v>
       </c>
       <c r="J86" s="11">
-        <v>2.9815233273297551E-2</v>
+        <v>7.5701622809655261E-3</v>
       </c>
       <c r="K86" s="19">
-        <v>6.2950946325533164E-2</v>
+        <v>3.8707634775383581E-2</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="6">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D87" s="12">
-        <v>0.125</v>
+        <v>84</v>
+      </c>
+      <c r="D87" s="14">
+        <v>0.33750000000000002</v>
       </c>
       <c r="E87" s="17">
-        <v>115530</v>
+        <v>15080</v>
       </c>
       <c r="F87" s="9" t="s">
         <v>148</v>
@@ -19919,33 +19922,33 @@
         <v>1</v>
       </c>
       <c r="H87" s="26" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="I87" s="28">
-        <v>3.5779246382678487E-2</v>
+        <v>6.9013913180798081E-2</v>
       </c>
       <c r="J87" s="28">
-        <v>7.0742200172899117E-2</v>
+        <v>6.9013913180798081E-2</v>
       </c>
       <c r="K87" s="28">
-        <v>0.12729879640849695</v>
+        <v>6.9013913180798081E-2</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="6">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D88" s="12">
-        <v>0.125</v>
+        <v>84</v>
+      </c>
+      <c r="D88" s="14">
+        <v>0.33750000000000002</v>
       </c>
       <c r="E88" s="17">
-        <v>115530</v>
+        <v>15080</v>
       </c>
       <c r="F88" s="9" t="s">
         <v>149</v>
@@ -19954,7 +19957,7 @@
         <v>3</v>
       </c>
       <c r="H88" s="26" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="I88" s="27">
         <v>3.1775252121018109E-2</v>
@@ -19968,19 +19971,19 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="6">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D89" s="14">
-        <v>0.33750000000000002</v>
+        <v>85</v>
+      </c>
+      <c r="D89" s="12">
+        <v>0.29220000000000002</v>
       </c>
       <c r="E89" s="17">
-        <v>15080</v>
+        <v>77480</v>
       </c>
       <c r="F89" s="9" t="s">
         <v>147</v>
@@ -19989,33 +19992,33 @@
         <v>2</v>
       </c>
       <c r="H89" s="26" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="I89" s="27">
-        <v>3.9665411153435755E-3</v>
+        <v>5.3715854059367796E-2</v>
       </c>
       <c r="J89" s="11">
-        <v>7.5701622809655261E-3</v>
+        <v>8.4134761751951961E-2</v>
       </c>
       <c r="K89" s="19">
-        <v>3.8707634775383581E-2</v>
+        <v>9.4654700017068882E-2</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="6">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D90" s="14">
-        <v>0.33750000000000002</v>
+        <v>85</v>
+      </c>
+      <c r="D90" s="12">
+        <v>0.29220000000000002</v>
       </c>
       <c r="E90" s="17">
-        <v>15080</v>
+        <v>77480</v>
       </c>
       <c r="F90" s="9" t="s">
         <v>148</v>
@@ -20024,33 +20027,33 @@
         <v>1</v>
       </c>
       <c r="H90" s="26" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="I90" s="28">
-        <v>6.9013913180798081E-2</v>
+        <v>3.5779246382678487E-2</v>
       </c>
       <c r="J90" s="28">
-        <v>6.9013913180798081E-2</v>
+        <v>7.0742200172899117E-2</v>
       </c>
       <c r="K90" s="28">
-        <v>6.9013913180798081E-2</v>
+        <v>0.12729879640849695</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="6">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D91" s="14">
-        <v>0.33750000000000002</v>
+        <v>85</v>
+      </c>
+      <c r="D91" s="12">
+        <v>0.29220000000000002</v>
       </c>
       <c r="E91" s="17">
-        <v>15080</v>
+        <v>77480</v>
       </c>
       <c r="F91" s="9" t="s">
         <v>149</v>
@@ -20059,33 +20062,33 @@
         <v>3</v>
       </c>
       <c r="H91" s="26" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="I91" s="27">
-        <v>3.1775252121018109E-2</v>
+        <v>3.5064142930234202E-2</v>
       </c>
       <c r="J91" s="11">
-        <v>7.772686245920965E-2</v>
+        <v>0.13925876692183392</v>
       </c>
       <c r="K91" s="19">
-        <v>0.17564667785103982</v>
+        <v>0.3474594985557658</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="6">
-        <v>226</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>85</v>
+        <v>241</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="D92" s="12">
-        <v>0.29220000000000002</v>
+        <v>0.35</v>
       </c>
       <c r="E92" s="17">
-        <v>77480</v>
+        <v>23900</v>
       </c>
       <c r="F92" s="9" t="s">
         <v>147</v>
@@ -20094,33 +20097,33 @@
         <v>2</v>
       </c>
       <c r="H92" s="26" t="s">
-        <v>524</v>
+        <v>551</v>
       </c>
       <c r="I92" s="27">
-        <v>5.3715854059367796E-2</v>
+        <v>3.8135454829697005E-2</v>
       </c>
       <c r="J92" s="11">
-        <v>8.4134761751951961E-2</v>
+        <v>4.8489571566328937E-2</v>
       </c>
       <c r="K92" s="19">
-        <v>9.4654700017068882E-2</v>
+        <v>0.35228264280530447</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="6">
-        <v>227</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>85</v>
+        <v>242</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="D93" s="12">
-        <v>0.29220000000000002</v>
+        <v>0.35</v>
       </c>
       <c r="E93" s="17">
-        <v>77480</v>
+        <v>23900</v>
       </c>
       <c r="F93" s="9" t="s">
         <v>148</v>
@@ -20129,7 +20132,7 @@
         <v>1</v>
       </c>
       <c r="H93" s="26" t="s">
-        <v>525</v>
+        <v>552</v>
       </c>
       <c r="I93" s="28">
         <v>3.5779246382678487E-2</v>
@@ -20143,19 +20146,19 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="6">
-        <v>228</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>85</v>
+        <v>243</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="D94" s="12">
-        <v>0.29220000000000002</v>
+        <v>0.35</v>
       </c>
       <c r="E94" s="17">
-        <v>77480</v>
+        <v>23900</v>
       </c>
       <c r="F94" s="9" t="s">
         <v>149</v>
@@ -20164,33 +20167,33 @@
         <v>3</v>
       </c>
       <c r="H94" s="26" t="s">
-        <v>526</v>
+        <v>553</v>
       </c>
       <c r="I94" s="27">
-        <v>3.5064142930234202E-2</v>
+        <v>3.1775252121018109E-2</v>
       </c>
       <c r="J94" s="11">
-        <v>0.13925876692183392</v>
+        <v>7.772686245920965E-2</v>
       </c>
       <c r="K94" s="19">
-        <v>0.3474594985557658</v>
+        <v>0.17564667785103982</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="6">
-        <v>241</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>90</v>
+        <v>247</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="D95" s="12">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="E95" s="17">
-        <v>23900</v>
+        <v>9710</v>
       </c>
       <c r="F95" s="9" t="s">
         <v>147</v>
@@ -20199,33 +20202,33 @@
         <v>2</v>
       </c>
       <c r="H95" s="26" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="I95" s="27">
-        <v>3.8135454829697005E-2</v>
+        <v>2.8078912030674818E-2</v>
       </c>
       <c r="J95" s="11">
-        <v>4.8489571566328937E-2</v>
+        <v>4.5260871527045554E-2</v>
       </c>
       <c r="K95" s="19">
-        <v>0.35228264280530447</v>
+        <v>8.8495380879176147E-2</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="6">
-        <v>242</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>90</v>
+        <v>248</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="D96" s="12">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="E96" s="17">
-        <v>23900</v>
+        <v>9710</v>
       </c>
       <c r="F96" s="9" t="s">
         <v>148</v>
@@ -20234,33 +20237,33 @@
         <v>1</v>
       </c>
       <c r="H96" s="26" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="I96" s="28">
-        <v>3.5779246382678487E-2</v>
+        <v>7.7644427422305373E-2</v>
       </c>
       <c r="J96" s="28">
-        <v>7.0742200172899117E-2</v>
+        <v>0.11113350441749081</v>
       </c>
       <c r="K96" s="28">
-        <v>0.12729879640849695</v>
+        <v>0.14227592753227736</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="6">
-        <v>243</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>90</v>
+        <v>249</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="D97" s="12">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="E97" s="17">
-        <v>23900</v>
+        <v>9710</v>
       </c>
       <c r="F97" s="9" t="s">
         <v>149</v>
@@ -20269,7 +20272,7 @@
         <v>3</v>
       </c>
       <c r="H97" s="26" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="I97" s="27">
         <v>3.1775252121018109E-2</v>
@@ -20283,19 +20286,19 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="6">
-        <v>247</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>92</v>
+        <v>253</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="D98" s="12">
-        <v>0.3</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="E98" s="17">
-        <v>9710</v>
+        <v>186710</v>
       </c>
       <c r="F98" s="9" t="s">
         <v>147</v>
@@ -20304,33 +20307,33 @@
         <v>2</v>
       </c>
       <c r="H98" s="26" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="I98" s="27">
-        <v>2.8078912030674818E-2</v>
+        <v>7.6776669196152352E-3</v>
       </c>
       <c r="J98" s="11">
-        <v>4.5260871527045554E-2</v>
+        <v>2.9815233273297551E-2</v>
       </c>
       <c r="K98" s="19">
-        <v>8.8495380879176147E-2</v>
+        <v>6.2950946325533164E-2</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="6">
-        <v>248</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>92</v>
+        <v>254</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="D99" s="12">
-        <v>0.3</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="E99" s="17">
-        <v>9710</v>
+        <v>186710</v>
       </c>
       <c r="F99" s="9" t="s">
         <v>148</v>
@@ -20339,33 +20342,33 @@
         <v>1</v>
       </c>
       <c r="H99" s="26" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="I99" s="28">
-        <v>7.7644427422305373E-2</v>
+        <v>3.5779246382678487E-2</v>
       </c>
       <c r="J99" s="28">
-        <v>0.11113350441749081</v>
+        <v>7.0742200172899117E-2</v>
       </c>
       <c r="K99" s="28">
-        <v>0.14227592753227736</v>
+        <v>0.12729879640849695</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="6">
-        <v>249</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>92</v>
+        <v>255</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="D100" s="12">
-        <v>0.3</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="E100" s="17">
-        <v>9710</v>
+        <v>186710</v>
       </c>
       <c r="F100" s="9" t="s">
         <v>149</v>
@@ -20374,7 +20377,7 @@
         <v>3</v>
       </c>
       <c r="H100" s="26" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="I100" s="27">
         <v>3.1775252121018109E-2</v>
@@ -20388,19 +20391,19 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="6">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D101" s="12">
-        <v>0.33329999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="E101" s="17">
-        <v>186710</v>
+        <v>48850</v>
       </c>
       <c r="F101" s="9" t="s">
         <v>147</v>
@@ -20409,33 +20412,33 @@
         <v>2</v>
       </c>
       <c r="H101" s="26" t="s">
-        <v>536</v>
+        <v>572</v>
       </c>
       <c r="I101" s="27">
-        <v>7.6776669196152352E-3</v>
+        <v>1.4854204674963914E-2</v>
       </c>
       <c r="J101" s="11">
-        <v>2.9815233273297551E-2</v>
+        <v>2.8292434686753326E-2</v>
       </c>
       <c r="K101" s="19">
-        <v>6.2950946325533164E-2</v>
+        <v>4.9064997448198477E-2</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="6">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D102" s="12">
-        <v>0.33329999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="E102" s="17">
-        <v>186710</v>
+        <v>48850</v>
       </c>
       <c r="F102" s="9" t="s">
         <v>148</v>
@@ -20444,33 +20447,33 @@
         <v>1</v>
       </c>
       <c r="H102" s="26" t="s">
-        <v>537</v>
+        <v>573</v>
       </c>
       <c r="I102" s="28">
-        <v>3.5779246382678487E-2</v>
+        <v>7.3763571539962935E-2</v>
       </c>
       <c r="J102" s="28">
-        <v>7.0742200172899117E-2</v>
+        <v>0.14352181693509269</v>
       </c>
       <c r="K102" s="28">
-        <v>0.12729879640849695</v>
+        <v>0.20024775224775238</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="6">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D103" s="12">
-        <v>0.33329999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="E103" s="17">
-        <v>186710</v>
+        <v>48850</v>
       </c>
       <c r="F103" s="9" t="s">
         <v>149</v>
@@ -20479,33 +20482,33 @@
         <v>3</v>
       </c>
       <c r="H103" s="26" t="s">
-        <v>538</v>
+        <v>574</v>
       </c>
       <c r="I103" s="27">
-        <v>3.1775252121018109E-2</v>
+        <v>2.8496261638880714E-2</v>
       </c>
       <c r="J103" s="11">
-        <v>7.772686245920965E-2</v>
+        <v>7.5505296048939477E-2</v>
       </c>
       <c r="K103" s="19">
-        <v>0.17564667785103982</v>
+        <v>0.16400338441205387</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="6">
-        <v>268</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>99</v>
+        <v>280</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="D104" s="12">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="E104" s="17">
-        <v>48850</v>
+        <v>93530</v>
       </c>
       <c r="F104" s="9" t="s">
         <v>147</v>
@@ -20514,33 +20517,33 @@
         <v>2</v>
       </c>
       <c r="H104" s="26" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="I104" s="27">
-        <v>1.4854204674963914E-2</v>
+        <v>1.7579857913197022E-2</v>
       </c>
       <c r="J104" s="11">
-        <v>2.8292434686753326E-2</v>
+        <v>3.9293250041589123E-2</v>
       </c>
       <c r="K104" s="19">
-        <v>4.9064997448198477E-2</v>
+        <v>6.6328782190571478E-2</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="6">
-        <v>269</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>99</v>
+        <v>281</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="D105" s="12">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="E105" s="17">
-        <v>48850</v>
+        <v>93530</v>
       </c>
       <c r="F105" s="9" t="s">
         <v>148</v>
@@ -20549,33 +20552,33 @@
         <v>1</v>
       </c>
       <c r="H105" s="26" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="I105" s="28">
-        <v>7.3763571539962935E-2</v>
+        <v>6.0627943923927341E-2</v>
       </c>
       <c r="J105" s="28">
-        <v>0.14352181693509269</v>
+        <v>7.2420523406124926E-2</v>
       </c>
       <c r="K105" s="28">
-        <v>0.20024775224775238</v>
+        <v>7.5371095342957273E-2</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="6">
-        <v>270</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>99</v>
+        <v>282</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="D106" s="12">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="E106" s="17">
-        <v>48850</v>
+        <v>93530</v>
       </c>
       <c r="F106" s="9" t="s">
         <v>149</v>
@@ -20584,33 +20587,33 @@
         <v>3</v>
       </c>
       <c r="H106" s="26" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="I106" s="27">
-        <v>2.8496261638880714E-2</v>
+        <v>4.0461697288407296E-2</v>
       </c>
       <c r="J106" s="11">
-        <v>7.5505296048939477E-2</v>
+        <v>0.13410341552652499</v>
       </c>
       <c r="K106" s="19">
-        <v>0.16400338441205387</v>
+        <v>0.264359717997388</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="6">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D107" s="12">
-        <v>0.24</v>
+        <v>0.19</v>
       </c>
       <c r="E107" s="17">
-        <v>93530</v>
+        <v>13310</v>
       </c>
       <c r="F107" s="9" t="s">
         <v>147</v>
@@ -20619,33 +20622,33 @@
         <v>2</v>
       </c>
       <c r="H107" s="26" t="s">
-        <v>575</v>
+        <v>599</v>
       </c>
       <c r="I107" s="27">
-        <v>1.7579857913197022E-2</v>
+        <v>7.7604780687817645E-3</v>
       </c>
       <c r="J107" s="11">
-        <v>3.9293250041589123E-2</v>
+        <v>1.9754618817742476E-2</v>
       </c>
       <c r="K107" s="19">
-        <v>6.6328782190571478E-2</v>
+        <v>4.7204340446976051E-2</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="6">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D108" s="12">
-        <v>0.24</v>
+        <v>0.19</v>
       </c>
       <c r="E108" s="17">
-        <v>93530</v>
+        <v>13310</v>
       </c>
       <c r="F108" s="9" t="s">
         <v>148</v>
@@ -20654,33 +20657,33 @@
         <v>1</v>
       </c>
       <c r="H108" s="26" t="s">
-        <v>576</v>
+        <v>600</v>
       </c>
       <c r="I108" s="28">
-        <v>6.0627943923927341E-2</v>
+        <v>4.6614915367243159E-2</v>
       </c>
       <c r="J108" s="28">
-        <v>7.2420523406124926E-2</v>
+        <v>8.3596941759933485E-2</v>
       </c>
       <c r="K108" s="28">
-        <v>7.5371095342957273E-2</v>
+        <v>0.1337332441869914</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="6">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D109" s="12">
-        <v>0.24</v>
+        <v>0.19</v>
       </c>
       <c r="E109" s="17">
-        <v>93530</v>
+        <v>13310</v>
       </c>
       <c r="F109" s="9" t="s">
         <v>149</v>
@@ -20689,33 +20692,33 @@
         <v>3</v>
       </c>
       <c r="H109" s="26" t="s">
-        <v>577</v>
+        <v>601</v>
       </c>
       <c r="I109" s="27">
-        <v>4.0461697288407296E-2</v>
+        <v>2.9115624036528717E-2</v>
       </c>
       <c r="J109" s="11">
-        <v>0.13410341552652499</v>
+        <v>5.6725411666508019E-2</v>
       </c>
       <c r="K109" s="19">
-        <v>0.264359717997388</v>
+        <v>0.13488123876248853</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="6">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D110" s="12">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="E110" s="17">
-        <v>13310</v>
+        <v>20470</v>
       </c>
       <c r="F110" s="9" t="s">
         <v>147</v>
@@ -20724,33 +20727,33 @@
         <v>2</v>
       </c>
       <c r="H110" s="26" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="I110" s="27">
-        <v>7.7604780687817645E-3</v>
+        <v>1.0895605332117539E-2</v>
       </c>
       <c r="J110" s="11">
-        <v>1.9754618817742476E-2</v>
+        <v>2.426116080443989E-2</v>
       </c>
       <c r="K110" s="19">
-        <v>4.7204340446976051E-2</v>
+        <v>4.1981113904440009E-2</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="6">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D111" s="12">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="E111" s="17">
-        <v>13310</v>
+        <v>20470</v>
       </c>
       <c r="F111" s="9" t="s">
         <v>148</v>
@@ -20759,33 +20762,33 @@
         <v>1</v>
       </c>
       <c r="H111" s="26" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="I111" s="28">
-        <v>4.6614915367243159E-2</v>
+        <v>0.1336744748195613</v>
       </c>
       <c r="J111" s="28">
-        <v>8.3596941759933485E-2</v>
+        <v>0.16879078695541028</v>
       </c>
       <c r="K111" s="28">
-        <v>0.1337332441869914</v>
+        <v>0.20117113693158495</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="6">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D112" s="12">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="E112" s="17">
-        <v>13310</v>
+        <v>20470</v>
       </c>
       <c r="F112" s="9" t="s">
         <v>149</v>
@@ -20794,33 +20797,33 @@
         <v>3</v>
       </c>
       <c r="H112" s="26" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="I112" s="27">
-        <v>2.9115624036528717E-2</v>
+        <v>4.1137968157593532E-2</v>
       </c>
       <c r="J112" s="11">
-        <v>5.6725411666508019E-2</v>
+        <v>0.22229816593139243</v>
       </c>
       <c r="K112" s="19">
-        <v>0.13488123876248853</v>
+        <v>0.81919954708398379</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="6">
-        <v>304</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="C113" s="7" t="s">
-        <v>111</v>
+        <v>313</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="D113" s="12">
-        <v>0.23</v>
+        <v>0.16</v>
       </c>
       <c r="E113" s="17">
-        <v>20470</v>
+        <v>9510</v>
       </c>
       <c r="F113" s="9" t="s">
         <v>147</v>
@@ -20829,33 +20832,33 @@
         <v>2</v>
       </c>
       <c r="H113" s="26" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="I113" s="27">
-        <v>1.0895605332117539E-2</v>
+        <v>7.6255898968370754E-3</v>
       </c>
       <c r="J113" s="11">
-        <v>2.426116080443989E-2</v>
+        <v>2.1712497701201795E-2</v>
       </c>
       <c r="K113" s="19">
-        <v>4.1981113904440009E-2</v>
+        <v>4.9958490154229228E-2</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="6">
-        <v>305</v>
-      </c>
-      <c r="B114" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="C114" s="7" t="s">
-        <v>111</v>
+        <v>314</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="D114" s="12">
-        <v>0.23</v>
+        <v>0.16</v>
       </c>
       <c r="E114" s="17">
-        <v>20470</v>
+        <v>9510</v>
       </c>
       <c r="F114" s="9" t="s">
         <v>148</v>
@@ -20864,33 +20867,33 @@
         <v>1</v>
       </c>
       <c r="H114" s="26" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="I114" s="28">
-        <v>0.1336744748195613</v>
+        <v>7.4957010761246057E-2</v>
       </c>
       <c r="J114" s="28">
-        <v>0.16879078695541028</v>
+        <v>8.2401098525715422E-2</v>
       </c>
       <c r="K114" s="28">
-        <v>0.20117113693158495</v>
+        <v>8.6598710547646007E-2</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="6">
-        <v>306</v>
-      </c>
-      <c r="B115" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="C115" s="7" t="s">
-        <v>111</v>
+        <v>315</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="D115" s="12">
-        <v>0.23</v>
+        <v>0.16</v>
       </c>
       <c r="E115" s="17">
-        <v>20470</v>
+        <v>9510</v>
       </c>
       <c r="F115" s="9" t="s">
         <v>149</v>
@@ -20899,33 +20902,33 @@
         <v>3</v>
       </c>
       <c r="H115" s="26" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="I115" s="27">
-        <v>4.1137968157593532E-2</v>
+        <v>3.2275212963644238E-2</v>
       </c>
       <c r="J115" s="11">
-        <v>0.22229816593139243</v>
+        <v>5.2128986558690429E-2</v>
       </c>
       <c r="K115" s="19">
-        <v>0.81919954708398379</v>
+        <v>0.25499853120037896</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="6">
-        <v>313</v>
-      </c>
-      <c r="B116" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>114</v>
+        <v>316</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="D116" s="12">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="E116" s="17">
-        <v>9510</v>
+        <v>11720</v>
       </c>
       <c r="F116" s="9" t="s">
         <v>147</v>
@@ -20934,33 +20937,33 @@
         <v>2</v>
       </c>
       <c r="H116" s="26" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="I116" s="27">
-        <v>7.6255898968370754E-3</v>
+        <v>8.3602507718769509E-3</v>
       </c>
       <c r="J116" s="11">
-        <v>2.1712497701201795E-2</v>
+        <v>2.7733489972308428E-2</v>
       </c>
       <c r="K116" s="19">
-        <v>4.9958490154229228E-2</v>
+        <v>6.1532133332759857E-2</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="6">
-        <v>314</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="C117" s="6" t="s">
-        <v>114</v>
+        <v>317</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="D117" s="12">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="E117" s="17">
-        <v>9510</v>
+        <v>11720</v>
       </c>
       <c r="F117" s="9" t="s">
         <v>148</v>
@@ -20969,33 +20972,33 @@
         <v>1</v>
       </c>
       <c r="H117" s="26" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="I117" s="28">
-        <v>7.4957010761246057E-2</v>
+        <v>4.0163982961756495E-2</v>
       </c>
       <c r="J117" s="28">
-        <v>8.2401098525715422E-2</v>
+        <v>8.4021526867657514E-2</v>
       </c>
       <c r="K117" s="28">
-        <v>8.6598710547646007E-2</v>
+        <v>0.15292819348311837</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="6">
-        <v>315</v>
-      </c>
-      <c r="B118" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="C118" s="6" t="s">
-        <v>114</v>
+        <v>318</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="D118" s="12">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="E118" s="17">
-        <v>9510</v>
+        <v>11720</v>
       </c>
       <c r="F118" s="9" t="s">
         <v>149</v>
@@ -21004,33 +21007,33 @@
         <v>3</v>
       </c>
       <c r="H118" s="26" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="I118" s="27">
-        <v>3.2275212963644238E-2</v>
+        <v>2.2622263228254644E-2</v>
       </c>
       <c r="J118" s="11">
-        <v>5.2128986558690429E-2</v>
+        <v>8.0639512436284227E-2</v>
       </c>
       <c r="K118" s="19">
-        <v>0.25499853120037896</v>
+        <v>0.18977227756183437</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="6">
-        <v>316</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="C119" s="7" t="s">
-        <v>115</v>
+        <v>331</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="D119" s="12">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="E119" s="17">
-        <v>11720</v>
+        <v>52090</v>
       </c>
       <c r="F119" s="9" t="s">
         <v>147</v>
@@ -21039,33 +21042,33 @@
         <v>2</v>
       </c>
       <c r="H119" s="26" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="I119" s="27">
-        <v>8.3602507718769509E-3</v>
+        <v>1.1727067448600345E-2</v>
       </c>
       <c r="J119" s="11">
-        <v>2.7733489972308428E-2</v>
+        <v>3.483312207244707E-2</v>
       </c>
       <c r="K119" s="19">
-        <v>6.1532133332759857E-2</v>
+        <v>8.115876172714967E-2</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="6">
-        <v>317</v>
-      </c>
-      <c r="B120" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="C120" s="7" t="s">
-        <v>115</v>
+        <v>332</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="D120" s="12">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="E120" s="17">
-        <v>11720</v>
+        <v>52090</v>
       </c>
       <c r="F120" s="9" t="s">
         <v>148</v>
@@ -21074,33 +21077,33 @@
         <v>1</v>
       </c>
       <c r="H120" s="26" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="I120" s="28">
-        <v>4.0163982961756495E-2</v>
+        <v>3.2350048385676455E-2</v>
       </c>
       <c r="J120" s="28">
-        <v>8.4021526867657514E-2</v>
+        <v>7.0731183125834818E-2</v>
       </c>
       <c r="K120" s="28">
-        <v>0.15292819348311837</v>
+        <v>0.13489128794513316</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="6">
-        <v>318</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>115</v>
+        <v>333</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="D121" s="12">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="E121" s="17">
-        <v>11720</v>
+        <v>52090</v>
       </c>
       <c r="F121" s="9" t="s">
         <v>149</v>
@@ -21109,33 +21112,33 @@
         <v>3</v>
       </c>
       <c r="H121" s="26" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="I121" s="27">
-        <v>2.2622263228254644E-2</v>
+        <v>9.1747016766527328E-2</v>
       </c>
       <c r="J121" s="11">
-        <v>8.0639512436284227E-2</v>
+        <v>0.16383291533339087</v>
       </c>
       <c r="K121" s="19">
-        <v>0.18977227756183437</v>
+        <v>0.30332802265887754</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="6">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D122" s="12">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="E122" s="17">
-        <v>52090</v>
+        <v>17570</v>
       </c>
       <c r="F122" s="9" t="s">
         <v>147</v>
@@ -21144,33 +21147,33 @@
         <v>2</v>
       </c>
       <c r="H122" s="26" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="I122" s="27">
-        <v>1.1727067448600345E-2</v>
+        <v>9.8564864606013776E-3</v>
       </c>
       <c r="J122" s="11">
-        <v>3.483312207244707E-2</v>
+        <v>1.3797553481897691E-2</v>
       </c>
       <c r="K122" s="19">
-        <v>8.115876172714967E-2</v>
+        <v>1.6719669102632118E-2</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="6">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D123" s="12">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="E123" s="17">
-        <v>52090</v>
+        <v>17570</v>
       </c>
       <c r="F123" s="9" t="s">
         <v>148</v>
@@ -21179,33 +21182,33 @@
         <v>1</v>
       </c>
       <c r="H123" s="26" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="I123" s="28">
-        <v>3.2350048385676455E-2</v>
+        <v>3.5779246382678487E-2</v>
       </c>
       <c r="J123" s="28">
-        <v>7.0731183125834818E-2</v>
+        <v>7.0742200172899117E-2</v>
       </c>
       <c r="K123" s="28">
-        <v>0.13489128794513316</v>
+        <v>0.12729879640849695</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="6">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D124" s="12">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="E124" s="17">
-        <v>52090</v>
+        <v>17570</v>
       </c>
       <c r="F124" s="9" t="s">
         <v>149</v>
@@ -21214,33 +21217,33 @@
         <v>3</v>
       </c>
       <c r="H124" s="26" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
       <c r="I124" s="27">
-        <v>9.1747016766527328E-2</v>
+        <v>2.0256902195109172E-2</v>
       </c>
       <c r="J124" s="11">
-        <v>0.16383291533339087</v>
+        <v>2.4140979781198176E-2</v>
       </c>
       <c r="K124" s="19">
-        <v>0.30332802265887754</v>
+        <v>6.3827896454079755E-2</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="6">
-        <v>334</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C125" s="6" t="s">
-        <v>121</v>
+        <v>337</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>122</v>
       </c>
       <c r="D125" s="12">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
       <c r="E125" s="17">
-        <v>17570</v>
+        <v>22250</v>
       </c>
       <c r="F125" s="9" t="s">
         <v>147</v>
@@ -21249,33 +21252,33 @@
         <v>2</v>
       </c>
       <c r="H125" s="26" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="I125" s="27">
-        <v>9.8564864606013776E-3</v>
+        <v>1.4716182100107621E-2</v>
       </c>
       <c r="J125" s="11">
-        <v>1.3797553481897691E-2</v>
+        <v>2.4473868207046459E-2</v>
       </c>
       <c r="K125" s="19">
-        <v>1.6719669102632118E-2</v>
+        <v>4.0090411555517125E-2</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="6">
-        <v>335</v>
-      </c>
-      <c r="B126" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C126" s="6" t="s">
-        <v>121</v>
+        <v>338</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>122</v>
       </c>
       <c r="D126" s="12">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
       <c r="E126" s="17">
-        <v>17570</v>
+        <v>22250</v>
       </c>
       <c r="F126" s="9" t="s">
         <v>148</v>
@@ -21284,33 +21287,33 @@
         <v>1</v>
       </c>
       <c r="H126" s="26" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="I126" s="28">
-        <v>3.5779246382678487E-2</v>
+        <v>2.3246231693062169E-2</v>
       </c>
       <c r="J126" s="28">
-        <v>7.0742200172899117E-2</v>
+        <v>3.2746985632303161E-2</v>
       </c>
       <c r="K126" s="28">
-        <v>0.12729879640849695</v>
+        <v>6.5918201907807839E-2</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="6">
-        <v>336</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C127" s="6" t="s">
-        <v>121</v>
+        <v>339</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>122</v>
       </c>
       <c r="D127" s="12">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
       <c r="E127" s="17">
-        <v>17570</v>
+        <v>22250</v>
       </c>
       <c r="F127" s="9" t="s">
         <v>149</v>
@@ -21319,33 +21322,33 @@
         <v>3</v>
       </c>
       <c r="H127" s="26" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="I127" s="27">
-        <v>2.0256902195109172E-2</v>
+        <v>4.4444742570705686E-2</v>
       </c>
       <c r="J127" s="11">
-        <v>2.4140979781198176E-2</v>
+        <v>8.7074845798312248E-2</v>
       </c>
       <c r="K127" s="19">
-        <v>6.3827896454079755E-2</v>
+        <v>0.25049277750183718</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="6">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D128" s="12">
-        <v>0.19</v>
+        <v>0.25</v>
       </c>
       <c r="E128" s="17">
-        <v>22250</v>
+        <v>28380</v>
       </c>
       <c r="F128" s="9" t="s">
         <v>147</v>
@@ -21354,33 +21357,33 @@
         <v>2</v>
       </c>
       <c r="H128" s="26" t="s">
-        <v>641</v>
+        <v>425</v>
       </c>
       <c r="I128" s="27">
-        <v>1.4716182100107621E-2</v>
+        <v>9.6986555799139541E-3</v>
       </c>
       <c r="J128" s="11">
-        <v>2.4473868207046459E-2</v>
+        <v>2.2125260559673999E-2</v>
       </c>
       <c r="K128" s="19">
-        <v>4.0090411555517125E-2</v>
+        <v>4.6811394804356352E-2</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="6">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D129" s="12">
-        <v>0.19</v>
+        <v>0.25</v>
       </c>
       <c r="E129" s="17">
-        <v>22250</v>
+        <v>28380</v>
       </c>
       <c r="F129" s="9" t="s">
         <v>148</v>
@@ -21389,33 +21392,33 @@
         <v>1</v>
       </c>
       <c r="H129" s="26" t="s">
-        <v>642</v>
+        <v>426</v>
       </c>
       <c r="I129" s="28">
-        <v>2.3246231693062169E-2</v>
+        <v>2.4992866002165215E-2</v>
       </c>
       <c r="J129" s="28">
-        <v>3.2746985632303161E-2</v>
+        <v>5.9024951865754627E-2</v>
       </c>
       <c r="K129" s="28">
-        <v>6.5918201907807839E-2</v>
+        <v>0.11467352592502933</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="6">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D130" s="12">
-        <v>0.19</v>
+        <v>0.25</v>
       </c>
       <c r="E130" s="17">
-        <v>22250</v>
+        <v>28380</v>
       </c>
       <c r="F130" s="9" t="s">
         <v>149</v>
@@ -21424,33 +21427,33 @@
         <v>3</v>
       </c>
       <c r="H130" s="26" t="s">
-        <v>643</v>
+        <v>427</v>
       </c>
       <c r="I130" s="27">
-        <v>4.4444742570705686E-2</v>
+        <v>2.5974985705945898E-2</v>
       </c>
       <c r="J130" s="11">
-        <v>8.7074845798312248E-2</v>
+        <v>6.4361826805022532E-2</v>
       </c>
       <c r="K130" s="19">
-        <v>0.25049277750183718</v>
+        <v>0.18138745410059312</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="6">
-        <v>346</v>
-      </c>
-      <c r="B131" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="C131" s="7" t="s">
-        <v>125</v>
+        <v>352</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="D131" s="12">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="E131" s="17">
-        <v>28380</v>
+        <v>57900</v>
       </c>
       <c r="F131" s="9" t="s">
         <v>147</v>
@@ -21459,33 +21462,33 @@
         <v>2</v>
       </c>
       <c r="H131" s="26" t="s">
-        <v>425</v>
+        <v>644</v>
       </c>
       <c r="I131" s="27">
-        <v>9.6986555799139541E-3</v>
+        <v>1.6094654514757337E-2</v>
       </c>
       <c r="J131" s="11">
-        <v>2.2125260559673999E-2</v>
+        <v>4.163822853682201E-2</v>
       </c>
       <c r="K131" s="19">
-        <v>4.6811394804356352E-2</v>
+        <v>7.3373678281955235E-2</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="6">
-        <v>347</v>
-      </c>
-      <c r="B132" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="C132" s="7" t="s">
-        <v>125</v>
+        <v>353</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="D132" s="12">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="E132" s="17">
-        <v>28380</v>
+        <v>57900</v>
       </c>
       <c r="F132" s="9" t="s">
         <v>148</v>
@@ -21494,33 +21497,33 @@
         <v>1</v>
       </c>
       <c r="H132" s="26" t="s">
-        <v>426</v>
+        <v>645</v>
       </c>
       <c r="I132" s="28">
-        <v>2.4992866002165215E-2</v>
+        <v>3.0803638367844832E-2</v>
       </c>
       <c r="J132" s="28">
-        <v>5.9024951865754627E-2</v>
+        <v>8.998368619495889E-2</v>
       </c>
       <c r="K132" s="28">
-        <v>0.11467352592502933</v>
+        <v>0.16070800722182932</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="6">
-        <v>348</v>
-      </c>
-      <c r="B133" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="C133" s="7" t="s">
-        <v>125</v>
+        <v>354</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="D133" s="12">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="E133" s="17">
-        <v>28380</v>
+        <v>57900</v>
       </c>
       <c r="F133" s="9" t="s">
         <v>149</v>
@@ -21529,33 +21532,33 @@
         <v>3</v>
       </c>
       <c r="H133" s="26" t="s">
-        <v>427</v>
+        <v>646</v>
       </c>
       <c r="I133" s="27">
-        <v>2.5974985705945898E-2</v>
+        <v>3.1117895881038748E-2</v>
       </c>
       <c r="J133" s="11">
-        <v>6.4361826805022532E-2</v>
+        <v>6.4989531185774552E-2</v>
       </c>
       <c r="K133" s="19">
-        <v>0.18138745410059312</v>
+        <v>0.10432027345285175</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="6">
-        <v>352</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D134" s="12">
-        <v>0.22</v>
+        <v>355</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="14">
+        <v>0.1792</v>
       </c>
       <c r="E134" s="17">
-        <v>57900</v>
+        <v>84550</v>
       </c>
       <c r="F134" s="9" t="s">
         <v>147</v>
@@ -21564,33 +21567,33 @@
         <v>2</v>
       </c>
       <c r="H134" s="26" t="s">
-        <v>644</v>
+        <v>377</v>
       </c>
       <c r="I134" s="27">
-        <v>1.6094654514757337E-2</v>
+        <v>2.8215627931650909E-2</v>
       </c>
       <c r="J134" s="11">
-        <v>4.163822853682201E-2</v>
+        <v>4.0586950784440218E-2</v>
       </c>
       <c r="K134" s="19">
-        <v>7.3373678281955235E-2</v>
+        <v>6.4735237374416874E-2</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="6">
-        <v>353</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="C135" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D135" s="12">
-        <v>0.22</v>
+        <v>356</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="14">
+        <v>0.1792</v>
       </c>
       <c r="E135" s="17">
-        <v>57900</v>
+        <v>84550</v>
       </c>
       <c r="F135" s="9" t="s">
         <v>148</v>
@@ -21599,33 +21602,33 @@
         <v>1</v>
       </c>
       <c r="H135" s="26" t="s">
-        <v>645</v>
+        <v>378</v>
       </c>
       <c r="I135" s="28">
-        <v>3.0803638367844832E-2</v>
+        <v>3.7729062707229311E-2</v>
       </c>
       <c r="J135" s="28">
-        <v>8.998368619495889E-2</v>
+        <v>9.5192620020050356E-2</v>
       </c>
       <c r="K135" s="28">
-        <v>0.16070800722182932</v>
+        <v>0.17351579692395858</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="6">
-        <v>354</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="C136" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D136" s="12">
-        <v>0.22</v>
+        <v>357</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="14">
+        <v>0.1792</v>
       </c>
       <c r="E136" s="17">
-        <v>57900</v>
+        <v>84550</v>
       </c>
       <c r="F136" s="9" t="s">
         <v>149</v>
@@ -21634,33 +21637,33 @@
         <v>3</v>
       </c>
       <c r="H136" s="26" t="s">
-        <v>646</v>
+        <v>379</v>
       </c>
       <c r="I136" s="27">
-        <v>3.1117895881038748E-2</v>
+        <v>2.0318736293066866E-2</v>
       </c>
       <c r="J136" s="11">
-        <v>6.4989531185774552E-2</v>
+        <v>0.11894055818012803</v>
       </c>
       <c r="K136" s="19">
-        <v>0.10432027345285175</v>
+        <v>0.16287614247107784</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="6">
-        <v>355</v>
+        <v>382</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D137" s="14">
-        <v>0.1792</v>
+        <v>142</v>
+      </c>
+      <c r="D137" s="12">
+        <v>0.19</v>
       </c>
       <c r="E137" s="17">
-        <v>84550</v>
+        <v>43700</v>
       </c>
       <c r="F137" s="9" t="s">
         <v>147</v>
@@ -21669,33 +21672,33 @@
         <v>2</v>
       </c>
       <c r="H137" s="26" t="s">
-        <v>377</v>
+        <v>440</v>
       </c>
       <c r="I137" s="27">
-        <v>2.8215627931650909E-2</v>
+        <v>2.3544644224178686E-2</v>
       </c>
       <c r="J137" s="11">
-        <v>4.0586950784440218E-2</v>
+        <v>4.4291338582677232E-2</v>
       </c>
       <c r="K137" s="19">
-        <v>6.4735237374416874E-2</v>
+        <v>7.5931654049799874E-2</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="6">
-        <v>356</v>
+        <v>383</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" s="14">
-        <v>0.1792</v>
+        <v>142</v>
+      </c>
+      <c r="D138" s="12">
+        <v>0.19</v>
       </c>
       <c r="E138" s="17">
-        <v>84550</v>
+        <v>43700</v>
       </c>
       <c r="F138" s="9" t="s">
         <v>148</v>
@@ -21704,33 +21707,33 @@
         <v>1</v>
       </c>
       <c r="H138" s="26" t="s">
-        <v>378</v>
+        <v>441</v>
       </c>
       <c r="I138" s="28">
-        <v>3.7729062707229311E-2</v>
+        <v>4.0664862298710136E-2</v>
       </c>
       <c r="J138" s="28">
-        <v>9.5192620020050356E-2</v>
+        <v>8.7839005851146235E-2</v>
       </c>
       <c r="K138" s="28">
-        <v>0.17351579692395858</v>
+        <v>0.1400514568748934</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="6">
-        <v>357</v>
+        <v>384</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D139" s="14">
-        <v>0.1792</v>
+        <v>142</v>
+      </c>
+      <c r="D139" s="12">
+        <v>0.19</v>
       </c>
       <c r="E139" s="17">
-        <v>84550</v>
+        <v>43700</v>
       </c>
       <c r="F139" s="9" t="s">
         <v>149</v>
@@ -21739,33 +21742,33 @@
         <v>3</v>
       </c>
       <c r="H139" s="26" t="s">
-        <v>379</v>
+        <v>442</v>
       </c>
       <c r="I139" s="27">
-        <v>2.0318736293066866E-2</v>
+        <v>3.8109917148159651E-2</v>
       </c>
       <c r="J139" s="11">
-        <v>0.11894055818012803</v>
+        <v>0.10299003322259127</v>
       </c>
       <c r="K139" s="19">
-        <v>0.16287614247107784</v>
+        <v>0.22869977183155038</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="6">
-        <v>382</v>
-      </c>
-      <c r="B140" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="C140" s="7" t="s">
-        <v>142</v>
+        <v>385</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="D140" s="12">
-        <v>0.19</v>
+        <v>0.35</v>
       </c>
       <c r="E140" s="17">
-        <v>43700</v>
+        <v>55980</v>
       </c>
       <c r="F140" s="9" t="s">
         <v>147</v>
@@ -21774,33 +21777,33 @@
         <v>2</v>
       </c>
       <c r="H140" s="26" t="s">
-        <v>440</v>
+        <v>674</v>
       </c>
       <c r="I140" s="27">
-        <v>2.3544644224178686E-2</v>
+        <v>2.9689133022581443E-2</v>
       </c>
       <c r="J140" s="11">
-        <v>4.4291338582677232E-2</v>
+        <v>6.3566874544274177E-2</v>
       </c>
       <c r="K140" s="19">
-        <v>7.5931654049799874E-2</v>
+        <v>0.10032396265513968</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="6">
-        <v>383</v>
-      </c>
-      <c r="B141" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="C141" s="7" t="s">
-        <v>142</v>
+        <v>386</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="D141" s="12">
-        <v>0.19</v>
+        <v>0.35</v>
       </c>
       <c r="E141" s="17">
-        <v>43700</v>
+        <v>55980</v>
       </c>
       <c r="F141" s="9" t="s">
         <v>148</v>
@@ -21809,33 +21812,33 @@
         <v>1</v>
       </c>
       <c r="H141" s="26" t="s">
-        <v>441</v>
+        <v>675</v>
       </c>
       <c r="I141" s="28">
-        <v>4.0664862298710136E-2</v>
+        <v>5.2920834877114853E-2</v>
       </c>
       <c r="J141" s="28">
-        <v>8.7839005851146235E-2</v>
+        <v>8.7938720721164487E-2</v>
       </c>
       <c r="K141" s="28">
-        <v>0.1400514568748934</v>
+        <v>0.1619365609348915</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="6">
-        <v>384</v>
-      </c>
-      <c r="B142" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="C142" s="7" t="s">
-        <v>142</v>
+        <v>387</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="D142" s="12">
-        <v>0.19</v>
+        <v>0.35</v>
       </c>
       <c r="E142" s="17">
-        <v>43700</v>
+        <v>55980</v>
       </c>
       <c r="F142" s="9" t="s">
         <v>149</v>
@@ -21844,120 +21847,15 @@
         <v>3</v>
       </c>
       <c r="H142" s="26" t="s">
-        <v>442</v>
+        <v>676</v>
       </c>
       <c r="I142" s="27">
-        <v>3.8109917148159651E-2</v>
+        <v>5.8973750253846047E-2</v>
       </c>
       <c r="J142" s="11">
-        <v>0.10299003322259127</v>
+        <v>0.12485099004536095</v>
       </c>
       <c r="K142" s="19">
-        <v>0.22869977183155038</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A143" s="6">
-        <v>385</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="C143" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D143" s="12">
-        <v>0.35</v>
-      </c>
-      <c r="E143" s="17">
-        <v>55980</v>
-      </c>
-      <c r="F143" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G143" s="20">
-        <v>2</v>
-      </c>
-      <c r="H143" s="26" t="s">
-        <v>674</v>
-      </c>
-      <c r="I143" s="27">
-        <v>2.9689133022581443E-2</v>
-      </c>
-      <c r="J143" s="11">
-        <v>6.3566874544274177E-2</v>
-      </c>
-      <c r="K143" s="19">
-        <v>0.10032396265513968</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A144" s="6">
-        <v>386</v>
-      </c>
-      <c r="B144" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="C144" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D144" s="12">
-        <v>0.35</v>
-      </c>
-      <c r="E144" s="17">
-        <v>55980</v>
-      </c>
-      <c r="F144" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G144" s="20">
-        <v>1</v>
-      </c>
-      <c r="H144" s="26" t="s">
-        <v>675</v>
-      </c>
-      <c r="I144" s="28">
-        <v>5.2920834877114853E-2</v>
-      </c>
-      <c r="J144" s="28">
-        <v>8.7938720721164487E-2</v>
-      </c>
-      <c r="K144" s="28">
-        <v>0.1619365609348915</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A145" s="6">
-        <v>387</v>
-      </c>
-      <c r="B145" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="C145" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D145" s="12">
-        <v>0.35</v>
-      </c>
-      <c r="E145" s="17">
-        <v>55980</v>
-      </c>
-      <c r="F145" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G145" s="20">
-        <v>3</v>
-      </c>
-      <c r="H145" s="26" t="s">
-        <v>676</v>
-      </c>
-      <c r="I145" s="27">
-        <v>5.8973750253846047E-2</v>
-      </c>
-      <c r="J145" s="11">
-        <v>0.12485099004536095</v>
-      </c>
-      <c r="K145" s="19">
         <v>0.27993789181025908</v>
       </c>
     </row>
@@ -21971,19 +21869,18 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:S54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="15" style="10" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.42578125" style="25" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14" style="10" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -21997,19 +21894,19 @@
       <c r="M1" s="29" t="s">
         <v>695</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="29" t="s">
         <v>694</v>
       </c>
-      <c r="O1" s="31" t="s">
+      <c r="O1" s="32" t="s">
         <v>696</v>
       </c>
-      <c r="Q1" s="33" t="s">
+      <c r="Q1" s="34" t="s">
         <v>698</v>
       </c>
-      <c r="R1" s="33" t="s">
+      <c r="R1" s="41" t="s">
         <v>699</v>
       </c>
-      <c r="S1" s="33" t="s">
+      <c r="S1" s="34" t="s">
         <v>700</v>
       </c>
     </row>
@@ -22047,25 +21944,25 @@
       <c r="K2" s="19">
         <v>0.12970791343789456</v>
       </c>
-      <c r="L2" s="39">
+      <c r="L2" s="40">
         <v>269.2824</v>
       </c>
-      <c r="M2" s="30">
+      <c r="M2" s="31">
         <v>7986031</v>
       </c>
       <c r="N2" s="30">
         <f>L2*E2</f>
         <v>6950178.7439999999</v>
       </c>
-      <c r="O2" s="32">
+      <c r="O2" s="33">
         <f>(M2-N2)/M2</f>
         <v>0.12970801841365254</v>
       </c>
-      <c r="Q2" s="34">
+      <c r="Q2" s="35">
         <f>M2-N2</f>
         <v>1035852.2560000001</v>
       </c>
-      <c r="R2" s="4">
+      <c r="R2" s="10">
         <f>Q2*D2</f>
         <v>129481.53200000001</v>
       </c>
@@ -22108,25 +22005,25 @@
       <c r="K3" s="19">
         <v>0.57497864409412369</v>
       </c>
-      <c r="L3" s="39">
+      <c r="L3" s="40">
         <v>57.561860000000003</v>
       </c>
-      <c r="M3" s="30">
+      <c r="M3" s="31">
         <v>5464000</v>
       </c>
       <c r="N3" s="30">
         <f t="shared" ref="N3:N5" si="0">L3*E3</f>
         <v>3469253.3022000003</v>
       </c>
-      <c r="O3" s="32">
+      <c r="O3" s="33">
         <f>(M3-N3)/N3</f>
         <v>0.57497868389576701</v>
       </c>
-      <c r="Q3" s="34">
+      <c r="Q3" s="35">
         <f t="shared" ref="Q3:Q5" si="1">M3-N3</f>
         <v>1994746.6977999997</v>
       </c>
-      <c r="R3" s="4">
+      <c r="R3" s="10">
         <f t="shared" ref="R3:R5" si="2">Q3*D3</f>
         <v>438844.27351599996</v>
       </c>
@@ -22169,25 +22066,25 @@
       <c r="K4" s="19">
         <v>0.46361202011944858</v>
       </c>
-      <c r="L4" s="39">
+      <c r="L4" s="40">
         <v>2295.3009999999999</v>
       </c>
-      <c r="M4" s="30">
+      <c r="M4" s="31">
         <v>64144930</v>
       </c>
       <c r="N4" s="30">
         <f t="shared" si="0"/>
         <v>34406561.990000002</v>
       </c>
-      <c r="O4" s="32">
+      <c r="O4" s="33">
         <f>(M4-N4)/M4</f>
         <v>0.46361213598642947</v>
       </c>
-      <c r="Q4" s="34">
+      <c r="Q4" s="35">
         <f t="shared" si="1"/>
         <v>29738368.009999998</v>
       </c>
-      <c r="R4" s="4">
+      <c r="R4" s="10">
         <f t="shared" si="2"/>
         <v>4460755.2014999995</v>
       </c>
@@ -22230,25 +22127,25 @@
       <c r="K5" s="19">
         <v>0.81919954708398379</v>
       </c>
-      <c r="L5" s="39">
+      <c r="L5" s="40">
         <v>99.854389999999995</v>
       </c>
-      <c r="M5" s="30">
+      <c r="M5" s="31">
         <v>11305390</v>
       </c>
       <c r="N5" s="30">
         <f t="shared" si="0"/>
         <v>2044019.3632999999</v>
       </c>
-      <c r="O5" s="32">
+      <c r="O5" s="33">
         <f>(M5-N5)/M5</f>
         <v>0.81919957088609952</v>
       </c>
-      <c r="Q5" s="34">
+      <c r="Q5" s="35">
         <f t="shared" si="1"/>
         <v>9261370.6367000006</v>
       </c>
-      <c r="R5" s="4">
+      <c r="R5" s="10">
         <f t="shared" si="2"/>
         <v>2130115.2464410001</v>
       </c>
@@ -22258,36 +22155,44 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="P6" s="33" t="s">
+      <c r="M6" s="35">
+        <f>SUM(M2:M5)</f>
+        <v>88900351</v>
+      </c>
+      <c r="N6" s="10">
+        <f>SUM(N2:N5)</f>
+        <v>46870013.399500005</v>
+      </c>
+      <c r="P6" s="34" t="s">
         <v>701</v>
       </c>
-      <c r="Q6" s="35">
+      <c r="Q6" s="36">
         <f>SUM(Q2:Q5)</f>
         <v>42030337.600500003</v>
       </c>
-      <c r="R6" s="35">
+      <c r="R6" s="42">
         <f>SUM(R2:R5)</f>
         <v>7159196.2534569995</v>
       </c>
-      <c r="S6" s="35">
+      <c r="S6" s="36">
         <f>SUM(S2:S5)</f>
         <v>34871141.347043</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="P9" s="36" t="s">
+      <c r="P9" s="37" t="s">
         <v>702</v>
       </c>
-      <c r="Q9" s="37">
+      <c r="Q9" s="38">
         <f>R6/Q6</f>
         <v>0.17033401733541709</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="P10" s="36" t="s">
+      <c r="P10" s="37" t="s">
         <v>703</v>
       </c>
-      <c r="Q10" s="38">
+      <c r="Q10" s="39">
         <f>S6</f>
         <v>34871141.347043</v>
       </c>
